--- a/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1153200</v>
+        <v>1021400</v>
       </c>
       <c r="E8" s="3">
-        <v>972400</v>
+        <v>861200</v>
       </c>
       <c r="F8" s="3">
-        <v>986300</v>
+        <v>873600</v>
       </c>
       <c r="G8" s="3">
-        <v>213500</v>
+        <v>189100</v>
       </c>
       <c r="H8" s="3">
-        <v>56300</v>
+        <v>49800</v>
       </c>
       <c r="I8" s="3">
-        <v>47000</v>
+        <v>41700</v>
       </c>
       <c r="J8" s="3">
-        <v>36200</v>
+        <v>32000</v>
       </c>
       <c r="K8" s="3">
         <v>41100</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>694300</v>
+        <v>614900</v>
       </c>
       <c r="E9" s="3">
-        <v>572700</v>
+        <v>507200</v>
       </c>
       <c r="F9" s="3">
-        <v>1373700</v>
+        <v>1216600</v>
       </c>
       <c r="G9" s="3">
-        <v>735400</v>
+        <v>651300</v>
       </c>
       <c r="H9" s="3">
-        <v>22500</v>
+        <v>19900</v>
       </c>
       <c r="I9" s="3">
-        <v>22400</v>
+        <v>19800</v>
       </c>
       <c r="J9" s="3">
-        <v>36000</v>
+        <v>31800</v>
       </c>
       <c r="K9" s="3">
         <v>39400</v>
@@ -774,22 +774,22 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>459000</v>
+        <v>406500</v>
       </c>
       <c r="E10" s="3">
-        <v>399700</v>
+        <v>354000</v>
       </c>
       <c r="F10" s="3">
-        <v>-387300</v>
+        <v>-343000</v>
       </c>
       <c r="G10" s="3">
-        <v>-521900</v>
+        <v>-462200</v>
       </c>
       <c r="H10" s="3">
-        <v>33800</v>
+        <v>29900</v>
       </c>
       <c r="I10" s="3">
-        <v>24600</v>
+        <v>21800</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -878,13 +878,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-2300</v>
+        <v>-2100</v>
       </c>
       <c r="E14" s="3">
-        <v>-11200</v>
+        <v>-10000</v>
       </c>
       <c r="F14" s="3">
-        <v>6900</v>
+        <v>6100</v>
       </c>
       <c r="G14" s="3">
         <v>-300</v>
@@ -896,7 +896,7 @@
         <v>300</v>
       </c>
       <c r="J14" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="K14" s="3">
         <v>200</v>
@@ -908,16 +908,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>47500</v>
+        <v>42000</v>
       </c>
       <c r="E15" s="3">
-        <v>44500</v>
+        <v>39400</v>
       </c>
       <c r="F15" s="3">
-        <v>57900</v>
+        <v>51200</v>
       </c>
       <c r="G15" s="3">
-        <v>13100</v>
+        <v>11600</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1360700</v>
+        <v>1205200</v>
       </c>
       <c r="E17" s="3">
-        <v>528500</v>
+        <v>468100</v>
       </c>
       <c r="F17" s="3">
-        <v>936700</v>
+        <v>829600</v>
       </c>
       <c r="G17" s="3">
-        <v>-116400</v>
+        <v>-103100</v>
       </c>
       <c r="H17" s="3">
-        <v>-34000</v>
+        <v>-30100</v>
       </c>
       <c r="I17" s="3">
-        <v>26600</v>
+        <v>23500</v>
       </c>
       <c r="J17" s="3">
-        <v>15800</v>
+        <v>14000</v>
       </c>
       <c r="K17" s="3">
         <v>23700</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-207500</v>
+        <v>-183800</v>
       </c>
       <c r="E18" s="3">
-        <v>443800</v>
+        <v>393100</v>
       </c>
       <c r="F18" s="3">
-        <v>49600</v>
+        <v>44000</v>
       </c>
       <c r="G18" s="3">
-        <v>329900</v>
+        <v>292100</v>
       </c>
       <c r="H18" s="3">
-        <v>90200</v>
+        <v>79900</v>
       </c>
       <c r="I18" s="3">
-        <v>20500</v>
+        <v>18100</v>
       </c>
       <c r="J18" s="3">
-        <v>20300</v>
+        <v>18000</v>
       </c>
       <c r="K18" s="3">
         <v>17400</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-18500</v>
+        <v>-16400</v>
       </c>
       <c r="E20" s="3">
-        <v>-276800</v>
+        <v>-245200</v>
       </c>
       <c r="F20" s="3">
-        <v>97300</v>
+        <v>86200</v>
       </c>
       <c r="G20" s="3">
-        <v>-43300</v>
+        <v>-38400</v>
       </c>
       <c r="H20" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="I20" s="3">
-        <v>-27500</v>
+        <v>-24300</v>
       </c>
       <c r="J20" s="3">
-        <v>-5400</v>
+        <v>-4800</v>
       </c>
       <c r="K20" s="3">
         <v>-3100</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-101200</v>
+        <v>-89700</v>
       </c>
       <c r="E21" s="3">
-        <v>279000</v>
+        <v>247100</v>
       </c>
       <c r="F21" s="3">
-        <v>202900</v>
+        <v>179600</v>
       </c>
       <c r="G21" s="3">
-        <v>311900</v>
+        <v>276200</v>
       </c>
       <c r="H21" s="3">
-        <v>92200</v>
+        <v>81700</v>
       </c>
       <c r="I21" s="3">
-        <v>-3300</v>
+        <v>-2900</v>
       </c>
       <c r="J21" s="3">
-        <v>18600</v>
+        <v>16500</v>
       </c>
       <c r="K21" s="3">
         <v>17600</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>253600</v>
+        <v>224600</v>
       </c>
       <c r="E22" s="3">
-        <v>223600</v>
+        <v>198000</v>
       </c>
       <c r="F22" s="3">
-        <v>217900</v>
+        <v>193000</v>
       </c>
       <c r="G22" s="3">
-        <v>38500</v>
+        <v>34100</v>
       </c>
       <c r="H22" s="3">
-        <v>20800</v>
+        <v>18400</v>
       </c>
       <c r="I22" s="3">
-        <v>7800</v>
+        <v>6900</v>
       </c>
       <c r="J22" s="3">
-        <v>5300</v>
+        <v>4700</v>
       </c>
       <c r="K22" s="3">
         <v>6400</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-479700</v>
+        <v>-424800</v>
       </c>
       <c r="E23" s="3">
-        <v>-56500</v>
+        <v>-50100</v>
       </c>
       <c r="F23" s="3">
-        <v>-71000</v>
+        <v>-62900</v>
       </c>
       <c r="G23" s="3">
-        <v>248000</v>
+        <v>219700</v>
       </c>
       <c r="H23" s="3">
-        <v>70900</v>
+        <v>62800</v>
       </c>
       <c r="I23" s="3">
-        <v>-14800</v>
+        <v>-13100</v>
       </c>
       <c r="J23" s="3">
-        <v>9600</v>
+        <v>8500</v>
       </c>
       <c r="K23" s="3">
         <v>7800</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-27900</v>
+        <v>-24700</v>
       </c>
       <c r="E24" s="3">
-        <v>-103800</v>
+        <v>-91900</v>
       </c>
       <c r="F24" s="3">
-        <v>24600</v>
+        <v>21800</v>
       </c>
       <c r="G24" s="3">
-        <v>104600</v>
+        <v>92600</v>
       </c>
       <c r="H24" s="3">
-        <v>26100</v>
+        <v>23100</v>
       </c>
       <c r="I24" s="3">
-        <v>-1100</v>
+        <v>-900</v>
       </c>
       <c r="J24" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="K24" s="3">
         <v>2700</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-451700</v>
+        <v>-400100</v>
       </c>
       <c r="E26" s="3">
-        <v>47300</v>
+        <v>41900</v>
       </c>
       <c r="F26" s="3">
-        <v>-95700</v>
+        <v>-84700</v>
       </c>
       <c r="G26" s="3">
-        <v>143500</v>
+        <v>127100</v>
       </c>
       <c r="H26" s="3">
-        <v>44800</v>
+        <v>39700</v>
       </c>
       <c r="I26" s="3">
-        <v>-13700</v>
+        <v>-12200</v>
       </c>
       <c r="J26" s="3">
-        <v>7400</v>
+        <v>6600</v>
       </c>
       <c r="K26" s="3">
         <v>5200</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-431400</v>
+        <v>-382000</v>
       </c>
       <c r="E27" s="3">
-        <v>-93400</v>
+        <v>-82700</v>
       </c>
       <c r="F27" s="3">
-        <v>-164600</v>
+        <v>-145700</v>
       </c>
       <c r="G27" s="3">
-        <v>134800</v>
+        <v>119400</v>
       </c>
       <c r="H27" s="3">
-        <v>40600</v>
+        <v>36000</v>
       </c>
       <c r="I27" s="3">
-        <v>-13700</v>
+        <v>-12200</v>
       </c>
       <c r="J27" s="3">
-        <v>6500</v>
+        <v>5700</v>
       </c>
       <c r="K27" s="3">
         <v>1100</v>
@@ -1293,16 +1293,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>7900</v>
+        <v>7000</v>
       </c>
       <c r="E29" s="3">
-        <v>336800</v>
+        <v>298300</v>
       </c>
       <c r="F29" s="3">
-        <v>146000</v>
+        <v>129300</v>
       </c>
       <c r="G29" s="3">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>18500</v>
+        <v>16400</v>
       </c>
       <c r="E32" s="3">
-        <v>276800</v>
+        <v>245200</v>
       </c>
       <c r="F32" s="3">
-        <v>-97300</v>
+        <v>-86200</v>
       </c>
       <c r="G32" s="3">
-        <v>43300</v>
+        <v>38400</v>
       </c>
       <c r="H32" s="3">
-        <v>-1500</v>
+        <v>-1300</v>
       </c>
       <c r="I32" s="3">
-        <v>27500</v>
+        <v>24300</v>
       </c>
       <c r="J32" s="3">
-        <v>5400</v>
+        <v>4800</v>
       </c>
       <c r="K32" s="3">
         <v>3100</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-423400</v>
+        <v>-375000</v>
       </c>
       <c r="E33" s="3">
-        <v>243400</v>
+        <v>215600</v>
       </c>
       <c r="F33" s="3">
-        <v>-18500</v>
+        <v>-16400</v>
       </c>
       <c r="G33" s="3">
-        <v>148300</v>
+        <v>131400</v>
       </c>
       <c r="H33" s="3">
-        <v>40600</v>
+        <v>36000</v>
       </c>
       <c r="I33" s="3">
-        <v>-13700</v>
+        <v>-12200</v>
       </c>
       <c r="J33" s="3">
-        <v>6500</v>
+        <v>5700</v>
       </c>
       <c r="K33" s="3">
         <v>1100</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-423400</v>
+        <v>-375000</v>
       </c>
       <c r="E35" s="3">
-        <v>243400</v>
+        <v>215600</v>
       </c>
       <c r="F35" s="3">
-        <v>-18500</v>
+        <v>-16400</v>
       </c>
       <c r="G35" s="3">
-        <v>148300</v>
+        <v>131400</v>
       </c>
       <c r="H35" s="3">
-        <v>40600</v>
+        <v>36000</v>
       </c>
       <c r="I35" s="3">
-        <v>-13700</v>
+        <v>-12200</v>
       </c>
       <c r="J35" s="3">
-        <v>6500</v>
+        <v>5700</v>
       </c>
       <c r="K35" s="3">
         <v>1100</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>999800</v>
+        <v>884200</v>
       </c>
       <c r="E41" s="3">
-        <v>959600</v>
+        <v>848800</v>
       </c>
       <c r="F41" s="3">
-        <v>410800</v>
+        <v>363400</v>
       </c>
       <c r="G41" s="3">
-        <v>458400</v>
+        <v>405400</v>
       </c>
       <c r="H41" s="3">
-        <v>12400</v>
+        <v>11000</v>
       </c>
       <c r="I41" s="3">
-        <v>20200</v>
+        <v>17800</v>
       </c>
       <c r="J41" s="3">
-        <v>13200</v>
+        <v>11700</v>
       </c>
       <c r="K41" s="3">
         <v>5900</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>725300</v>
+        <v>641500</v>
       </c>
       <c r="E42" s="3">
-        <v>770400</v>
+        <v>681400</v>
       </c>
       <c r="F42" s="3">
-        <v>236200</v>
+        <v>208900</v>
       </c>
       <c r="G42" s="3">
-        <v>180400</v>
+        <v>159500</v>
       </c>
       <c r="H42" s="3">
-        <v>4900</v>
+        <v>4300</v>
       </c>
       <c r="I42" s="3">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="J42" s="3">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="K42" s="3">
         <v>2800</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>379100</v>
+        <v>335300</v>
       </c>
       <c r="E43" s="3">
-        <v>394700</v>
+        <v>349100</v>
       </c>
       <c r="F43" s="3">
-        <v>263100</v>
+        <v>232700</v>
       </c>
       <c r="G43" s="3">
-        <v>216000</v>
+        <v>191000</v>
       </c>
       <c r="H43" s="3">
-        <v>23100</v>
+        <v>20400</v>
       </c>
       <c r="I43" s="3">
-        <v>21900</v>
+        <v>19400</v>
       </c>
       <c r="J43" s="3">
-        <v>13400</v>
+        <v>11800</v>
       </c>
       <c r="K43" s="3">
         <v>9100</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19000</v>
+        <v>16800</v>
       </c>
       <c r="E44" s="3">
-        <v>16200</v>
+        <v>14300</v>
       </c>
       <c r="F44" s="3">
-        <v>70400</v>
+        <v>62300</v>
       </c>
       <c r="G44" s="3">
-        <v>53700</v>
+        <v>47500</v>
       </c>
       <c r="H44" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>3000</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>212100</v>
+        <v>187600</v>
       </c>
       <c r="E45" s="3">
-        <v>329200</v>
+        <v>291100</v>
       </c>
       <c r="F45" s="3">
-        <v>102100</v>
+        <v>90300</v>
       </c>
       <c r="G45" s="3">
-        <v>27600</v>
+        <v>24400</v>
       </c>
       <c r="H45" s="3">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="I45" s="3">
-        <v>29700</v>
+        <v>26300</v>
       </c>
       <c r="J45" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K45" s="3">
         <v>1200</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2335300</v>
+        <v>2065500</v>
       </c>
       <c r="E46" s="3">
-        <v>2470100</v>
+        <v>2184700</v>
       </c>
       <c r="F46" s="3">
-        <v>1082600</v>
+        <v>957500</v>
       </c>
       <c r="G46" s="3">
-        <v>706900</v>
+        <v>625200</v>
       </c>
       <c r="H46" s="3">
-        <v>31300</v>
+        <v>27700</v>
       </c>
       <c r="I46" s="3">
-        <v>53700</v>
+        <v>47500</v>
       </c>
       <c r="J46" s="3">
-        <v>30400</v>
+        <v>26900</v>
       </c>
       <c r="K46" s="3">
         <v>22100</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>768700</v>
+        <v>679900</v>
       </c>
       <c r="E47" s="3">
-        <v>930700</v>
+        <v>823100</v>
       </c>
       <c r="F47" s="3">
-        <v>216700</v>
+        <v>191600</v>
       </c>
       <c r="G47" s="3">
-        <v>352900</v>
+        <v>312100</v>
       </c>
       <c r="H47" s="3">
-        <v>74600</v>
+        <v>66000</v>
       </c>
       <c r="I47" s="3">
-        <v>52000</v>
+        <v>45900</v>
       </c>
       <c r="J47" s="3">
-        <v>32800</v>
+        <v>29000</v>
       </c>
       <c r="K47" s="3">
         <v>54000</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4226400</v>
+        <v>3738100</v>
       </c>
       <c r="E48" s="3">
-        <v>5595800</v>
+        <v>4949200</v>
       </c>
       <c r="F48" s="3">
-        <v>2100400</v>
+        <v>1857700</v>
       </c>
       <c r="G48" s="3">
-        <v>2589000</v>
+        <v>2289800</v>
       </c>
       <c r="H48" s="3">
-        <v>389700</v>
+        <v>344700</v>
       </c>
       <c r="I48" s="3">
-        <v>322400</v>
+        <v>285200</v>
       </c>
       <c r="J48" s="3">
-        <v>135400</v>
+        <v>119700</v>
       </c>
       <c r="K48" s="3">
         <v>76200</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>296100</v>
+        <v>261900</v>
       </c>
       <c r="E49" s="3">
-        <v>318800</v>
+        <v>282000</v>
       </c>
       <c r="F49" s="3">
-        <v>204800</v>
+        <v>181100</v>
       </c>
       <c r="G49" s="3">
-        <v>194400</v>
+        <v>172000</v>
       </c>
       <c r="H49" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="I49" s="3">
-        <v>4100</v>
+        <v>3600</v>
       </c>
       <c r="J49" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>219200</v>
+        <v>193800</v>
       </c>
       <c r="E52" s="3">
-        <v>578000</v>
+        <v>511200</v>
       </c>
       <c r="F52" s="3">
-        <v>218000</v>
+        <v>192800</v>
       </c>
       <c r="G52" s="3">
-        <v>157200</v>
+        <v>139100</v>
       </c>
       <c r="H52" s="3">
-        <v>7100</v>
+        <v>6200</v>
       </c>
       <c r="I52" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="J52" s="3">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="K52" s="3">
         <v>6200</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7845700</v>
+        <v>6939100</v>
       </c>
       <c r="E54" s="3">
-        <v>8708900</v>
+        <v>7702600</v>
       </c>
       <c r="F54" s="3">
-        <v>3822400</v>
+        <v>3380800</v>
       </c>
       <c r="G54" s="3">
-        <v>3176100</v>
+        <v>2809100</v>
       </c>
       <c r="H54" s="3">
-        <v>436400</v>
+        <v>386000</v>
       </c>
       <c r="I54" s="3">
-        <v>374000</v>
+        <v>330800</v>
       </c>
       <c r="J54" s="3">
-        <v>137600</v>
+        <v>121700</v>
       </c>
       <c r="K54" s="3">
         <v>151400</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>306800</v>
+        <v>271400</v>
       </c>
       <c r="E57" s="3">
-        <v>379000</v>
+        <v>335200</v>
       </c>
       <c r="F57" s="3">
-        <v>210400</v>
+        <v>186100</v>
       </c>
       <c r="G57" s="3">
-        <v>183000</v>
+        <v>161800</v>
       </c>
       <c r="H57" s="3">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="I57" s="3">
-        <v>13200</v>
+        <v>11600</v>
       </c>
       <c r="J57" s="3">
-        <v>6800</v>
+        <v>6000</v>
       </c>
       <c r="K57" s="3">
         <v>1800</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>752200</v>
+        <v>665300</v>
       </c>
       <c r="E58" s="3">
-        <v>658000</v>
+        <v>581900</v>
       </c>
       <c r="F58" s="3">
-        <v>329400</v>
+        <v>291300</v>
       </c>
       <c r="G58" s="3">
-        <v>367800</v>
+        <v>325300</v>
       </c>
       <c r="H58" s="3">
-        <v>41500</v>
+        <v>36700</v>
       </c>
       <c r="I58" s="3">
-        <v>24500</v>
+        <v>21700</v>
       </c>
       <c r="J58" s="3">
-        <v>14400</v>
+        <v>12700</v>
       </c>
       <c r="K58" s="3">
         <v>13200</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>163500</v>
+        <v>144700</v>
       </c>
       <c r="E59" s="3">
-        <v>168600</v>
+        <v>149100</v>
       </c>
       <c r="F59" s="3">
-        <v>227800</v>
+        <v>201500</v>
       </c>
       <c r="G59" s="3">
-        <v>170000</v>
+        <v>150400</v>
       </c>
       <c r="H59" s="3">
-        <v>28300</v>
+        <v>25100</v>
       </c>
       <c r="I59" s="3">
-        <v>29500</v>
+        <v>26100</v>
       </c>
       <c r="J59" s="3">
-        <v>15700</v>
+        <v>13900</v>
       </c>
       <c r="K59" s="3">
         <v>14300</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1222500</v>
+        <v>1081300</v>
       </c>
       <c r="E60" s="3">
-        <v>1205500</v>
+        <v>1066200</v>
       </c>
       <c r="F60" s="3">
-        <v>767600</v>
+        <v>678900</v>
       </c>
       <c r="G60" s="3">
-        <v>720700</v>
+        <v>637400</v>
       </c>
       <c r="H60" s="3">
-        <v>44500</v>
+        <v>39300</v>
       </c>
       <c r="I60" s="3">
-        <v>42200</v>
+        <v>37300</v>
       </c>
       <c r="J60" s="3">
-        <v>26500</v>
+        <v>23500</v>
       </c>
       <c r="K60" s="3">
         <v>29400</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4413900</v>
+        <v>3903900</v>
       </c>
       <c r="E61" s="3">
-        <v>4655800</v>
+        <v>4117900</v>
       </c>
       <c r="F61" s="3">
-        <v>1809900</v>
+        <v>1600700</v>
       </c>
       <c r="G61" s="3">
-        <v>1498900</v>
+        <v>1325700</v>
       </c>
       <c r="H61" s="3">
-        <v>61800</v>
+        <v>54600</v>
       </c>
       <c r="I61" s="3">
-        <v>62100</v>
+        <v>54900</v>
       </c>
       <c r="J61" s="3">
-        <v>48300</v>
+        <v>42700</v>
       </c>
       <c r="K61" s="3">
         <v>47400</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>790700</v>
+        <v>699300</v>
       </c>
       <c r="E62" s="3">
-        <v>872000</v>
+        <v>771200</v>
       </c>
       <c r="F62" s="3">
-        <v>462600</v>
+        <v>409100</v>
       </c>
       <c r="G62" s="3">
-        <v>372400</v>
+        <v>329400</v>
       </c>
       <c r="H62" s="3">
-        <v>109700</v>
+        <v>97000</v>
       </c>
       <c r="I62" s="3">
-        <v>87700</v>
+        <v>77600</v>
       </c>
       <c r="J62" s="3">
-        <v>11200</v>
+        <v>9900</v>
       </c>
       <c r="K62" s="3">
         <v>12800</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7315500</v>
+        <v>6470200</v>
       </c>
       <c r="E66" s="3">
-        <v>7695100</v>
+        <v>6805900</v>
       </c>
       <c r="F66" s="3">
-        <v>3394900</v>
+        <v>3002600</v>
       </c>
       <c r="G66" s="3">
-        <v>2818500</v>
+        <v>2492800</v>
       </c>
       <c r="H66" s="3">
-        <v>227600</v>
+        <v>201300</v>
       </c>
       <c r="I66" s="3">
-        <v>205100</v>
+        <v>181400</v>
       </c>
       <c r="J66" s="3">
-        <v>92300</v>
+        <v>81600</v>
       </c>
       <c r="K66" s="3">
         <v>97800</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>197900</v>
+        <v>175100</v>
       </c>
       <c r="E72" s="3">
-        <v>681600</v>
+        <v>602800</v>
       </c>
       <c r="F72" s="3">
-        <v>402500</v>
+        <v>356000</v>
       </c>
       <c r="G72" s="3">
-        <v>332600</v>
+        <v>294200</v>
       </c>
       <c r="H72" s="3">
-        <v>190000</v>
+        <v>168100</v>
       </c>
       <c r="I72" s="3">
-        <v>158500</v>
+        <v>140200</v>
       </c>
       <c r="J72" s="3">
-        <v>20200</v>
+        <v>17800</v>
       </c>
       <c r="K72" s="3">
         <v>14000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>530200</v>
+        <v>468900</v>
       </c>
       <c r="E76" s="3">
-        <v>1013900</v>
+        <v>896700</v>
       </c>
       <c r="F76" s="3">
-        <v>427500</v>
+        <v>378100</v>
       </c>
       <c r="G76" s="3">
-        <v>357600</v>
+        <v>316300</v>
       </c>
       <c r="H76" s="3">
-        <v>208800</v>
+        <v>184600</v>
       </c>
       <c r="I76" s="3">
-        <v>168900</v>
+        <v>149400</v>
       </c>
       <c r="J76" s="3">
-        <v>45400</v>
+        <v>40100</v>
       </c>
       <c r="K76" s="3">
         <v>53600</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-423400</v>
+        <v>-375000</v>
       </c>
       <c r="E81" s="3">
-        <v>243400</v>
+        <v>215600</v>
       </c>
       <c r="F81" s="3">
-        <v>-18500</v>
+        <v>-16400</v>
       </c>
       <c r="G81" s="3">
-        <v>148300</v>
+        <v>131400</v>
       </c>
       <c r="H81" s="3">
-        <v>40600</v>
+        <v>36000</v>
       </c>
       <c r="I81" s="3">
-        <v>-13700</v>
+        <v>-12200</v>
       </c>
       <c r="J81" s="3">
-        <v>6500</v>
+        <v>5700</v>
       </c>
       <c r="K81" s="3">
         <v>1100</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>124600</v>
+        <v>110300</v>
       </c>
       <c r="E83" s="3">
-        <v>111800</v>
+        <v>99000</v>
       </c>
       <c r="F83" s="3">
-        <v>55800</v>
+        <v>49400</v>
       </c>
       <c r="G83" s="3">
-        <v>25300</v>
+        <v>22400</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
       </c>
       <c r="I83" s="3">
-        <v>3700</v>
+        <v>3300</v>
       </c>
       <c r="J83" s="3">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="K83" s="3">
         <v>3400</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>310000</v>
+        <v>274500</v>
       </c>
       <c r="E89" s="3">
-        <v>226300</v>
+        <v>200400</v>
       </c>
       <c r="F89" s="3">
-        <v>147200</v>
+        <v>130300</v>
       </c>
       <c r="G89" s="3">
-        <v>68200</v>
+        <v>60400</v>
       </c>
       <c r="H89" s="3">
-        <v>13800</v>
+        <v>12200</v>
       </c>
       <c r="I89" s="3">
-        <v>16900</v>
+        <v>15000</v>
       </c>
       <c r="J89" s="3">
-        <v>14300</v>
+        <v>12600</v>
       </c>
       <c r="K89" s="3">
         <v>15900</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-192200</v>
+        <v>-170200</v>
       </c>
       <c r="E91" s="3">
-        <v>-154000</v>
+        <v>-136400</v>
       </c>
       <c r="F91" s="3">
-        <v>-66900</v>
+        <v>-59300</v>
       </c>
       <c r="G91" s="3">
-        <v>-22500</v>
+        <v>-19900</v>
       </c>
       <c r="H91" s="3">
-        <v>-7500</v>
+        <v>-6700</v>
       </c>
       <c r="I91" s="3">
-        <v>-4800</v>
+        <v>-4200</v>
       </c>
       <c r="J91" s="3">
-        <v>-3700</v>
+        <v>-3300</v>
       </c>
       <c r="K91" s="3">
         <v>-3800</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>129400</v>
+        <v>114600</v>
       </c>
       <c r="E94" s="3">
-        <v>-353100</v>
+        <v>-312800</v>
       </c>
       <c r="F94" s="3">
-        <v>-34200</v>
+        <v>-30300</v>
       </c>
       <c r="G94" s="3">
-        <v>135900</v>
+        <v>120400</v>
       </c>
       <c r="H94" s="3">
-        <v>4300</v>
+        <v>3800</v>
       </c>
       <c r="I94" s="3">
-        <v>-15200</v>
+        <v>-13400</v>
       </c>
       <c r="J94" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="K94" s="3">
         <v>-5700</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-42600</v>
+        <v>-37700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1900</v>
+        <v>-1700</v>
       </c>
       <c r="J96" s="3">
-        <v>-4000</v>
+        <v>-3500</v>
       </c>
       <c r="K96" s="3">
         <v>-6000</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-321000</v>
+        <v>-284300</v>
       </c>
       <c r="E100" s="3">
-        <v>-71300</v>
+        <v>-63100</v>
       </c>
       <c r="F100" s="3">
-        <v>25400</v>
+        <v>22500</v>
       </c>
       <c r="G100" s="3">
-        <v>-65600</v>
+        <v>-58100</v>
       </c>
       <c r="H100" s="3">
-        <v>-23000</v>
+        <v>-20300</v>
       </c>
       <c r="I100" s="3">
-        <v>-9900</v>
+        <v>-8700</v>
       </c>
       <c r="J100" s="3">
-        <v>-5100</v>
+        <v>-4500</v>
       </c>
       <c r="K100" s="3">
         <v>-11300</v>
@@ -3215,22 +3215,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-78300</v>
+        <v>-69300</v>
       </c>
       <c r="E101" s="3">
-        <v>330300</v>
+        <v>292500</v>
       </c>
       <c r="F101" s="3">
-        <v>43300</v>
+        <v>38300</v>
       </c>
       <c r="G101" s="3">
-        <v>84500</v>
+        <v>74800</v>
       </c>
       <c r="H101" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I101" s="3">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="J101" s="3">
         <v>400</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>40100</v>
+        <v>35500</v>
       </c>
       <c r="E102" s="3">
-        <v>132200</v>
+        <v>117000</v>
       </c>
       <c r="F102" s="3">
-        <v>181600</v>
+        <v>160900</v>
       </c>
       <c r="G102" s="3">
-        <v>223000</v>
+        <v>197500</v>
       </c>
       <c r="H102" s="3">
-        <v>-3900</v>
+        <v>-3400</v>
       </c>
       <c r="I102" s="3">
-        <v>-3100</v>
+        <v>-2700</v>
       </c>
       <c r="J102" s="3">
-        <v>8900</v>
+        <v>7900</v>
       </c>
       <c r="K102" s="3">
         <v>-1000</v>

--- a/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1021400</v>
+        <v>946700</v>
       </c>
       <c r="E8" s="3">
-        <v>861200</v>
+        <v>798200</v>
       </c>
       <c r="F8" s="3">
-        <v>873600</v>
+        <v>809700</v>
       </c>
       <c r="G8" s="3">
-        <v>189100</v>
+        <v>175300</v>
       </c>
       <c r="H8" s="3">
-        <v>49800</v>
+        <v>46200</v>
       </c>
       <c r="I8" s="3">
-        <v>41700</v>
+        <v>38600</v>
       </c>
       <c r="J8" s="3">
-        <v>32000</v>
+        <v>29700</v>
       </c>
       <c r="K8" s="3">
         <v>41100</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>614900</v>
+        <v>569900</v>
       </c>
       <c r="E9" s="3">
-        <v>507200</v>
+        <v>470100</v>
       </c>
       <c r="F9" s="3">
-        <v>1216600</v>
+        <v>1127700</v>
       </c>
       <c r="G9" s="3">
-        <v>651300</v>
+        <v>603700</v>
       </c>
       <c r="H9" s="3">
-        <v>19900</v>
+        <v>18500</v>
       </c>
       <c r="I9" s="3">
-        <v>19800</v>
+        <v>18400</v>
       </c>
       <c r="J9" s="3">
-        <v>31800</v>
+        <v>29500</v>
       </c>
       <c r="K9" s="3">
         <v>39400</v>
@@ -774,22 +774,22 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>406500</v>
+        <v>376800</v>
       </c>
       <c r="E10" s="3">
-        <v>354000</v>
+        <v>328100</v>
       </c>
       <c r="F10" s="3">
-        <v>-343000</v>
+        <v>-318000</v>
       </c>
       <c r="G10" s="3">
-        <v>-462200</v>
+        <v>-428400</v>
       </c>
       <c r="H10" s="3">
-        <v>29900</v>
+        <v>27700</v>
       </c>
       <c r="I10" s="3">
-        <v>21800</v>
+        <v>20200</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -878,16 +878,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-2100</v>
+        <v>-1900</v>
       </c>
       <c r="E14" s="3">
-        <v>-10000</v>
+        <v>-9200</v>
       </c>
       <c r="F14" s="3">
-        <v>6100</v>
+        <v>5600</v>
       </c>
       <c r="G14" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H14" s="3">
         <v>300</v>
@@ -896,7 +896,7 @@
         <v>300</v>
       </c>
       <c r="J14" s="3">
-        <v>-2000</v>
+        <v>-1800</v>
       </c>
       <c r="K14" s="3">
         <v>200</v>
@@ -908,16 +908,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>42000</v>
+        <v>39000</v>
       </c>
       <c r="E15" s="3">
-        <v>39400</v>
+        <v>36500</v>
       </c>
       <c r="F15" s="3">
-        <v>51200</v>
+        <v>47500</v>
       </c>
       <c r="G15" s="3">
-        <v>11600</v>
+        <v>10800</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1205200</v>
+        <v>1117100</v>
       </c>
       <c r="E17" s="3">
-        <v>468100</v>
+        <v>433900</v>
       </c>
       <c r="F17" s="3">
-        <v>829600</v>
+        <v>769000</v>
       </c>
       <c r="G17" s="3">
-        <v>-103100</v>
+        <v>-95500</v>
       </c>
       <c r="H17" s="3">
-        <v>-30100</v>
+        <v>-27900</v>
       </c>
       <c r="I17" s="3">
-        <v>23500</v>
+        <v>21800</v>
       </c>
       <c r="J17" s="3">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="K17" s="3">
         <v>23700</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-183800</v>
+        <v>-170300</v>
       </c>
       <c r="E18" s="3">
-        <v>393100</v>
+        <v>364400</v>
       </c>
       <c r="F18" s="3">
-        <v>44000</v>
+        <v>40800</v>
       </c>
       <c r="G18" s="3">
-        <v>292100</v>
+        <v>270800</v>
       </c>
       <c r="H18" s="3">
-        <v>79900</v>
+        <v>74100</v>
       </c>
       <c r="I18" s="3">
-        <v>18100</v>
+        <v>16800</v>
       </c>
       <c r="J18" s="3">
-        <v>18000</v>
+        <v>16700</v>
       </c>
       <c r="K18" s="3">
         <v>17400</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16400</v>
+        <v>-15200</v>
       </c>
       <c r="E20" s="3">
-        <v>-245200</v>
+        <v>-227300</v>
       </c>
       <c r="F20" s="3">
-        <v>86200</v>
+        <v>79900</v>
       </c>
       <c r="G20" s="3">
-        <v>-38400</v>
+        <v>-35600</v>
       </c>
       <c r="H20" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I20" s="3">
-        <v>-24300</v>
+        <v>-22600</v>
       </c>
       <c r="J20" s="3">
-        <v>-4800</v>
+        <v>-4400</v>
       </c>
       <c r="K20" s="3">
         <v>-3100</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-89700</v>
+        <v>-83200</v>
       </c>
       <c r="E21" s="3">
-        <v>247100</v>
+        <v>229000</v>
       </c>
       <c r="F21" s="3">
-        <v>179600</v>
+        <v>166500</v>
       </c>
       <c r="G21" s="3">
-        <v>276200</v>
+        <v>256000</v>
       </c>
       <c r="H21" s="3">
-        <v>81700</v>
+        <v>75700</v>
       </c>
       <c r="I21" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="J21" s="3">
-        <v>16500</v>
+        <v>15300</v>
       </c>
       <c r="K21" s="3">
         <v>17600</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>224600</v>
+        <v>208200</v>
       </c>
       <c r="E22" s="3">
-        <v>198000</v>
+        <v>183500</v>
       </c>
       <c r="F22" s="3">
-        <v>193000</v>
+        <v>178900</v>
       </c>
       <c r="G22" s="3">
-        <v>34100</v>
+        <v>31600</v>
       </c>
       <c r="H22" s="3">
-        <v>18400</v>
+        <v>17000</v>
       </c>
       <c r="I22" s="3">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="J22" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="K22" s="3">
         <v>6400</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-424800</v>
+        <v>-393800</v>
       </c>
       <c r="E23" s="3">
-        <v>-50100</v>
+        <v>-46400</v>
       </c>
       <c r="F23" s="3">
-        <v>-62900</v>
+        <v>-58300</v>
       </c>
       <c r="G23" s="3">
-        <v>219700</v>
+        <v>203600</v>
       </c>
       <c r="H23" s="3">
-        <v>62800</v>
+        <v>58200</v>
       </c>
       <c r="I23" s="3">
-        <v>-13100</v>
+        <v>-12200</v>
       </c>
       <c r="J23" s="3">
-        <v>8500</v>
+        <v>7900</v>
       </c>
       <c r="K23" s="3">
         <v>7800</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-24700</v>
+        <v>-22900</v>
       </c>
       <c r="E24" s="3">
-        <v>-91900</v>
+        <v>-85200</v>
       </c>
       <c r="F24" s="3">
-        <v>21800</v>
+        <v>20200</v>
       </c>
       <c r="G24" s="3">
-        <v>92600</v>
+        <v>85800</v>
       </c>
       <c r="H24" s="3">
-        <v>23100</v>
+        <v>21500</v>
       </c>
       <c r="I24" s="3">
         <v>-900</v>
       </c>
       <c r="J24" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K24" s="3">
         <v>2700</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400100</v>
+        <v>-370800</v>
       </c>
       <c r="E26" s="3">
-        <v>41900</v>
+        <v>38800</v>
       </c>
       <c r="F26" s="3">
-        <v>-84700</v>
+        <v>-78500</v>
       </c>
       <c r="G26" s="3">
-        <v>127100</v>
+        <v>117800</v>
       </c>
       <c r="H26" s="3">
-        <v>39700</v>
+        <v>36800</v>
       </c>
       <c r="I26" s="3">
-        <v>-12200</v>
+        <v>-11300</v>
       </c>
       <c r="J26" s="3">
-        <v>6600</v>
+        <v>6100</v>
       </c>
       <c r="K26" s="3">
         <v>5200</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-382000</v>
+        <v>-354100</v>
       </c>
       <c r="E27" s="3">
-        <v>-82700</v>
+        <v>-76700</v>
       </c>
       <c r="F27" s="3">
-        <v>-145700</v>
+        <v>-135100</v>
       </c>
       <c r="G27" s="3">
-        <v>119400</v>
+        <v>110700</v>
       </c>
       <c r="H27" s="3">
-        <v>36000</v>
+        <v>33400</v>
       </c>
       <c r="I27" s="3">
-        <v>-12200</v>
+        <v>-11300</v>
       </c>
       <c r="J27" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="K27" s="3">
         <v>1100</v>
@@ -1293,16 +1293,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="E29" s="3">
-        <v>298300</v>
+        <v>276500</v>
       </c>
       <c r="F29" s="3">
-        <v>129300</v>
+        <v>119900</v>
       </c>
       <c r="G29" s="3">
-        <v>12000</v>
+        <v>11100</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16400</v>
+        <v>15200</v>
       </c>
       <c r="E32" s="3">
-        <v>245200</v>
+        <v>227300</v>
       </c>
       <c r="F32" s="3">
-        <v>-86200</v>
+        <v>-79900</v>
       </c>
       <c r="G32" s="3">
-        <v>38400</v>
+        <v>35600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="I32" s="3">
-        <v>24300</v>
+        <v>22600</v>
       </c>
       <c r="J32" s="3">
-        <v>4800</v>
+        <v>4400</v>
       </c>
       <c r="K32" s="3">
         <v>3100</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-375000</v>
+        <v>-347600</v>
       </c>
       <c r="E33" s="3">
-        <v>215600</v>
+        <v>199800</v>
       </c>
       <c r="F33" s="3">
-        <v>-16400</v>
+        <v>-15200</v>
       </c>
       <c r="G33" s="3">
-        <v>131400</v>
+        <v>121800</v>
       </c>
       <c r="H33" s="3">
-        <v>36000</v>
+        <v>33400</v>
       </c>
       <c r="I33" s="3">
-        <v>-12200</v>
+        <v>-11300</v>
       </c>
       <c r="J33" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="K33" s="3">
         <v>1100</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-375000</v>
+        <v>-347600</v>
       </c>
       <c r="E35" s="3">
-        <v>215600</v>
+        <v>199800</v>
       </c>
       <c r="F35" s="3">
-        <v>-16400</v>
+        <v>-15200</v>
       </c>
       <c r="G35" s="3">
-        <v>131400</v>
+        <v>121800</v>
       </c>
       <c r="H35" s="3">
-        <v>36000</v>
+        <v>33400</v>
       </c>
       <c r="I35" s="3">
-        <v>-12200</v>
+        <v>-11300</v>
       </c>
       <c r="J35" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="K35" s="3">
         <v>1100</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>884200</v>
+        <v>820700</v>
       </c>
       <c r="E41" s="3">
-        <v>848800</v>
+        <v>787800</v>
       </c>
       <c r="F41" s="3">
-        <v>363400</v>
+        <v>337300</v>
       </c>
       <c r="G41" s="3">
-        <v>405400</v>
+        <v>376300</v>
       </c>
       <c r="H41" s="3">
-        <v>11000</v>
+        <v>10200</v>
       </c>
       <c r="I41" s="3">
-        <v>17800</v>
+        <v>16600</v>
       </c>
       <c r="J41" s="3">
-        <v>11700</v>
+        <v>10800</v>
       </c>
       <c r="K41" s="3">
         <v>5900</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>641500</v>
+        <v>595500</v>
       </c>
       <c r="E42" s="3">
-        <v>681400</v>
+        <v>632400</v>
       </c>
       <c r="F42" s="3">
-        <v>208900</v>
+        <v>193900</v>
       </c>
       <c r="G42" s="3">
-        <v>159500</v>
+        <v>148100</v>
       </c>
       <c r="H42" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="I42" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="J42" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="K42" s="3">
         <v>2800</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>335300</v>
+        <v>311200</v>
       </c>
       <c r="E43" s="3">
-        <v>349100</v>
+        <v>324000</v>
       </c>
       <c r="F43" s="3">
-        <v>232700</v>
+        <v>216000</v>
       </c>
       <c r="G43" s="3">
-        <v>191000</v>
+        <v>177300</v>
       </c>
       <c r="H43" s="3">
-        <v>20400</v>
+        <v>19000</v>
       </c>
       <c r="I43" s="3">
-        <v>19400</v>
+        <v>18000</v>
       </c>
       <c r="J43" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="K43" s="3">
         <v>9100</v>
@@ -1656,19 +1656,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16800</v>
+        <v>15600</v>
       </c>
       <c r="E44" s="3">
-        <v>14300</v>
+        <v>13300</v>
       </c>
       <c r="F44" s="3">
-        <v>62300</v>
+        <v>57800</v>
       </c>
       <c r="G44" s="3">
-        <v>47500</v>
+        <v>44000</v>
       </c>
       <c r="H44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>187600</v>
+        <v>174100</v>
       </c>
       <c r="E45" s="3">
-        <v>291100</v>
+        <v>270200</v>
       </c>
       <c r="F45" s="3">
-        <v>90300</v>
+        <v>83800</v>
       </c>
       <c r="G45" s="3">
+        <v>22700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I45" s="3">
         <v>24400</v>
       </c>
-      <c r="H45" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>26300</v>
-      </c>
       <c r="J45" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K45" s="3">
         <v>1200</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2065500</v>
+        <v>1917100</v>
       </c>
       <c r="E46" s="3">
-        <v>2184700</v>
+        <v>2027800</v>
       </c>
       <c r="F46" s="3">
-        <v>957500</v>
+        <v>888700</v>
       </c>
       <c r="G46" s="3">
-        <v>625200</v>
+        <v>580300</v>
       </c>
       <c r="H46" s="3">
-        <v>27700</v>
+        <v>25700</v>
       </c>
       <c r="I46" s="3">
-        <v>47500</v>
+        <v>44100</v>
       </c>
       <c r="J46" s="3">
-        <v>26900</v>
+        <v>25000</v>
       </c>
       <c r="K46" s="3">
         <v>22100</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>679900</v>
+        <v>631000</v>
       </c>
       <c r="E47" s="3">
-        <v>823100</v>
+        <v>764000</v>
       </c>
       <c r="F47" s="3">
-        <v>191600</v>
+        <v>177900</v>
       </c>
       <c r="G47" s="3">
-        <v>312100</v>
+        <v>289700</v>
       </c>
       <c r="H47" s="3">
-        <v>66000</v>
+        <v>61200</v>
       </c>
       <c r="I47" s="3">
-        <v>45900</v>
+        <v>42600</v>
       </c>
       <c r="J47" s="3">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="K47" s="3">
         <v>54000</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3738100</v>
+        <v>3469600</v>
       </c>
       <c r="E48" s="3">
-        <v>4949200</v>
+        <v>4593800</v>
       </c>
       <c r="F48" s="3">
-        <v>1857700</v>
+        <v>1724300</v>
       </c>
       <c r="G48" s="3">
-        <v>2289800</v>
+        <v>2125400</v>
       </c>
       <c r="H48" s="3">
-        <v>344700</v>
+        <v>319900</v>
       </c>
       <c r="I48" s="3">
-        <v>285200</v>
+        <v>264700</v>
       </c>
       <c r="J48" s="3">
-        <v>119700</v>
+        <v>111100</v>
       </c>
       <c r="K48" s="3">
         <v>76200</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>261900</v>
+        <v>243100</v>
       </c>
       <c r="E49" s="3">
-        <v>282000</v>
+        <v>261800</v>
       </c>
       <c r="F49" s="3">
-        <v>181100</v>
+        <v>168100</v>
       </c>
       <c r="G49" s="3">
-        <v>172000</v>
+        <v>159600</v>
       </c>
       <c r="H49" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="I49" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="J49" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>193800</v>
+        <v>179900</v>
       </c>
       <c r="E52" s="3">
-        <v>511200</v>
+        <v>474500</v>
       </c>
       <c r="F52" s="3">
-        <v>192800</v>
+        <v>179000</v>
       </c>
       <c r="G52" s="3">
-        <v>139100</v>
+        <v>129100</v>
       </c>
       <c r="H52" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="I52" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="J52" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="K52" s="3">
         <v>6200</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6939100</v>
+        <v>6440800</v>
       </c>
       <c r="E54" s="3">
-        <v>7702600</v>
+        <v>7149400</v>
       </c>
       <c r="F54" s="3">
-        <v>3380800</v>
+        <v>3138000</v>
       </c>
       <c r="G54" s="3">
-        <v>2809100</v>
+        <v>2607400</v>
       </c>
       <c r="H54" s="3">
-        <v>386000</v>
+        <v>358200</v>
       </c>
       <c r="I54" s="3">
-        <v>330800</v>
+        <v>307000</v>
       </c>
       <c r="J54" s="3">
-        <v>121700</v>
+        <v>113000</v>
       </c>
       <c r="K54" s="3">
         <v>151400</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>271400</v>
+        <v>251900</v>
       </c>
       <c r="E57" s="3">
-        <v>335200</v>
+        <v>311100</v>
       </c>
       <c r="F57" s="3">
-        <v>186100</v>
+        <v>172700</v>
       </c>
       <c r="G57" s="3">
-        <v>161800</v>
+        <v>150200</v>
       </c>
       <c r="H57" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="I57" s="3">
-        <v>11600</v>
+        <v>10800</v>
       </c>
       <c r="J57" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="K57" s="3">
         <v>1800</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>665300</v>
+        <v>617500</v>
       </c>
       <c r="E58" s="3">
-        <v>581900</v>
+        <v>540100</v>
       </c>
       <c r="F58" s="3">
-        <v>291300</v>
+        <v>270400</v>
       </c>
       <c r="G58" s="3">
-        <v>325300</v>
+        <v>302000</v>
       </c>
       <c r="H58" s="3">
-        <v>36700</v>
+        <v>34100</v>
       </c>
       <c r="I58" s="3">
-        <v>21700</v>
+        <v>20100</v>
       </c>
       <c r="J58" s="3">
-        <v>12700</v>
+        <v>11800</v>
       </c>
       <c r="K58" s="3">
         <v>13200</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>144700</v>
+        <v>134300</v>
       </c>
       <c r="E59" s="3">
-        <v>149100</v>
+        <v>138400</v>
       </c>
       <c r="F59" s="3">
-        <v>201500</v>
+        <v>187000</v>
       </c>
       <c r="G59" s="3">
-        <v>150400</v>
+        <v>139600</v>
       </c>
       <c r="H59" s="3">
-        <v>25100</v>
+        <v>23300</v>
       </c>
       <c r="I59" s="3">
-        <v>26100</v>
+        <v>24200</v>
       </c>
       <c r="J59" s="3">
-        <v>13900</v>
+        <v>12900</v>
       </c>
       <c r="K59" s="3">
         <v>14300</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1081300</v>
+        <v>1003600</v>
       </c>
       <c r="E60" s="3">
-        <v>1066200</v>
+        <v>989700</v>
       </c>
       <c r="F60" s="3">
-        <v>678900</v>
+        <v>630100</v>
       </c>
       <c r="G60" s="3">
-        <v>637400</v>
+        <v>591700</v>
       </c>
       <c r="H60" s="3">
-        <v>39300</v>
+        <v>36500</v>
       </c>
       <c r="I60" s="3">
-        <v>37300</v>
+        <v>34600</v>
       </c>
       <c r="J60" s="3">
-        <v>23500</v>
+        <v>21800</v>
       </c>
       <c r="K60" s="3">
         <v>29400</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3903900</v>
+        <v>3623500</v>
       </c>
       <c r="E61" s="3">
-        <v>4117900</v>
+        <v>3822100</v>
       </c>
       <c r="F61" s="3">
-        <v>1600700</v>
+        <v>1485800</v>
       </c>
       <c r="G61" s="3">
-        <v>1325700</v>
+        <v>1230500</v>
       </c>
       <c r="H61" s="3">
-        <v>54600</v>
+        <v>50700</v>
       </c>
       <c r="I61" s="3">
-        <v>54900</v>
+        <v>51000</v>
       </c>
       <c r="J61" s="3">
-        <v>42700</v>
+        <v>39700</v>
       </c>
       <c r="K61" s="3">
         <v>47400</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>699300</v>
+        <v>649100</v>
       </c>
       <c r="E62" s="3">
-        <v>771200</v>
+        <v>715800</v>
       </c>
       <c r="F62" s="3">
-        <v>409100</v>
+        <v>379700</v>
       </c>
       <c r="G62" s="3">
-        <v>329400</v>
+        <v>305700</v>
       </c>
       <c r="H62" s="3">
-        <v>97000</v>
+        <v>90000</v>
       </c>
       <c r="I62" s="3">
-        <v>77600</v>
+        <v>72000</v>
       </c>
       <c r="J62" s="3">
-        <v>9900</v>
+        <v>9200</v>
       </c>
       <c r="K62" s="3">
         <v>12800</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6470200</v>
+        <v>6005500</v>
       </c>
       <c r="E66" s="3">
-        <v>6805900</v>
+        <v>6317100</v>
       </c>
       <c r="F66" s="3">
-        <v>3002600</v>
+        <v>2787000</v>
       </c>
       <c r="G66" s="3">
-        <v>2492800</v>
+        <v>2313800</v>
       </c>
       <c r="H66" s="3">
-        <v>201300</v>
+        <v>186900</v>
       </c>
       <c r="I66" s="3">
-        <v>181400</v>
+        <v>168300</v>
       </c>
       <c r="J66" s="3">
-        <v>81600</v>
+        <v>75700</v>
       </c>
       <c r="K66" s="3">
         <v>97800</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>175100</v>
+        <v>162500</v>
       </c>
       <c r="E72" s="3">
-        <v>602800</v>
+        <v>559500</v>
       </c>
       <c r="F72" s="3">
-        <v>356000</v>
+        <v>330500</v>
       </c>
       <c r="G72" s="3">
-        <v>294200</v>
+        <v>273000</v>
       </c>
       <c r="H72" s="3">
-        <v>168100</v>
+        <v>156000</v>
       </c>
       <c r="I72" s="3">
-        <v>140200</v>
+        <v>130100</v>
       </c>
       <c r="J72" s="3">
-        <v>17800</v>
+        <v>16600</v>
       </c>
       <c r="K72" s="3">
         <v>14000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>468900</v>
+        <v>435300</v>
       </c>
       <c r="E76" s="3">
-        <v>896700</v>
+        <v>832300</v>
       </c>
       <c r="F76" s="3">
-        <v>378100</v>
+        <v>351000</v>
       </c>
       <c r="G76" s="3">
-        <v>316300</v>
+        <v>293500</v>
       </c>
       <c r="H76" s="3">
-        <v>184600</v>
+        <v>171400</v>
       </c>
       <c r="I76" s="3">
-        <v>149400</v>
+        <v>138700</v>
       </c>
       <c r="J76" s="3">
-        <v>40100</v>
+        <v>37300</v>
       </c>
       <c r="K76" s="3">
         <v>53600</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-375000</v>
+        <v>-347600</v>
       </c>
       <c r="E81" s="3">
-        <v>215600</v>
+        <v>199800</v>
       </c>
       <c r="F81" s="3">
-        <v>-16400</v>
+        <v>-15200</v>
       </c>
       <c r="G81" s="3">
-        <v>131400</v>
+        <v>121800</v>
       </c>
       <c r="H81" s="3">
-        <v>36000</v>
+        <v>33400</v>
       </c>
       <c r="I81" s="3">
-        <v>-12200</v>
+        <v>-11300</v>
       </c>
       <c r="J81" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="K81" s="3">
         <v>1100</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>110300</v>
+        <v>102200</v>
       </c>
       <c r="E83" s="3">
-        <v>99000</v>
+        <v>91800</v>
       </c>
       <c r="F83" s="3">
-        <v>49400</v>
+        <v>45800</v>
       </c>
       <c r="G83" s="3">
-        <v>22400</v>
+        <v>20800</v>
       </c>
       <c r="H83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="J83" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K83" s="3">
         <v>3400</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>274500</v>
+        <v>254500</v>
       </c>
       <c r="E89" s="3">
-        <v>200400</v>
+        <v>185700</v>
       </c>
       <c r="F89" s="3">
-        <v>130300</v>
+        <v>120800</v>
       </c>
       <c r="G89" s="3">
-        <v>60400</v>
+        <v>56000</v>
       </c>
       <c r="H89" s="3">
-        <v>12200</v>
+        <v>11300</v>
       </c>
       <c r="I89" s="3">
-        <v>15000</v>
+        <v>13900</v>
       </c>
       <c r="J89" s="3">
-        <v>12600</v>
+        <v>11700</v>
       </c>
       <c r="K89" s="3">
         <v>15900</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-170200</v>
+        <v>-157800</v>
       </c>
       <c r="E91" s="3">
-        <v>-136400</v>
+        <v>-126400</v>
       </c>
       <c r="F91" s="3">
-        <v>-59300</v>
+        <v>-54900</v>
       </c>
       <c r="G91" s="3">
-        <v>-19900</v>
+        <v>-18400</v>
       </c>
       <c r="H91" s="3">
-        <v>-6700</v>
+        <v>-6200</v>
       </c>
       <c r="I91" s="3">
-        <v>-4200</v>
+        <v>-3900</v>
       </c>
       <c r="J91" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="K91" s="3">
         <v>-3800</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>114600</v>
+        <v>106200</v>
       </c>
       <c r="E94" s="3">
-        <v>-312800</v>
+        <v>-289900</v>
       </c>
       <c r="F94" s="3">
-        <v>-30300</v>
+        <v>-28100</v>
       </c>
       <c r="G94" s="3">
-        <v>120400</v>
+        <v>111600</v>
       </c>
       <c r="H94" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="I94" s="3">
-        <v>-13400</v>
+        <v>-12400</v>
       </c>
       <c r="J94" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="K94" s="3">
         <v>-5700</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-37700</v>
+        <v>-35000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1700</v>
+        <v>-1500</v>
       </c>
       <c r="J96" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="K96" s="3">
         <v>-6000</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-284300</v>
+        <v>-263500</v>
       </c>
       <c r="E100" s="3">
-        <v>-63100</v>
+        <v>-58500</v>
       </c>
       <c r="F100" s="3">
-        <v>22500</v>
+        <v>20900</v>
       </c>
       <c r="G100" s="3">
-        <v>-58100</v>
+        <v>-53800</v>
       </c>
       <c r="H100" s="3">
-        <v>-20300</v>
+        <v>-18900</v>
       </c>
       <c r="I100" s="3">
-        <v>-8700</v>
+        <v>-8100</v>
       </c>
       <c r="J100" s="3">
-        <v>-4500</v>
+        <v>-4200</v>
       </c>
       <c r="K100" s="3">
         <v>-11300</v>
@@ -3215,22 +3215,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-69300</v>
+        <v>-64200</v>
       </c>
       <c r="E101" s="3">
-        <v>292500</v>
+        <v>271200</v>
       </c>
       <c r="F101" s="3">
-        <v>38300</v>
+        <v>35500</v>
       </c>
       <c r="G101" s="3">
-        <v>74800</v>
+        <v>69300</v>
       </c>
       <c r="H101" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I101" s="3">
-        <v>4500</v>
+        <v>4100</v>
       </c>
       <c r="J101" s="3">
         <v>400</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>35500</v>
+        <v>32900</v>
       </c>
       <c r="E102" s="3">
-        <v>117000</v>
+        <v>108500</v>
       </c>
       <c r="F102" s="3">
-        <v>160900</v>
+        <v>149100</v>
       </c>
       <c r="G102" s="3">
-        <v>197500</v>
+        <v>183100</v>
       </c>
       <c r="H102" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="I102" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="J102" s="3">
-        <v>7900</v>
+        <v>7300</v>
       </c>
       <c r="K102" s="3">
         <v>-1000</v>

--- a/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>IRS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42185</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41820</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41455</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41090</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>946700</v>
+        <v>1182100</v>
       </c>
       <c r="E8" s="3">
-        <v>798200</v>
+        <v>1137500</v>
       </c>
       <c r="F8" s="3">
-        <v>809700</v>
+        <v>725900</v>
       </c>
       <c r="G8" s="3">
-        <v>175300</v>
+        <v>736300</v>
       </c>
       <c r="H8" s="3">
-        <v>46200</v>
+        <v>159400</v>
       </c>
       <c r="I8" s="3">
-        <v>38600</v>
+        <v>42000</v>
       </c>
       <c r="J8" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K8" s="3">
         <v>29700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>41100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>569900</v>
+        <v>767600</v>
       </c>
       <c r="E9" s="3">
-        <v>470100</v>
+        <v>732900</v>
       </c>
       <c r="F9" s="3">
-        <v>1127700</v>
+        <v>427500</v>
       </c>
       <c r="G9" s="3">
-        <v>603700</v>
+        <v>1025500</v>
       </c>
       <c r="H9" s="3">
-        <v>18500</v>
+        <v>549000</v>
       </c>
       <c r="I9" s="3">
-        <v>18400</v>
+        <v>16800</v>
       </c>
       <c r="J9" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K9" s="3">
         <v>29500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39400</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>376800</v>
+        <v>414500</v>
       </c>
       <c r="E10" s="3">
-        <v>328100</v>
+        <v>404600</v>
       </c>
       <c r="F10" s="3">
-        <v>-318000</v>
+        <v>298400</v>
       </c>
       <c r="G10" s="3">
-        <v>-428400</v>
+        <v>-289200</v>
       </c>
       <c r="H10" s="3">
-        <v>27700</v>
+        <v>-389600</v>
       </c>
       <c r="I10" s="3">
-        <v>20200</v>
+        <v>25200</v>
       </c>
       <c r="J10" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,56 +887,62 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-1900</v>
+        <v>33800</v>
       </c>
       <c r="E14" s="3">
-        <v>-9200</v>
+        <v>-4400</v>
       </c>
       <c r="F14" s="3">
-        <v>5600</v>
+        <v>-8400</v>
       </c>
       <c r="G14" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>300</v>
       </c>
       <c r="I14" s="3">
         <v>300</v>
       </c>
       <c r="J14" s="3">
+        <v>200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>39000</v>
+        <v>76600</v>
       </c>
       <c r="E15" s="3">
-        <v>36500</v>
+        <v>50600</v>
       </c>
       <c r="F15" s="3">
-        <v>47500</v>
+        <v>33200</v>
       </c>
       <c r="G15" s="3">
-        <v>10800</v>
+        <v>43200</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>9800</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -929,11 +951,14 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
         <v>-300</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1117100</v>
+        <v>707900</v>
       </c>
       <c r="E17" s="3">
-        <v>433900</v>
+        <v>1486200</v>
       </c>
       <c r="F17" s="3">
-        <v>769000</v>
+        <v>394500</v>
       </c>
       <c r="G17" s="3">
-        <v>-95500</v>
+        <v>699300</v>
       </c>
       <c r="H17" s="3">
-        <v>-27900</v>
+        <v>-86900</v>
       </c>
       <c r="I17" s="3">
-        <v>21800</v>
+        <v>-25300</v>
       </c>
       <c r="J17" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K17" s="3">
         <v>13000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-170300</v>
+        <v>474200</v>
       </c>
       <c r="E18" s="3">
-        <v>364400</v>
+        <v>-348700</v>
       </c>
       <c r="F18" s="3">
-        <v>40800</v>
+        <v>331300</v>
       </c>
       <c r="G18" s="3">
-        <v>270800</v>
+        <v>37100</v>
       </c>
       <c r="H18" s="3">
-        <v>74100</v>
+        <v>246200</v>
       </c>
       <c r="I18" s="3">
-        <v>16800</v>
+        <v>67300</v>
       </c>
       <c r="J18" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K18" s="3">
         <v>16700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-15200</v>
+        <v>-68700</v>
       </c>
       <c r="E20" s="3">
-        <v>-227300</v>
+        <v>-24700</v>
       </c>
       <c r="F20" s="3">
-        <v>79900</v>
+        <v>-206700</v>
       </c>
       <c r="G20" s="3">
-        <v>-35600</v>
+        <v>72600</v>
       </c>
       <c r="H20" s="3">
-        <v>1200</v>
+        <v>-32300</v>
       </c>
       <c r="I20" s="3">
-        <v>-22600</v>
+        <v>1100</v>
       </c>
       <c r="J20" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3100</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-83200</v>
+        <v>606700</v>
       </c>
       <c r="E21" s="3">
-        <v>229000</v>
+        <v>-241300</v>
       </c>
       <c r="F21" s="3">
-        <v>166500</v>
+        <v>208300</v>
       </c>
       <c r="G21" s="3">
-        <v>256000</v>
+        <v>151500</v>
       </c>
       <c r="H21" s="3">
-        <v>75700</v>
+        <v>232800</v>
       </c>
       <c r="I21" s="3">
-        <v>-2700</v>
+        <v>68900</v>
       </c>
       <c r="J21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K21" s="3">
         <v>15300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>208200</v>
+        <v>251100</v>
       </c>
       <c r="E22" s="3">
-        <v>183500</v>
+        <v>240700</v>
       </c>
       <c r="F22" s="3">
-        <v>178900</v>
+        <v>166900</v>
       </c>
       <c r="G22" s="3">
-        <v>31600</v>
+        <v>162700</v>
       </c>
       <c r="H22" s="3">
-        <v>17000</v>
+        <v>28800</v>
       </c>
       <c r="I22" s="3">
+        <v>15500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L22" s="3">
         <v>6400</v>
       </c>
-      <c r="J22" s="3">
-        <v>4400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>6400</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-393800</v>
+        <v>154400</v>
       </c>
       <c r="E23" s="3">
-        <v>-46400</v>
+        <v>-614100</v>
       </c>
       <c r="F23" s="3">
-        <v>-58300</v>
+        <v>-42200</v>
       </c>
       <c r="G23" s="3">
-        <v>203600</v>
+        <v>-53000</v>
       </c>
       <c r="H23" s="3">
-        <v>58200</v>
+        <v>185100</v>
       </c>
       <c r="I23" s="3">
-        <v>-12200</v>
+        <v>53000</v>
       </c>
       <c r="J23" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K23" s="3">
         <v>7900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7800</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-22900</v>
+        <v>84800</v>
       </c>
       <c r="E24" s="3">
-        <v>-85200</v>
+        <v>-52500</v>
       </c>
       <c r="F24" s="3">
-        <v>20200</v>
+        <v>-77500</v>
       </c>
       <c r="G24" s="3">
-        <v>85800</v>
+        <v>18400</v>
       </c>
       <c r="H24" s="3">
-        <v>21500</v>
+        <v>78100</v>
       </c>
       <c r="I24" s="3">
-        <v>-900</v>
+        <v>19500</v>
       </c>
       <c r="J24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2700</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-370800</v>
+        <v>69700</v>
       </c>
       <c r="E26" s="3">
-        <v>38800</v>
+        <v>-561600</v>
       </c>
       <c r="F26" s="3">
-        <v>-78500</v>
+        <v>35300</v>
       </c>
       <c r="G26" s="3">
-        <v>117800</v>
+        <v>-71400</v>
       </c>
       <c r="H26" s="3">
-        <v>36800</v>
+        <v>107100</v>
       </c>
       <c r="I26" s="3">
-        <v>-11300</v>
+        <v>33400</v>
       </c>
       <c r="J26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K26" s="3">
         <v>6100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-354100</v>
+        <v>-47300</v>
       </c>
       <c r="E27" s="3">
-        <v>-76700</v>
+        <v>-539900</v>
       </c>
       <c r="F27" s="3">
-        <v>-135100</v>
+        <v>-69700</v>
       </c>
       <c r="G27" s="3">
-        <v>110700</v>
+        <v>-122800</v>
       </c>
       <c r="H27" s="3">
-        <v>33400</v>
+        <v>100600</v>
       </c>
       <c r="I27" s="3">
-        <v>-11300</v>
+        <v>30300</v>
       </c>
       <c r="J27" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K27" s="3">
         <v>5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,29 +1343,32 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>6500</v>
+        <v>223200</v>
       </c>
       <c r="E29" s="3">
-        <v>276500</v>
+        <v>88100</v>
       </c>
       <c r="F29" s="3">
-        <v>119900</v>
+        <v>251500</v>
       </c>
       <c r="G29" s="3">
-        <v>11100</v>
+        <v>109000</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>10100</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15200</v>
+        <v>68700</v>
       </c>
       <c r="E32" s="3">
-        <v>227300</v>
+        <v>24700</v>
       </c>
       <c r="F32" s="3">
-        <v>-79900</v>
+        <v>206700</v>
       </c>
       <c r="G32" s="3">
-        <v>35600</v>
+        <v>-72600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1200</v>
+        <v>32300</v>
       </c>
       <c r="I32" s="3">
-        <v>22600</v>
+        <v>-1100</v>
       </c>
       <c r="J32" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K32" s="3">
         <v>4400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3100</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-347600</v>
+        <v>175800</v>
       </c>
       <c r="E33" s="3">
-        <v>199800</v>
+        <v>-451800</v>
       </c>
       <c r="F33" s="3">
-        <v>-15200</v>
+        <v>181700</v>
       </c>
       <c r="G33" s="3">
-        <v>121800</v>
+        <v>-13800</v>
       </c>
       <c r="H33" s="3">
-        <v>33400</v>
+        <v>110700</v>
       </c>
       <c r="I33" s="3">
-        <v>-11300</v>
+        <v>30300</v>
       </c>
       <c r="J33" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K33" s="3">
         <v>5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-347600</v>
+        <v>175800</v>
       </c>
       <c r="E35" s="3">
-        <v>199800</v>
+        <v>-451800</v>
       </c>
       <c r="F35" s="3">
-        <v>-15200</v>
+        <v>181700</v>
       </c>
       <c r="G35" s="3">
-        <v>121800</v>
+        <v>-13800</v>
       </c>
       <c r="H35" s="3">
-        <v>33400</v>
+        <v>110700</v>
       </c>
       <c r="I35" s="3">
-        <v>-11300</v>
+        <v>30300</v>
       </c>
       <c r="J35" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K35" s="3">
         <v>5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42185</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41820</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41455</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41090</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>820700</v>
+        <v>1115000</v>
       </c>
       <c r="E41" s="3">
-        <v>787800</v>
+        <v>1066700</v>
       </c>
       <c r="F41" s="3">
-        <v>337300</v>
+        <v>716400</v>
       </c>
       <c r="G41" s="3">
-        <v>376300</v>
+        <v>306700</v>
       </c>
       <c r="H41" s="3">
-        <v>10200</v>
+        <v>342200</v>
       </c>
       <c r="I41" s="3">
-        <v>16600</v>
+        <v>9300</v>
       </c>
       <c r="J41" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K41" s="3">
         <v>10800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>595500</v>
+        <v>281500</v>
       </c>
       <c r="E42" s="3">
-        <v>632400</v>
+        <v>773900</v>
       </c>
       <c r="F42" s="3">
-        <v>193900</v>
+        <v>575100</v>
       </c>
       <c r="G42" s="3">
-        <v>148100</v>
+        <v>176300</v>
       </c>
       <c r="H42" s="3">
-        <v>4000</v>
+        <v>134700</v>
       </c>
       <c r="I42" s="3">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="J42" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K42" s="3">
         <v>3300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2800</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>311200</v>
+        <v>462100</v>
       </c>
       <c r="E43" s="3">
-        <v>324000</v>
+        <v>404500</v>
       </c>
       <c r="F43" s="3">
-        <v>216000</v>
+        <v>294700</v>
       </c>
       <c r="G43" s="3">
-        <v>177300</v>
+        <v>196400</v>
       </c>
       <c r="H43" s="3">
-        <v>19000</v>
+        <v>161200</v>
       </c>
       <c r="I43" s="3">
-        <v>18000</v>
+        <v>17300</v>
       </c>
       <c r="J43" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K43" s="3">
         <v>11000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9100</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15600</v>
+        <v>57800</v>
       </c>
       <c r="E44" s="3">
-        <v>13300</v>
+        <v>20200</v>
       </c>
       <c r="F44" s="3">
-        <v>57800</v>
+        <v>12100</v>
       </c>
       <c r="G44" s="3">
-        <v>44000</v>
+        <v>52600</v>
       </c>
       <c r="H44" s="3">
+        <v>40100</v>
+      </c>
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="I44" s="3">
-        <v>500</v>
-      </c>
       <c r="J44" s="3">
+        <v>400</v>
+      </c>
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>174100</v>
+        <v>622100</v>
       </c>
       <c r="E45" s="3">
-        <v>270200</v>
+        <v>226300</v>
       </c>
       <c r="F45" s="3">
-        <v>83800</v>
+        <v>245700</v>
       </c>
       <c r="G45" s="3">
-        <v>22700</v>
+        <v>76200</v>
       </c>
       <c r="H45" s="3">
-        <v>2600</v>
+        <v>20600</v>
       </c>
       <c r="I45" s="3">
-        <v>24400</v>
+        <v>2300</v>
       </c>
       <c r="J45" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1917100</v>
+        <v>2538500</v>
       </c>
       <c r="E46" s="3">
-        <v>2027800</v>
+        <v>2491600</v>
       </c>
       <c r="F46" s="3">
-        <v>888700</v>
+        <v>1844000</v>
       </c>
       <c r="G46" s="3">
-        <v>580300</v>
+        <v>808200</v>
       </c>
       <c r="H46" s="3">
-        <v>25700</v>
+        <v>527700</v>
       </c>
       <c r="I46" s="3">
-        <v>44100</v>
+        <v>23400</v>
       </c>
       <c r="J46" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K46" s="3">
         <v>25000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>631000</v>
+        <v>1247100</v>
       </c>
       <c r="E47" s="3">
-        <v>764000</v>
+        <v>820200</v>
       </c>
       <c r="F47" s="3">
-        <v>177900</v>
+        <v>694800</v>
       </c>
       <c r="G47" s="3">
-        <v>289700</v>
+        <v>161700</v>
       </c>
       <c r="H47" s="3">
-        <v>61200</v>
+        <v>263500</v>
       </c>
       <c r="I47" s="3">
-        <v>42600</v>
+        <v>55700</v>
       </c>
       <c r="J47" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K47" s="3">
         <v>27000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>54000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3469600</v>
+        <v>3518600</v>
       </c>
       <c r="E48" s="3">
-        <v>4593800</v>
+        <v>4509400</v>
       </c>
       <c r="F48" s="3">
-        <v>1724300</v>
+        <v>4177400</v>
       </c>
       <c r="G48" s="3">
-        <v>2125400</v>
+        <v>1568000</v>
       </c>
       <c r="H48" s="3">
-        <v>319900</v>
+        <v>1932700</v>
       </c>
       <c r="I48" s="3">
-        <v>264700</v>
+        <v>290900</v>
       </c>
       <c r="J48" s="3">
+        <v>240700</v>
+      </c>
+      <c r="K48" s="3">
         <v>111100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>76200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>243100</v>
+        <v>342900</v>
       </c>
       <c r="E49" s="3">
-        <v>261800</v>
+        <v>315900</v>
       </c>
       <c r="F49" s="3">
-        <v>168100</v>
+        <v>238000</v>
       </c>
       <c r="G49" s="3">
-        <v>159600</v>
+        <v>152900</v>
       </c>
       <c r="H49" s="3">
-        <v>1700</v>
+        <v>145200</v>
       </c>
       <c r="I49" s="3">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="J49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K49" s="3">
         <v>2300</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>179900</v>
+        <v>92600</v>
       </c>
       <c r="E52" s="3">
-        <v>474500</v>
+        <v>233800</v>
       </c>
       <c r="F52" s="3">
-        <v>179000</v>
+        <v>431500</v>
       </c>
       <c r="G52" s="3">
-        <v>129100</v>
+        <v>162800</v>
       </c>
       <c r="H52" s="3">
-        <v>5800</v>
+        <v>117400</v>
       </c>
       <c r="I52" s="3">
-        <v>2500</v>
+        <v>5300</v>
       </c>
       <c r="J52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K52" s="3">
         <v>5400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6200</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6440800</v>
+        <v>7739600</v>
       </c>
       <c r="E54" s="3">
-        <v>7149400</v>
+        <v>8371000</v>
       </c>
       <c r="F54" s="3">
-        <v>3138000</v>
+        <v>6501400</v>
       </c>
       <c r="G54" s="3">
-        <v>2607400</v>
+        <v>2853500</v>
       </c>
       <c r="H54" s="3">
-        <v>358200</v>
+        <v>2371000</v>
       </c>
       <c r="I54" s="3">
-        <v>307000</v>
+        <v>325800</v>
       </c>
       <c r="J54" s="3">
+        <v>279200</v>
+      </c>
+      <c r="K54" s="3">
         <v>113000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>151400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>251900</v>
+        <v>366200</v>
       </c>
       <c r="E57" s="3">
-        <v>311100</v>
+        <v>327400</v>
       </c>
       <c r="F57" s="3">
-        <v>172700</v>
+        <v>282900</v>
       </c>
       <c r="G57" s="3">
-        <v>150200</v>
+        <v>157000</v>
       </c>
       <c r="H57" s="3">
-        <v>5400</v>
+        <v>136600</v>
       </c>
       <c r="I57" s="3">
-        <v>10800</v>
+        <v>4900</v>
       </c>
       <c r="J57" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K57" s="3">
         <v>5600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>617500</v>
+        <v>1026800</v>
       </c>
       <c r="E58" s="3">
-        <v>540100</v>
+        <v>1364100</v>
       </c>
       <c r="F58" s="3">
-        <v>270400</v>
+        <v>491200</v>
       </c>
       <c r="G58" s="3">
-        <v>302000</v>
+        <v>245900</v>
       </c>
       <c r="H58" s="3">
-        <v>34100</v>
+        <v>274600</v>
       </c>
       <c r="I58" s="3">
-        <v>20100</v>
+        <v>31000</v>
       </c>
       <c r="J58" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K58" s="3">
         <v>11800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13200</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>134300</v>
+        <v>376400</v>
       </c>
       <c r="E59" s="3">
-        <v>138400</v>
+        <v>174500</v>
       </c>
       <c r="F59" s="3">
-        <v>187000</v>
+        <v>125900</v>
       </c>
       <c r="G59" s="3">
-        <v>139600</v>
+        <v>170100</v>
       </c>
       <c r="H59" s="3">
-        <v>23300</v>
+        <v>126900</v>
       </c>
       <c r="I59" s="3">
-        <v>24200</v>
+        <v>21200</v>
       </c>
       <c r="J59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K59" s="3">
         <v>12900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1003600</v>
+        <v>1769400</v>
       </c>
       <c r="E60" s="3">
-        <v>989700</v>
+        <v>1304400</v>
       </c>
       <c r="F60" s="3">
-        <v>630100</v>
+        <v>900000</v>
       </c>
       <c r="G60" s="3">
-        <v>591700</v>
+        <v>573000</v>
       </c>
       <c r="H60" s="3">
-        <v>36500</v>
+        <v>538000</v>
       </c>
       <c r="I60" s="3">
-        <v>34600</v>
+        <v>33200</v>
       </c>
       <c r="J60" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K60" s="3">
         <v>21800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29400</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3623500</v>
+        <v>3840100</v>
       </c>
       <c r="E61" s="3">
-        <v>3822100</v>
+        <v>4709400</v>
       </c>
       <c r="F61" s="3">
-        <v>1485800</v>
+        <v>3475700</v>
       </c>
       <c r="G61" s="3">
-        <v>1230500</v>
+        <v>1351100</v>
       </c>
       <c r="H61" s="3">
-        <v>50700</v>
+        <v>1119000</v>
       </c>
       <c r="I61" s="3">
-        <v>51000</v>
+        <v>46100</v>
       </c>
       <c r="J61" s="3">
+        <v>46300</v>
+      </c>
+      <c r="K61" s="3">
         <v>39700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>47400</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>649100</v>
+        <v>616600</v>
       </c>
       <c r="E62" s="3">
-        <v>715800</v>
+        <v>843600</v>
       </c>
       <c r="F62" s="3">
-        <v>379700</v>
+        <v>651000</v>
       </c>
       <c r="G62" s="3">
-        <v>305700</v>
+        <v>345300</v>
       </c>
       <c r="H62" s="3">
-        <v>90000</v>
+        <v>278000</v>
       </c>
       <c r="I62" s="3">
-        <v>72000</v>
+        <v>81900</v>
       </c>
       <c r="J62" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K62" s="3">
         <v>9200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6005500</v>
+        <v>7034700</v>
       </c>
       <c r="E66" s="3">
-        <v>6317100</v>
+        <v>7805300</v>
       </c>
       <c r="F66" s="3">
-        <v>2787000</v>
+        <v>5744500</v>
       </c>
       <c r="G66" s="3">
-        <v>2313800</v>
+        <v>2534400</v>
       </c>
       <c r="H66" s="3">
-        <v>186900</v>
+        <v>2104100</v>
       </c>
       <c r="I66" s="3">
-        <v>168300</v>
+        <v>169900</v>
       </c>
       <c r="J66" s="3">
+        <v>153100</v>
+      </c>
+      <c r="K66" s="3">
         <v>75700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>97800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>162500</v>
+        <v>350200</v>
       </c>
       <c r="E72" s="3">
-        <v>559500</v>
+        <v>211200</v>
       </c>
       <c r="F72" s="3">
-        <v>330500</v>
+        <v>508800</v>
       </c>
       <c r="G72" s="3">
-        <v>273000</v>
+        <v>300500</v>
       </c>
       <c r="H72" s="3">
-        <v>156000</v>
+        <v>248300</v>
       </c>
       <c r="I72" s="3">
-        <v>130100</v>
+        <v>141900</v>
       </c>
       <c r="J72" s="3">
+        <v>118300</v>
+      </c>
+      <c r="K72" s="3">
         <v>16600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>435300</v>
+        <v>704900</v>
       </c>
       <c r="E76" s="3">
-        <v>832300</v>
+        <v>565700</v>
       </c>
       <c r="F76" s="3">
-        <v>351000</v>
+        <v>756900</v>
       </c>
       <c r="G76" s="3">
-        <v>293500</v>
+        <v>319200</v>
       </c>
       <c r="H76" s="3">
-        <v>171400</v>
+        <v>266900</v>
       </c>
       <c r="I76" s="3">
-        <v>138700</v>
+        <v>155800</v>
       </c>
       <c r="J76" s="3">
+        <v>126100</v>
+      </c>
+      <c r="K76" s="3">
         <v>37300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53600</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42185</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41820</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41455</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41090</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-347600</v>
+        <v>175800</v>
       </c>
       <c r="E81" s="3">
-        <v>199800</v>
+        <v>-451800</v>
       </c>
       <c r="F81" s="3">
-        <v>-15200</v>
+        <v>181700</v>
       </c>
       <c r="G81" s="3">
-        <v>121800</v>
+        <v>-13800</v>
       </c>
       <c r="H81" s="3">
-        <v>33400</v>
+        <v>110700</v>
       </c>
       <c r="I81" s="3">
-        <v>-11300</v>
+        <v>30300</v>
       </c>
       <c r="J81" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K81" s="3">
         <v>5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>102200</v>
+        <v>200700</v>
       </c>
       <c r="E83" s="3">
-        <v>91800</v>
+        <v>131700</v>
       </c>
       <c r="F83" s="3">
-        <v>45800</v>
+        <v>83500</v>
       </c>
       <c r="G83" s="3">
-        <v>20800</v>
+        <v>41700</v>
       </c>
       <c r="H83" s="3">
+        <v>18900</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3">
-        <v>3100</v>
-      </c>
       <c r="J83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K83" s="3">
         <v>3000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3400</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>254500</v>
+        <v>378400</v>
       </c>
       <c r="E89" s="3">
-        <v>185700</v>
+        <v>330700</v>
       </c>
       <c r="F89" s="3">
-        <v>120800</v>
+        <v>168900</v>
       </c>
       <c r="G89" s="3">
-        <v>56000</v>
+        <v>109900</v>
       </c>
       <c r="H89" s="3">
-        <v>11300</v>
+        <v>50900</v>
       </c>
       <c r="I89" s="3">
-        <v>13900</v>
+        <v>10300</v>
       </c>
       <c r="J89" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K89" s="3">
         <v>11700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15900</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-157800</v>
+        <v>-115000</v>
       </c>
       <c r="E91" s="3">
-        <v>-126400</v>
+        <v>-141800</v>
       </c>
       <c r="F91" s="3">
-        <v>-54900</v>
+        <v>-115000</v>
       </c>
       <c r="G91" s="3">
-        <v>-18400</v>
+        <v>-50000</v>
       </c>
       <c r="H91" s="3">
-        <v>-6200</v>
+        <v>-16800</v>
       </c>
       <c r="I91" s="3">
-        <v>-3900</v>
+        <v>-5600</v>
       </c>
       <c r="J91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>106200</v>
+        <v>501500</v>
       </c>
       <c r="E94" s="3">
-        <v>-289900</v>
+        <v>138100</v>
       </c>
       <c r="F94" s="3">
-        <v>-28100</v>
+        <v>-263600</v>
       </c>
       <c r="G94" s="3">
-        <v>111600</v>
+        <v>-25500</v>
       </c>
       <c r="H94" s="3">
-        <v>3500</v>
+        <v>101500</v>
       </c>
       <c r="I94" s="3">
-        <v>-12400</v>
+        <v>3200</v>
       </c>
       <c r="J94" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5700</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3068,29 +3301,32 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-35000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-31800</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-900</v>
       </c>
-      <c r="I96" s="3">
-        <v>-1500</v>
-      </c>
       <c r="J96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-6000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-263500</v>
+        <v>-939400</v>
       </c>
       <c r="E100" s="3">
-        <v>-58500</v>
+        <v>-342500</v>
       </c>
       <c r="F100" s="3">
-        <v>20900</v>
+        <v>-53200</v>
       </c>
       <c r="G100" s="3">
-        <v>-53800</v>
+        <v>19000</v>
       </c>
       <c r="H100" s="3">
-        <v>-18900</v>
+        <v>-49000</v>
       </c>
       <c r="I100" s="3">
-        <v>-8100</v>
+        <v>-17200</v>
       </c>
       <c r="J100" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-64200</v>
+        <v>107800</v>
       </c>
       <c r="E101" s="3">
-        <v>271200</v>
+        <v>-83500</v>
       </c>
       <c r="F101" s="3">
-        <v>35500</v>
+        <v>246600</v>
       </c>
       <c r="G101" s="3">
-        <v>69300</v>
+        <v>32300</v>
       </c>
       <c r="H101" s="3">
-        <v>800</v>
+        <v>63100</v>
       </c>
       <c r="I101" s="3">
-        <v>4100</v>
+        <v>700</v>
       </c>
       <c r="J101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>32900</v>
+        <v>48300</v>
       </c>
       <c r="E102" s="3">
-        <v>108500</v>
+        <v>42800</v>
       </c>
       <c r="F102" s="3">
-        <v>149100</v>
+        <v>98700</v>
       </c>
       <c r="G102" s="3">
-        <v>183100</v>
+        <v>135600</v>
       </c>
       <c r="H102" s="3">
-        <v>-3200</v>
+        <v>166500</v>
       </c>
       <c r="I102" s="3">
-        <v>-2500</v>
+        <v>-2900</v>
       </c>
       <c r="J102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K102" s="3">
         <v>7300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1182100</v>
+        <v>1046100</v>
       </c>
       <c r="E8" s="3">
-        <v>1137500</v>
+        <v>1006600</v>
       </c>
       <c r="F8" s="3">
-        <v>725900</v>
+        <v>642400</v>
       </c>
       <c r="G8" s="3">
-        <v>736300</v>
+        <v>651600</v>
       </c>
       <c r="H8" s="3">
-        <v>159400</v>
+        <v>141000</v>
       </c>
       <c r="I8" s="3">
-        <v>42000</v>
+        <v>37200</v>
       </c>
       <c r="J8" s="3">
-        <v>35100</v>
+        <v>31100</v>
       </c>
       <c r="K8" s="3">
         <v>29700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>767600</v>
+        <v>679300</v>
       </c>
       <c r="E9" s="3">
-        <v>732900</v>
+        <v>648500</v>
       </c>
       <c r="F9" s="3">
-        <v>427500</v>
+        <v>378300</v>
       </c>
       <c r="G9" s="3">
-        <v>1025500</v>
+        <v>907500</v>
       </c>
       <c r="H9" s="3">
-        <v>549000</v>
+        <v>485800</v>
       </c>
       <c r="I9" s="3">
-        <v>16800</v>
+        <v>14900</v>
       </c>
       <c r="J9" s="3">
-        <v>16700</v>
+        <v>14800</v>
       </c>
       <c r="K9" s="3">
         <v>29500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>414500</v>
+        <v>366800</v>
       </c>
       <c r="E10" s="3">
-        <v>404600</v>
+        <v>358100</v>
       </c>
       <c r="F10" s="3">
-        <v>298400</v>
+        <v>264000</v>
       </c>
       <c r="G10" s="3">
-        <v>-289200</v>
+        <v>-255900</v>
       </c>
       <c r="H10" s="3">
-        <v>-389600</v>
+        <v>-344800</v>
       </c>
       <c r="I10" s="3">
-        <v>25200</v>
+        <v>22300</v>
       </c>
       <c r="J10" s="3">
-        <v>18400</v>
+        <v>16300</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -897,22 +897,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>33800</v>
+        <v>29900</v>
       </c>
       <c r="E14" s="3">
-        <v>-4400</v>
+        <v>-3900</v>
       </c>
       <c r="F14" s="3">
-        <v>-8400</v>
+        <v>-7400</v>
       </c>
       <c r="G14" s="3">
-        <v>5100</v>
+        <v>4500</v>
       </c>
       <c r="H14" s="3">
         <v>-200</v>
       </c>
       <c r="I14" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J14" s="3">
         <v>200</v>
@@ -930,19 +930,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>76600</v>
+        <v>67800</v>
       </c>
       <c r="E15" s="3">
-        <v>50600</v>
+        <v>44800</v>
       </c>
       <c r="F15" s="3">
-        <v>33200</v>
+        <v>29400</v>
       </c>
       <c r="G15" s="3">
-        <v>43200</v>
+        <v>38200</v>
       </c>
       <c r="H15" s="3">
-        <v>9800</v>
+        <v>8700</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>707900</v>
+        <v>626400</v>
       </c>
       <c r="E17" s="3">
-        <v>1486200</v>
+        <v>1315200</v>
       </c>
       <c r="F17" s="3">
-        <v>394500</v>
+        <v>349100</v>
       </c>
       <c r="G17" s="3">
-        <v>699300</v>
+        <v>618800</v>
       </c>
       <c r="H17" s="3">
-        <v>-86900</v>
+        <v>-76900</v>
       </c>
       <c r="I17" s="3">
-        <v>-25300</v>
+        <v>-22400</v>
       </c>
       <c r="J17" s="3">
-        <v>19800</v>
+        <v>17600</v>
       </c>
       <c r="K17" s="3">
         <v>13000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>474200</v>
+        <v>419600</v>
       </c>
       <c r="E18" s="3">
-        <v>-348700</v>
+        <v>-308500</v>
       </c>
       <c r="F18" s="3">
-        <v>331300</v>
+        <v>293200</v>
       </c>
       <c r="G18" s="3">
-        <v>37100</v>
+        <v>32800</v>
       </c>
       <c r="H18" s="3">
-        <v>246200</v>
+        <v>217900</v>
       </c>
       <c r="I18" s="3">
-        <v>67300</v>
+        <v>59600</v>
       </c>
       <c r="J18" s="3">
-        <v>15300</v>
+        <v>13500</v>
       </c>
       <c r="K18" s="3">
         <v>16700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-68700</v>
+        <v>-60800</v>
       </c>
       <c r="E20" s="3">
-        <v>-24700</v>
+        <v>-21800</v>
       </c>
       <c r="F20" s="3">
-        <v>-206700</v>
+        <v>-182900</v>
       </c>
       <c r="G20" s="3">
-        <v>72600</v>
+        <v>64300</v>
       </c>
       <c r="H20" s="3">
-        <v>-32300</v>
+        <v>-28600</v>
       </c>
       <c r="I20" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J20" s="3">
-        <v>-20500</v>
+        <v>-18200</v>
       </c>
       <c r="K20" s="3">
         <v>-4400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>606700</v>
+        <v>536800</v>
       </c>
       <c r="E21" s="3">
-        <v>-241300</v>
+        <v>-213600</v>
       </c>
       <c r="F21" s="3">
-        <v>208300</v>
+        <v>184300</v>
       </c>
       <c r="G21" s="3">
-        <v>151500</v>
+        <v>134000</v>
       </c>
       <c r="H21" s="3">
-        <v>232800</v>
+        <v>206000</v>
       </c>
       <c r="I21" s="3">
-        <v>68900</v>
+        <v>60900</v>
       </c>
       <c r="J21" s="3">
-        <v>-2500</v>
+        <v>-2200</v>
       </c>
       <c r="K21" s="3">
         <v>15300</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>251100</v>
+        <v>222200</v>
       </c>
       <c r="E22" s="3">
-        <v>240700</v>
+        <v>213000</v>
       </c>
       <c r="F22" s="3">
-        <v>166900</v>
+        <v>147700</v>
       </c>
       <c r="G22" s="3">
-        <v>162700</v>
+        <v>144000</v>
       </c>
       <c r="H22" s="3">
-        <v>28800</v>
+        <v>25400</v>
       </c>
       <c r="I22" s="3">
-        <v>15500</v>
+        <v>13700</v>
       </c>
       <c r="J22" s="3">
-        <v>5800</v>
+        <v>5100</v>
       </c>
       <c r="K22" s="3">
         <v>4400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>154400</v>
+        <v>136700</v>
       </c>
       <c r="E23" s="3">
-        <v>-614100</v>
+        <v>-543400</v>
       </c>
       <c r="F23" s="3">
-        <v>-42200</v>
+        <v>-37300</v>
       </c>
       <c r="G23" s="3">
-        <v>-53000</v>
+        <v>-46900</v>
       </c>
       <c r="H23" s="3">
-        <v>185100</v>
+        <v>163800</v>
       </c>
       <c r="I23" s="3">
-        <v>53000</v>
+        <v>46900</v>
       </c>
       <c r="J23" s="3">
-        <v>-11100</v>
+        <v>-9800</v>
       </c>
       <c r="K23" s="3">
         <v>7900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>84800</v>
+        <v>75000</v>
       </c>
       <c r="E24" s="3">
-        <v>-52500</v>
+        <v>-46400</v>
       </c>
       <c r="F24" s="3">
-        <v>-77500</v>
+        <v>-68600</v>
       </c>
       <c r="G24" s="3">
-        <v>18400</v>
+        <v>16300</v>
       </c>
       <c r="H24" s="3">
-        <v>78100</v>
+        <v>69100</v>
       </c>
       <c r="I24" s="3">
-        <v>19500</v>
+        <v>17300</v>
       </c>
       <c r="J24" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="K24" s="3">
         <v>1800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>69700</v>
+        <v>61700</v>
       </c>
       <c r="E26" s="3">
-        <v>-561600</v>
+        <v>-497000</v>
       </c>
       <c r="F26" s="3">
-        <v>35300</v>
+        <v>31200</v>
       </c>
       <c r="G26" s="3">
-        <v>-71400</v>
+        <v>-63200</v>
       </c>
       <c r="H26" s="3">
-        <v>107100</v>
+        <v>94800</v>
       </c>
       <c r="I26" s="3">
-        <v>33400</v>
+        <v>29600</v>
       </c>
       <c r="J26" s="3">
-        <v>-10300</v>
+        <v>-9100</v>
       </c>
       <c r="K26" s="3">
         <v>6100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-47300</v>
+        <v>-41900</v>
       </c>
       <c r="E27" s="3">
-        <v>-539900</v>
+        <v>-477800</v>
       </c>
       <c r="F27" s="3">
-        <v>-69700</v>
+        <v>-61700</v>
       </c>
       <c r="G27" s="3">
-        <v>-122800</v>
+        <v>-108700</v>
       </c>
       <c r="H27" s="3">
-        <v>100600</v>
+        <v>89100</v>
       </c>
       <c r="I27" s="3">
-        <v>30300</v>
+        <v>26900</v>
       </c>
       <c r="J27" s="3">
-        <v>-10200</v>
+        <v>-9100</v>
       </c>
       <c r="K27" s="3">
         <v>5300</v>
@@ -1353,19 +1353,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>223200</v>
+        <v>197500</v>
       </c>
       <c r="E29" s="3">
-        <v>88100</v>
+        <v>78000</v>
       </c>
       <c r="F29" s="3">
-        <v>251500</v>
+        <v>222500</v>
       </c>
       <c r="G29" s="3">
-        <v>109000</v>
+        <v>96500</v>
       </c>
       <c r="H29" s="3">
-        <v>10100</v>
+        <v>8900</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>68700</v>
+        <v>60800</v>
       </c>
       <c r="E32" s="3">
-        <v>24700</v>
+        <v>21800</v>
       </c>
       <c r="F32" s="3">
-        <v>206700</v>
+        <v>182900</v>
       </c>
       <c r="G32" s="3">
-        <v>-72600</v>
+        <v>-64300</v>
       </c>
       <c r="H32" s="3">
-        <v>32300</v>
+        <v>28600</v>
       </c>
       <c r="I32" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J32" s="3">
-        <v>20500</v>
+        <v>18200</v>
       </c>
       <c r="K32" s="3">
         <v>4400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>175800</v>
+        <v>155600</v>
       </c>
       <c r="E33" s="3">
-        <v>-451800</v>
+        <v>-399800</v>
       </c>
       <c r="F33" s="3">
-        <v>181700</v>
+        <v>160800</v>
       </c>
       <c r="G33" s="3">
-        <v>-13800</v>
+        <v>-12200</v>
       </c>
       <c r="H33" s="3">
-        <v>110700</v>
+        <v>98000</v>
       </c>
       <c r="I33" s="3">
-        <v>30300</v>
+        <v>26900</v>
       </c>
       <c r="J33" s="3">
-        <v>-10200</v>
+        <v>-9100</v>
       </c>
       <c r="K33" s="3">
         <v>5300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>175800</v>
+        <v>155600</v>
       </c>
       <c r="E35" s="3">
-        <v>-451800</v>
+        <v>-399800</v>
       </c>
       <c r="F35" s="3">
-        <v>181700</v>
+        <v>160800</v>
       </c>
       <c r="G35" s="3">
-        <v>-13800</v>
+        <v>-12200</v>
       </c>
       <c r="H35" s="3">
-        <v>110700</v>
+        <v>98000</v>
       </c>
       <c r="I35" s="3">
-        <v>30300</v>
+        <v>26900</v>
       </c>
       <c r="J35" s="3">
-        <v>-10200</v>
+        <v>-9100</v>
       </c>
       <c r="K35" s="3">
         <v>5300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1115000</v>
+        <v>986700</v>
       </c>
       <c r="E41" s="3">
-        <v>1066700</v>
+        <v>944000</v>
       </c>
       <c r="F41" s="3">
-        <v>716400</v>
+        <v>634000</v>
       </c>
       <c r="G41" s="3">
-        <v>306700</v>
+        <v>271400</v>
       </c>
       <c r="H41" s="3">
-        <v>342200</v>
+        <v>302800</v>
       </c>
       <c r="I41" s="3">
-        <v>9300</v>
+        <v>8200</v>
       </c>
       <c r="J41" s="3">
-        <v>15100</v>
+        <v>13300</v>
       </c>
       <c r="K41" s="3">
         <v>10800</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>281500</v>
+        <v>249100</v>
       </c>
       <c r="E42" s="3">
-        <v>773900</v>
+        <v>684800</v>
       </c>
       <c r="F42" s="3">
-        <v>575100</v>
+        <v>508900</v>
       </c>
       <c r="G42" s="3">
-        <v>176300</v>
+        <v>156000</v>
       </c>
       <c r="H42" s="3">
-        <v>134700</v>
+        <v>119200</v>
       </c>
       <c r="I42" s="3">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="J42" s="3">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="K42" s="3">
         <v>3300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>462100</v>
+        <v>409000</v>
       </c>
       <c r="E43" s="3">
-        <v>404500</v>
+        <v>357900</v>
       </c>
       <c r="F43" s="3">
-        <v>294700</v>
+        <v>260800</v>
       </c>
       <c r="G43" s="3">
-        <v>196400</v>
+        <v>173800</v>
       </c>
       <c r="H43" s="3">
-        <v>161200</v>
+        <v>142700</v>
       </c>
       <c r="I43" s="3">
-        <v>17300</v>
+        <v>15300</v>
       </c>
       <c r="J43" s="3">
-        <v>16400</v>
+        <v>14500</v>
       </c>
       <c r="K43" s="3">
         <v>11000</v>
@@ -1751,22 +1751,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>57800</v>
+        <v>51100</v>
       </c>
       <c r="E44" s="3">
-        <v>20200</v>
+        <v>17900</v>
       </c>
       <c r="F44" s="3">
-        <v>12100</v>
+        <v>10700</v>
       </c>
       <c r="G44" s="3">
-        <v>52600</v>
+        <v>46500</v>
       </c>
       <c r="H44" s="3">
-        <v>40100</v>
+        <v>35400</v>
       </c>
       <c r="I44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J44" s="3">
         <v>400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>622100</v>
+        <v>550500</v>
       </c>
       <c r="E45" s="3">
-        <v>226300</v>
+        <v>200300</v>
       </c>
       <c r="F45" s="3">
-        <v>245700</v>
+        <v>217400</v>
       </c>
       <c r="G45" s="3">
-        <v>76200</v>
+        <v>67400</v>
       </c>
       <c r="H45" s="3">
-        <v>20600</v>
+        <v>18300</v>
       </c>
       <c r="I45" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="J45" s="3">
-        <v>22200</v>
+        <v>19600</v>
       </c>
       <c r="K45" s="3">
         <v>1500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2538500</v>
+        <v>2246400</v>
       </c>
       <c r="E46" s="3">
-        <v>2491600</v>
+        <v>2204900</v>
       </c>
       <c r="F46" s="3">
-        <v>1844000</v>
+        <v>1631800</v>
       </c>
       <c r="G46" s="3">
-        <v>808200</v>
+        <v>715200</v>
       </c>
       <c r="H46" s="3">
-        <v>527700</v>
+        <v>467000</v>
       </c>
       <c r="I46" s="3">
-        <v>23400</v>
+        <v>20700</v>
       </c>
       <c r="J46" s="3">
-        <v>40100</v>
+        <v>35500</v>
       </c>
       <c r="K46" s="3">
         <v>25000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1247100</v>
+        <v>1103600</v>
       </c>
       <c r="E47" s="3">
-        <v>820200</v>
+        <v>725800</v>
       </c>
       <c r="F47" s="3">
-        <v>694800</v>
+        <v>614800</v>
       </c>
       <c r="G47" s="3">
-        <v>161700</v>
+        <v>143100</v>
       </c>
       <c r="H47" s="3">
-        <v>263500</v>
+        <v>233100</v>
       </c>
       <c r="I47" s="3">
-        <v>55700</v>
+        <v>49300</v>
       </c>
       <c r="J47" s="3">
-        <v>38800</v>
+        <v>34300</v>
       </c>
       <c r="K47" s="3">
         <v>27000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3518600</v>
+        <v>3113700</v>
       </c>
       <c r="E48" s="3">
-        <v>4509400</v>
+        <v>3990500</v>
       </c>
       <c r="F48" s="3">
-        <v>4177400</v>
+        <v>3696700</v>
       </c>
       <c r="G48" s="3">
-        <v>1568000</v>
+        <v>1387600</v>
       </c>
       <c r="H48" s="3">
-        <v>1932700</v>
+        <v>1710300</v>
       </c>
       <c r="I48" s="3">
-        <v>290900</v>
+        <v>257400</v>
       </c>
       <c r="J48" s="3">
-        <v>240700</v>
+        <v>213000</v>
       </c>
       <c r="K48" s="3">
         <v>111100</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>342900</v>
+        <v>303400</v>
       </c>
       <c r="E49" s="3">
-        <v>315900</v>
+        <v>279600</v>
       </c>
       <c r="F49" s="3">
-        <v>238000</v>
+        <v>210600</v>
       </c>
       <c r="G49" s="3">
-        <v>152900</v>
+        <v>135300</v>
       </c>
       <c r="H49" s="3">
-        <v>145200</v>
+        <v>128500</v>
       </c>
       <c r="I49" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="J49" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="K49" s="3">
         <v>2300</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>92600</v>
+        <v>81900</v>
       </c>
       <c r="E52" s="3">
-        <v>233800</v>
+        <v>206900</v>
       </c>
       <c r="F52" s="3">
-        <v>431500</v>
+        <v>381900</v>
       </c>
       <c r="G52" s="3">
-        <v>162800</v>
+        <v>144000</v>
       </c>
       <c r="H52" s="3">
-        <v>117400</v>
+        <v>103900</v>
       </c>
       <c r="I52" s="3">
-        <v>5300</v>
+        <v>4700</v>
       </c>
       <c r="J52" s="3">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="K52" s="3">
         <v>5400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7739600</v>
+        <v>6849000</v>
       </c>
       <c r="E54" s="3">
-        <v>8371000</v>
+        <v>7407700</v>
       </c>
       <c r="F54" s="3">
-        <v>6501400</v>
+        <v>5753300</v>
       </c>
       <c r="G54" s="3">
-        <v>2853500</v>
+        <v>2525200</v>
       </c>
       <c r="H54" s="3">
-        <v>2371000</v>
+        <v>2098200</v>
       </c>
       <c r="I54" s="3">
-        <v>325800</v>
+        <v>288300</v>
       </c>
       <c r="J54" s="3">
-        <v>279200</v>
+        <v>247100</v>
       </c>
       <c r="K54" s="3">
         <v>113000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>366200</v>
+        <v>324000</v>
       </c>
       <c r="E57" s="3">
-        <v>327400</v>
+        <v>289700</v>
       </c>
       <c r="F57" s="3">
-        <v>282900</v>
+        <v>250400</v>
       </c>
       <c r="G57" s="3">
-        <v>157000</v>
+        <v>139000</v>
       </c>
       <c r="H57" s="3">
-        <v>136600</v>
+        <v>120900</v>
       </c>
       <c r="I57" s="3">
-        <v>4900</v>
+        <v>4300</v>
       </c>
       <c r="J57" s="3">
-        <v>9800</v>
+        <v>8700</v>
       </c>
       <c r="K57" s="3">
         <v>5600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1026800</v>
+        <v>908700</v>
       </c>
       <c r="E58" s="3">
-        <v>1364100</v>
+        <v>1207100</v>
       </c>
       <c r="F58" s="3">
-        <v>491200</v>
+        <v>434700</v>
       </c>
       <c r="G58" s="3">
-        <v>245900</v>
+        <v>217600</v>
       </c>
       <c r="H58" s="3">
-        <v>274600</v>
+        <v>243000</v>
       </c>
       <c r="I58" s="3">
-        <v>31000</v>
+        <v>27400</v>
       </c>
       <c r="J58" s="3">
-        <v>18300</v>
+        <v>16200</v>
       </c>
       <c r="K58" s="3">
         <v>11800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>376400</v>
+        <v>333100</v>
       </c>
       <c r="E59" s="3">
-        <v>174500</v>
+        <v>154400</v>
       </c>
       <c r="F59" s="3">
-        <v>125900</v>
+        <v>111400</v>
       </c>
       <c r="G59" s="3">
-        <v>170100</v>
+        <v>150500</v>
       </c>
       <c r="H59" s="3">
-        <v>126900</v>
+        <v>112300</v>
       </c>
       <c r="I59" s="3">
-        <v>21200</v>
+        <v>18700</v>
       </c>
       <c r="J59" s="3">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="K59" s="3">
         <v>12900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1769400</v>
+        <v>1565800</v>
       </c>
       <c r="E60" s="3">
-        <v>1304400</v>
+        <v>1154300</v>
       </c>
       <c r="F60" s="3">
-        <v>900000</v>
+        <v>796400</v>
       </c>
       <c r="G60" s="3">
-        <v>573000</v>
+        <v>507100</v>
       </c>
       <c r="H60" s="3">
-        <v>538000</v>
+        <v>476100</v>
       </c>
       <c r="I60" s="3">
-        <v>33200</v>
+        <v>29400</v>
       </c>
       <c r="J60" s="3">
-        <v>31500</v>
+        <v>27800</v>
       </c>
       <c r="K60" s="3">
         <v>21800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3840100</v>
+        <v>3398200</v>
       </c>
       <c r="E61" s="3">
-        <v>4709400</v>
+        <v>4167500</v>
       </c>
       <c r="F61" s="3">
-        <v>3475700</v>
+        <v>3075700</v>
       </c>
       <c r="G61" s="3">
-        <v>1351100</v>
+        <v>1195600</v>
       </c>
       <c r="H61" s="3">
-        <v>1119000</v>
+        <v>990200</v>
       </c>
       <c r="I61" s="3">
-        <v>46100</v>
+        <v>40800</v>
       </c>
       <c r="J61" s="3">
-        <v>46300</v>
+        <v>41000</v>
       </c>
       <c r="K61" s="3">
         <v>39700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>616600</v>
+        <v>545600</v>
       </c>
       <c r="E62" s="3">
-        <v>843600</v>
+        <v>746500</v>
       </c>
       <c r="F62" s="3">
-        <v>651000</v>
+        <v>576100</v>
       </c>
       <c r="G62" s="3">
-        <v>345300</v>
+        <v>305600</v>
       </c>
       <c r="H62" s="3">
-        <v>278000</v>
+        <v>246000</v>
       </c>
       <c r="I62" s="3">
-        <v>81900</v>
+        <v>72500</v>
       </c>
       <c r="J62" s="3">
-        <v>65500</v>
+        <v>57900</v>
       </c>
       <c r="K62" s="3">
         <v>9200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7034700</v>
+        <v>6225200</v>
       </c>
       <c r="E66" s="3">
-        <v>7805300</v>
+        <v>6907100</v>
       </c>
       <c r="F66" s="3">
-        <v>5744500</v>
+        <v>5083500</v>
       </c>
       <c r="G66" s="3">
-        <v>2534400</v>
+        <v>2242700</v>
       </c>
       <c r="H66" s="3">
-        <v>2104100</v>
+        <v>1862000</v>
       </c>
       <c r="I66" s="3">
-        <v>169900</v>
+        <v>150400</v>
       </c>
       <c r="J66" s="3">
-        <v>153100</v>
+        <v>135500</v>
       </c>
       <c r="K66" s="3">
         <v>75700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>350200</v>
+        <v>309900</v>
       </c>
       <c r="E72" s="3">
-        <v>211200</v>
+        <v>186900</v>
       </c>
       <c r="F72" s="3">
-        <v>508800</v>
+        <v>450300</v>
       </c>
       <c r="G72" s="3">
-        <v>300500</v>
+        <v>265900</v>
       </c>
       <c r="H72" s="3">
-        <v>248300</v>
+        <v>219700</v>
       </c>
       <c r="I72" s="3">
-        <v>141900</v>
+        <v>125500</v>
       </c>
       <c r="J72" s="3">
-        <v>118300</v>
+        <v>104700</v>
       </c>
       <c r="K72" s="3">
         <v>16600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>704900</v>
+        <v>623800</v>
       </c>
       <c r="E76" s="3">
-        <v>565700</v>
+        <v>500600</v>
       </c>
       <c r="F76" s="3">
-        <v>756900</v>
+        <v>669800</v>
       </c>
       <c r="G76" s="3">
-        <v>319200</v>
+        <v>282400</v>
       </c>
       <c r="H76" s="3">
-        <v>266900</v>
+        <v>236200</v>
       </c>
       <c r="I76" s="3">
-        <v>155800</v>
+        <v>137900</v>
       </c>
       <c r="J76" s="3">
-        <v>126100</v>
+        <v>111600</v>
       </c>
       <c r="K76" s="3">
         <v>37300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>175800</v>
+        <v>155600</v>
       </c>
       <c r="E81" s="3">
-        <v>-451800</v>
+        <v>-399800</v>
       </c>
       <c r="F81" s="3">
-        <v>181700</v>
+        <v>160800</v>
       </c>
       <c r="G81" s="3">
-        <v>-13800</v>
+        <v>-12200</v>
       </c>
       <c r="H81" s="3">
-        <v>110700</v>
+        <v>98000</v>
       </c>
       <c r="I81" s="3">
-        <v>30300</v>
+        <v>26900</v>
       </c>
       <c r="J81" s="3">
-        <v>-10200</v>
+        <v>-9100</v>
       </c>
       <c r="K81" s="3">
         <v>5300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200700</v>
+        <v>177600</v>
       </c>
       <c r="E83" s="3">
-        <v>131700</v>
+        <v>116600</v>
       </c>
       <c r="F83" s="3">
-        <v>83500</v>
+        <v>73900</v>
       </c>
       <c r="G83" s="3">
-        <v>41700</v>
+        <v>36900</v>
       </c>
       <c r="H83" s="3">
-        <v>18900</v>
+        <v>16700</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K83" s="3">
         <v>3000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>378400</v>
+        <v>334800</v>
       </c>
       <c r="E89" s="3">
-        <v>330700</v>
+        <v>292600</v>
       </c>
       <c r="F89" s="3">
-        <v>168900</v>
+        <v>149500</v>
       </c>
       <c r="G89" s="3">
-        <v>109900</v>
+        <v>97200</v>
       </c>
       <c r="H89" s="3">
-        <v>50900</v>
+        <v>45100</v>
       </c>
       <c r="I89" s="3">
-        <v>10300</v>
+        <v>9100</v>
       </c>
       <c r="J89" s="3">
-        <v>12600</v>
+        <v>11200</v>
       </c>
       <c r="K89" s="3">
         <v>11700</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-115000</v>
+        <v>-101800</v>
       </c>
       <c r="E91" s="3">
-        <v>-141800</v>
+        <v>-125500</v>
       </c>
       <c r="F91" s="3">
-        <v>-115000</v>
+        <v>-101700</v>
       </c>
       <c r="G91" s="3">
-        <v>-50000</v>
+        <v>-44200</v>
       </c>
       <c r="H91" s="3">
-        <v>-16800</v>
+        <v>-14800</v>
       </c>
       <c r="I91" s="3">
-        <v>-5600</v>
+        <v>-5000</v>
       </c>
       <c r="J91" s="3">
-        <v>-3600</v>
+        <v>-3100</v>
       </c>
       <c r="K91" s="3">
         <v>-3000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>501500</v>
+        <v>443800</v>
       </c>
       <c r="E94" s="3">
-        <v>138100</v>
+        <v>122200</v>
       </c>
       <c r="F94" s="3">
-        <v>-263600</v>
+        <v>-233300</v>
       </c>
       <c r="G94" s="3">
-        <v>-25500</v>
+        <v>-22600</v>
       </c>
       <c r="H94" s="3">
-        <v>101500</v>
+        <v>89800</v>
       </c>
       <c r="I94" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="J94" s="3">
-        <v>-11300</v>
+        <v>-10000</v>
       </c>
       <c r="K94" s="3">
         <v>-600</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-31800</v>
+        <v>-28200</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="J96" s="3">
-        <v>-1400</v>
+        <v>-1200</v>
       </c>
       <c r="K96" s="3">
         <v>-3300</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-939400</v>
+        <v>-831300</v>
       </c>
       <c r="E100" s="3">
-        <v>-342500</v>
+        <v>-303100</v>
       </c>
       <c r="F100" s="3">
-        <v>-53200</v>
+        <v>-47100</v>
       </c>
       <c r="G100" s="3">
-        <v>19000</v>
+        <v>16800</v>
       </c>
       <c r="H100" s="3">
-        <v>-49000</v>
+        <v>-43300</v>
       </c>
       <c r="I100" s="3">
-        <v>-17200</v>
+        <v>-15200</v>
       </c>
       <c r="J100" s="3">
-        <v>-7400</v>
+        <v>-6500</v>
       </c>
       <c r="K100" s="3">
         <v>-4200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>107800</v>
+        <v>95400</v>
       </c>
       <c r="E101" s="3">
-        <v>-83500</v>
+        <v>-73900</v>
       </c>
       <c r="F101" s="3">
-        <v>246600</v>
+        <v>218200</v>
       </c>
       <c r="G101" s="3">
-        <v>32300</v>
+        <v>28600</v>
       </c>
       <c r="H101" s="3">
-        <v>63100</v>
+        <v>55800</v>
       </c>
       <c r="I101" s="3">
         <v>700</v>
       </c>
       <c r="J101" s="3">
-        <v>3800</v>
+        <v>3300</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>48300</v>
+        <v>42800</v>
       </c>
       <c r="E102" s="3">
-        <v>42800</v>
+        <v>37900</v>
       </c>
       <c r="F102" s="3">
-        <v>98700</v>
+        <v>87300</v>
       </c>
       <c r="G102" s="3">
-        <v>135600</v>
+        <v>120000</v>
       </c>
       <c r="H102" s="3">
-        <v>166500</v>
+        <v>147300</v>
       </c>
       <c r="I102" s="3">
-        <v>-2900</v>
+        <v>-2600</v>
       </c>
       <c r="J102" s="3">
-        <v>-2300</v>
+        <v>-2000</v>
       </c>
       <c r="K102" s="3">
         <v>7300</v>

--- a/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1046100</v>
+        <v>1016400</v>
       </c>
       <c r="E8" s="3">
-        <v>1006600</v>
+        <v>978000</v>
       </c>
       <c r="F8" s="3">
-        <v>642400</v>
+        <v>624100</v>
       </c>
       <c r="G8" s="3">
-        <v>651600</v>
+        <v>633100</v>
       </c>
       <c r="H8" s="3">
-        <v>141000</v>
+        <v>137000</v>
       </c>
       <c r="I8" s="3">
-        <v>37200</v>
+        <v>36100</v>
       </c>
       <c r="J8" s="3">
-        <v>31100</v>
+        <v>30200</v>
       </c>
       <c r="K8" s="3">
         <v>29700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>679300</v>
+        <v>660000</v>
       </c>
       <c r="E9" s="3">
-        <v>648500</v>
+        <v>630100</v>
       </c>
       <c r="F9" s="3">
-        <v>378300</v>
+        <v>367600</v>
       </c>
       <c r="G9" s="3">
-        <v>907500</v>
+        <v>881700</v>
       </c>
       <c r="H9" s="3">
-        <v>485800</v>
+        <v>472000</v>
       </c>
       <c r="I9" s="3">
-        <v>14900</v>
+        <v>14400</v>
       </c>
       <c r="J9" s="3">
-        <v>14800</v>
+        <v>14400</v>
       </c>
       <c r="K9" s="3">
         <v>29500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>366800</v>
+        <v>356400</v>
       </c>
       <c r="E10" s="3">
-        <v>358100</v>
+        <v>347900</v>
       </c>
       <c r="F10" s="3">
-        <v>264000</v>
+        <v>256500</v>
       </c>
       <c r="G10" s="3">
-        <v>-255900</v>
+        <v>-248600</v>
       </c>
       <c r="H10" s="3">
-        <v>-344800</v>
+        <v>-335000</v>
       </c>
       <c r="I10" s="3">
-        <v>22300</v>
+        <v>21700</v>
       </c>
       <c r="J10" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -897,16 +897,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>29900</v>
+        <v>29000</v>
       </c>
       <c r="E14" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="F14" s="3">
-        <v>-7400</v>
+        <v>-7200</v>
       </c>
       <c r="G14" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H14" s="3">
         <v>-200</v>
@@ -930,19 +930,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>67800</v>
+        <v>65900</v>
       </c>
       <c r="E15" s="3">
-        <v>44800</v>
+        <v>43500</v>
       </c>
       <c r="F15" s="3">
-        <v>29400</v>
+        <v>28600</v>
       </c>
       <c r="G15" s="3">
-        <v>38200</v>
+        <v>37100</v>
       </c>
       <c r="H15" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>626400</v>
+        <v>608600</v>
       </c>
       <c r="E17" s="3">
-        <v>1315200</v>
+        <v>1277800</v>
       </c>
       <c r="F17" s="3">
-        <v>349100</v>
+        <v>339200</v>
       </c>
       <c r="G17" s="3">
-        <v>618800</v>
+        <v>601200</v>
       </c>
       <c r="H17" s="3">
-        <v>-76900</v>
+        <v>-74700</v>
       </c>
       <c r="I17" s="3">
-        <v>-22400</v>
+        <v>-21800</v>
       </c>
       <c r="J17" s="3">
-        <v>17600</v>
+        <v>17100</v>
       </c>
       <c r="K17" s="3">
         <v>13000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>419600</v>
+        <v>407700</v>
       </c>
       <c r="E18" s="3">
-        <v>-308500</v>
+        <v>-299800</v>
       </c>
       <c r="F18" s="3">
-        <v>293200</v>
+        <v>284900</v>
       </c>
       <c r="G18" s="3">
-        <v>32800</v>
+        <v>31900</v>
       </c>
       <c r="H18" s="3">
-        <v>217900</v>
+        <v>211700</v>
       </c>
       <c r="I18" s="3">
-        <v>59600</v>
+        <v>57900</v>
       </c>
       <c r="J18" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="K18" s="3">
         <v>16700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-60800</v>
+        <v>-59100</v>
       </c>
       <c r="E20" s="3">
-        <v>-21800</v>
+        <v>-21200</v>
       </c>
       <c r="F20" s="3">
-        <v>-182900</v>
+        <v>-177700</v>
       </c>
       <c r="G20" s="3">
-        <v>64300</v>
+        <v>62500</v>
       </c>
       <c r="H20" s="3">
-        <v>-28600</v>
+        <v>-27800</v>
       </c>
       <c r="I20" s="3">
         <v>1000</v>
       </c>
       <c r="J20" s="3">
-        <v>-18200</v>
+        <v>-17600</v>
       </c>
       <c r="K20" s="3">
         <v>-4400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>536800</v>
+        <v>521600</v>
       </c>
       <c r="E21" s="3">
-        <v>-213600</v>
+        <v>-207500</v>
       </c>
       <c r="F21" s="3">
-        <v>184300</v>
+        <v>179100</v>
       </c>
       <c r="G21" s="3">
-        <v>134000</v>
+        <v>130200</v>
       </c>
       <c r="H21" s="3">
-        <v>206000</v>
+        <v>200200</v>
       </c>
       <c r="I21" s="3">
-        <v>60900</v>
+        <v>59200</v>
       </c>
       <c r="J21" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="K21" s="3">
         <v>15300</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>222200</v>
+        <v>215900</v>
       </c>
       <c r="E22" s="3">
-        <v>213000</v>
+        <v>207000</v>
       </c>
       <c r="F22" s="3">
-        <v>147700</v>
+        <v>143500</v>
       </c>
       <c r="G22" s="3">
-        <v>144000</v>
+        <v>139900</v>
       </c>
       <c r="H22" s="3">
-        <v>25400</v>
+        <v>24700</v>
       </c>
       <c r="I22" s="3">
-        <v>13700</v>
+        <v>13300</v>
       </c>
       <c r="J22" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="K22" s="3">
         <v>4400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>136700</v>
+        <v>132800</v>
       </c>
       <c r="E23" s="3">
-        <v>-543400</v>
+        <v>-528000</v>
       </c>
       <c r="F23" s="3">
-        <v>-37300</v>
+        <v>-36300</v>
       </c>
       <c r="G23" s="3">
-        <v>-46900</v>
+        <v>-45600</v>
       </c>
       <c r="H23" s="3">
-        <v>163800</v>
+        <v>159200</v>
       </c>
       <c r="I23" s="3">
-        <v>46900</v>
+        <v>45500</v>
       </c>
       <c r="J23" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="K23" s="3">
         <v>7900</v>
@@ -1188,22 +1188,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>75000</v>
+        <v>72900</v>
       </c>
       <c r="E24" s="3">
-        <v>-46400</v>
+        <v>-45100</v>
       </c>
       <c r="F24" s="3">
-        <v>-68600</v>
+        <v>-66600</v>
       </c>
       <c r="G24" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="H24" s="3">
-        <v>69100</v>
+        <v>67100</v>
       </c>
       <c r="I24" s="3">
-        <v>17300</v>
+        <v>16800</v>
       </c>
       <c r="J24" s="3">
         <v>-700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>61700</v>
+        <v>59900</v>
       </c>
       <c r="E26" s="3">
-        <v>-497000</v>
+        <v>-482900</v>
       </c>
       <c r="F26" s="3">
-        <v>31200</v>
+        <v>30300</v>
       </c>
       <c r="G26" s="3">
-        <v>-63200</v>
+        <v>-61400</v>
       </c>
       <c r="H26" s="3">
-        <v>94800</v>
+        <v>92100</v>
       </c>
       <c r="I26" s="3">
-        <v>29600</v>
+        <v>28800</v>
       </c>
       <c r="J26" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="K26" s="3">
         <v>6100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-41900</v>
+        <v>-40700</v>
       </c>
       <c r="E27" s="3">
-        <v>-477800</v>
+        <v>-464200</v>
       </c>
       <c r="F27" s="3">
-        <v>-61700</v>
+        <v>-59900</v>
       </c>
       <c r="G27" s="3">
-        <v>-108700</v>
+        <v>-105600</v>
       </c>
       <c r="H27" s="3">
-        <v>89100</v>
+        <v>86500</v>
       </c>
       <c r="I27" s="3">
-        <v>26900</v>
+        <v>26100</v>
       </c>
       <c r="J27" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="K27" s="3">
         <v>5300</v>
@@ -1353,19 +1353,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>197500</v>
+        <v>191900</v>
       </c>
       <c r="E29" s="3">
-        <v>78000</v>
+        <v>75800</v>
       </c>
       <c r="F29" s="3">
-        <v>222500</v>
+        <v>216200</v>
       </c>
       <c r="G29" s="3">
-        <v>96500</v>
+        <v>93700</v>
       </c>
       <c r="H29" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>60800</v>
+        <v>59100</v>
       </c>
       <c r="E32" s="3">
-        <v>21800</v>
+        <v>21200</v>
       </c>
       <c r="F32" s="3">
-        <v>182900</v>
+        <v>177700</v>
       </c>
       <c r="G32" s="3">
-        <v>-64300</v>
+        <v>-62500</v>
       </c>
       <c r="H32" s="3">
-        <v>28600</v>
+        <v>27800</v>
       </c>
       <c r="I32" s="3">
         <v>-1000</v>
       </c>
       <c r="J32" s="3">
-        <v>18200</v>
+        <v>17600</v>
       </c>
       <c r="K32" s="3">
         <v>4400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>155600</v>
+        <v>151200</v>
       </c>
       <c r="E33" s="3">
-        <v>-399800</v>
+        <v>-388400</v>
       </c>
       <c r="F33" s="3">
-        <v>160800</v>
+        <v>156300</v>
       </c>
       <c r="G33" s="3">
-        <v>-12200</v>
+        <v>-11900</v>
       </c>
       <c r="H33" s="3">
-        <v>98000</v>
+        <v>95200</v>
       </c>
       <c r="I33" s="3">
-        <v>26900</v>
+        <v>26100</v>
       </c>
       <c r="J33" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="K33" s="3">
         <v>5300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>155600</v>
+        <v>151200</v>
       </c>
       <c r="E35" s="3">
-        <v>-399800</v>
+        <v>-388400</v>
       </c>
       <c r="F35" s="3">
-        <v>160800</v>
+        <v>156300</v>
       </c>
       <c r="G35" s="3">
-        <v>-12200</v>
+        <v>-11900</v>
       </c>
       <c r="H35" s="3">
-        <v>98000</v>
+        <v>95200</v>
       </c>
       <c r="I35" s="3">
-        <v>26900</v>
+        <v>26100</v>
       </c>
       <c r="J35" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="K35" s="3">
         <v>5300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>986700</v>
+        <v>958700</v>
       </c>
       <c r="E41" s="3">
-        <v>944000</v>
+        <v>917200</v>
       </c>
       <c r="F41" s="3">
-        <v>634000</v>
+        <v>616000</v>
       </c>
       <c r="G41" s="3">
-        <v>271400</v>
+        <v>263700</v>
       </c>
       <c r="H41" s="3">
-        <v>302800</v>
+        <v>294200</v>
       </c>
       <c r="I41" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="J41" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="K41" s="3">
         <v>10800</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>249100</v>
+        <v>242000</v>
       </c>
       <c r="E42" s="3">
-        <v>684800</v>
+        <v>665400</v>
       </c>
       <c r="F42" s="3">
-        <v>508900</v>
+        <v>494500</v>
       </c>
       <c r="G42" s="3">
-        <v>156000</v>
+        <v>151600</v>
       </c>
       <c r="H42" s="3">
-        <v>119200</v>
+        <v>115800</v>
       </c>
       <c r="I42" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J42" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K42" s="3">
         <v>3300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>409000</v>
+        <v>397300</v>
       </c>
       <c r="E43" s="3">
-        <v>357900</v>
+        <v>347800</v>
       </c>
       <c r="F43" s="3">
-        <v>260800</v>
+        <v>253400</v>
       </c>
       <c r="G43" s="3">
-        <v>173800</v>
+        <v>168900</v>
       </c>
       <c r="H43" s="3">
-        <v>142700</v>
+        <v>138600</v>
       </c>
       <c r="I43" s="3">
-        <v>15300</v>
+        <v>14800</v>
       </c>
       <c r="J43" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="K43" s="3">
         <v>11000</v>
@@ -1751,19 +1751,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>51100</v>
+        <v>49700</v>
       </c>
       <c r="E44" s="3">
-        <v>17900</v>
+        <v>17400</v>
       </c>
       <c r="F44" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="G44" s="3">
-        <v>46500</v>
+        <v>45200</v>
       </c>
       <c r="H44" s="3">
-        <v>35400</v>
+        <v>34400</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>550500</v>
+        <v>534900</v>
       </c>
       <c r="E45" s="3">
-        <v>200300</v>
+        <v>194600</v>
       </c>
       <c r="F45" s="3">
-        <v>217400</v>
+        <v>211300</v>
       </c>
       <c r="G45" s="3">
-        <v>67400</v>
+        <v>65500</v>
       </c>
       <c r="H45" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="I45" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J45" s="3">
-        <v>19600</v>
+        <v>19100</v>
       </c>
       <c r="K45" s="3">
         <v>1500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2246400</v>
+        <v>2182700</v>
       </c>
       <c r="E46" s="3">
-        <v>2204900</v>
+        <v>2142300</v>
       </c>
       <c r="F46" s="3">
-        <v>1631800</v>
+        <v>1585500</v>
       </c>
       <c r="G46" s="3">
-        <v>715200</v>
+        <v>694900</v>
       </c>
       <c r="H46" s="3">
-        <v>467000</v>
+        <v>453700</v>
       </c>
       <c r="I46" s="3">
-        <v>20700</v>
+        <v>20100</v>
       </c>
       <c r="J46" s="3">
-        <v>35500</v>
+        <v>34500</v>
       </c>
       <c r="K46" s="3">
         <v>25000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1103600</v>
+        <v>1072200</v>
       </c>
       <c r="E47" s="3">
-        <v>725800</v>
+        <v>705200</v>
       </c>
       <c r="F47" s="3">
-        <v>614800</v>
+        <v>597400</v>
       </c>
       <c r="G47" s="3">
-        <v>143100</v>
+        <v>139100</v>
       </c>
       <c r="H47" s="3">
-        <v>233100</v>
+        <v>226500</v>
       </c>
       <c r="I47" s="3">
-        <v>49300</v>
+        <v>47900</v>
       </c>
       <c r="J47" s="3">
-        <v>34300</v>
+        <v>33300</v>
       </c>
       <c r="K47" s="3">
         <v>27000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3113700</v>
+        <v>3025300</v>
       </c>
       <c r="E48" s="3">
-        <v>3990500</v>
+        <v>3877200</v>
       </c>
       <c r="F48" s="3">
-        <v>3696700</v>
+        <v>3591700</v>
       </c>
       <c r="G48" s="3">
-        <v>1387600</v>
+        <v>1348200</v>
       </c>
       <c r="H48" s="3">
-        <v>1710300</v>
+        <v>1661800</v>
       </c>
       <c r="I48" s="3">
-        <v>257400</v>
+        <v>250100</v>
       </c>
       <c r="J48" s="3">
-        <v>213000</v>
+        <v>206900</v>
       </c>
       <c r="K48" s="3">
         <v>111100</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>303400</v>
+        <v>294800</v>
       </c>
       <c r="E49" s="3">
-        <v>279600</v>
+        <v>271600</v>
       </c>
       <c r="F49" s="3">
-        <v>210600</v>
+        <v>204700</v>
       </c>
       <c r="G49" s="3">
-        <v>135300</v>
+        <v>131400</v>
       </c>
       <c r="H49" s="3">
-        <v>128500</v>
+        <v>124800</v>
       </c>
       <c r="I49" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J49" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K49" s="3">
         <v>2300</v>
@@ -2015,22 +2015,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>81900</v>
+        <v>79600</v>
       </c>
       <c r="E52" s="3">
-        <v>206900</v>
+        <v>201000</v>
       </c>
       <c r="F52" s="3">
-        <v>381900</v>
+        <v>371000</v>
       </c>
       <c r="G52" s="3">
-        <v>144000</v>
+        <v>139900</v>
       </c>
       <c r="H52" s="3">
-        <v>103900</v>
+        <v>100900</v>
       </c>
       <c r="I52" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="J52" s="3">
         <v>2000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6849000</v>
+        <v>6654600</v>
       </c>
       <c r="E54" s="3">
-        <v>7407700</v>
+        <v>7197400</v>
       </c>
       <c r="F54" s="3">
-        <v>5753300</v>
+        <v>5589900</v>
       </c>
       <c r="G54" s="3">
-        <v>2525200</v>
+        <v>2453500</v>
       </c>
       <c r="H54" s="3">
-        <v>2098200</v>
+        <v>2038600</v>
       </c>
       <c r="I54" s="3">
-        <v>288300</v>
+        <v>280100</v>
       </c>
       <c r="J54" s="3">
-        <v>247100</v>
+        <v>240100</v>
       </c>
       <c r="K54" s="3">
         <v>113000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>324000</v>
+        <v>314800</v>
       </c>
       <c r="E57" s="3">
-        <v>289700</v>
+        <v>281500</v>
       </c>
       <c r="F57" s="3">
-        <v>250400</v>
+        <v>243300</v>
       </c>
       <c r="G57" s="3">
-        <v>139000</v>
+        <v>135000</v>
       </c>
       <c r="H57" s="3">
-        <v>120900</v>
+        <v>117500</v>
       </c>
       <c r="I57" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="J57" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="K57" s="3">
         <v>5600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>908700</v>
+        <v>882900</v>
       </c>
       <c r="E58" s="3">
-        <v>1207100</v>
+        <v>1172800</v>
       </c>
       <c r="F58" s="3">
-        <v>434700</v>
+        <v>422300</v>
       </c>
       <c r="G58" s="3">
-        <v>217600</v>
+        <v>211400</v>
       </c>
       <c r="H58" s="3">
-        <v>243000</v>
+        <v>236100</v>
       </c>
       <c r="I58" s="3">
-        <v>27400</v>
+        <v>26600</v>
       </c>
       <c r="J58" s="3">
-        <v>16200</v>
+        <v>15800</v>
       </c>
       <c r="K58" s="3">
         <v>11800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>333100</v>
+        <v>323600</v>
       </c>
       <c r="E59" s="3">
-        <v>154400</v>
+        <v>150000</v>
       </c>
       <c r="F59" s="3">
-        <v>111400</v>
+        <v>108200</v>
       </c>
       <c r="G59" s="3">
-        <v>150500</v>
+        <v>146200</v>
       </c>
       <c r="H59" s="3">
-        <v>112300</v>
+        <v>109100</v>
       </c>
       <c r="I59" s="3">
-        <v>18700</v>
+        <v>18200</v>
       </c>
       <c r="J59" s="3">
-        <v>19500</v>
+        <v>18900</v>
       </c>
       <c r="K59" s="3">
         <v>12900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1565800</v>
+        <v>1521300</v>
       </c>
       <c r="E60" s="3">
-        <v>1154300</v>
+        <v>1121500</v>
       </c>
       <c r="F60" s="3">
-        <v>796400</v>
+        <v>773800</v>
       </c>
       <c r="G60" s="3">
-        <v>507100</v>
+        <v>492700</v>
       </c>
       <c r="H60" s="3">
-        <v>476100</v>
+        <v>462600</v>
       </c>
       <c r="I60" s="3">
-        <v>29400</v>
+        <v>28600</v>
       </c>
       <c r="J60" s="3">
-        <v>27800</v>
+        <v>27100</v>
       </c>
       <c r="K60" s="3">
         <v>21800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3398200</v>
+        <v>3301800</v>
       </c>
       <c r="E61" s="3">
-        <v>4167500</v>
+        <v>4049200</v>
       </c>
       <c r="F61" s="3">
-        <v>3075700</v>
+        <v>2988400</v>
       </c>
       <c r="G61" s="3">
-        <v>1195600</v>
+        <v>1161700</v>
       </c>
       <c r="H61" s="3">
-        <v>990200</v>
+        <v>962100</v>
       </c>
       <c r="I61" s="3">
-        <v>40800</v>
+        <v>39600</v>
       </c>
       <c r="J61" s="3">
-        <v>41000</v>
+        <v>39900</v>
       </c>
       <c r="K61" s="3">
         <v>39700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>545600</v>
+        <v>530100</v>
       </c>
       <c r="E62" s="3">
-        <v>746500</v>
+        <v>725300</v>
       </c>
       <c r="F62" s="3">
-        <v>576100</v>
+        <v>559700</v>
       </c>
       <c r="G62" s="3">
-        <v>305600</v>
+        <v>296900</v>
       </c>
       <c r="H62" s="3">
-        <v>246000</v>
+        <v>239000</v>
       </c>
       <c r="I62" s="3">
-        <v>72500</v>
+        <v>70400</v>
       </c>
       <c r="J62" s="3">
-        <v>57900</v>
+        <v>56300</v>
       </c>
       <c r="K62" s="3">
         <v>9200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6225200</v>
+        <v>6048500</v>
       </c>
       <c r="E66" s="3">
-        <v>6907100</v>
+        <v>6711000</v>
       </c>
       <c r="F66" s="3">
-        <v>5083500</v>
+        <v>4939200</v>
       </c>
       <c r="G66" s="3">
-        <v>2242700</v>
+        <v>2179100</v>
       </c>
       <c r="H66" s="3">
-        <v>1862000</v>
+        <v>1809100</v>
       </c>
       <c r="I66" s="3">
-        <v>150400</v>
+        <v>146100</v>
       </c>
       <c r="J66" s="3">
-        <v>135500</v>
+        <v>131600</v>
       </c>
       <c r="K66" s="3">
         <v>75700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>309900</v>
+        <v>301100</v>
       </c>
       <c r="E72" s="3">
-        <v>186900</v>
+        <v>181600</v>
       </c>
       <c r="F72" s="3">
-        <v>450300</v>
+        <v>437500</v>
       </c>
       <c r="G72" s="3">
-        <v>265900</v>
+        <v>258400</v>
       </c>
       <c r="H72" s="3">
-        <v>219700</v>
+        <v>213500</v>
       </c>
       <c r="I72" s="3">
-        <v>125500</v>
+        <v>122000</v>
       </c>
       <c r="J72" s="3">
-        <v>104700</v>
+        <v>101800</v>
       </c>
       <c r="K72" s="3">
         <v>16600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>623800</v>
+        <v>606100</v>
       </c>
       <c r="E76" s="3">
-        <v>500600</v>
+        <v>486400</v>
       </c>
       <c r="F76" s="3">
-        <v>669800</v>
+        <v>650800</v>
       </c>
       <c r="G76" s="3">
-        <v>282400</v>
+        <v>274400</v>
       </c>
       <c r="H76" s="3">
-        <v>236200</v>
+        <v>229500</v>
       </c>
       <c r="I76" s="3">
-        <v>137900</v>
+        <v>134000</v>
       </c>
       <c r="J76" s="3">
-        <v>111600</v>
+        <v>108400</v>
       </c>
       <c r="K76" s="3">
         <v>37300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>155600</v>
+        <v>151200</v>
       </c>
       <c r="E81" s="3">
-        <v>-399800</v>
+        <v>-388400</v>
       </c>
       <c r="F81" s="3">
-        <v>160800</v>
+        <v>156300</v>
       </c>
       <c r="G81" s="3">
-        <v>-12200</v>
+        <v>-11900</v>
       </c>
       <c r="H81" s="3">
-        <v>98000</v>
+        <v>95200</v>
       </c>
       <c r="I81" s="3">
-        <v>26900</v>
+        <v>26100</v>
       </c>
       <c r="J81" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="K81" s="3">
         <v>5300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>177600</v>
+        <v>172600</v>
       </c>
       <c r="E83" s="3">
-        <v>116600</v>
+        <v>113300</v>
       </c>
       <c r="F83" s="3">
-        <v>73900</v>
+        <v>71800</v>
       </c>
       <c r="G83" s="3">
-        <v>36900</v>
+        <v>35800</v>
       </c>
       <c r="H83" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K83" s="3">
         <v>3000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>334800</v>
+        <v>325300</v>
       </c>
       <c r="E89" s="3">
-        <v>292600</v>
+        <v>284300</v>
       </c>
       <c r="F89" s="3">
-        <v>149500</v>
+        <v>145200</v>
       </c>
       <c r="G89" s="3">
-        <v>97200</v>
+        <v>94500</v>
       </c>
       <c r="H89" s="3">
-        <v>45100</v>
+        <v>43800</v>
       </c>
       <c r="I89" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="J89" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="K89" s="3">
         <v>11700</v>
@@ -3151,22 +3151,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-101800</v>
+        <v>-98900</v>
       </c>
       <c r="E91" s="3">
-        <v>-125500</v>
+        <v>-122000</v>
       </c>
       <c r="F91" s="3">
-        <v>-101700</v>
+        <v>-98900</v>
       </c>
       <c r="G91" s="3">
-        <v>-44200</v>
+        <v>-43000</v>
       </c>
       <c r="H91" s="3">
-        <v>-14800</v>
+        <v>-14400</v>
       </c>
       <c r="I91" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="J91" s="3">
         <v>-3100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>443800</v>
+        <v>431200</v>
       </c>
       <c r="E94" s="3">
-        <v>122200</v>
+        <v>118700</v>
       </c>
       <c r="F94" s="3">
-        <v>-233300</v>
+        <v>-226700</v>
       </c>
       <c r="G94" s="3">
-        <v>-22600</v>
+        <v>-21900</v>
       </c>
       <c r="H94" s="3">
-        <v>89800</v>
+        <v>87200</v>
       </c>
       <c r="I94" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J94" s="3">
-        <v>-10000</v>
+        <v>-9700</v>
       </c>
       <c r="K94" s="3">
         <v>-600</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-28200</v>
+        <v>-27400</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="J96" s="3">
         <v>-1200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-831300</v>
+        <v>-807700</v>
       </c>
       <c r="E100" s="3">
-        <v>-303100</v>
+        <v>-294500</v>
       </c>
       <c r="F100" s="3">
-        <v>-47100</v>
+        <v>-45800</v>
       </c>
       <c r="G100" s="3">
-        <v>16800</v>
+        <v>16300</v>
       </c>
       <c r="H100" s="3">
-        <v>-43300</v>
+        <v>-42100</v>
       </c>
       <c r="I100" s="3">
-        <v>-15200</v>
+        <v>-14700</v>
       </c>
       <c r="J100" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="K100" s="3">
         <v>-4200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>95400</v>
+        <v>92700</v>
       </c>
       <c r="E101" s="3">
-        <v>-73900</v>
+        <v>-71800</v>
       </c>
       <c r="F101" s="3">
-        <v>218200</v>
+        <v>212000</v>
       </c>
       <c r="G101" s="3">
-        <v>28600</v>
+        <v>27800</v>
       </c>
       <c r="H101" s="3">
-        <v>55800</v>
+        <v>54200</v>
       </c>
       <c r="I101" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J101" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
@@ -3496,22 +3496,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>42800</v>
+        <v>41500</v>
       </c>
       <c r="E102" s="3">
-        <v>37900</v>
+        <v>36800</v>
       </c>
       <c r="F102" s="3">
-        <v>87300</v>
+        <v>84800</v>
       </c>
       <c r="G102" s="3">
-        <v>120000</v>
+        <v>116600</v>
       </c>
       <c r="H102" s="3">
-        <v>147300</v>
+        <v>143100</v>
       </c>
       <c r="I102" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="J102" s="3">
         <v>-2000</v>

--- a/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1016400</v>
+        <v>984800</v>
       </c>
       <c r="E8" s="3">
-        <v>978000</v>
+        <v>947600</v>
       </c>
       <c r="F8" s="3">
-        <v>624100</v>
+        <v>604700</v>
       </c>
       <c r="G8" s="3">
-        <v>633100</v>
+        <v>613400</v>
       </c>
       <c r="H8" s="3">
-        <v>137000</v>
+        <v>132800</v>
       </c>
       <c r="I8" s="3">
-        <v>36100</v>
+        <v>35000</v>
       </c>
       <c r="J8" s="3">
-        <v>30200</v>
+        <v>29200</v>
       </c>
       <c r="K8" s="3">
         <v>29700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>660000</v>
+        <v>639500</v>
       </c>
       <c r="E9" s="3">
-        <v>630100</v>
+        <v>610500</v>
       </c>
       <c r="F9" s="3">
-        <v>367600</v>
+        <v>356200</v>
       </c>
       <c r="G9" s="3">
-        <v>881700</v>
+        <v>854300</v>
       </c>
       <c r="H9" s="3">
-        <v>472000</v>
+        <v>457300</v>
       </c>
       <c r="I9" s="3">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="J9" s="3">
-        <v>14400</v>
+        <v>13900</v>
       </c>
       <c r="K9" s="3">
         <v>29500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>356400</v>
+        <v>345300</v>
       </c>
       <c r="E10" s="3">
-        <v>347900</v>
+        <v>337100</v>
       </c>
       <c r="F10" s="3">
-        <v>256500</v>
+        <v>248500</v>
       </c>
       <c r="G10" s="3">
-        <v>-248600</v>
+        <v>-240900</v>
       </c>
       <c r="H10" s="3">
-        <v>-335000</v>
+        <v>-324600</v>
       </c>
       <c r="I10" s="3">
-        <v>21700</v>
+        <v>21000</v>
       </c>
       <c r="J10" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -897,16 +897,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>29000</v>
+        <v>28100</v>
       </c>
       <c r="E14" s="3">
-        <v>-3800</v>
+        <v>-9100</v>
       </c>
       <c r="F14" s="3">
-        <v>-7200</v>
+        <v>-13900</v>
       </c>
       <c r="G14" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="H14" s="3">
         <v>-200</v>
@@ -930,19 +930,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>65900</v>
+        <v>63800</v>
       </c>
       <c r="E15" s="3">
-        <v>43500</v>
+        <v>42200</v>
       </c>
       <c r="F15" s="3">
-        <v>28600</v>
+        <v>27700</v>
       </c>
       <c r="G15" s="3">
-        <v>37100</v>
+        <v>36000</v>
       </c>
       <c r="H15" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>608600</v>
+        <v>589700</v>
       </c>
       <c r="E17" s="3">
-        <v>1277800</v>
+        <v>1232700</v>
       </c>
       <c r="F17" s="3">
-        <v>339200</v>
+        <v>321800</v>
       </c>
       <c r="G17" s="3">
-        <v>601200</v>
+        <v>582500</v>
       </c>
       <c r="H17" s="3">
-        <v>-74700</v>
+        <v>-72400</v>
       </c>
       <c r="I17" s="3">
-        <v>-21800</v>
+        <v>-21100</v>
       </c>
       <c r="J17" s="3">
-        <v>17100</v>
+        <v>16500</v>
       </c>
       <c r="K17" s="3">
         <v>13000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>407700</v>
+        <v>395100</v>
       </c>
       <c r="E18" s="3">
-        <v>-299800</v>
+        <v>-285000</v>
       </c>
       <c r="F18" s="3">
-        <v>284900</v>
+        <v>282900</v>
       </c>
       <c r="G18" s="3">
-        <v>31900</v>
+        <v>30900</v>
       </c>
       <c r="H18" s="3">
-        <v>211700</v>
+        <v>205100</v>
       </c>
       <c r="I18" s="3">
-        <v>57900</v>
+        <v>56100</v>
       </c>
       <c r="J18" s="3">
-        <v>13100</v>
+        <v>12700</v>
       </c>
       <c r="K18" s="3">
         <v>16700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-59100</v>
+        <v>-57200</v>
       </c>
       <c r="E20" s="3">
-        <v>-21200</v>
+        <v>-26000</v>
       </c>
       <c r="F20" s="3">
-        <v>-177700</v>
+        <v>-179000</v>
       </c>
       <c r="G20" s="3">
-        <v>62500</v>
+        <v>60500</v>
       </c>
       <c r="H20" s="3">
-        <v>-27800</v>
+        <v>-26900</v>
       </c>
       <c r="I20" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J20" s="3">
-        <v>-17600</v>
+        <v>-17100</v>
       </c>
       <c r="K20" s="3">
         <v>-4400</v>
@@ -1089,22 +1089,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>521600</v>
+        <v>505000</v>
       </c>
       <c r="E21" s="3">
-        <v>-207500</v>
+        <v>-201300</v>
       </c>
       <c r="F21" s="3">
-        <v>179100</v>
+        <v>173400</v>
       </c>
       <c r="G21" s="3">
-        <v>130200</v>
+        <v>126100</v>
       </c>
       <c r="H21" s="3">
-        <v>200200</v>
+        <v>193900</v>
       </c>
       <c r="I21" s="3">
-        <v>59200</v>
+        <v>57400</v>
       </c>
       <c r="J21" s="3">
         <v>-2100</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>215900</v>
+        <v>209200</v>
       </c>
       <c r="E22" s="3">
-        <v>207000</v>
+        <v>200600</v>
       </c>
       <c r="F22" s="3">
-        <v>143500</v>
+        <v>139000</v>
       </c>
       <c r="G22" s="3">
-        <v>139900</v>
+        <v>135500</v>
       </c>
       <c r="H22" s="3">
-        <v>24700</v>
+        <v>24000</v>
       </c>
       <c r="I22" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="J22" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="K22" s="3">
         <v>4400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>132800</v>
+        <v>128700</v>
       </c>
       <c r="E23" s="3">
-        <v>-528000</v>
+        <v>-511600</v>
       </c>
       <c r="F23" s="3">
-        <v>-36300</v>
+        <v>-35200</v>
       </c>
       <c r="G23" s="3">
-        <v>-45600</v>
+        <v>-44200</v>
       </c>
       <c r="H23" s="3">
-        <v>159200</v>
+        <v>154200</v>
       </c>
       <c r="I23" s="3">
-        <v>45500</v>
+        <v>44100</v>
       </c>
       <c r="J23" s="3">
-        <v>-9500</v>
+        <v>-9200</v>
       </c>
       <c r="K23" s="3">
         <v>7900</v>
@@ -1188,22 +1188,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>72900</v>
+        <v>70600</v>
       </c>
       <c r="E24" s="3">
-        <v>-45100</v>
+        <v>-43700</v>
       </c>
       <c r="F24" s="3">
-        <v>-66600</v>
+        <v>-64600</v>
       </c>
       <c r="G24" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="H24" s="3">
-        <v>67100</v>
+        <v>65000</v>
       </c>
       <c r="I24" s="3">
-        <v>16800</v>
+        <v>16300</v>
       </c>
       <c r="J24" s="3">
         <v>-700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>59900</v>
+        <v>58000</v>
       </c>
       <c r="E26" s="3">
-        <v>-482900</v>
+        <v>-467900</v>
       </c>
       <c r="F26" s="3">
-        <v>30300</v>
+        <v>29400</v>
       </c>
       <c r="G26" s="3">
-        <v>-61400</v>
+        <v>-59500</v>
       </c>
       <c r="H26" s="3">
-        <v>92100</v>
+        <v>89200</v>
       </c>
       <c r="I26" s="3">
-        <v>28800</v>
+        <v>27900</v>
       </c>
       <c r="J26" s="3">
-        <v>-8800</v>
+        <v>-8500</v>
       </c>
       <c r="K26" s="3">
         <v>6100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-40700</v>
+        <v>-39400</v>
       </c>
       <c r="E27" s="3">
-        <v>-464200</v>
+        <v>-449800</v>
       </c>
       <c r="F27" s="3">
-        <v>-59900</v>
+        <v>-58100</v>
       </c>
       <c r="G27" s="3">
-        <v>-105600</v>
+        <v>-102300</v>
       </c>
       <c r="H27" s="3">
-        <v>86500</v>
+        <v>83800</v>
       </c>
       <c r="I27" s="3">
-        <v>26100</v>
+        <v>25300</v>
       </c>
       <c r="J27" s="3">
-        <v>-8800</v>
+        <v>-8500</v>
       </c>
       <c r="K27" s="3">
         <v>5300</v>
@@ -1353,19 +1353,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>191900</v>
+        <v>185900</v>
       </c>
       <c r="E29" s="3">
-        <v>75800</v>
+        <v>73400</v>
       </c>
       <c r="F29" s="3">
-        <v>216200</v>
+        <v>209500</v>
       </c>
       <c r="G29" s="3">
-        <v>93700</v>
+        <v>90800</v>
       </c>
       <c r="H29" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>59100</v>
+        <v>57200</v>
       </c>
       <c r="E32" s="3">
-        <v>21200</v>
+        <v>26000</v>
       </c>
       <c r="F32" s="3">
-        <v>177700</v>
+        <v>179000</v>
       </c>
       <c r="G32" s="3">
-        <v>-62500</v>
+        <v>-60500</v>
       </c>
       <c r="H32" s="3">
-        <v>27800</v>
+        <v>26900</v>
       </c>
       <c r="I32" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J32" s="3">
-        <v>17600</v>
+        <v>17100</v>
       </c>
       <c r="K32" s="3">
         <v>4400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>151200</v>
+        <v>146500</v>
       </c>
       <c r="E33" s="3">
-        <v>-388400</v>
+        <v>-376400</v>
       </c>
       <c r="F33" s="3">
-        <v>156300</v>
+        <v>151400</v>
       </c>
       <c r="G33" s="3">
-        <v>-11900</v>
+        <v>-11500</v>
       </c>
       <c r="H33" s="3">
-        <v>95200</v>
+        <v>92200</v>
       </c>
       <c r="I33" s="3">
-        <v>26100</v>
+        <v>25300</v>
       </c>
       <c r="J33" s="3">
-        <v>-8800</v>
+        <v>-8500</v>
       </c>
       <c r="K33" s="3">
         <v>5300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>151200</v>
+        <v>146500</v>
       </c>
       <c r="E35" s="3">
-        <v>-388400</v>
+        <v>-376400</v>
       </c>
       <c r="F35" s="3">
-        <v>156300</v>
+        <v>151400</v>
       </c>
       <c r="G35" s="3">
-        <v>-11900</v>
+        <v>-11500</v>
       </c>
       <c r="H35" s="3">
-        <v>95200</v>
+        <v>92200</v>
       </c>
       <c r="I35" s="3">
-        <v>26100</v>
+        <v>25300</v>
       </c>
       <c r="J35" s="3">
-        <v>-8800</v>
+        <v>-8500</v>
       </c>
       <c r="K35" s="3">
         <v>5300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>958700</v>
+        <v>1257500</v>
       </c>
       <c r="E41" s="3">
-        <v>917200</v>
+        <v>888600</v>
       </c>
       <c r="F41" s="3">
-        <v>616000</v>
+        <v>596800</v>
       </c>
       <c r="G41" s="3">
-        <v>263700</v>
+        <v>255500</v>
       </c>
       <c r="H41" s="3">
-        <v>294200</v>
+        <v>285100</v>
       </c>
       <c r="I41" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="J41" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="K41" s="3">
         <v>10800</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>242000</v>
+        <v>317400</v>
       </c>
       <c r="E42" s="3">
-        <v>665400</v>
+        <v>644700</v>
       </c>
       <c r="F42" s="3">
-        <v>494500</v>
+        <v>479100</v>
       </c>
       <c r="G42" s="3">
-        <v>151600</v>
+        <v>146900</v>
       </c>
       <c r="H42" s="3">
-        <v>115800</v>
+        <v>112200</v>
       </c>
       <c r="I42" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J42" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K42" s="3">
         <v>3300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>397300</v>
+        <v>521200</v>
       </c>
       <c r="E43" s="3">
-        <v>347800</v>
+        <v>337000</v>
       </c>
       <c r="F43" s="3">
-        <v>253400</v>
+        <v>245500</v>
       </c>
       <c r="G43" s="3">
-        <v>168900</v>
+        <v>163600</v>
       </c>
       <c r="H43" s="3">
-        <v>138600</v>
+        <v>134300</v>
       </c>
       <c r="I43" s="3">
-        <v>14800</v>
+        <v>14400</v>
       </c>
       <c r="J43" s="3">
-        <v>14100</v>
+        <v>13600</v>
       </c>
       <c r="K43" s="3">
         <v>11000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>49700</v>
+        <v>65200</v>
       </c>
       <c r="E44" s="3">
-        <v>17400</v>
+        <v>16800</v>
       </c>
       <c r="F44" s="3">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="G44" s="3">
-        <v>45200</v>
+        <v>43800</v>
       </c>
       <c r="H44" s="3">
-        <v>34400</v>
+        <v>33400</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
       </c>
       <c r="J44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>534900</v>
+        <v>701600</v>
       </c>
       <c r="E45" s="3">
-        <v>194600</v>
+        <v>188500</v>
       </c>
       <c r="F45" s="3">
-        <v>211300</v>
+        <v>204700</v>
       </c>
       <c r="G45" s="3">
-        <v>65500</v>
+        <v>63500</v>
       </c>
       <c r="H45" s="3">
-        <v>17700</v>
+        <v>17200</v>
       </c>
       <c r="I45" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J45" s="3">
-        <v>19100</v>
+        <v>18500</v>
       </c>
       <c r="K45" s="3">
         <v>1500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2182700</v>
+        <v>2862800</v>
       </c>
       <c r="E46" s="3">
-        <v>2142300</v>
+        <v>2075700</v>
       </c>
       <c r="F46" s="3">
-        <v>1585500</v>
+        <v>1536200</v>
       </c>
       <c r="G46" s="3">
-        <v>694900</v>
+        <v>673300</v>
       </c>
       <c r="H46" s="3">
-        <v>453700</v>
+        <v>439600</v>
       </c>
       <c r="I46" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="J46" s="3">
-        <v>34500</v>
+        <v>33400</v>
       </c>
       <c r="K46" s="3">
         <v>25000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1072200</v>
+        <v>1406400</v>
       </c>
       <c r="E47" s="3">
-        <v>705200</v>
+        <v>683200</v>
       </c>
       <c r="F47" s="3">
-        <v>597400</v>
+        <v>578800</v>
       </c>
       <c r="G47" s="3">
-        <v>139100</v>
+        <v>134700</v>
       </c>
       <c r="H47" s="3">
-        <v>226500</v>
+        <v>219500</v>
       </c>
       <c r="I47" s="3">
-        <v>47900</v>
+        <v>46400</v>
       </c>
       <c r="J47" s="3">
-        <v>33300</v>
+        <v>32300</v>
       </c>
       <c r="K47" s="3">
         <v>27000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3025300</v>
+        <v>3968000</v>
       </c>
       <c r="E48" s="3">
-        <v>3877200</v>
+        <v>3756600</v>
       </c>
       <c r="F48" s="3">
-        <v>3591700</v>
+        <v>3480000</v>
       </c>
       <c r="G48" s="3">
-        <v>1348200</v>
+        <v>1306200</v>
       </c>
       <c r="H48" s="3">
-        <v>1661800</v>
+        <v>1610100</v>
       </c>
       <c r="I48" s="3">
-        <v>250100</v>
+        <v>242300</v>
       </c>
       <c r="J48" s="3">
-        <v>206900</v>
+        <v>200500</v>
       </c>
       <c r="K48" s="3">
         <v>111100</v>
@@ -1916,19 +1916,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>294800</v>
+        <v>386700</v>
       </c>
       <c r="E49" s="3">
-        <v>271600</v>
+        <v>263200</v>
       </c>
       <c r="F49" s="3">
-        <v>204700</v>
+        <v>198300</v>
       </c>
       <c r="G49" s="3">
-        <v>131400</v>
+        <v>127300</v>
       </c>
       <c r="H49" s="3">
-        <v>124800</v>
+        <v>120900</v>
       </c>
       <c r="I49" s="3">
         <v>1300</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>79600</v>
+        <v>104400</v>
       </c>
       <c r="E52" s="3">
-        <v>201000</v>
+        <v>194800</v>
       </c>
       <c r="F52" s="3">
-        <v>371000</v>
+        <v>359500</v>
       </c>
       <c r="G52" s="3">
-        <v>139900</v>
+        <v>135600</v>
       </c>
       <c r="H52" s="3">
-        <v>100900</v>
+        <v>97800</v>
       </c>
       <c r="I52" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="J52" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K52" s="3">
         <v>5400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6654600</v>
+        <v>8728300</v>
       </c>
       <c r="E54" s="3">
-        <v>7197400</v>
+        <v>6973500</v>
       </c>
       <c r="F54" s="3">
-        <v>5589900</v>
+        <v>5416100</v>
       </c>
       <c r="G54" s="3">
-        <v>2453500</v>
+        <v>2377200</v>
       </c>
       <c r="H54" s="3">
-        <v>2038600</v>
+        <v>1975200</v>
       </c>
       <c r="I54" s="3">
-        <v>280100</v>
+        <v>271400</v>
       </c>
       <c r="J54" s="3">
-        <v>240100</v>
+        <v>232600</v>
       </c>
       <c r="K54" s="3">
         <v>113000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>314800</v>
+        <v>412900</v>
       </c>
       <c r="E57" s="3">
-        <v>281500</v>
+        <v>272700</v>
       </c>
       <c r="F57" s="3">
-        <v>243300</v>
+        <v>235700</v>
       </c>
       <c r="G57" s="3">
-        <v>135000</v>
+        <v>130800</v>
       </c>
       <c r="H57" s="3">
-        <v>117500</v>
+        <v>113800</v>
       </c>
       <c r="I57" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="J57" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="K57" s="3">
         <v>5600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>882900</v>
+        <v>1158000</v>
       </c>
       <c r="E58" s="3">
-        <v>1172800</v>
+        <v>1136400</v>
       </c>
       <c r="F58" s="3">
-        <v>422300</v>
+        <v>409200</v>
       </c>
       <c r="G58" s="3">
-        <v>211400</v>
+        <v>204800</v>
       </c>
       <c r="H58" s="3">
-        <v>236100</v>
+        <v>228800</v>
       </c>
       <c r="I58" s="3">
-        <v>26600</v>
+        <v>25800</v>
       </c>
       <c r="J58" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="K58" s="3">
         <v>11800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>323600</v>
+        <v>424500</v>
       </c>
       <c r="E59" s="3">
-        <v>150000</v>
+        <v>145400</v>
       </c>
       <c r="F59" s="3">
-        <v>108200</v>
+        <v>104800</v>
       </c>
       <c r="G59" s="3">
-        <v>146200</v>
+        <v>141700</v>
       </c>
       <c r="H59" s="3">
-        <v>109100</v>
+        <v>105700</v>
       </c>
       <c r="I59" s="3">
-        <v>18200</v>
+        <v>17600</v>
       </c>
       <c r="J59" s="3">
-        <v>18900</v>
+        <v>18400</v>
       </c>
       <c r="K59" s="3">
         <v>12900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1521300</v>
+        <v>1995400</v>
       </c>
       <c r="E60" s="3">
-        <v>1121500</v>
+        <v>1086600</v>
       </c>
       <c r="F60" s="3">
-        <v>773800</v>
+        <v>749700</v>
       </c>
       <c r="G60" s="3">
-        <v>492700</v>
+        <v>477300</v>
       </c>
       <c r="H60" s="3">
-        <v>462600</v>
+        <v>448200</v>
       </c>
       <c r="I60" s="3">
-        <v>28600</v>
+        <v>27700</v>
       </c>
       <c r="J60" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="K60" s="3">
         <v>21800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3301800</v>
+        <v>4330700</v>
       </c>
       <c r="E61" s="3">
-        <v>4049200</v>
+        <v>3923200</v>
       </c>
       <c r="F61" s="3">
-        <v>2988400</v>
+        <v>2895500</v>
       </c>
       <c r="G61" s="3">
-        <v>1161700</v>
+        <v>1125500</v>
       </c>
       <c r="H61" s="3">
-        <v>962100</v>
+        <v>932200</v>
       </c>
       <c r="I61" s="3">
-        <v>39600</v>
+        <v>38400</v>
       </c>
       <c r="J61" s="3">
-        <v>39900</v>
+        <v>38600</v>
       </c>
       <c r="K61" s="3">
         <v>39700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>530100</v>
+        <v>695300</v>
       </c>
       <c r="E62" s="3">
-        <v>725300</v>
+        <v>702800</v>
       </c>
       <c r="F62" s="3">
-        <v>559700</v>
+        <v>542300</v>
       </c>
       <c r="G62" s="3">
-        <v>296900</v>
+        <v>287700</v>
       </c>
       <c r="H62" s="3">
-        <v>239000</v>
+        <v>231600</v>
       </c>
       <c r="I62" s="3">
-        <v>70400</v>
+        <v>68200</v>
       </c>
       <c r="J62" s="3">
-        <v>56300</v>
+        <v>54500</v>
       </c>
       <c r="K62" s="3">
         <v>9200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6048500</v>
+        <v>7933300</v>
       </c>
       <c r="E66" s="3">
-        <v>6711000</v>
+        <v>6502300</v>
       </c>
       <c r="F66" s="3">
-        <v>4939200</v>
+        <v>4785600</v>
       </c>
       <c r="G66" s="3">
-        <v>2179100</v>
+        <v>2111300</v>
       </c>
       <c r="H66" s="3">
-        <v>1809100</v>
+        <v>1752800</v>
       </c>
       <c r="I66" s="3">
-        <v>146100</v>
+        <v>141600</v>
       </c>
       <c r="J66" s="3">
-        <v>131600</v>
+        <v>127500</v>
       </c>
       <c r="K66" s="3">
         <v>75700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>301100</v>
+        <v>395000</v>
       </c>
       <c r="E72" s="3">
-        <v>181600</v>
+        <v>175900</v>
       </c>
       <c r="F72" s="3">
-        <v>437500</v>
+        <v>423900</v>
       </c>
       <c r="G72" s="3">
-        <v>258400</v>
+        <v>250300</v>
       </c>
       <c r="H72" s="3">
-        <v>213500</v>
+        <v>206800</v>
       </c>
       <c r="I72" s="3">
-        <v>122000</v>
+        <v>118200</v>
       </c>
       <c r="J72" s="3">
-        <v>101800</v>
+        <v>98600</v>
       </c>
       <c r="K72" s="3">
         <v>16600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>606100</v>
+        <v>795000</v>
       </c>
       <c r="E76" s="3">
-        <v>486400</v>
+        <v>471300</v>
       </c>
       <c r="F76" s="3">
-        <v>650800</v>
+        <v>630500</v>
       </c>
       <c r="G76" s="3">
-        <v>274400</v>
+        <v>265900</v>
       </c>
       <c r="H76" s="3">
-        <v>229500</v>
+        <v>222400</v>
       </c>
       <c r="I76" s="3">
-        <v>134000</v>
+        <v>129800</v>
       </c>
       <c r="J76" s="3">
-        <v>108400</v>
+        <v>105100</v>
       </c>
       <c r="K76" s="3">
         <v>37300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>151200</v>
+        <v>146500</v>
       </c>
       <c r="E81" s="3">
-        <v>-388400</v>
+        <v>-376400</v>
       </c>
       <c r="F81" s="3">
-        <v>156300</v>
+        <v>151400</v>
       </c>
       <c r="G81" s="3">
-        <v>-11900</v>
+        <v>-11500</v>
       </c>
       <c r="H81" s="3">
-        <v>95200</v>
+        <v>92200</v>
       </c>
       <c r="I81" s="3">
-        <v>26100</v>
+        <v>25300</v>
       </c>
       <c r="J81" s="3">
-        <v>-8800</v>
+        <v>-8500</v>
       </c>
       <c r="K81" s="3">
         <v>5300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>172600</v>
+        <v>167200</v>
       </c>
       <c r="E83" s="3">
-        <v>113300</v>
+        <v>109700</v>
       </c>
       <c r="F83" s="3">
-        <v>71800</v>
+        <v>69500</v>
       </c>
       <c r="G83" s="3">
-        <v>35800</v>
+        <v>34700</v>
       </c>
       <c r="H83" s="3">
-        <v>16200</v>
+        <v>15700</v>
       </c>
       <c r="I83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K83" s="3">
         <v>3000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>325300</v>
+        <v>319800</v>
       </c>
       <c r="E89" s="3">
-        <v>284300</v>
+        <v>278000</v>
       </c>
       <c r="F89" s="3">
-        <v>145200</v>
+        <v>146900</v>
       </c>
       <c r="G89" s="3">
-        <v>94500</v>
+        <v>93100</v>
       </c>
       <c r="H89" s="3">
-        <v>43800</v>
+        <v>42400</v>
       </c>
       <c r="I89" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="J89" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="K89" s="3">
         <v>11700</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-98900</v>
+        <v>-95800</v>
       </c>
       <c r="E91" s="3">
-        <v>-122000</v>
+        <v>-118200</v>
       </c>
       <c r="F91" s="3">
-        <v>-98900</v>
+        <v>-95800</v>
       </c>
       <c r="G91" s="3">
-        <v>-43000</v>
+        <v>-41600</v>
       </c>
       <c r="H91" s="3">
-        <v>-14400</v>
+        <v>-14000</v>
       </c>
       <c r="I91" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="J91" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K91" s="3">
         <v>-3000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>431200</v>
+        <v>417800</v>
       </c>
       <c r="E94" s="3">
-        <v>118700</v>
+        <v>115000</v>
       </c>
       <c r="F94" s="3">
-        <v>-226700</v>
+        <v>-219600</v>
       </c>
       <c r="G94" s="3">
-        <v>-21900</v>
+        <v>-21300</v>
       </c>
       <c r="H94" s="3">
-        <v>87200</v>
+        <v>84500</v>
       </c>
       <c r="I94" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J94" s="3">
-        <v>-9700</v>
+        <v>-9400</v>
       </c>
       <c r="K94" s="3">
         <v>-600</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-27400</v>
+        <v>-26500</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-807700</v>
+        <v>-782600</v>
       </c>
       <c r="E100" s="3">
-        <v>-294500</v>
+        <v>-285300</v>
       </c>
       <c r="F100" s="3">
-        <v>-45800</v>
+        <v>-44300</v>
       </c>
       <c r="G100" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="H100" s="3">
-        <v>-42100</v>
+        <v>-40800</v>
       </c>
       <c r="I100" s="3">
-        <v>-14700</v>
+        <v>-14300</v>
       </c>
       <c r="J100" s="3">
-        <v>-6300</v>
+        <v>-6100</v>
       </c>
       <c r="K100" s="3">
         <v>-4200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>92700</v>
+        <v>89800</v>
       </c>
       <c r="E101" s="3">
-        <v>-71800</v>
+        <v>-69500</v>
       </c>
       <c r="F101" s="3">
-        <v>212000</v>
+        <v>205400</v>
       </c>
       <c r="G101" s="3">
-        <v>27800</v>
+        <v>26900</v>
       </c>
       <c r="H101" s="3">
-        <v>54200</v>
+        <v>52500</v>
       </c>
       <c r="I101" s="3">
         <v>600</v>
       </c>
       <c r="J101" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>41500</v>
+        <v>44900</v>
       </c>
       <c r="E102" s="3">
-        <v>36800</v>
+        <v>38100</v>
       </c>
       <c r="F102" s="3">
-        <v>84800</v>
+        <v>88300</v>
       </c>
       <c r="G102" s="3">
-        <v>116600</v>
+        <v>114600</v>
       </c>
       <c r="H102" s="3">
-        <v>143100</v>
+        <v>138700</v>
       </c>
       <c r="I102" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="J102" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K102" s="3">
         <v>7300</v>

--- a/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>984800</v>
+        <v>950300</v>
       </c>
       <c r="E8" s="3">
-        <v>947600</v>
+        <v>914400</v>
       </c>
       <c r="F8" s="3">
-        <v>604700</v>
+        <v>583500</v>
       </c>
       <c r="G8" s="3">
-        <v>613400</v>
+        <v>591900</v>
       </c>
       <c r="H8" s="3">
-        <v>132800</v>
+        <v>128100</v>
       </c>
       <c r="I8" s="3">
-        <v>35000</v>
+        <v>33800</v>
       </c>
       <c r="J8" s="3">
-        <v>29200</v>
+        <v>28200</v>
       </c>
       <c r="K8" s="3">
         <v>29700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>639500</v>
+        <v>617100</v>
       </c>
       <c r="E9" s="3">
-        <v>610500</v>
+        <v>589200</v>
       </c>
       <c r="F9" s="3">
-        <v>356200</v>
+        <v>343700</v>
       </c>
       <c r="G9" s="3">
-        <v>854300</v>
+        <v>824400</v>
       </c>
       <c r="H9" s="3">
-        <v>457300</v>
+        <v>441300</v>
       </c>
       <c r="I9" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="J9" s="3">
-        <v>13900</v>
+        <v>13400</v>
       </c>
       <c r="K9" s="3">
         <v>29500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>345300</v>
+        <v>333200</v>
       </c>
       <c r="E10" s="3">
-        <v>337100</v>
+        <v>325300</v>
       </c>
       <c r="F10" s="3">
-        <v>248500</v>
+        <v>239800</v>
       </c>
       <c r="G10" s="3">
-        <v>-240900</v>
+        <v>-232400</v>
       </c>
       <c r="H10" s="3">
-        <v>-324600</v>
+        <v>-313200</v>
       </c>
       <c r="I10" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="J10" s="3">
-        <v>15300</v>
+        <v>14800</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -897,16 +897,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>28100</v>
+        <v>27100</v>
       </c>
       <c r="E14" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="F14" s="3">
-        <v>-13900</v>
+        <v>-13400</v>
       </c>
       <c r="G14" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="H14" s="3">
         <v>-200</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>63800</v>
+        <v>61600</v>
       </c>
       <c r="E15" s="3">
-        <v>42200</v>
+        <v>40700</v>
       </c>
       <c r="F15" s="3">
-        <v>27700</v>
+        <v>26700</v>
       </c>
       <c r="G15" s="3">
-        <v>36000</v>
+        <v>34700</v>
       </c>
       <c r="H15" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>589700</v>
+        <v>569100</v>
       </c>
       <c r="E17" s="3">
-        <v>1232700</v>
+        <v>1189500</v>
       </c>
       <c r="F17" s="3">
-        <v>321800</v>
+        <v>310500</v>
       </c>
       <c r="G17" s="3">
-        <v>582500</v>
+        <v>562100</v>
       </c>
       <c r="H17" s="3">
-        <v>-72400</v>
+        <v>-69800</v>
       </c>
       <c r="I17" s="3">
-        <v>-21100</v>
+        <v>-20400</v>
       </c>
       <c r="J17" s="3">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="K17" s="3">
         <v>13000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>395100</v>
+        <v>381200</v>
       </c>
       <c r="E18" s="3">
-        <v>-285000</v>
+        <v>-275100</v>
       </c>
       <c r="F18" s="3">
-        <v>282900</v>
+        <v>273000</v>
       </c>
       <c r="G18" s="3">
-        <v>30900</v>
+        <v>29800</v>
       </c>
       <c r="H18" s="3">
-        <v>205100</v>
+        <v>198000</v>
       </c>
       <c r="I18" s="3">
-        <v>56100</v>
+        <v>54100</v>
       </c>
       <c r="J18" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="K18" s="3">
         <v>16700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-57200</v>
+        <v>-55200</v>
       </c>
       <c r="E20" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-172800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>58400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-26000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-179000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>60500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-26900</v>
       </c>
       <c r="I20" s="3">
         <v>900</v>
       </c>
       <c r="J20" s="3">
-        <v>-17100</v>
+        <v>-16500</v>
       </c>
       <c r="K20" s="3">
         <v>-4400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>505000</v>
+        <v>487500</v>
       </c>
       <c r="E21" s="3">
-        <v>-201300</v>
+        <v>-194100</v>
       </c>
       <c r="F21" s="3">
-        <v>173400</v>
+        <v>167400</v>
       </c>
       <c r="G21" s="3">
-        <v>126100</v>
+        <v>121700</v>
       </c>
       <c r="H21" s="3">
-        <v>193900</v>
+        <v>187200</v>
       </c>
       <c r="I21" s="3">
-        <v>57400</v>
+        <v>55400</v>
       </c>
       <c r="J21" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="K21" s="3">
         <v>15300</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>209200</v>
+        <v>201800</v>
       </c>
       <c r="E22" s="3">
-        <v>200600</v>
+        <v>193500</v>
       </c>
       <c r="F22" s="3">
-        <v>139000</v>
+        <v>134200</v>
       </c>
       <c r="G22" s="3">
-        <v>135500</v>
+        <v>130800</v>
       </c>
       <c r="H22" s="3">
-        <v>24000</v>
+        <v>23100</v>
       </c>
       <c r="I22" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="J22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="K22" s="3">
         <v>4400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>128700</v>
+        <v>124100</v>
       </c>
       <c r="E23" s="3">
-        <v>-511600</v>
+        <v>-493600</v>
       </c>
       <c r="F23" s="3">
-        <v>-35200</v>
+        <v>-33900</v>
       </c>
       <c r="G23" s="3">
-        <v>-44200</v>
+        <v>-42600</v>
       </c>
       <c r="H23" s="3">
-        <v>154200</v>
+        <v>148800</v>
       </c>
       <c r="I23" s="3">
-        <v>44100</v>
+        <v>42600</v>
       </c>
       <c r="J23" s="3">
-        <v>-9200</v>
+        <v>-8900</v>
       </c>
       <c r="K23" s="3">
         <v>7900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>70600</v>
+        <v>68100</v>
       </c>
       <c r="E24" s="3">
-        <v>-43700</v>
+        <v>-42200</v>
       </c>
       <c r="F24" s="3">
-        <v>-64600</v>
+        <v>-62300</v>
       </c>
       <c r="G24" s="3">
-        <v>15300</v>
+        <v>14800</v>
       </c>
       <c r="H24" s="3">
-        <v>65000</v>
+        <v>62700</v>
       </c>
       <c r="I24" s="3">
-        <v>16300</v>
+        <v>15700</v>
       </c>
       <c r="J24" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="K24" s="3">
         <v>1800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>58000</v>
+        <v>56000</v>
       </c>
       <c r="E26" s="3">
-        <v>-467900</v>
+        <v>-451500</v>
       </c>
       <c r="F26" s="3">
-        <v>29400</v>
+        <v>28400</v>
       </c>
       <c r="G26" s="3">
-        <v>-59500</v>
+        <v>-57400</v>
       </c>
       <c r="H26" s="3">
-        <v>89200</v>
+        <v>86100</v>
       </c>
       <c r="I26" s="3">
-        <v>27900</v>
+        <v>26900</v>
       </c>
       <c r="J26" s="3">
-        <v>-8500</v>
+        <v>-8200</v>
       </c>
       <c r="K26" s="3">
         <v>6100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-39400</v>
+        <v>-38100</v>
       </c>
       <c r="E27" s="3">
-        <v>-449800</v>
+        <v>-434000</v>
       </c>
       <c r="F27" s="3">
-        <v>-58100</v>
+        <v>-56000</v>
       </c>
       <c r="G27" s="3">
-        <v>-102300</v>
+        <v>-98800</v>
       </c>
       <c r="H27" s="3">
-        <v>83800</v>
+        <v>80900</v>
       </c>
       <c r="I27" s="3">
-        <v>25300</v>
+        <v>24400</v>
       </c>
       <c r="J27" s="3">
-        <v>-8500</v>
+        <v>-8200</v>
       </c>
       <c r="K27" s="3">
         <v>5300</v>
@@ -1353,19 +1353,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>185900</v>
+        <v>179400</v>
       </c>
       <c r="E29" s="3">
-        <v>73400</v>
+        <v>70800</v>
       </c>
       <c r="F29" s="3">
-        <v>209500</v>
+        <v>202100</v>
       </c>
       <c r="G29" s="3">
-        <v>90800</v>
+        <v>87600</v>
       </c>
       <c r="H29" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>57200</v>
+        <v>55200</v>
       </c>
       <c r="E32" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>172800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-58400</v>
+      </c>
+      <c r="H32" s="3">
         <v>26000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>179000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-60500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>26900</v>
       </c>
       <c r="I32" s="3">
         <v>-900</v>
       </c>
       <c r="J32" s="3">
-        <v>17100</v>
+        <v>16500</v>
       </c>
       <c r="K32" s="3">
         <v>4400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>146500</v>
+        <v>141400</v>
       </c>
       <c r="E33" s="3">
-        <v>-376400</v>
+        <v>-363200</v>
       </c>
       <c r="F33" s="3">
-        <v>151400</v>
+        <v>146100</v>
       </c>
       <c r="G33" s="3">
-        <v>-11500</v>
+        <v>-11100</v>
       </c>
       <c r="H33" s="3">
-        <v>92200</v>
+        <v>89000</v>
       </c>
       <c r="I33" s="3">
-        <v>25300</v>
+        <v>24400</v>
       </c>
       <c r="J33" s="3">
-        <v>-8500</v>
+        <v>-8200</v>
       </c>
       <c r="K33" s="3">
         <v>5300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>146500</v>
+        <v>141400</v>
       </c>
       <c r="E35" s="3">
-        <v>-376400</v>
+        <v>-363200</v>
       </c>
       <c r="F35" s="3">
-        <v>151400</v>
+        <v>146100</v>
       </c>
       <c r="G35" s="3">
-        <v>-11500</v>
+        <v>-11100</v>
       </c>
       <c r="H35" s="3">
-        <v>92200</v>
+        <v>89000</v>
       </c>
       <c r="I35" s="3">
-        <v>25300</v>
+        <v>24400</v>
       </c>
       <c r="J35" s="3">
-        <v>-8500</v>
+        <v>-8200</v>
       </c>
       <c r="K35" s="3">
         <v>5300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1257500</v>
+        <v>1213400</v>
       </c>
       <c r="E41" s="3">
-        <v>888600</v>
+        <v>857500</v>
       </c>
       <c r="F41" s="3">
-        <v>596800</v>
+        <v>575900</v>
       </c>
       <c r="G41" s="3">
-        <v>255500</v>
+        <v>246600</v>
       </c>
       <c r="H41" s="3">
-        <v>285100</v>
+        <v>275100</v>
       </c>
       <c r="I41" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="J41" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="K41" s="3">
         <v>10800</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>317400</v>
+        <v>306300</v>
       </c>
       <c r="E42" s="3">
-        <v>644700</v>
+        <v>622100</v>
       </c>
       <c r="F42" s="3">
-        <v>479100</v>
+        <v>462300</v>
       </c>
       <c r="G42" s="3">
-        <v>146900</v>
+        <v>141700</v>
       </c>
       <c r="H42" s="3">
-        <v>112200</v>
+        <v>108200</v>
       </c>
       <c r="I42" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J42" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K42" s="3">
         <v>3300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>521200</v>
+        <v>502900</v>
       </c>
       <c r="E43" s="3">
-        <v>337000</v>
+        <v>325200</v>
       </c>
       <c r="F43" s="3">
-        <v>245500</v>
+        <v>236900</v>
       </c>
       <c r="G43" s="3">
-        <v>163600</v>
+        <v>157900</v>
       </c>
       <c r="H43" s="3">
-        <v>134300</v>
+        <v>129600</v>
       </c>
       <c r="I43" s="3">
-        <v>14400</v>
+        <v>13900</v>
       </c>
       <c r="J43" s="3">
-        <v>13600</v>
+        <v>13100</v>
       </c>
       <c r="K43" s="3">
         <v>11000</v>
@@ -1751,19 +1751,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>65200</v>
+        <v>62900</v>
       </c>
       <c r="E44" s="3">
-        <v>16800</v>
+        <v>16300</v>
       </c>
       <c r="F44" s="3">
-        <v>10100</v>
+        <v>9700</v>
       </c>
       <c r="G44" s="3">
-        <v>43800</v>
+        <v>42300</v>
       </c>
       <c r="H44" s="3">
-        <v>33400</v>
+        <v>32200</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>701600</v>
+        <v>677000</v>
       </c>
       <c r="E45" s="3">
-        <v>188500</v>
+        <v>181900</v>
       </c>
       <c r="F45" s="3">
-        <v>204700</v>
+        <v>197500</v>
       </c>
       <c r="G45" s="3">
-        <v>63500</v>
+        <v>61300</v>
       </c>
       <c r="H45" s="3">
-        <v>17200</v>
+        <v>16600</v>
       </c>
       <c r="I45" s="3">
         <v>1900</v>
       </c>
       <c r="J45" s="3">
-        <v>18500</v>
+        <v>17800</v>
       </c>
       <c r="K45" s="3">
         <v>1500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2862800</v>
+        <v>2762600</v>
       </c>
       <c r="E46" s="3">
-        <v>2075700</v>
+        <v>2003000</v>
       </c>
       <c r="F46" s="3">
-        <v>1536200</v>
+        <v>1482400</v>
       </c>
       <c r="G46" s="3">
-        <v>673300</v>
+        <v>649700</v>
       </c>
       <c r="H46" s="3">
-        <v>439600</v>
+        <v>424200</v>
       </c>
       <c r="I46" s="3">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="J46" s="3">
-        <v>33400</v>
+        <v>32200</v>
       </c>
       <c r="K46" s="3">
         <v>25000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1406400</v>
+        <v>1357100</v>
       </c>
       <c r="E47" s="3">
-        <v>683200</v>
+        <v>659300</v>
       </c>
       <c r="F47" s="3">
-        <v>578800</v>
+        <v>558500</v>
       </c>
       <c r="G47" s="3">
-        <v>134700</v>
+        <v>130000</v>
       </c>
       <c r="H47" s="3">
-        <v>219500</v>
+        <v>211800</v>
       </c>
       <c r="I47" s="3">
-        <v>46400</v>
+        <v>44800</v>
       </c>
       <c r="J47" s="3">
-        <v>32300</v>
+        <v>31200</v>
       </c>
       <c r="K47" s="3">
         <v>27000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3968000</v>
+        <v>3829100</v>
       </c>
       <c r="E48" s="3">
-        <v>3756600</v>
+        <v>3625100</v>
       </c>
       <c r="F48" s="3">
-        <v>3480000</v>
+        <v>3358200</v>
       </c>
       <c r="G48" s="3">
-        <v>1306200</v>
+        <v>1260500</v>
       </c>
       <c r="H48" s="3">
-        <v>1610100</v>
+        <v>1553700</v>
       </c>
       <c r="I48" s="3">
-        <v>242300</v>
+        <v>233900</v>
       </c>
       <c r="J48" s="3">
-        <v>200500</v>
+        <v>193500</v>
       </c>
       <c r="K48" s="3">
         <v>111100</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>386700</v>
+        <v>373100</v>
       </c>
       <c r="E49" s="3">
-        <v>263200</v>
+        <v>254000</v>
       </c>
       <c r="F49" s="3">
-        <v>198300</v>
+        <v>191300</v>
       </c>
       <c r="G49" s="3">
-        <v>127300</v>
+        <v>122900</v>
       </c>
       <c r="H49" s="3">
-        <v>120900</v>
+        <v>116700</v>
       </c>
       <c r="I49" s="3">
         <v>1300</v>
       </c>
       <c r="J49" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K49" s="3">
         <v>2300</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>104400</v>
+        <v>100700</v>
       </c>
       <c r="E52" s="3">
-        <v>194800</v>
+        <v>188000</v>
       </c>
       <c r="F52" s="3">
-        <v>359500</v>
+        <v>346900</v>
       </c>
       <c r="G52" s="3">
-        <v>135600</v>
+        <v>130800</v>
       </c>
       <c r="H52" s="3">
-        <v>97800</v>
+        <v>94400</v>
       </c>
       <c r="I52" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="J52" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K52" s="3">
         <v>5400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8728300</v>
+        <v>8422700</v>
       </c>
       <c r="E54" s="3">
-        <v>6973500</v>
+        <v>6729300</v>
       </c>
       <c r="F54" s="3">
-        <v>5416100</v>
+        <v>5226400</v>
       </c>
       <c r="G54" s="3">
-        <v>2377200</v>
+        <v>2293900</v>
       </c>
       <c r="H54" s="3">
-        <v>1975200</v>
+        <v>1906000</v>
       </c>
       <c r="I54" s="3">
-        <v>271400</v>
+        <v>261900</v>
       </c>
       <c r="J54" s="3">
-        <v>232600</v>
+        <v>224400</v>
       </c>
       <c r="K54" s="3">
         <v>113000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>412900</v>
+        <v>398500</v>
       </c>
       <c r="E57" s="3">
-        <v>272700</v>
+        <v>263200</v>
       </c>
       <c r="F57" s="3">
-        <v>235700</v>
+        <v>227400</v>
       </c>
       <c r="G57" s="3">
-        <v>130800</v>
+        <v>126200</v>
       </c>
       <c r="H57" s="3">
-        <v>113800</v>
+        <v>109800</v>
       </c>
       <c r="I57" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="J57" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="K57" s="3">
         <v>5600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1158000</v>
+        <v>1117400</v>
       </c>
       <c r="E58" s="3">
-        <v>1136400</v>
+        <v>1096600</v>
       </c>
       <c r="F58" s="3">
-        <v>409200</v>
+        <v>394900</v>
       </c>
       <c r="G58" s="3">
-        <v>204800</v>
+        <v>197700</v>
       </c>
       <c r="H58" s="3">
-        <v>228800</v>
+        <v>220700</v>
       </c>
       <c r="I58" s="3">
-        <v>25800</v>
+        <v>24900</v>
       </c>
       <c r="J58" s="3">
-        <v>15300</v>
+        <v>14700</v>
       </c>
       <c r="K58" s="3">
         <v>11800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>424500</v>
+        <v>409600</v>
       </c>
       <c r="E59" s="3">
-        <v>145400</v>
+        <v>140300</v>
       </c>
       <c r="F59" s="3">
-        <v>104800</v>
+        <v>101200</v>
       </c>
       <c r="G59" s="3">
-        <v>141700</v>
+        <v>136700</v>
       </c>
       <c r="H59" s="3">
-        <v>105700</v>
+        <v>102000</v>
       </c>
       <c r="I59" s="3">
-        <v>17600</v>
+        <v>17000</v>
       </c>
       <c r="J59" s="3">
-        <v>18400</v>
+        <v>17700</v>
       </c>
       <c r="K59" s="3">
         <v>12900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1995400</v>
+        <v>1925500</v>
       </c>
       <c r="E60" s="3">
-        <v>1086600</v>
+        <v>1048600</v>
       </c>
       <c r="F60" s="3">
-        <v>749700</v>
+        <v>723500</v>
       </c>
       <c r="G60" s="3">
-        <v>477300</v>
+        <v>460600</v>
       </c>
       <c r="H60" s="3">
-        <v>448200</v>
+        <v>432500</v>
       </c>
       <c r="I60" s="3">
-        <v>27700</v>
+        <v>26700</v>
       </c>
       <c r="J60" s="3">
-        <v>26200</v>
+        <v>25300</v>
       </c>
       <c r="K60" s="3">
         <v>21800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4330700</v>
+        <v>4179000</v>
       </c>
       <c r="E61" s="3">
-        <v>3923200</v>
+        <v>3785900</v>
       </c>
       <c r="F61" s="3">
-        <v>2895500</v>
+        <v>2794100</v>
       </c>
       <c r="G61" s="3">
-        <v>1125500</v>
+        <v>1086100</v>
       </c>
       <c r="H61" s="3">
-        <v>932200</v>
+        <v>899500</v>
       </c>
       <c r="I61" s="3">
-        <v>38400</v>
+        <v>37100</v>
       </c>
       <c r="J61" s="3">
-        <v>38600</v>
+        <v>37300</v>
       </c>
       <c r="K61" s="3">
         <v>39700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>695300</v>
+        <v>671000</v>
       </c>
       <c r="E62" s="3">
-        <v>702800</v>
+        <v>678100</v>
       </c>
       <c r="F62" s="3">
-        <v>542300</v>
+        <v>523300</v>
       </c>
       <c r="G62" s="3">
-        <v>287700</v>
+        <v>277600</v>
       </c>
       <c r="H62" s="3">
-        <v>231600</v>
+        <v>223500</v>
       </c>
       <c r="I62" s="3">
-        <v>68200</v>
+        <v>65800</v>
       </c>
       <c r="J62" s="3">
-        <v>54500</v>
+        <v>52600</v>
       </c>
       <c r="K62" s="3">
         <v>9200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7933300</v>
+        <v>7655500</v>
       </c>
       <c r="E66" s="3">
-        <v>6502300</v>
+        <v>6274600</v>
       </c>
       <c r="F66" s="3">
-        <v>4785600</v>
+        <v>4618000</v>
       </c>
       <c r="G66" s="3">
-        <v>2111300</v>
+        <v>2037300</v>
       </c>
       <c r="H66" s="3">
-        <v>1752800</v>
+        <v>1691400</v>
       </c>
       <c r="I66" s="3">
-        <v>141600</v>
+        <v>136600</v>
       </c>
       <c r="J66" s="3">
-        <v>127500</v>
+        <v>123100</v>
       </c>
       <c r="K66" s="3">
         <v>75700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>395000</v>
+        <v>381100</v>
       </c>
       <c r="E72" s="3">
-        <v>175900</v>
+        <v>169800</v>
       </c>
       <c r="F72" s="3">
-        <v>423900</v>
+        <v>409000</v>
       </c>
       <c r="G72" s="3">
-        <v>250300</v>
+        <v>241600</v>
       </c>
       <c r="H72" s="3">
-        <v>206800</v>
+        <v>199600</v>
       </c>
       <c r="I72" s="3">
-        <v>118200</v>
+        <v>114000</v>
       </c>
       <c r="J72" s="3">
-        <v>98600</v>
+        <v>95100</v>
       </c>
       <c r="K72" s="3">
         <v>16600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>795000</v>
+        <v>767200</v>
       </c>
       <c r="E76" s="3">
-        <v>471300</v>
+        <v>454800</v>
       </c>
       <c r="F76" s="3">
-        <v>630500</v>
+        <v>608400</v>
       </c>
       <c r="G76" s="3">
-        <v>265900</v>
+        <v>256600</v>
       </c>
       <c r="H76" s="3">
-        <v>222400</v>
+        <v>214600</v>
       </c>
       <c r="I76" s="3">
-        <v>129800</v>
+        <v>125300</v>
       </c>
       <c r="J76" s="3">
-        <v>105100</v>
+        <v>101400</v>
       </c>
       <c r="K76" s="3">
         <v>37300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>146500</v>
+        <v>141400</v>
       </c>
       <c r="E81" s="3">
-        <v>-376400</v>
+        <v>-363200</v>
       </c>
       <c r="F81" s="3">
-        <v>151400</v>
+        <v>146100</v>
       </c>
       <c r="G81" s="3">
-        <v>-11500</v>
+        <v>-11100</v>
       </c>
       <c r="H81" s="3">
-        <v>92200</v>
+        <v>89000</v>
       </c>
       <c r="I81" s="3">
-        <v>25300</v>
+        <v>24400</v>
       </c>
       <c r="J81" s="3">
-        <v>-8500</v>
+        <v>-8200</v>
       </c>
       <c r="K81" s="3">
         <v>5300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>167200</v>
+        <v>161400</v>
       </c>
       <c r="E83" s="3">
-        <v>109700</v>
+        <v>105900</v>
       </c>
       <c r="F83" s="3">
-        <v>69500</v>
+        <v>67100</v>
       </c>
       <c r="G83" s="3">
-        <v>34700</v>
+        <v>33500</v>
       </c>
       <c r="H83" s="3">
-        <v>15700</v>
+        <v>15200</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K83" s="3">
         <v>3000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>319800</v>
+        <v>308600</v>
       </c>
       <c r="E89" s="3">
-        <v>278000</v>
+        <v>268200</v>
       </c>
       <c r="F89" s="3">
-        <v>146900</v>
+        <v>141700</v>
       </c>
       <c r="G89" s="3">
-        <v>93100</v>
+        <v>89900</v>
       </c>
       <c r="H89" s="3">
-        <v>42400</v>
+        <v>40900</v>
       </c>
       <c r="I89" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="J89" s="3">
-        <v>10500</v>
+        <v>10100</v>
       </c>
       <c r="K89" s="3">
         <v>11700</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-95800</v>
+        <v>-92500</v>
       </c>
       <c r="E91" s="3">
-        <v>-118200</v>
+        <v>-114000</v>
       </c>
       <c r="F91" s="3">
-        <v>-95800</v>
+        <v>-92400</v>
       </c>
       <c r="G91" s="3">
-        <v>-41600</v>
+        <v>-40200</v>
       </c>
       <c r="H91" s="3">
-        <v>-14000</v>
+        <v>-13500</v>
       </c>
       <c r="I91" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="J91" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="K91" s="3">
         <v>-3000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>417800</v>
+        <v>403200</v>
       </c>
       <c r="E94" s="3">
-        <v>115000</v>
+        <v>111000</v>
       </c>
       <c r="F94" s="3">
-        <v>-219600</v>
+        <v>-211900</v>
       </c>
       <c r="G94" s="3">
-        <v>-21300</v>
+        <v>-20500</v>
       </c>
       <c r="H94" s="3">
-        <v>84500</v>
+        <v>81600</v>
       </c>
       <c r="I94" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J94" s="3">
-        <v>-9400</v>
+        <v>-9100</v>
       </c>
       <c r="K94" s="3">
         <v>-600</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-26500</v>
+        <v>-25600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>-700</v>
       </c>
       <c r="J96" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K96" s="3">
         <v>-3300</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-782600</v>
+        <v>-755200</v>
       </c>
       <c r="E100" s="3">
-        <v>-285300</v>
+        <v>-275300</v>
       </c>
       <c r="F100" s="3">
-        <v>-44300</v>
+        <v>-42800</v>
       </c>
       <c r="G100" s="3">
-        <v>15800</v>
+        <v>15200</v>
       </c>
       <c r="H100" s="3">
-        <v>-40800</v>
+        <v>-39400</v>
       </c>
       <c r="I100" s="3">
-        <v>-14300</v>
+        <v>-13800</v>
       </c>
       <c r="J100" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="K100" s="3">
         <v>-4200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>89800</v>
+        <v>86600</v>
       </c>
       <c r="E101" s="3">
-        <v>-69500</v>
+        <v>-67100</v>
       </c>
       <c r="F101" s="3">
-        <v>205400</v>
+        <v>198200</v>
       </c>
       <c r="G101" s="3">
-        <v>26900</v>
+        <v>26000</v>
       </c>
       <c r="H101" s="3">
-        <v>52500</v>
+        <v>50700</v>
       </c>
       <c r="I101" s="3">
         <v>600</v>
       </c>
       <c r="J101" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
@@ -3496,22 +3496,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>44900</v>
+        <v>43300</v>
       </c>
       <c r="E102" s="3">
-        <v>38100</v>
+        <v>36800</v>
       </c>
       <c r="F102" s="3">
-        <v>88300</v>
+        <v>85300</v>
       </c>
       <c r="G102" s="3">
-        <v>114600</v>
+        <v>110600</v>
       </c>
       <c r="H102" s="3">
-        <v>138700</v>
+        <v>133800</v>
       </c>
       <c r="I102" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="J102" s="3">
         <v>-1900</v>

--- a/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>IRS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41820</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41455</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41090</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>950300</v>
+        <v>119300</v>
       </c>
       <c r="E8" s="3">
-        <v>914400</v>
+        <v>195400</v>
       </c>
       <c r="F8" s="3">
-        <v>583500</v>
+        <v>257400</v>
       </c>
       <c r="G8" s="3">
-        <v>591900</v>
+        <v>540600</v>
       </c>
       <c r="H8" s="3">
-        <v>128100</v>
+        <v>548400</v>
       </c>
       <c r="I8" s="3">
-        <v>33800</v>
+        <v>118700</v>
       </c>
       <c r="J8" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K8" s="3">
         <v>28200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>41100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>617100</v>
+        <v>60300</v>
       </c>
       <c r="E9" s="3">
-        <v>589200</v>
+        <v>174000</v>
       </c>
       <c r="F9" s="3">
-        <v>343700</v>
+        <v>96100</v>
       </c>
       <c r="G9" s="3">
-        <v>824400</v>
+        <v>318400</v>
       </c>
       <c r="H9" s="3">
-        <v>441300</v>
+        <v>763700</v>
       </c>
       <c r="I9" s="3">
-        <v>13500</v>
+        <v>408900</v>
       </c>
       <c r="J9" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K9" s="3">
         <v>13400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>29500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39400</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>333200</v>
+        <v>58900</v>
       </c>
       <c r="E10" s="3">
-        <v>325300</v>
+        <v>21400</v>
       </c>
       <c r="F10" s="3">
-        <v>239800</v>
+        <v>161200</v>
       </c>
       <c r="G10" s="3">
-        <v>-232400</v>
+        <v>222200</v>
       </c>
       <c r="H10" s="3">
-        <v>-313200</v>
+        <v>-215300</v>
       </c>
       <c r="I10" s="3">
-        <v>20300</v>
+        <v>-290200</v>
       </c>
       <c r="J10" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K10" s="3">
         <v>14800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1600</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>27100</v>
+        <v>500</v>
       </c>
       <c r="E14" s="3">
-        <v>-8800</v>
+        <v>23500</v>
       </c>
       <c r="F14" s="3">
-        <v>-13400</v>
+        <v>3400</v>
       </c>
       <c r="G14" s="3">
-        <v>4100</v>
+        <v>-12400</v>
       </c>
       <c r="H14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
-      </c>
-      <c r="I14" s="3">
-        <v>200</v>
       </c>
       <c r="J14" s="3">
         <v>200</v>
       </c>
       <c r="K14" s="3">
+        <v>200</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>61600</v>
+        <v>2100</v>
       </c>
       <c r="E15" s="3">
-        <v>40700</v>
+        <v>59200</v>
       </c>
       <c r="F15" s="3">
-        <v>26700</v>
+        <v>1600</v>
       </c>
       <c r="G15" s="3">
-        <v>34700</v>
+        <v>24700</v>
       </c>
       <c r="H15" s="3">
-        <v>7900</v>
+        <v>32200</v>
       </c>
       <c r="I15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-300</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>569100</v>
+        <v>173900</v>
       </c>
       <c r="E17" s="3">
-        <v>1189500</v>
+        <v>-338100</v>
       </c>
       <c r="F17" s="3">
-        <v>310500</v>
+        <v>688000</v>
       </c>
       <c r="G17" s="3">
-        <v>562100</v>
+        <v>287700</v>
       </c>
       <c r="H17" s="3">
-        <v>-69800</v>
+        <v>520800</v>
       </c>
       <c r="I17" s="3">
-        <v>-20400</v>
+        <v>-64700</v>
       </c>
       <c r="J17" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="K17" s="3">
         <v>16000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>381200</v>
+        <v>-54700</v>
       </c>
       <c r="E18" s="3">
-        <v>-275100</v>
+        <v>533500</v>
       </c>
       <c r="F18" s="3">
-        <v>273000</v>
+        <v>-430700</v>
       </c>
       <c r="G18" s="3">
-        <v>29800</v>
+        <v>252900</v>
       </c>
       <c r="H18" s="3">
-        <v>198000</v>
+        <v>27600</v>
       </c>
       <c r="I18" s="3">
-        <v>54100</v>
+        <v>183400</v>
       </c>
       <c r="J18" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K18" s="3">
         <v>12300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17400</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-55200</v>
+        <v>50200</v>
       </c>
       <c r="E20" s="3">
-        <v>-25100</v>
+        <v>200000</v>
       </c>
       <c r="F20" s="3">
-        <v>-172800</v>
+        <v>-78000</v>
       </c>
       <c r="G20" s="3">
-        <v>58400</v>
+        <v>-160100</v>
       </c>
       <c r="H20" s="3">
-        <v>-26000</v>
+        <v>54100</v>
       </c>
       <c r="I20" s="3">
-        <v>900</v>
+        <v>-24100</v>
       </c>
       <c r="J20" s="3">
+        <v>800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-16500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3100</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>487500</v>
+        <v>1400</v>
       </c>
       <c r="E21" s="3">
-        <v>-194100</v>
+        <v>740100</v>
       </c>
       <c r="F21" s="3">
-        <v>167400</v>
+        <v>-503500</v>
       </c>
       <c r="G21" s="3">
-        <v>121700</v>
+        <v>155100</v>
       </c>
       <c r="H21" s="3">
-        <v>187200</v>
+        <v>112800</v>
       </c>
       <c r="I21" s="3">
-        <v>55400</v>
+        <v>173400</v>
       </c>
       <c r="J21" s="3">
+        <v>51300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>201800</v>
+        <v>59800</v>
       </c>
       <c r="E22" s="3">
-        <v>193500</v>
+        <v>267900</v>
       </c>
       <c r="F22" s="3">
-        <v>134200</v>
+        <v>61300</v>
       </c>
       <c r="G22" s="3">
-        <v>130800</v>
+        <v>124300</v>
       </c>
       <c r="H22" s="3">
-        <v>23100</v>
+        <v>121200</v>
       </c>
       <c r="I22" s="3">
-        <v>12500</v>
+        <v>21400</v>
       </c>
       <c r="J22" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K22" s="3">
         <v>4700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6400</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>124100</v>
+        <v>-64300</v>
       </c>
       <c r="E23" s="3">
-        <v>-493600</v>
+        <v>465600</v>
       </c>
       <c r="F23" s="3">
-        <v>-33900</v>
+        <v>-569900</v>
       </c>
       <c r="G23" s="3">
-        <v>-42600</v>
+        <v>-31400</v>
       </c>
       <c r="H23" s="3">
-        <v>148800</v>
+        <v>-39500</v>
       </c>
       <c r="I23" s="3">
-        <v>42600</v>
+        <v>137900</v>
       </c>
       <c r="J23" s="3">
+        <v>39400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-8900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>68100</v>
+        <v>199200</v>
       </c>
       <c r="E24" s="3">
-        <v>-42200</v>
+        <v>92500</v>
       </c>
       <c r="F24" s="3">
-        <v>-62300</v>
+        <v>-62100</v>
       </c>
       <c r="G24" s="3">
-        <v>14800</v>
+        <v>-57700</v>
       </c>
       <c r="H24" s="3">
-        <v>62700</v>
+        <v>13700</v>
       </c>
       <c r="I24" s="3">
-        <v>15700</v>
+        <v>58100</v>
       </c>
       <c r="J24" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2700</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>56000</v>
+        <v>-263500</v>
       </c>
       <c r="E26" s="3">
-        <v>-451500</v>
+        <v>373100</v>
       </c>
       <c r="F26" s="3">
-        <v>28400</v>
+        <v>-507800</v>
       </c>
       <c r="G26" s="3">
-        <v>-57400</v>
+        <v>26300</v>
       </c>
       <c r="H26" s="3">
-        <v>86100</v>
+        <v>-53200</v>
       </c>
       <c r="I26" s="3">
-        <v>26900</v>
+        <v>79800</v>
       </c>
       <c r="J26" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-8200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-38100</v>
+        <v>-193000</v>
       </c>
       <c r="E27" s="3">
-        <v>-434000</v>
+        <v>242200</v>
       </c>
       <c r="F27" s="3">
-        <v>-56000</v>
+        <v>-483500</v>
       </c>
       <c r="G27" s="3">
-        <v>-98800</v>
+        <v>-51900</v>
       </c>
       <c r="H27" s="3">
-        <v>80900</v>
+        <v>-91500</v>
       </c>
       <c r="I27" s="3">
-        <v>24400</v>
+        <v>75000</v>
       </c>
       <c r="J27" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-8200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,32 +1403,35 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>179400</v>
+        <v>-82000</v>
       </c>
       <c r="E29" s="3">
-        <v>70800</v>
+        <v>-45500</v>
       </c>
       <c r="F29" s="3">
-        <v>202100</v>
+        <v>-21900</v>
       </c>
       <c r="G29" s="3">
-        <v>87600</v>
+        <v>187300</v>
       </c>
       <c r="H29" s="3">
-        <v>8100</v>
+        <v>81200</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+        <v>7500</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>55200</v>
+        <v>-50200</v>
       </c>
       <c r="E32" s="3">
-        <v>25100</v>
+        <v>-200000</v>
       </c>
       <c r="F32" s="3">
-        <v>172800</v>
+        <v>78000</v>
       </c>
       <c r="G32" s="3">
-        <v>-58400</v>
+        <v>160100</v>
       </c>
       <c r="H32" s="3">
-        <v>26000</v>
+        <v>-54100</v>
       </c>
       <c r="I32" s="3">
-        <v>-900</v>
+        <v>24100</v>
       </c>
       <c r="J32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K32" s="3">
         <v>16500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3100</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>141400</v>
+        <v>-275000</v>
       </c>
       <c r="E33" s="3">
-        <v>-363200</v>
+        <v>196700</v>
       </c>
       <c r="F33" s="3">
-        <v>146100</v>
+        <v>-505300</v>
       </c>
       <c r="G33" s="3">
-        <v>-11100</v>
+        <v>135300</v>
       </c>
       <c r="H33" s="3">
-        <v>89000</v>
+        <v>-10300</v>
       </c>
       <c r="I33" s="3">
-        <v>24400</v>
+        <v>82500</v>
       </c>
       <c r="J33" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-8200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>141400</v>
+        <v>-275000</v>
       </c>
       <c r="E35" s="3">
-        <v>-363200</v>
+        <v>196700</v>
       </c>
       <c r="F35" s="3">
-        <v>146100</v>
+        <v>-505300</v>
       </c>
       <c r="G35" s="3">
-        <v>-11100</v>
+        <v>135300</v>
       </c>
       <c r="H35" s="3">
-        <v>89000</v>
+        <v>-10300</v>
       </c>
       <c r="I35" s="3">
-        <v>24400</v>
+        <v>82500</v>
       </c>
       <c r="J35" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-8200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41820</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41455</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41090</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1213400</v>
+        <v>21400</v>
       </c>
       <c r="E41" s="3">
-        <v>857500</v>
+        <v>1247300</v>
       </c>
       <c r="F41" s="3">
-        <v>575900</v>
+        <v>794400</v>
       </c>
       <c r="G41" s="3">
-        <v>246600</v>
+        <v>533500</v>
       </c>
       <c r="H41" s="3">
-        <v>275100</v>
+        <v>228400</v>
       </c>
       <c r="I41" s="3">
-        <v>7400</v>
+        <v>254900</v>
       </c>
       <c r="J41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K41" s="3">
         <v>12100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5900</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>306300</v>
+        <v>35000</v>
       </c>
       <c r="E42" s="3">
-        <v>622100</v>
+        <v>314900</v>
       </c>
       <c r="F42" s="3">
-        <v>462300</v>
+        <v>576300</v>
       </c>
       <c r="G42" s="3">
-        <v>141700</v>
+        <v>428300</v>
       </c>
       <c r="H42" s="3">
-        <v>108200</v>
+        <v>131300</v>
       </c>
       <c r="I42" s="3">
-        <v>2900</v>
+        <v>100300</v>
       </c>
       <c r="J42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K42" s="3">
         <v>2300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2800</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>502900</v>
+        <v>95600</v>
       </c>
       <c r="E43" s="3">
-        <v>325200</v>
+        <v>516900</v>
       </c>
       <c r="F43" s="3">
-        <v>236900</v>
+        <v>301200</v>
       </c>
       <c r="G43" s="3">
-        <v>157900</v>
+        <v>219400</v>
       </c>
       <c r="H43" s="3">
-        <v>129600</v>
+        <v>146300</v>
       </c>
       <c r="I43" s="3">
-        <v>13900</v>
+        <v>120100</v>
       </c>
       <c r="J43" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K43" s="3">
         <v>13100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9100</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>62900</v>
+        <v>800</v>
       </c>
       <c r="E44" s="3">
-        <v>16300</v>
+        <v>64600</v>
       </c>
       <c r="F44" s="3">
-        <v>9700</v>
+        <v>15100</v>
       </c>
       <c r="G44" s="3">
-        <v>42300</v>
+        <v>9000</v>
       </c>
       <c r="H44" s="3">
-        <v>32200</v>
+        <v>39100</v>
       </c>
       <c r="I44" s="3">
-        <v>500</v>
+        <v>29800</v>
       </c>
       <c r="J44" s="3">
+        <v>400</v>
+      </c>
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>677000</v>
+        <v>1300</v>
       </c>
       <c r="E45" s="3">
-        <v>181900</v>
+        <v>695900</v>
       </c>
       <c r="F45" s="3">
-        <v>197500</v>
+        <v>168600</v>
       </c>
       <c r="G45" s="3">
-        <v>61300</v>
+        <v>183000</v>
       </c>
       <c r="H45" s="3">
-        <v>16600</v>
+        <v>56700</v>
       </c>
       <c r="I45" s="3">
-        <v>1900</v>
+        <v>15400</v>
       </c>
       <c r="J45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K45" s="3">
         <v>17800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2762600</v>
+        <v>154100</v>
       </c>
       <c r="E46" s="3">
-        <v>2003000</v>
+        <v>2839600</v>
       </c>
       <c r="F46" s="3">
-        <v>1482400</v>
+        <v>1855600</v>
       </c>
       <c r="G46" s="3">
-        <v>649700</v>
+        <v>1373300</v>
       </c>
       <c r="H46" s="3">
-        <v>424200</v>
+        <v>601900</v>
       </c>
       <c r="I46" s="3">
-        <v>18800</v>
+        <v>393000</v>
       </c>
       <c r="J46" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K46" s="3">
         <v>32200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1357100</v>
+        <v>180000</v>
       </c>
       <c r="E47" s="3">
-        <v>659300</v>
+        <v>1395000</v>
       </c>
       <c r="F47" s="3">
-        <v>558500</v>
+        <v>610800</v>
       </c>
       <c r="G47" s="3">
-        <v>130000</v>
+        <v>517400</v>
       </c>
       <c r="H47" s="3">
-        <v>211800</v>
+        <v>120500</v>
       </c>
       <c r="I47" s="3">
-        <v>44800</v>
+        <v>196200</v>
       </c>
       <c r="J47" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K47" s="3">
         <v>31200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>27000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>54000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3829100</v>
+        <v>2082100</v>
       </c>
       <c r="E48" s="3">
-        <v>3625100</v>
+        <v>3935800</v>
       </c>
       <c r="F48" s="3">
-        <v>3358200</v>
+        <v>3358300</v>
       </c>
       <c r="G48" s="3">
-        <v>1260500</v>
+        <v>3111000</v>
       </c>
       <c r="H48" s="3">
-        <v>1553700</v>
+        <v>1167700</v>
       </c>
       <c r="I48" s="3">
-        <v>233900</v>
+        <v>1439400</v>
       </c>
       <c r="J48" s="3">
+        <v>216700</v>
+      </c>
+      <c r="K48" s="3">
         <v>193500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>111100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>76200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>373100</v>
+        <v>26600</v>
       </c>
       <c r="E49" s="3">
-        <v>254000</v>
+        <v>383500</v>
       </c>
       <c r="F49" s="3">
-        <v>191300</v>
+        <v>235300</v>
       </c>
       <c r="G49" s="3">
-        <v>122900</v>
+        <v>177300</v>
       </c>
       <c r="H49" s="3">
-        <v>116700</v>
+        <v>113800</v>
       </c>
       <c r="I49" s="3">
-        <v>1300</v>
+        <v>108100</v>
       </c>
       <c r="J49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K49" s="3">
         <v>2500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2300</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100700</v>
+        <v>23100</v>
       </c>
       <c r="E52" s="3">
-        <v>188000</v>
+        <v>103600</v>
       </c>
       <c r="F52" s="3">
-        <v>346900</v>
+        <v>174100</v>
       </c>
       <c r="G52" s="3">
-        <v>130800</v>
+        <v>321400</v>
       </c>
       <c r="H52" s="3">
-        <v>94400</v>
+        <v>121200</v>
       </c>
       <c r="I52" s="3">
-        <v>4200</v>
+        <v>87400</v>
       </c>
       <c r="J52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6200</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8422700</v>
+        <v>2465900</v>
       </c>
       <c r="E54" s="3">
-        <v>6729300</v>
+        <v>8657500</v>
       </c>
       <c r="F54" s="3">
-        <v>5226400</v>
+        <v>6234100</v>
       </c>
       <c r="G54" s="3">
-        <v>2293900</v>
+        <v>4841800</v>
       </c>
       <c r="H54" s="3">
-        <v>1906000</v>
+        <v>2125100</v>
       </c>
       <c r="I54" s="3">
-        <v>261900</v>
+        <v>1765800</v>
       </c>
       <c r="J54" s="3">
+        <v>242600</v>
+      </c>
+      <c r="K54" s="3">
         <v>224400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>151400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>398500</v>
+        <v>56500</v>
       </c>
       <c r="E57" s="3">
-        <v>263200</v>
+        <v>409600</v>
       </c>
       <c r="F57" s="3">
-        <v>227400</v>
+        <v>243800</v>
       </c>
       <c r="G57" s="3">
-        <v>126200</v>
+        <v>210700</v>
       </c>
       <c r="H57" s="3">
-        <v>109800</v>
+        <v>117000</v>
       </c>
       <c r="I57" s="3">
-        <v>3900</v>
+        <v>101700</v>
       </c>
       <c r="J57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K57" s="3">
         <v>7900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1117400</v>
+        <v>171200</v>
       </c>
       <c r="E58" s="3">
-        <v>1096600</v>
+        <v>1148600</v>
       </c>
       <c r="F58" s="3">
-        <v>394900</v>
+        <v>1015900</v>
       </c>
       <c r="G58" s="3">
-        <v>197700</v>
+        <v>365800</v>
       </c>
       <c r="H58" s="3">
-        <v>220700</v>
+        <v>183100</v>
       </c>
       <c r="I58" s="3">
-        <v>24900</v>
+        <v>204500</v>
       </c>
       <c r="J58" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K58" s="3">
         <v>14700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13200</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>409600</v>
+        <v>17400</v>
       </c>
       <c r="E59" s="3">
-        <v>140300</v>
+        <v>421000</v>
       </c>
       <c r="F59" s="3">
-        <v>101200</v>
+        <v>129900</v>
       </c>
       <c r="G59" s="3">
-        <v>136700</v>
+        <v>93700</v>
       </c>
       <c r="H59" s="3">
-        <v>102000</v>
+        <v>126700</v>
       </c>
       <c r="I59" s="3">
-        <v>17000</v>
+        <v>94500</v>
       </c>
       <c r="J59" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K59" s="3">
         <v>17700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1925500</v>
+        <v>245000</v>
       </c>
       <c r="E60" s="3">
-        <v>1048600</v>
+        <v>1979200</v>
       </c>
       <c r="F60" s="3">
-        <v>723500</v>
+        <v>971400</v>
       </c>
       <c r="G60" s="3">
-        <v>460600</v>
+        <v>670200</v>
       </c>
       <c r="H60" s="3">
-        <v>432500</v>
+        <v>426700</v>
       </c>
       <c r="I60" s="3">
-        <v>26700</v>
+        <v>400700</v>
       </c>
       <c r="J60" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K60" s="3">
         <v>25300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29400</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4179000</v>
+        <v>526600</v>
       </c>
       <c r="E61" s="3">
-        <v>3785900</v>
+        <v>4295500</v>
       </c>
       <c r="F61" s="3">
-        <v>2794100</v>
+        <v>3507300</v>
       </c>
       <c r="G61" s="3">
-        <v>1086100</v>
+        <v>2588400</v>
       </c>
       <c r="H61" s="3">
-        <v>899500</v>
+        <v>1006200</v>
       </c>
       <c r="I61" s="3">
-        <v>37100</v>
+        <v>833300</v>
       </c>
       <c r="J61" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K61" s="3">
         <v>37300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>39700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>47400</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>671000</v>
+        <v>778600</v>
       </c>
       <c r="E62" s="3">
-        <v>678100</v>
+        <v>689700</v>
       </c>
       <c r="F62" s="3">
-        <v>523300</v>
+        <v>628200</v>
       </c>
       <c r="G62" s="3">
-        <v>277600</v>
+        <v>484800</v>
       </c>
       <c r="H62" s="3">
-        <v>223500</v>
+        <v>257200</v>
       </c>
       <c r="I62" s="3">
-        <v>65800</v>
+        <v>207100</v>
       </c>
       <c r="J62" s="3">
+        <v>61000</v>
+      </c>
+      <c r="K62" s="3">
         <v>52600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12800</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7655500</v>
+        <v>1781500</v>
       </c>
       <c r="E66" s="3">
-        <v>6274600</v>
+        <v>7868900</v>
       </c>
       <c r="F66" s="3">
-        <v>4618000</v>
+        <v>5812800</v>
       </c>
       <c r="G66" s="3">
-        <v>2037300</v>
+        <v>4278100</v>
       </c>
       <c r="H66" s="3">
-        <v>1691400</v>
+        <v>1887400</v>
       </c>
       <c r="I66" s="3">
-        <v>136600</v>
+        <v>1567000</v>
       </c>
       <c r="J66" s="3">
+        <v>126500</v>
+      </c>
+      <c r="K66" s="3">
         <v>123100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>75700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>97800</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>381100</v>
+        <v>180400</v>
       </c>
       <c r="E72" s="3">
-        <v>169800</v>
+        <v>391800</v>
       </c>
       <c r="F72" s="3">
-        <v>409000</v>
+        <v>157300</v>
       </c>
       <c r="G72" s="3">
-        <v>241600</v>
+        <v>378900</v>
       </c>
       <c r="H72" s="3">
-        <v>199600</v>
+        <v>223800</v>
       </c>
       <c r="I72" s="3">
-        <v>114000</v>
+        <v>184900</v>
       </c>
       <c r="J72" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K72" s="3">
         <v>95100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>767200</v>
+        <v>684400</v>
       </c>
       <c r="E76" s="3">
-        <v>454800</v>
+        <v>788500</v>
       </c>
       <c r="F76" s="3">
-        <v>608400</v>
+        <v>421300</v>
       </c>
       <c r="G76" s="3">
-        <v>256600</v>
+        <v>563700</v>
       </c>
       <c r="H76" s="3">
-        <v>214600</v>
+        <v>237700</v>
       </c>
       <c r="I76" s="3">
-        <v>125300</v>
+        <v>198800</v>
       </c>
       <c r="J76" s="3">
+        <v>116100</v>
+      </c>
+      <c r="K76" s="3">
         <v>101400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>37300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53600</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41820</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41455</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41090</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>141400</v>
+        <v>-275000</v>
       </c>
       <c r="E81" s="3">
-        <v>-363200</v>
+        <v>196700</v>
       </c>
       <c r="F81" s="3">
-        <v>146100</v>
+        <v>-505300</v>
       </c>
       <c r="G81" s="3">
-        <v>-11100</v>
+        <v>135300</v>
       </c>
       <c r="H81" s="3">
-        <v>89000</v>
+        <v>-10300</v>
       </c>
       <c r="I81" s="3">
-        <v>24400</v>
+        <v>82500</v>
       </c>
       <c r="J81" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-8200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>161400</v>
+        <v>5900</v>
       </c>
       <c r="E83" s="3">
-        <v>105900</v>
+        <v>6600</v>
       </c>
       <c r="F83" s="3">
-        <v>67100</v>
+        <v>5100</v>
       </c>
       <c r="G83" s="3">
-        <v>33500</v>
+        <v>62200</v>
       </c>
       <c r="H83" s="3">
-        <v>15200</v>
+        <v>31000</v>
       </c>
       <c r="I83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3400</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>308600</v>
+        <v>-1322200</v>
       </c>
       <c r="E89" s="3">
-        <v>268200</v>
+        <v>429500</v>
       </c>
       <c r="F89" s="3">
-        <v>141700</v>
+        <v>373300</v>
       </c>
       <c r="G89" s="3">
-        <v>89900</v>
+        <v>131300</v>
       </c>
       <c r="H89" s="3">
-        <v>40900</v>
+        <v>83300</v>
       </c>
       <c r="I89" s="3">
-        <v>8300</v>
+        <v>37900</v>
       </c>
       <c r="J89" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K89" s="3">
         <v>10100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15900</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-92500</v>
+        <v>-12000</v>
       </c>
       <c r="E91" s="3">
-        <v>-114000</v>
+        <v>-54200</v>
       </c>
       <c r="F91" s="3">
-        <v>-92400</v>
+        <v>-61100</v>
       </c>
       <c r="G91" s="3">
-        <v>-40200</v>
+        <v>-85600</v>
       </c>
       <c r="H91" s="3">
-        <v>-13500</v>
+        <v>-37200</v>
       </c>
       <c r="I91" s="3">
-        <v>-4500</v>
+        <v>-12500</v>
       </c>
       <c r="J91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>403200</v>
+        <v>623800</v>
       </c>
       <c r="E94" s="3">
-        <v>111000</v>
+        <v>561000</v>
       </c>
       <c r="F94" s="3">
-        <v>-211900</v>
+        <v>154500</v>
       </c>
       <c r="G94" s="3">
-        <v>-20500</v>
+        <v>-196300</v>
       </c>
       <c r="H94" s="3">
-        <v>81600</v>
+        <v>-19000</v>
       </c>
       <c r="I94" s="3">
-        <v>2600</v>
+        <v>75600</v>
       </c>
       <c r="J94" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5700</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3304,29 +3537,32 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-25600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-23700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-755200</v>
+        <v>-448800</v>
       </c>
       <c r="E100" s="3">
-        <v>-275300</v>
+        <v>-1050800</v>
       </c>
       <c r="F100" s="3">
-        <v>-42800</v>
+        <v>-383100</v>
       </c>
       <c r="G100" s="3">
-        <v>15200</v>
+        <v>-39600</v>
       </c>
       <c r="H100" s="3">
-        <v>-39400</v>
+        <v>14100</v>
       </c>
       <c r="I100" s="3">
-        <v>-13800</v>
+        <v>-36500</v>
       </c>
       <c r="J100" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11300</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>86600</v>
+        <v>-82300</v>
       </c>
       <c r="E101" s="3">
-        <v>-67100</v>
+        <v>120600</v>
       </c>
       <c r="F101" s="3">
-        <v>198200</v>
+        <v>-93400</v>
       </c>
       <c r="G101" s="3">
-        <v>26000</v>
+        <v>183600</v>
       </c>
       <c r="H101" s="3">
-        <v>50700</v>
+        <v>24100</v>
       </c>
       <c r="I101" s="3">
+        <v>47000</v>
+      </c>
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>43300</v>
+        <v>-1229500</v>
       </c>
       <c r="E102" s="3">
-        <v>36800</v>
+        <v>60300</v>
       </c>
       <c r="F102" s="3">
-        <v>85300</v>
+        <v>51200</v>
       </c>
       <c r="G102" s="3">
-        <v>110600</v>
+        <v>79000</v>
       </c>
       <c r="H102" s="3">
-        <v>133800</v>
+        <v>102400</v>
       </c>
       <c r="I102" s="3">
-        <v>-2300</v>
+        <v>124000</v>
       </c>
       <c r="J102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>119300</v>
+        <v>110700</v>
       </c>
       <c r="E8" s="3">
-        <v>195400</v>
+        <v>181400</v>
       </c>
       <c r="F8" s="3">
-        <v>257400</v>
+        <v>238900</v>
       </c>
       <c r="G8" s="3">
-        <v>540600</v>
+        <v>501800</v>
       </c>
       <c r="H8" s="3">
-        <v>548400</v>
+        <v>509000</v>
       </c>
       <c r="I8" s="3">
-        <v>118700</v>
+        <v>110200</v>
       </c>
       <c r="J8" s="3">
-        <v>31300</v>
+        <v>29000</v>
       </c>
       <c r="K8" s="3">
         <v>28200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>60300</v>
+        <v>56000</v>
       </c>
       <c r="E9" s="3">
-        <v>174000</v>
+        <v>161500</v>
       </c>
       <c r="F9" s="3">
-        <v>96100</v>
+        <v>89200</v>
       </c>
       <c r="G9" s="3">
-        <v>318400</v>
+        <v>295500</v>
       </c>
       <c r="H9" s="3">
-        <v>763700</v>
+        <v>708900</v>
       </c>
       <c r="I9" s="3">
-        <v>408900</v>
+        <v>379500</v>
       </c>
       <c r="J9" s="3">
-        <v>12500</v>
+        <v>11600</v>
       </c>
       <c r="K9" s="3">
         <v>13400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>58900</v>
+        <v>54700</v>
       </c>
       <c r="E10" s="3">
-        <v>21400</v>
+        <v>19900</v>
       </c>
       <c r="F10" s="3">
-        <v>161200</v>
+        <v>149600</v>
       </c>
       <c r="G10" s="3">
-        <v>222200</v>
+        <v>206200</v>
       </c>
       <c r="H10" s="3">
-        <v>-215300</v>
+        <v>-199900</v>
       </c>
       <c r="I10" s="3">
-        <v>-290200</v>
+        <v>-269300</v>
       </c>
       <c r="J10" s="3">
-        <v>18800</v>
+        <v>17400</v>
       </c>
       <c r="K10" s="3">
         <v>14800</v>
@@ -916,19 +916,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
-        <v>23500</v>
+        <v>21800</v>
       </c>
       <c r="F14" s="3">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="G14" s="3">
-        <v>-12400</v>
+        <v>-11500</v>
       </c>
       <c r="H14" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="I14" s="3">
         <v>-200</v>
@@ -952,22 +952,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E15" s="3">
-        <v>59200</v>
+        <v>54900</v>
       </c>
       <c r="F15" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G15" s="3">
-        <v>24700</v>
+        <v>23000</v>
       </c>
       <c r="H15" s="3">
-        <v>32200</v>
+        <v>29900</v>
       </c>
       <c r="I15" s="3">
-        <v>7300</v>
+        <v>6800</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>173900</v>
+        <v>161400</v>
       </c>
       <c r="E17" s="3">
-        <v>-338100</v>
+        <v>-313800</v>
       </c>
       <c r="F17" s="3">
-        <v>688000</v>
+        <v>638600</v>
       </c>
       <c r="G17" s="3">
-        <v>287700</v>
+        <v>267000</v>
       </c>
       <c r="H17" s="3">
-        <v>520800</v>
+        <v>483400</v>
       </c>
       <c r="I17" s="3">
-        <v>-64700</v>
+        <v>-60000</v>
       </c>
       <c r="J17" s="3">
-        <v>-18900</v>
+        <v>-17500</v>
       </c>
       <c r="K17" s="3">
         <v>16000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-54700</v>
+        <v>-50700</v>
       </c>
       <c r="E18" s="3">
-        <v>533500</v>
+        <v>495200</v>
       </c>
       <c r="F18" s="3">
-        <v>-430700</v>
+        <v>-399700</v>
       </c>
       <c r="G18" s="3">
-        <v>252900</v>
+        <v>234800</v>
       </c>
       <c r="H18" s="3">
-        <v>27600</v>
+        <v>25600</v>
       </c>
       <c r="I18" s="3">
-        <v>183400</v>
+        <v>170200</v>
       </c>
       <c r="J18" s="3">
-        <v>50100</v>
+        <v>46500</v>
       </c>
       <c r="K18" s="3">
         <v>12300</v>
@@ -1089,22 +1089,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>185600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-148600</v>
+      </c>
+      <c r="H20" s="3">
         <v>50200</v>
       </c>
-      <c r="E20" s="3">
-        <v>200000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-78000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-160100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>54100</v>
-      </c>
       <c r="I20" s="3">
-        <v>-24100</v>
+        <v>-22400</v>
       </c>
       <c r="J20" s="3">
         <v>800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E21" s="3">
-        <v>740100</v>
+        <v>686900</v>
       </c>
       <c r="F21" s="3">
-        <v>-503500</v>
+        <v>-467300</v>
       </c>
       <c r="G21" s="3">
-        <v>155100</v>
+        <v>143900</v>
       </c>
       <c r="H21" s="3">
-        <v>112800</v>
+        <v>104700</v>
       </c>
       <c r="I21" s="3">
-        <v>173400</v>
+        <v>160900</v>
       </c>
       <c r="J21" s="3">
-        <v>51300</v>
+        <v>47600</v>
       </c>
       <c r="K21" s="3">
         <v>-2000</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>59800</v>
+        <v>55500</v>
       </c>
       <c r="E22" s="3">
-        <v>267900</v>
+        <v>248600</v>
       </c>
       <c r="F22" s="3">
-        <v>61300</v>
+        <v>56900</v>
       </c>
       <c r="G22" s="3">
-        <v>124300</v>
+        <v>115400</v>
       </c>
       <c r="H22" s="3">
-        <v>121200</v>
+        <v>112500</v>
       </c>
       <c r="I22" s="3">
-        <v>21400</v>
+        <v>19900</v>
       </c>
       <c r="J22" s="3">
-        <v>11500</v>
+        <v>10700</v>
       </c>
       <c r="K22" s="3">
         <v>4700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-64300</v>
+        <v>-59700</v>
       </c>
       <c r="E23" s="3">
-        <v>465600</v>
+        <v>432200</v>
       </c>
       <c r="F23" s="3">
-        <v>-569900</v>
+        <v>-529000</v>
       </c>
       <c r="G23" s="3">
-        <v>-31400</v>
+        <v>-29200</v>
       </c>
       <c r="H23" s="3">
-        <v>-39500</v>
+        <v>-36600</v>
       </c>
       <c r="I23" s="3">
-        <v>137900</v>
+        <v>128000</v>
       </c>
       <c r="J23" s="3">
-        <v>39400</v>
+        <v>36600</v>
       </c>
       <c r="K23" s="3">
         <v>-8900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>199200</v>
+        <v>184900</v>
       </c>
       <c r="E24" s="3">
-        <v>92500</v>
+        <v>85900</v>
       </c>
       <c r="F24" s="3">
-        <v>-62100</v>
+        <v>-57700</v>
       </c>
       <c r="G24" s="3">
-        <v>-57700</v>
+        <v>-53600</v>
       </c>
       <c r="H24" s="3">
-        <v>13700</v>
+        <v>12700</v>
       </c>
       <c r="I24" s="3">
-        <v>58100</v>
+        <v>54000</v>
       </c>
       <c r="J24" s="3">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="K24" s="3">
         <v>-600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-263500</v>
+        <v>-244500</v>
       </c>
       <c r="E26" s="3">
-        <v>373100</v>
+        <v>346300</v>
       </c>
       <c r="F26" s="3">
-        <v>-507800</v>
+        <v>-471300</v>
       </c>
       <c r="G26" s="3">
-        <v>26300</v>
+        <v>24400</v>
       </c>
       <c r="H26" s="3">
-        <v>-53200</v>
+        <v>-49400</v>
       </c>
       <c r="I26" s="3">
-        <v>79800</v>
+        <v>74000</v>
       </c>
       <c r="J26" s="3">
-        <v>24900</v>
+        <v>23100</v>
       </c>
       <c r="K26" s="3">
         <v>-8200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-193000</v>
+        <v>-179200</v>
       </c>
       <c r="E27" s="3">
-        <v>242200</v>
+        <v>224800</v>
       </c>
       <c r="F27" s="3">
-        <v>-483500</v>
+        <v>-448700</v>
       </c>
       <c r="G27" s="3">
-        <v>-51900</v>
+        <v>-48200</v>
       </c>
       <c r="H27" s="3">
-        <v>-91500</v>
+        <v>-84900</v>
       </c>
       <c r="I27" s="3">
-        <v>75000</v>
+        <v>69600</v>
       </c>
       <c r="J27" s="3">
-        <v>22600</v>
+        <v>21000</v>
       </c>
       <c r="K27" s="3">
         <v>-8200</v>
@@ -1413,22 +1413,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-82000</v>
+        <v>-76100</v>
       </c>
       <c r="E29" s="3">
-        <v>-45500</v>
+        <v>-42200</v>
       </c>
       <c r="F29" s="3">
-        <v>-21900</v>
+        <v>-20300</v>
       </c>
       <c r="G29" s="3">
-        <v>187300</v>
+        <v>173800</v>
       </c>
       <c r="H29" s="3">
-        <v>81200</v>
+        <v>75400</v>
       </c>
       <c r="I29" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1521,22 +1521,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-185600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>72400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>148600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-50200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-200000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>78000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>160100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-54100</v>
-      </c>
       <c r="I32" s="3">
-        <v>24100</v>
+        <v>22400</v>
       </c>
       <c r="J32" s="3">
         <v>-800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-275000</v>
+        <v>-255300</v>
       </c>
       <c r="E33" s="3">
-        <v>196700</v>
+        <v>182600</v>
       </c>
       <c r="F33" s="3">
-        <v>-505300</v>
+        <v>-469000</v>
       </c>
       <c r="G33" s="3">
-        <v>135300</v>
+        <v>125600</v>
       </c>
       <c r="H33" s="3">
-        <v>-10300</v>
+        <v>-9600</v>
       </c>
       <c r="I33" s="3">
-        <v>82500</v>
+        <v>76500</v>
       </c>
       <c r="J33" s="3">
-        <v>22600</v>
+        <v>21000</v>
       </c>
       <c r="K33" s="3">
         <v>-8200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-275000</v>
+        <v>-255300</v>
       </c>
       <c r="E35" s="3">
-        <v>196700</v>
+        <v>182600</v>
       </c>
       <c r="F35" s="3">
-        <v>-505300</v>
+        <v>-469000</v>
       </c>
       <c r="G35" s="3">
-        <v>135300</v>
+        <v>125600</v>
       </c>
       <c r="H35" s="3">
-        <v>-10300</v>
+        <v>-9600</v>
       </c>
       <c r="I35" s="3">
-        <v>82500</v>
+        <v>76500</v>
       </c>
       <c r="J35" s="3">
-        <v>22600</v>
+        <v>21000</v>
       </c>
       <c r="K35" s="3">
         <v>-8200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21400</v>
+        <v>19800</v>
       </c>
       <c r="E41" s="3">
-        <v>1247300</v>
+        <v>1157700</v>
       </c>
       <c r="F41" s="3">
-        <v>794400</v>
+        <v>737400</v>
       </c>
       <c r="G41" s="3">
-        <v>533500</v>
+        <v>495200</v>
       </c>
       <c r="H41" s="3">
-        <v>228400</v>
+        <v>212000</v>
       </c>
       <c r="I41" s="3">
-        <v>254900</v>
+        <v>236600</v>
       </c>
       <c r="J41" s="3">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="K41" s="3">
         <v>12100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35000</v>
+        <v>32500</v>
       </c>
       <c r="E42" s="3">
-        <v>314900</v>
+        <v>292300</v>
       </c>
       <c r="F42" s="3">
-        <v>576300</v>
+        <v>535000</v>
       </c>
       <c r="G42" s="3">
-        <v>428300</v>
+        <v>397500</v>
       </c>
       <c r="H42" s="3">
-        <v>131300</v>
+        <v>121900</v>
       </c>
       <c r="I42" s="3">
-        <v>100300</v>
+        <v>93100</v>
       </c>
       <c r="J42" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="K42" s="3">
         <v>2300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>95600</v>
+        <v>88800</v>
       </c>
       <c r="E43" s="3">
-        <v>516900</v>
+        <v>479800</v>
       </c>
       <c r="F43" s="3">
-        <v>301200</v>
+        <v>279600</v>
       </c>
       <c r="G43" s="3">
-        <v>219400</v>
+        <v>203700</v>
       </c>
       <c r="H43" s="3">
-        <v>146300</v>
+        <v>135800</v>
       </c>
       <c r="I43" s="3">
-        <v>120100</v>
+        <v>111500</v>
       </c>
       <c r="J43" s="3">
-        <v>12900</v>
+        <v>11900</v>
       </c>
       <c r="K43" s="3">
         <v>13100</v>
@@ -1846,22 +1846,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E44" s="3">
-        <v>64600</v>
+        <v>60000</v>
       </c>
       <c r="F44" s="3">
-        <v>15100</v>
+        <v>14000</v>
       </c>
       <c r="G44" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="H44" s="3">
-        <v>39100</v>
+        <v>36300</v>
       </c>
       <c r="I44" s="3">
-        <v>29800</v>
+        <v>27700</v>
       </c>
       <c r="J44" s="3">
         <v>400</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E45" s="3">
-        <v>695900</v>
+        <v>645900</v>
       </c>
       <c r="F45" s="3">
-        <v>168600</v>
+        <v>156400</v>
       </c>
       <c r="G45" s="3">
-        <v>183000</v>
+        <v>169900</v>
       </c>
       <c r="H45" s="3">
-        <v>56700</v>
+        <v>52700</v>
       </c>
       <c r="I45" s="3">
-        <v>15400</v>
+        <v>14300</v>
       </c>
       <c r="J45" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K45" s="3">
         <v>17800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>154100</v>
+        <v>143000</v>
       </c>
       <c r="E46" s="3">
-        <v>2839600</v>
+        <v>2635700</v>
       </c>
       <c r="F46" s="3">
-        <v>1855600</v>
+        <v>1722300</v>
       </c>
       <c r="G46" s="3">
-        <v>1373300</v>
+        <v>1274700</v>
       </c>
       <c r="H46" s="3">
-        <v>601900</v>
+        <v>558600</v>
       </c>
       <c r="I46" s="3">
-        <v>393000</v>
+        <v>364800</v>
       </c>
       <c r="J46" s="3">
-        <v>17400</v>
+        <v>16200</v>
       </c>
       <c r="K46" s="3">
         <v>32200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>180000</v>
+        <v>167100</v>
       </c>
       <c r="E47" s="3">
-        <v>1395000</v>
+        <v>1294800</v>
       </c>
       <c r="F47" s="3">
-        <v>610800</v>
+        <v>566900</v>
       </c>
       <c r="G47" s="3">
-        <v>517400</v>
+        <v>480200</v>
       </c>
       <c r="H47" s="3">
-        <v>120500</v>
+        <v>111800</v>
       </c>
       <c r="I47" s="3">
-        <v>196200</v>
+        <v>182100</v>
       </c>
       <c r="J47" s="3">
-        <v>41500</v>
+        <v>38500</v>
       </c>
       <c r="K47" s="3">
         <v>31200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2082100</v>
+        <v>1932600</v>
       </c>
       <c r="E48" s="3">
-        <v>3935800</v>
+        <v>3653200</v>
       </c>
       <c r="F48" s="3">
-        <v>3358300</v>
+        <v>3117100</v>
       </c>
       <c r="G48" s="3">
-        <v>3111000</v>
+        <v>2887600</v>
       </c>
       <c r="H48" s="3">
-        <v>1167700</v>
+        <v>1083900</v>
       </c>
       <c r="I48" s="3">
-        <v>1439400</v>
+        <v>1336000</v>
       </c>
       <c r="J48" s="3">
-        <v>216700</v>
+        <v>201100</v>
       </c>
       <c r="K48" s="3">
         <v>193500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26600</v>
+        <v>24700</v>
       </c>
       <c r="E49" s="3">
-        <v>383500</v>
+        <v>356000</v>
       </c>
       <c r="F49" s="3">
-        <v>235300</v>
+        <v>218400</v>
       </c>
       <c r="G49" s="3">
-        <v>177300</v>
+        <v>164500</v>
       </c>
       <c r="H49" s="3">
-        <v>113800</v>
+        <v>105700</v>
       </c>
       <c r="I49" s="3">
-        <v>108100</v>
+        <v>100300</v>
       </c>
       <c r="J49" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K49" s="3">
         <v>2500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23100</v>
+        <v>21500</v>
       </c>
       <c r="E52" s="3">
-        <v>103600</v>
+        <v>96100</v>
       </c>
       <c r="F52" s="3">
-        <v>174100</v>
+        <v>161600</v>
       </c>
       <c r="G52" s="3">
-        <v>321400</v>
+        <v>298300</v>
       </c>
       <c r="H52" s="3">
-        <v>121200</v>
+        <v>112500</v>
       </c>
       <c r="I52" s="3">
-        <v>87400</v>
+        <v>81100</v>
       </c>
       <c r="J52" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="K52" s="3">
         <v>1800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2465900</v>
+        <v>2288800</v>
       </c>
       <c r="E54" s="3">
-        <v>8657500</v>
+        <v>8035700</v>
       </c>
       <c r="F54" s="3">
-        <v>6234100</v>
+        <v>5786400</v>
       </c>
       <c r="G54" s="3">
-        <v>4841800</v>
+        <v>4494100</v>
       </c>
       <c r="H54" s="3">
-        <v>2125100</v>
+        <v>1972500</v>
       </c>
       <c r="I54" s="3">
-        <v>1765800</v>
+        <v>1639000</v>
       </c>
       <c r="J54" s="3">
-        <v>242600</v>
+        <v>225200</v>
       </c>
       <c r="K54" s="3">
         <v>224400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>56500</v>
+        <v>52400</v>
       </c>
       <c r="E57" s="3">
-        <v>409600</v>
+        <v>380200</v>
       </c>
       <c r="F57" s="3">
-        <v>243800</v>
+        <v>226300</v>
       </c>
       <c r="G57" s="3">
-        <v>210700</v>
+        <v>195600</v>
       </c>
       <c r="H57" s="3">
-        <v>117000</v>
+        <v>108600</v>
       </c>
       <c r="I57" s="3">
-        <v>101700</v>
+        <v>94400</v>
       </c>
       <c r="J57" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="K57" s="3">
         <v>7900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>171200</v>
+        <v>158900</v>
       </c>
       <c r="E58" s="3">
-        <v>1148600</v>
+        <v>1066100</v>
       </c>
       <c r="F58" s="3">
-        <v>1015900</v>
+        <v>942900</v>
       </c>
       <c r="G58" s="3">
-        <v>365800</v>
+        <v>339500</v>
       </c>
       <c r="H58" s="3">
-        <v>183100</v>
+        <v>170000</v>
       </c>
       <c r="I58" s="3">
-        <v>204500</v>
+        <v>189800</v>
       </c>
       <c r="J58" s="3">
-        <v>23100</v>
+        <v>21400</v>
       </c>
       <c r="K58" s="3">
         <v>14700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17400</v>
+        <v>16100</v>
       </c>
       <c r="E59" s="3">
-        <v>421000</v>
+        <v>390800</v>
       </c>
       <c r="F59" s="3">
-        <v>129900</v>
+        <v>120600</v>
       </c>
       <c r="G59" s="3">
-        <v>93700</v>
+        <v>87000</v>
       </c>
       <c r="H59" s="3">
-        <v>126700</v>
+        <v>117600</v>
       </c>
       <c r="I59" s="3">
-        <v>94500</v>
+        <v>87700</v>
       </c>
       <c r="J59" s="3">
-        <v>15800</v>
+        <v>14600</v>
       </c>
       <c r="K59" s="3">
         <v>17700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>245000</v>
+        <v>227400</v>
       </c>
       <c r="E60" s="3">
-        <v>1979200</v>
+        <v>1837000</v>
       </c>
       <c r="F60" s="3">
-        <v>971400</v>
+        <v>901700</v>
       </c>
       <c r="G60" s="3">
-        <v>670200</v>
+        <v>622100</v>
       </c>
       <c r="H60" s="3">
-        <v>426700</v>
+        <v>396100</v>
       </c>
       <c r="I60" s="3">
-        <v>400700</v>
+        <v>371900</v>
       </c>
       <c r="J60" s="3">
-        <v>24700</v>
+        <v>23000</v>
       </c>
       <c r="K60" s="3">
         <v>25300</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>526600</v>
+        <v>488800</v>
       </c>
       <c r="E61" s="3">
-        <v>4295500</v>
+        <v>3987000</v>
       </c>
       <c r="F61" s="3">
-        <v>3507300</v>
+        <v>3255400</v>
       </c>
       <c r="G61" s="3">
-        <v>2588400</v>
+        <v>2402600</v>
       </c>
       <c r="H61" s="3">
-        <v>1006200</v>
+        <v>933900</v>
       </c>
       <c r="I61" s="3">
-        <v>833300</v>
+        <v>773500</v>
       </c>
       <c r="J61" s="3">
-        <v>34300</v>
+        <v>31900</v>
       </c>
       <c r="K61" s="3">
         <v>37300</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>778600</v>
+        <v>722700</v>
       </c>
       <c r="E62" s="3">
-        <v>689700</v>
+        <v>640200</v>
       </c>
       <c r="F62" s="3">
-        <v>628200</v>
+        <v>583100</v>
       </c>
       <c r="G62" s="3">
-        <v>484800</v>
+        <v>450000</v>
       </c>
       <c r="H62" s="3">
-        <v>257200</v>
+        <v>238700</v>
       </c>
       <c r="I62" s="3">
-        <v>207100</v>
+        <v>192200</v>
       </c>
       <c r="J62" s="3">
-        <v>61000</v>
+        <v>56600</v>
       </c>
       <c r="K62" s="3">
         <v>52600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1781500</v>
+        <v>1653500</v>
       </c>
       <c r="E66" s="3">
-        <v>7868900</v>
+        <v>7303800</v>
       </c>
       <c r="F66" s="3">
-        <v>5812800</v>
+        <v>5395400</v>
       </c>
       <c r="G66" s="3">
-        <v>4278100</v>
+        <v>3970900</v>
       </c>
       <c r="H66" s="3">
-        <v>1887400</v>
+        <v>1751900</v>
       </c>
       <c r="I66" s="3">
-        <v>1567000</v>
+        <v>1454400</v>
       </c>
       <c r="J66" s="3">
-        <v>126500</v>
+        <v>117500</v>
       </c>
       <c r="K66" s="3">
         <v>123100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>180400</v>
+        <v>167400</v>
       </c>
       <c r="E72" s="3">
-        <v>391800</v>
+        <v>363600</v>
       </c>
       <c r="F72" s="3">
-        <v>157300</v>
+        <v>146000</v>
       </c>
       <c r="G72" s="3">
-        <v>378900</v>
+        <v>351700</v>
       </c>
       <c r="H72" s="3">
-        <v>223800</v>
+        <v>207700</v>
       </c>
       <c r="I72" s="3">
-        <v>184900</v>
+        <v>171600</v>
       </c>
       <c r="J72" s="3">
-        <v>105700</v>
+        <v>98100</v>
       </c>
       <c r="K72" s="3">
         <v>95100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>684400</v>
+        <v>635200</v>
       </c>
       <c r="E76" s="3">
-        <v>788500</v>
+        <v>731900</v>
       </c>
       <c r="F76" s="3">
-        <v>421300</v>
+        <v>391000</v>
       </c>
       <c r="G76" s="3">
-        <v>563700</v>
+        <v>523200</v>
       </c>
       <c r="H76" s="3">
-        <v>237700</v>
+        <v>220600</v>
       </c>
       <c r="I76" s="3">
-        <v>198800</v>
+        <v>184500</v>
       </c>
       <c r="J76" s="3">
-        <v>116100</v>
+        <v>107700</v>
       </c>
       <c r="K76" s="3">
         <v>101400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-275000</v>
+        <v>-255300</v>
       </c>
       <c r="E81" s="3">
-        <v>196700</v>
+        <v>182600</v>
       </c>
       <c r="F81" s="3">
-        <v>-505300</v>
+        <v>-469000</v>
       </c>
       <c r="G81" s="3">
-        <v>135300</v>
+        <v>125600</v>
       </c>
       <c r="H81" s="3">
-        <v>-10300</v>
+        <v>-9600</v>
       </c>
       <c r="I81" s="3">
-        <v>82500</v>
+        <v>76500</v>
       </c>
       <c r="J81" s="3">
-        <v>22600</v>
+        <v>21000</v>
       </c>
       <c r="K81" s="3">
         <v>-8200</v>
@@ -3103,22 +3103,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="E83" s="3">
-        <v>6600</v>
+        <v>6100</v>
       </c>
       <c r="F83" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="G83" s="3">
-        <v>62200</v>
+        <v>57700</v>
       </c>
       <c r="H83" s="3">
-        <v>31000</v>
+        <v>28800</v>
       </c>
       <c r="I83" s="3">
-        <v>14100</v>
+        <v>13100</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1322200</v>
+        <v>-1227200</v>
       </c>
       <c r="E89" s="3">
-        <v>429500</v>
+        <v>398600</v>
       </c>
       <c r="F89" s="3">
-        <v>373300</v>
+        <v>346500</v>
       </c>
       <c r="G89" s="3">
-        <v>131300</v>
+        <v>121900</v>
       </c>
       <c r="H89" s="3">
-        <v>83300</v>
+        <v>77300</v>
       </c>
       <c r="I89" s="3">
-        <v>37900</v>
+        <v>35200</v>
       </c>
       <c r="J89" s="3">
-        <v>7700</v>
+        <v>7100</v>
       </c>
       <c r="K89" s="3">
         <v>10100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12000</v>
+        <v>-11100</v>
       </c>
       <c r="E91" s="3">
-        <v>-54200</v>
+        <v>-50400</v>
       </c>
       <c r="F91" s="3">
-        <v>-61100</v>
+        <v>-56700</v>
       </c>
       <c r="G91" s="3">
-        <v>-85600</v>
+        <v>-79500</v>
       </c>
       <c r="H91" s="3">
-        <v>-37200</v>
+        <v>-34500</v>
       </c>
       <c r="I91" s="3">
-        <v>-12500</v>
+        <v>-11600</v>
       </c>
       <c r="J91" s="3">
-        <v>-4200</v>
+        <v>-3900</v>
       </c>
       <c r="K91" s="3">
         <v>-2900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>623800</v>
+        <v>579000</v>
       </c>
       <c r="E94" s="3">
-        <v>561000</v>
+        <v>520700</v>
       </c>
       <c r="F94" s="3">
-        <v>154500</v>
+        <v>143400</v>
       </c>
       <c r="G94" s="3">
-        <v>-196300</v>
+        <v>-182200</v>
       </c>
       <c r="H94" s="3">
-        <v>-19000</v>
+        <v>-17600</v>
       </c>
       <c r="I94" s="3">
-        <v>75600</v>
+        <v>70100</v>
       </c>
       <c r="J94" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K94" s="3">
         <v>-9100</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-23700</v>
+        <v>-22000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-448800</v>
+        <v>-416600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1050800</v>
+        <v>-975300</v>
       </c>
       <c r="F100" s="3">
-        <v>-383100</v>
+        <v>-355600</v>
       </c>
       <c r="G100" s="3">
-        <v>-39600</v>
+        <v>-36800</v>
       </c>
       <c r="H100" s="3">
-        <v>14100</v>
+        <v>13100</v>
       </c>
       <c r="I100" s="3">
-        <v>-36500</v>
+        <v>-33800</v>
       </c>
       <c r="J100" s="3">
-        <v>-12800</v>
+        <v>-11900</v>
       </c>
       <c r="K100" s="3">
         <v>-5900</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-82300</v>
+        <v>-76400</v>
       </c>
       <c r="E101" s="3">
-        <v>120600</v>
+        <v>111900</v>
       </c>
       <c r="F101" s="3">
-        <v>-93400</v>
+        <v>-86700</v>
       </c>
       <c r="G101" s="3">
-        <v>183600</v>
+        <v>170400</v>
       </c>
       <c r="H101" s="3">
-        <v>24100</v>
+        <v>22300</v>
       </c>
       <c r="I101" s="3">
-        <v>47000</v>
+        <v>43600</v>
       </c>
       <c r="J101" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K101" s="3">
         <v>3000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1229500</v>
+        <v>-1141200</v>
       </c>
       <c r="E102" s="3">
-        <v>60300</v>
+        <v>55900</v>
       </c>
       <c r="F102" s="3">
-        <v>51200</v>
+        <v>47500</v>
       </c>
       <c r="G102" s="3">
-        <v>79000</v>
+        <v>73300</v>
       </c>
       <c r="H102" s="3">
-        <v>102400</v>
+        <v>95100</v>
       </c>
       <c r="I102" s="3">
-        <v>124000</v>
+        <v>115100</v>
       </c>
       <c r="J102" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="K102" s="3">
         <v>-1900</v>

--- a/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>110700</v>
+        <v>94500</v>
       </c>
       <c r="E8" s="3">
-        <v>181400</v>
+        <v>154800</v>
       </c>
       <c r="F8" s="3">
-        <v>238900</v>
+        <v>203900</v>
       </c>
       <c r="G8" s="3">
-        <v>501800</v>
+        <v>428200</v>
       </c>
       <c r="H8" s="3">
-        <v>509000</v>
+        <v>434400</v>
       </c>
       <c r="I8" s="3">
-        <v>110200</v>
+        <v>94000</v>
       </c>
       <c r="J8" s="3">
-        <v>29000</v>
+        <v>24800</v>
       </c>
       <c r="K8" s="3">
         <v>28200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>56000</v>
+        <v>47800</v>
       </c>
       <c r="E9" s="3">
-        <v>161500</v>
+        <v>137800</v>
       </c>
       <c r="F9" s="3">
-        <v>89200</v>
+        <v>76200</v>
       </c>
       <c r="G9" s="3">
-        <v>295500</v>
+        <v>252200</v>
       </c>
       <c r="H9" s="3">
-        <v>708900</v>
+        <v>605000</v>
       </c>
       <c r="I9" s="3">
-        <v>379500</v>
+        <v>323900</v>
       </c>
       <c r="J9" s="3">
-        <v>11600</v>
+        <v>9900</v>
       </c>
       <c r="K9" s="3">
         <v>13400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>54700</v>
+        <v>46700</v>
       </c>
       <c r="E10" s="3">
-        <v>19900</v>
+        <v>17000</v>
       </c>
       <c r="F10" s="3">
-        <v>149600</v>
+        <v>127700</v>
       </c>
       <c r="G10" s="3">
-        <v>206200</v>
+        <v>176000</v>
       </c>
       <c r="H10" s="3">
-        <v>-199900</v>
+        <v>-170600</v>
       </c>
       <c r="I10" s="3">
-        <v>-269300</v>
+        <v>-229900</v>
       </c>
       <c r="J10" s="3">
-        <v>17400</v>
+        <v>14900</v>
       </c>
       <c r="K10" s="3">
         <v>14800</v>
@@ -919,19 +919,19 @@
         <v>400</v>
       </c>
       <c r="E14" s="3">
-        <v>21800</v>
+        <v>18600</v>
       </c>
       <c r="F14" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="G14" s="3">
-        <v>-11500</v>
+        <v>-9800</v>
       </c>
       <c r="H14" s="3">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="I14" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J14" s="3">
         <v>200</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="E15" s="3">
-        <v>54900</v>
+        <v>46900</v>
       </c>
       <c r="F15" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G15" s="3">
-        <v>23000</v>
+        <v>19600</v>
       </c>
       <c r="H15" s="3">
-        <v>29900</v>
+        <v>25500</v>
       </c>
       <c r="I15" s="3">
-        <v>6800</v>
+        <v>5800</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>161400</v>
+        <v>137800</v>
       </c>
       <c r="E17" s="3">
-        <v>-313800</v>
+        <v>-267800</v>
       </c>
       <c r="F17" s="3">
-        <v>638600</v>
+        <v>545000</v>
       </c>
       <c r="G17" s="3">
-        <v>267000</v>
+        <v>227900</v>
       </c>
       <c r="H17" s="3">
-        <v>483400</v>
+        <v>412500</v>
       </c>
       <c r="I17" s="3">
-        <v>-60000</v>
+        <v>-51200</v>
       </c>
       <c r="J17" s="3">
-        <v>-17500</v>
+        <v>-15000</v>
       </c>
       <c r="K17" s="3">
         <v>16000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-50700</v>
+        <v>-43300</v>
       </c>
       <c r="E18" s="3">
-        <v>495200</v>
+        <v>422600</v>
       </c>
       <c r="F18" s="3">
-        <v>-399700</v>
+        <v>-341200</v>
       </c>
       <c r="G18" s="3">
-        <v>234800</v>
+        <v>200400</v>
       </c>
       <c r="H18" s="3">
-        <v>25600</v>
+        <v>21900</v>
       </c>
       <c r="I18" s="3">
-        <v>170200</v>
+        <v>145300</v>
       </c>
       <c r="J18" s="3">
-        <v>46500</v>
+        <v>39700</v>
       </c>
       <c r="K18" s="3">
         <v>12300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>46600</v>
+        <v>39700</v>
       </c>
       <c r="E20" s="3">
-        <v>185600</v>
+        <v>158400</v>
       </c>
       <c r="F20" s="3">
-        <v>-72400</v>
+        <v>-61800</v>
       </c>
       <c r="G20" s="3">
-        <v>-148600</v>
+        <v>-126800</v>
       </c>
       <c r="H20" s="3">
-        <v>50200</v>
+        <v>42900</v>
       </c>
       <c r="I20" s="3">
-        <v>-22400</v>
+        <v>-19100</v>
       </c>
       <c r="J20" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K20" s="3">
         <v>-16500</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E21" s="3">
-        <v>686900</v>
+        <v>586200</v>
       </c>
       <c r="F21" s="3">
-        <v>-467300</v>
+        <v>-398800</v>
       </c>
       <c r="G21" s="3">
-        <v>143900</v>
+        <v>122900</v>
       </c>
       <c r="H21" s="3">
-        <v>104700</v>
+        <v>89300</v>
       </c>
       <c r="I21" s="3">
-        <v>160900</v>
+        <v>137400</v>
       </c>
       <c r="J21" s="3">
-        <v>47600</v>
+        <v>40600</v>
       </c>
       <c r="K21" s="3">
         <v>-2000</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>55500</v>
+        <v>47400</v>
       </c>
       <c r="E22" s="3">
-        <v>248600</v>
+        <v>212200</v>
       </c>
       <c r="F22" s="3">
-        <v>56900</v>
+        <v>48500</v>
       </c>
       <c r="G22" s="3">
-        <v>115400</v>
+        <v>98500</v>
       </c>
       <c r="H22" s="3">
-        <v>112500</v>
+        <v>96000</v>
       </c>
       <c r="I22" s="3">
-        <v>19900</v>
+        <v>17000</v>
       </c>
       <c r="J22" s="3">
-        <v>10700</v>
+        <v>9100</v>
       </c>
       <c r="K22" s="3">
         <v>4700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-59700</v>
+        <v>-50900</v>
       </c>
       <c r="E23" s="3">
-        <v>432200</v>
+        <v>368800</v>
       </c>
       <c r="F23" s="3">
-        <v>-529000</v>
+        <v>-451500</v>
       </c>
       <c r="G23" s="3">
-        <v>-29200</v>
+        <v>-24900</v>
       </c>
       <c r="H23" s="3">
-        <v>-36600</v>
+        <v>-31300</v>
       </c>
       <c r="I23" s="3">
-        <v>128000</v>
+        <v>109200</v>
       </c>
       <c r="J23" s="3">
-        <v>36600</v>
+        <v>31200</v>
       </c>
       <c r="K23" s="3">
         <v>-8900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>184900</v>
+        <v>157800</v>
       </c>
       <c r="E24" s="3">
-        <v>85900</v>
+        <v>73300</v>
       </c>
       <c r="F24" s="3">
-        <v>-57700</v>
+        <v>-49200</v>
       </c>
       <c r="G24" s="3">
-        <v>-53600</v>
+        <v>-45700</v>
       </c>
       <c r="H24" s="3">
-        <v>12700</v>
+        <v>10900</v>
       </c>
       <c r="I24" s="3">
-        <v>54000</v>
+        <v>46000</v>
       </c>
       <c r="J24" s="3">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="K24" s="3">
         <v>-600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-244500</v>
+        <v>-208700</v>
       </c>
       <c r="E26" s="3">
-        <v>346300</v>
+        <v>295600</v>
       </c>
       <c r="F26" s="3">
-        <v>-471300</v>
+        <v>-402200</v>
       </c>
       <c r="G26" s="3">
-        <v>24400</v>
+        <v>20800</v>
       </c>
       <c r="H26" s="3">
-        <v>-49400</v>
+        <v>-42100</v>
       </c>
       <c r="I26" s="3">
-        <v>74000</v>
+        <v>63200</v>
       </c>
       <c r="J26" s="3">
-        <v>23100</v>
+        <v>19700</v>
       </c>
       <c r="K26" s="3">
         <v>-8200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-179200</v>
+        <v>-152900</v>
       </c>
       <c r="E27" s="3">
-        <v>224800</v>
+        <v>191800</v>
       </c>
       <c r="F27" s="3">
-        <v>-448700</v>
+        <v>-383000</v>
       </c>
       <c r="G27" s="3">
-        <v>-48200</v>
+        <v>-41100</v>
       </c>
       <c r="H27" s="3">
-        <v>-84900</v>
+        <v>-72500</v>
       </c>
       <c r="I27" s="3">
-        <v>69600</v>
+        <v>59400</v>
       </c>
       <c r="J27" s="3">
-        <v>21000</v>
+        <v>17900</v>
       </c>
       <c r="K27" s="3">
         <v>-8200</v>
@@ -1413,22 +1413,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-76100</v>
+        <v>-65000</v>
       </c>
       <c r="E29" s="3">
-        <v>-42200</v>
+        <v>-36000</v>
       </c>
       <c r="F29" s="3">
-        <v>-20300</v>
+        <v>-17300</v>
       </c>
       <c r="G29" s="3">
-        <v>173800</v>
+        <v>148300</v>
       </c>
       <c r="H29" s="3">
-        <v>75400</v>
+        <v>64300</v>
       </c>
       <c r="I29" s="3">
-        <v>7000</v>
+        <v>5900</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-46600</v>
+        <v>-39700</v>
       </c>
       <c r="E32" s="3">
-        <v>-185600</v>
+        <v>-158400</v>
       </c>
       <c r="F32" s="3">
-        <v>72400</v>
+        <v>61800</v>
       </c>
       <c r="G32" s="3">
-        <v>148600</v>
+        <v>126800</v>
       </c>
       <c r="H32" s="3">
-        <v>-50200</v>
+        <v>-42900</v>
       </c>
       <c r="I32" s="3">
-        <v>22400</v>
+        <v>19100</v>
       </c>
       <c r="J32" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="K32" s="3">
         <v>16500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-255300</v>
+        <v>-217900</v>
       </c>
       <c r="E33" s="3">
-        <v>182600</v>
+        <v>155800</v>
       </c>
       <c r="F33" s="3">
-        <v>-469000</v>
+        <v>-400300</v>
       </c>
       <c r="G33" s="3">
-        <v>125600</v>
+        <v>107200</v>
       </c>
       <c r="H33" s="3">
-        <v>-9600</v>
+        <v>-8200</v>
       </c>
       <c r="I33" s="3">
-        <v>76500</v>
+        <v>65300</v>
       </c>
       <c r="J33" s="3">
-        <v>21000</v>
+        <v>17900</v>
       </c>
       <c r="K33" s="3">
         <v>-8200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-255300</v>
+        <v>-217900</v>
       </c>
       <c r="E35" s="3">
-        <v>182600</v>
+        <v>155800</v>
       </c>
       <c r="F35" s="3">
-        <v>-469000</v>
+        <v>-400300</v>
       </c>
       <c r="G35" s="3">
-        <v>125600</v>
+        <v>107200</v>
       </c>
       <c r="H35" s="3">
-        <v>-9600</v>
+        <v>-8200</v>
       </c>
       <c r="I35" s="3">
-        <v>76500</v>
+        <v>65300</v>
       </c>
       <c r="J35" s="3">
-        <v>21000</v>
+        <v>17900</v>
       </c>
       <c r="K35" s="3">
         <v>-8200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="E41" s="3">
-        <v>1157700</v>
+        <v>988000</v>
       </c>
       <c r="F41" s="3">
-        <v>737400</v>
+        <v>629300</v>
       </c>
       <c r="G41" s="3">
-        <v>495200</v>
+        <v>422600</v>
       </c>
       <c r="H41" s="3">
-        <v>212000</v>
+        <v>180900</v>
       </c>
       <c r="I41" s="3">
-        <v>236600</v>
+        <v>201900</v>
       </c>
       <c r="J41" s="3">
-        <v>6400</v>
+        <v>5500</v>
       </c>
       <c r="K41" s="3">
         <v>12100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32500</v>
+        <v>32200</v>
       </c>
       <c r="E42" s="3">
-        <v>292300</v>
+        <v>249400</v>
       </c>
       <c r="F42" s="3">
-        <v>535000</v>
+        <v>456600</v>
       </c>
       <c r="G42" s="3">
-        <v>397500</v>
+        <v>339300</v>
       </c>
       <c r="H42" s="3">
-        <v>121900</v>
+        <v>104000</v>
       </c>
       <c r="I42" s="3">
-        <v>93100</v>
+        <v>79400</v>
       </c>
       <c r="J42" s="3">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="K42" s="3">
         <v>2300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>88800</v>
+        <v>87900</v>
       </c>
       <c r="E43" s="3">
-        <v>479800</v>
+        <v>409500</v>
       </c>
       <c r="F43" s="3">
-        <v>279600</v>
+        <v>238600</v>
       </c>
       <c r="G43" s="3">
-        <v>203700</v>
+        <v>173800</v>
       </c>
       <c r="H43" s="3">
-        <v>135800</v>
+        <v>115900</v>
       </c>
       <c r="I43" s="3">
-        <v>111500</v>
+        <v>95100</v>
       </c>
       <c r="J43" s="3">
-        <v>11900</v>
+        <v>10200</v>
       </c>
       <c r="K43" s="3">
         <v>13100</v>
@@ -1849,22 +1849,22 @@
         <v>700</v>
       </c>
       <c r="E44" s="3">
-        <v>60000</v>
+        <v>51200</v>
       </c>
       <c r="F44" s="3">
-        <v>14000</v>
+        <v>11900</v>
       </c>
       <c r="G44" s="3">
-        <v>8400</v>
+        <v>7100</v>
       </c>
       <c r="H44" s="3">
-        <v>36300</v>
+        <v>31000</v>
       </c>
       <c r="I44" s="3">
-        <v>27700</v>
+        <v>23600</v>
       </c>
       <c r="J44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
@@ -1885,22 +1885,22 @@
         <v>1200</v>
       </c>
       <c r="E45" s="3">
-        <v>645900</v>
+        <v>551300</v>
       </c>
       <c r="F45" s="3">
-        <v>156400</v>
+        <v>133500</v>
       </c>
       <c r="G45" s="3">
-        <v>169900</v>
+        <v>145000</v>
       </c>
       <c r="H45" s="3">
-        <v>52700</v>
+        <v>45000</v>
       </c>
       <c r="I45" s="3">
-        <v>14300</v>
+        <v>12200</v>
       </c>
       <c r="J45" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K45" s="3">
         <v>17800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>143000</v>
+        <v>141700</v>
       </c>
       <c r="E46" s="3">
-        <v>2635700</v>
+        <v>2249400</v>
       </c>
       <c r="F46" s="3">
-        <v>1722300</v>
+        <v>1469900</v>
       </c>
       <c r="G46" s="3">
-        <v>1274700</v>
+        <v>1087900</v>
       </c>
       <c r="H46" s="3">
-        <v>558600</v>
+        <v>476800</v>
       </c>
       <c r="I46" s="3">
-        <v>364800</v>
+        <v>311300</v>
       </c>
       <c r="J46" s="3">
-        <v>16200</v>
+        <v>13800</v>
       </c>
       <c r="K46" s="3">
         <v>32200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>167100</v>
+        <v>165500</v>
       </c>
       <c r="E47" s="3">
-        <v>1294800</v>
+        <v>1105100</v>
       </c>
       <c r="F47" s="3">
-        <v>566900</v>
+        <v>483900</v>
       </c>
       <c r="G47" s="3">
-        <v>480200</v>
+        <v>409900</v>
       </c>
       <c r="H47" s="3">
-        <v>111800</v>
+        <v>95400</v>
       </c>
       <c r="I47" s="3">
-        <v>182100</v>
+        <v>155400</v>
       </c>
       <c r="J47" s="3">
-        <v>38500</v>
+        <v>32800</v>
       </c>
       <c r="K47" s="3">
         <v>31200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1932600</v>
+        <v>1914400</v>
       </c>
       <c r="E48" s="3">
-        <v>3653200</v>
+        <v>3117800</v>
       </c>
       <c r="F48" s="3">
-        <v>3117100</v>
+        <v>2660300</v>
       </c>
       <c r="G48" s="3">
-        <v>2887600</v>
+        <v>2464500</v>
       </c>
       <c r="H48" s="3">
-        <v>1083900</v>
+        <v>925000</v>
       </c>
       <c r="I48" s="3">
-        <v>1336000</v>
+        <v>1140200</v>
       </c>
       <c r="J48" s="3">
-        <v>201100</v>
+        <v>171600</v>
       </c>
       <c r="K48" s="3">
         <v>193500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24700</v>
+        <v>24400</v>
       </c>
       <c r="E49" s="3">
-        <v>356000</v>
+        <v>303800</v>
       </c>
       <c r="F49" s="3">
-        <v>218400</v>
+        <v>186400</v>
       </c>
       <c r="G49" s="3">
-        <v>164500</v>
+        <v>140400</v>
       </c>
       <c r="H49" s="3">
-        <v>105700</v>
+        <v>90200</v>
       </c>
       <c r="I49" s="3">
-        <v>100300</v>
+        <v>85600</v>
       </c>
       <c r="J49" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K49" s="3">
         <v>2500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21500</v>
+        <v>21300</v>
       </c>
       <c r="E52" s="3">
-        <v>96100</v>
+        <v>82000</v>
       </c>
       <c r="F52" s="3">
-        <v>161600</v>
+        <v>137900</v>
       </c>
       <c r="G52" s="3">
-        <v>298300</v>
+        <v>254600</v>
       </c>
       <c r="H52" s="3">
-        <v>112500</v>
+        <v>96000</v>
       </c>
       <c r="I52" s="3">
-        <v>81100</v>
+        <v>69300</v>
       </c>
       <c r="J52" s="3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="K52" s="3">
         <v>1800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2288800</v>
+        <v>2267300</v>
       </c>
       <c r="E54" s="3">
-        <v>8035700</v>
+        <v>6858200</v>
       </c>
       <c r="F54" s="3">
-        <v>5786400</v>
+        <v>4938500</v>
       </c>
       <c r="G54" s="3">
-        <v>4494100</v>
+        <v>3835500</v>
       </c>
       <c r="H54" s="3">
-        <v>1972500</v>
+        <v>1683400</v>
       </c>
       <c r="I54" s="3">
-        <v>1639000</v>
+        <v>1398800</v>
       </c>
       <c r="J54" s="3">
-        <v>225200</v>
+        <v>192200</v>
       </c>
       <c r="K54" s="3">
         <v>224400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>52400</v>
+        <v>51900</v>
       </c>
       <c r="E57" s="3">
-        <v>380200</v>
+        <v>324400</v>
       </c>
       <c r="F57" s="3">
-        <v>226300</v>
+        <v>193100</v>
       </c>
       <c r="G57" s="3">
-        <v>195600</v>
+        <v>166900</v>
       </c>
       <c r="H57" s="3">
-        <v>108600</v>
+        <v>92600</v>
       </c>
       <c r="I57" s="3">
-        <v>94400</v>
+        <v>80600</v>
       </c>
       <c r="J57" s="3">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="K57" s="3">
         <v>7900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>158900</v>
+        <v>157400</v>
       </c>
       <c r="E58" s="3">
-        <v>1066100</v>
+        <v>909900</v>
       </c>
       <c r="F58" s="3">
-        <v>942900</v>
+        <v>804700</v>
       </c>
       <c r="G58" s="3">
-        <v>339500</v>
+        <v>289800</v>
       </c>
       <c r="H58" s="3">
-        <v>170000</v>
+        <v>145100</v>
       </c>
       <c r="I58" s="3">
-        <v>189800</v>
+        <v>162000</v>
       </c>
       <c r="J58" s="3">
-        <v>21400</v>
+        <v>18300</v>
       </c>
       <c r="K58" s="3">
         <v>14700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="E59" s="3">
-        <v>390800</v>
+        <v>333500</v>
       </c>
       <c r="F59" s="3">
-        <v>120600</v>
+        <v>102900</v>
       </c>
       <c r="G59" s="3">
-        <v>87000</v>
+        <v>74200</v>
       </c>
       <c r="H59" s="3">
-        <v>117600</v>
+        <v>100300</v>
       </c>
       <c r="I59" s="3">
-        <v>87700</v>
+        <v>74900</v>
       </c>
       <c r="J59" s="3">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="K59" s="3">
         <v>17700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>227400</v>
+        <v>225300</v>
       </c>
       <c r="E60" s="3">
-        <v>1837000</v>
+        <v>1567800</v>
       </c>
       <c r="F60" s="3">
-        <v>901700</v>
+        <v>769500</v>
       </c>
       <c r="G60" s="3">
-        <v>622100</v>
+        <v>530900</v>
       </c>
       <c r="H60" s="3">
-        <v>396100</v>
+        <v>338000</v>
       </c>
       <c r="I60" s="3">
-        <v>371900</v>
+        <v>317400</v>
       </c>
       <c r="J60" s="3">
-        <v>23000</v>
+        <v>19600</v>
       </c>
       <c r="K60" s="3">
         <v>25300</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>488800</v>
+        <v>484200</v>
       </c>
       <c r="E61" s="3">
-        <v>3987000</v>
+        <v>3402800</v>
       </c>
       <c r="F61" s="3">
-        <v>3255400</v>
+        <v>2778300</v>
       </c>
       <c r="G61" s="3">
-        <v>2402600</v>
+        <v>2050500</v>
       </c>
       <c r="H61" s="3">
-        <v>933900</v>
+        <v>797100</v>
       </c>
       <c r="I61" s="3">
-        <v>773500</v>
+        <v>660200</v>
       </c>
       <c r="J61" s="3">
-        <v>31900</v>
+        <v>27200</v>
       </c>
       <c r="K61" s="3">
         <v>37300</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>722700</v>
+        <v>715900</v>
       </c>
       <c r="E62" s="3">
-        <v>640200</v>
+        <v>546400</v>
       </c>
       <c r="F62" s="3">
-        <v>583100</v>
+        <v>497700</v>
       </c>
       <c r="G62" s="3">
-        <v>450000</v>
+        <v>384000</v>
       </c>
       <c r="H62" s="3">
-        <v>238700</v>
+        <v>203700</v>
       </c>
       <c r="I62" s="3">
-        <v>192200</v>
+        <v>164000</v>
       </c>
       <c r="J62" s="3">
-        <v>56600</v>
+        <v>48300</v>
       </c>
       <c r="K62" s="3">
         <v>52600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1653500</v>
+        <v>1638000</v>
       </c>
       <c r="E66" s="3">
-        <v>7303800</v>
+        <v>6233500</v>
       </c>
       <c r="F66" s="3">
-        <v>5395400</v>
+        <v>4604700</v>
       </c>
       <c r="G66" s="3">
-        <v>3970900</v>
+        <v>3389000</v>
       </c>
       <c r="H66" s="3">
-        <v>1751900</v>
+        <v>1495200</v>
       </c>
       <c r="I66" s="3">
-        <v>1454400</v>
+        <v>1241300</v>
       </c>
       <c r="J66" s="3">
-        <v>117500</v>
+        <v>100200</v>
       </c>
       <c r="K66" s="3">
         <v>123100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>167400</v>
+        <v>165900</v>
       </c>
       <c r="E72" s="3">
-        <v>363600</v>
+        <v>310300</v>
       </c>
       <c r="F72" s="3">
-        <v>146000</v>
+        <v>124600</v>
       </c>
       <c r="G72" s="3">
-        <v>351700</v>
+        <v>300200</v>
       </c>
       <c r="H72" s="3">
-        <v>207700</v>
+        <v>177300</v>
       </c>
       <c r="I72" s="3">
-        <v>171600</v>
+        <v>146500</v>
       </c>
       <c r="J72" s="3">
-        <v>98100</v>
+        <v>83700</v>
       </c>
       <c r="K72" s="3">
         <v>95100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>635200</v>
+        <v>629300</v>
       </c>
       <c r="E76" s="3">
-        <v>731900</v>
+        <v>624700</v>
       </c>
       <c r="F76" s="3">
-        <v>391000</v>
+        <v>333700</v>
       </c>
       <c r="G76" s="3">
-        <v>523200</v>
+        <v>446500</v>
       </c>
       <c r="H76" s="3">
-        <v>220600</v>
+        <v>188300</v>
       </c>
       <c r="I76" s="3">
-        <v>184500</v>
+        <v>157500</v>
       </c>
       <c r="J76" s="3">
-        <v>107700</v>
+        <v>91900</v>
       </c>
       <c r="K76" s="3">
         <v>101400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-255300</v>
+        <v>-217900</v>
       </c>
       <c r="E81" s="3">
-        <v>182600</v>
+        <v>155800</v>
       </c>
       <c r="F81" s="3">
-        <v>-469000</v>
+        <v>-400300</v>
       </c>
       <c r="G81" s="3">
-        <v>125600</v>
+        <v>107200</v>
       </c>
       <c r="H81" s="3">
-        <v>-9600</v>
+        <v>-8200</v>
       </c>
       <c r="I81" s="3">
-        <v>76500</v>
+        <v>65300</v>
       </c>
       <c r="J81" s="3">
-        <v>21000</v>
+        <v>17900</v>
       </c>
       <c r="K81" s="3">
         <v>-8200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5500</v>
+        <v>4700</v>
       </c>
       <c r="E83" s="3">
-        <v>6100</v>
+        <v>5200</v>
       </c>
       <c r="F83" s="3">
-        <v>4800</v>
+        <v>4100</v>
       </c>
       <c r="G83" s="3">
-        <v>57700</v>
+        <v>49200</v>
       </c>
       <c r="H83" s="3">
-        <v>28800</v>
+        <v>24600</v>
       </c>
       <c r="I83" s="3">
-        <v>13100</v>
+        <v>11100</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>2200</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1227200</v>
+        <v>-1047400</v>
       </c>
       <c r="E89" s="3">
-        <v>398600</v>
+        <v>340200</v>
       </c>
       <c r="F89" s="3">
-        <v>346500</v>
+        <v>295700</v>
       </c>
       <c r="G89" s="3">
-        <v>121900</v>
+        <v>104000</v>
       </c>
       <c r="H89" s="3">
-        <v>77300</v>
+        <v>65900</v>
       </c>
       <c r="I89" s="3">
-        <v>35200</v>
+        <v>30000</v>
       </c>
       <c r="J89" s="3">
-        <v>7100</v>
+        <v>6100</v>
       </c>
       <c r="K89" s="3">
         <v>10100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11100</v>
+        <v>-9500</v>
       </c>
       <c r="E91" s="3">
-        <v>-50400</v>
+        <v>-43000</v>
       </c>
       <c r="F91" s="3">
-        <v>-56700</v>
+        <v>-48400</v>
       </c>
       <c r="G91" s="3">
-        <v>-79500</v>
+        <v>-67800</v>
       </c>
       <c r="H91" s="3">
-        <v>-34500</v>
+        <v>-29500</v>
       </c>
       <c r="I91" s="3">
-        <v>-11600</v>
+        <v>-9900</v>
       </c>
       <c r="J91" s="3">
-        <v>-3900</v>
+        <v>-3300</v>
       </c>
       <c r="K91" s="3">
         <v>-2900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>579000</v>
+        <v>494200</v>
       </c>
       <c r="E94" s="3">
-        <v>520700</v>
+        <v>444400</v>
       </c>
       <c r="F94" s="3">
-        <v>143400</v>
+        <v>122400</v>
       </c>
       <c r="G94" s="3">
-        <v>-182200</v>
+        <v>-155500</v>
       </c>
       <c r="H94" s="3">
-        <v>-17600</v>
+        <v>-15100</v>
       </c>
       <c r="I94" s="3">
-        <v>70100</v>
+        <v>59900</v>
       </c>
       <c r="J94" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="K94" s="3">
         <v>-9100</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-22000</v>
+        <v>-18800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K96" s="3">
         <v>-1100</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-416600</v>
+        <v>-355600</v>
       </c>
       <c r="E100" s="3">
-        <v>-975300</v>
+        <v>-832400</v>
       </c>
       <c r="F100" s="3">
-        <v>-355600</v>
+        <v>-303500</v>
       </c>
       <c r="G100" s="3">
-        <v>-36800</v>
+        <v>-31400</v>
       </c>
       <c r="H100" s="3">
-        <v>13100</v>
+        <v>11200</v>
       </c>
       <c r="I100" s="3">
-        <v>-33800</v>
+        <v>-28900</v>
       </c>
       <c r="J100" s="3">
-        <v>-11900</v>
+        <v>-10100</v>
       </c>
       <c r="K100" s="3">
         <v>-5900</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-76400</v>
+        <v>-65200</v>
       </c>
       <c r="E101" s="3">
-        <v>111900</v>
+        <v>95500</v>
       </c>
       <c r="F101" s="3">
-        <v>-86700</v>
+        <v>-74000</v>
       </c>
       <c r="G101" s="3">
-        <v>170400</v>
+        <v>145500</v>
       </c>
       <c r="H101" s="3">
-        <v>22300</v>
+        <v>19100</v>
       </c>
       <c r="I101" s="3">
-        <v>43600</v>
+        <v>37200</v>
       </c>
       <c r="J101" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K101" s="3">
         <v>3000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1141200</v>
+        <v>-974000</v>
       </c>
       <c r="E102" s="3">
-        <v>55900</v>
+        <v>47700</v>
       </c>
       <c r="F102" s="3">
-        <v>47500</v>
+        <v>40600</v>
       </c>
       <c r="G102" s="3">
-        <v>73300</v>
+        <v>62600</v>
       </c>
       <c r="H102" s="3">
-        <v>95100</v>
+        <v>81100</v>
       </c>
       <c r="I102" s="3">
-        <v>115100</v>
+        <v>98200</v>
       </c>
       <c r="J102" s="3">
-        <v>-2000</v>
+        <v>-1700</v>
       </c>
       <c r="K102" s="3">
         <v>-1900</v>

--- a/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>IRS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41820</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41455</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41090</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>94500</v>
+        <v>200200</v>
       </c>
       <c r="E8" s="3">
-        <v>154800</v>
+        <v>132800</v>
       </c>
       <c r="F8" s="3">
-        <v>203900</v>
+        <v>217600</v>
       </c>
       <c r="G8" s="3">
-        <v>428200</v>
+        <v>174700</v>
       </c>
       <c r="H8" s="3">
-        <v>434400</v>
+        <v>367100</v>
       </c>
       <c r="I8" s="3">
-        <v>94000</v>
+        <v>372300</v>
       </c>
       <c r="J8" s="3">
+        <v>80600</v>
+      </c>
+      <c r="K8" s="3">
         <v>24800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>41100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>47800</v>
+        <v>75600</v>
       </c>
       <c r="E9" s="3">
-        <v>137800</v>
+        <v>67200</v>
       </c>
       <c r="F9" s="3">
-        <v>76200</v>
+        <v>93800</v>
       </c>
       <c r="G9" s="3">
-        <v>252200</v>
+        <v>65300</v>
       </c>
       <c r="H9" s="3">
-        <v>605000</v>
+        <v>216200</v>
       </c>
       <c r="I9" s="3">
-        <v>323900</v>
+        <v>518600</v>
       </c>
       <c r="J9" s="3">
+        <v>277600</v>
+      </c>
+      <c r="K9" s="3">
         <v>9900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>29500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39400</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>46700</v>
+        <v>124600</v>
       </c>
       <c r="E10" s="3">
-        <v>17000</v>
+        <v>65600</v>
       </c>
       <c r="F10" s="3">
-        <v>127700</v>
+        <v>123700</v>
       </c>
       <c r="G10" s="3">
-        <v>176000</v>
+        <v>109500</v>
       </c>
       <c r="H10" s="3">
-        <v>-170600</v>
+        <v>150900</v>
       </c>
       <c r="I10" s="3">
-        <v>-229900</v>
+        <v>-146200</v>
       </c>
       <c r="J10" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="K10" s="3">
         <v>14900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1600</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="E14" s="3">
-        <v>18600</v>
+        <v>500</v>
       </c>
       <c r="F14" s="3">
-        <v>2700</v>
+        <v>16600</v>
       </c>
       <c r="G14" s="3">
-        <v>-9800</v>
+        <v>2300</v>
       </c>
       <c r="H14" s="3">
-        <v>3000</v>
+        <v>-8400</v>
       </c>
       <c r="I14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>200</v>
       </c>
       <c r="K14" s="3">
         <v>200</v>
       </c>
       <c r="L14" s="3">
+        <v>200</v>
+      </c>
+      <c r="M14" s="3">
         <v>-1800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E15" s="3">
-        <v>46900</v>
+        <v>2300</v>
       </c>
       <c r="F15" s="3">
-        <v>1300</v>
+        <v>3800</v>
       </c>
       <c r="G15" s="3">
-        <v>19600</v>
+        <v>1100</v>
       </c>
       <c r="H15" s="3">
-        <v>25500</v>
+        <v>16800</v>
       </c>
       <c r="I15" s="3">
-        <v>5800</v>
+        <v>21800</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-300</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>137800</v>
+        <v>36900</v>
       </c>
       <c r="E17" s="3">
-        <v>-267800</v>
+        <v>193700</v>
       </c>
       <c r="F17" s="3">
-        <v>545000</v>
+        <v>-376400</v>
       </c>
       <c r="G17" s="3">
-        <v>227900</v>
+        <v>467200</v>
       </c>
       <c r="H17" s="3">
-        <v>412500</v>
+        <v>195300</v>
       </c>
       <c r="I17" s="3">
-        <v>-51200</v>
+        <v>353600</v>
       </c>
       <c r="J17" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="K17" s="3">
         <v>-15000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-43300</v>
+        <v>163300</v>
       </c>
       <c r="E18" s="3">
-        <v>422600</v>
+        <v>-60900</v>
       </c>
       <c r="F18" s="3">
-        <v>-341200</v>
+        <v>594000</v>
       </c>
       <c r="G18" s="3">
-        <v>200400</v>
+        <v>-292400</v>
       </c>
       <c r="H18" s="3">
-        <v>21900</v>
+        <v>171700</v>
       </c>
       <c r="I18" s="3">
-        <v>145300</v>
+        <v>18700</v>
       </c>
       <c r="J18" s="3">
+        <v>124500</v>
+      </c>
+      <c r="K18" s="3">
         <v>39700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17400</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>39700</v>
+        <v>123500</v>
       </c>
       <c r="E20" s="3">
-        <v>158400</v>
+        <v>55900</v>
       </c>
       <c r="F20" s="3">
-        <v>-61800</v>
+        <v>68600</v>
       </c>
       <c r="G20" s="3">
-        <v>-126800</v>
+        <v>-52900</v>
       </c>
       <c r="H20" s="3">
-        <v>42900</v>
+        <v>-108700</v>
       </c>
       <c r="I20" s="3">
-        <v>-19100</v>
+        <v>36700</v>
       </c>
       <c r="J20" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-16500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3100</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1100</v>
+        <v>292600</v>
       </c>
       <c r="E21" s="3">
-        <v>586200</v>
+        <v>1600</v>
       </c>
       <c r="F21" s="3">
-        <v>-398800</v>
+        <v>669900</v>
       </c>
       <c r="G21" s="3">
-        <v>122900</v>
+        <v>-341900</v>
       </c>
       <c r="H21" s="3">
-        <v>89300</v>
+        <v>105300</v>
       </c>
       <c r="I21" s="3">
-        <v>137400</v>
+        <v>76600</v>
       </c>
       <c r="J21" s="3">
+        <v>117700</v>
+      </c>
+      <c r="K21" s="3">
         <v>40600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>47400</v>
+        <v>51700</v>
       </c>
       <c r="E22" s="3">
-        <v>212200</v>
+        <v>66600</v>
       </c>
       <c r="F22" s="3">
-        <v>48500</v>
+        <v>144200</v>
       </c>
       <c r="G22" s="3">
-        <v>98500</v>
+        <v>41600</v>
       </c>
       <c r="H22" s="3">
-        <v>96000</v>
+        <v>84400</v>
       </c>
       <c r="I22" s="3">
-        <v>17000</v>
+        <v>82300</v>
       </c>
       <c r="J22" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K22" s="3">
         <v>9100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6400</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-50900</v>
+        <v>235000</v>
       </c>
       <c r="E23" s="3">
-        <v>368800</v>
+        <v>-71600</v>
       </c>
       <c r="F23" s="3">
-        <v>-451500</v>
+        <v>518400</v>
       </c>
       <c r="G23" s="3">
-        <v>-24900</v>
+        <v>-387000</v>
       </c>
       <c r="H23" s="3">
-        <v>-31300</v>
+        <v>-21300</v>
       </c>
       <c r="I23" s="3">
-        <v>109200</v>
+        <v>-26800</v>
       </c>
       <c r="J23" s="3">
+        <v>93600</v>
+      </c>
+      <c r="K23" s="3">
         <v>31200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>157800</v>
+        <v>17300</v>
       </c>
       <c r="E24" s="3">
-        <v>73300</v>
+        <v>221800</v>
       </c>
       <c r="F24" s="3">
-        <v>-49200</v>
+        <v>103000</v>
       </c>
       <c r="G24" s="3">
-        <v>-45700</v>
+        <v>-42200</v>
       </c>
       <c r="H24" s="3">
-        <v>10900</v>
+        <v>-39200</v>
       </c>
       <c r="I24" s="3">
-        <v>46000</v>
+        <v>9300</v>
       </c>
       <c r="J24" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K24" s="3">
         <v>11500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2700</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-208700</v>
+        <v>217700</v>
       </c>
       <c r="E26" s="3">
-        <v>295600</v>
+        <v>-293300</v>
       </c>
       <c r="F26" s="3">
-        <v>-402200</v>
+        <v>415400</v>
       </c>
       <c r="G26" s="3">
-        <v>20800</v>
+        <v>-344800</v>
       </c>
       <c r="H26" s="3">
-        <v>-42100</v>
+        <v>17800</v>
       </c>
       <c r="I26" s="3">
-        <v>63200</v>
+        <v>-36100</v>
       </c>
       <c r="J26" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K26" s="3">
         <v>19700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-152900</v>
+        <v>215600</v>
       </c>
       <c r="E27" s="3">
-        <v>191800</v>
+        <v>-214900</v>
       </c>
       <c r="F27" s="3">
-        <v>-383000</v>
+        <v>269600</v>
       </c>
       <c r="G27" s="3">
-        <v>-41100</v>
+        <v>-328300</v>
       </c>
       <c r="H27" s="3">
-        <v>-72500</v>
+        <v>-35300</v>
       </c>
       <c r="I27" s="3">
-        <v>59400</v>
+        <v>-62100</v>
       </c>
       <c r="J27" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K27" s="3">
         <v>17900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,35 +1463,38 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-65000</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-36000</v>
+        <v>-91300</v>
       </c>
       <c r="F29" s="3">
-        <v>-17300</v>
+        <v>-50600</v>
       </c>
       <c r="G29" s="3">
-        <v>148300</v>
+        <v>-14900</v>
       </c>
       <c r="H29" s="3">
-        <v>64300</v>
+        <v>127200</v>
       </c>
       <c r="I29" s="3">
-        <v>5900</v>
+        <v>55100</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+        <v>5100</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-39700</v>
+        <v>-123500</v>
       </c>
       <c r="E32" s="3">
-        <v>-158400</v>
+        <v>-55900</v>
       </c>
       <c r="F32" s="3">
-        <v>61800</v>
+        <v>-68600</v>
       </c>
       <c r="G32" s="3">
-        <v>126800</v>
+        <v>52900</v>
       </c>
       <c r="H32" s="3">
-        <v>-42900</v>
+        <v>108700</v>
       </c>
       <c r="I32" s="3">
-        <v>19100</v>
+        <v>-36700</v>
       </c>
       <c r="J32" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>16500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3100</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-217900</v>
+        <v>215600</v>
       </c>
       <c r="E33" s="3">
-        <v>155800</v>
+        <v>-306200</v>
       </c>
       <c r="F33" s="3">
-        <v>-400300</v>
+        <v>219000</v>
       </c>
       <c r="G33" s="3">
-        <v>107200</v>
+        <v>-343100</v>
       </c>
       <c r="H33" s="3">
+        <v>91900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>56000</v>
+      </c>
+      <c r="K33" s="3">
+        <v>17900</v>
+      </c>
+      <c r="L33" s="3">
         <v>-8200</v>
       </c>
-      <c r="I33" s="3">
-        <v>65300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>17900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-217900</v>
+        <v>215600</v>
       </c>
       <c r="E35" s="3">
-        <v>155800</v>
+        <v>-306200</v>
       </c>
       <c r="F35" s="3">
-        <v>-400300</v>
+        <v>219000</v>
       </c>
       <c r="G35" s="3">
-        <v>107200</v>
+        <v>-343100</v>
       </c>
       <c r="H35" s="3">
+        <v>91900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>56000</v>
+      </c>
+      <c r="K35" s="3">
+        <v>17900</v>
+      </c>
+      <c r="L35" s="3">
         <v>-8200</v>
       </c>
-      <c r="I35" s="3">
-        <v>65300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>17900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41820</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41455</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41090</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,152 +1817,165 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19600</v>
+        <v>79700</v>
       </c>
       <c r="E41" s="3">
-        <v>988000</v>
+        <v>19800</v>
       </c>
       <c r="F41" s="3">
-        <v>629300</v>
+        <v>846900</v>
       </c>
       <c r="G41" s="3">
-        <v>422600</v>
+        <v>539400</v>
       </c>
       <c r="H41" s="3">
-        <v>180900</v>
+        <v>362300</v>
       </c>
       <c r="I41" s="3">
-        <v>201900</v>
+        <v>155100</v>
       </c>
       <c r="J41" s="3">
+        <v>173000</v>
+      </c>
+      <c r="K41" s="3">
         <v>5500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5900</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32200</v>
+        <v>115100</v>
       </c>
       <c r="E42" s="3">
-        <v>249400</v>
+        <v>32400</v>
       </c>
       <c r="F42" s="3">
-        <v>456600</v>
+        <v>213800</v>
       </c>
       <c r="G42" s="3">
-        <v>339300</v>
+        <v>391300</v>
       </c>
       <c r="H42" s="3">
-        <v>104000</v>
+        <v>290800</v>
       </c>
       <c r="I42" s="3">
-        <v>79400</v>
+        <v>89200</v>
       </c>
       <c r="J42" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K42" s="3">
         <v>2100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2800</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>87900</v>
+        <v>67900</v>
       </c>
       <c r="E43" s="3">
-        <v>409500</v>
+        <v>88400</v>
       </c>
       <c r="F43" s="3">
-        <v>238600</v>
+        <v>351000</v>
       </c>
       <c r="G43" s="3">
-        <v>173800</v>
+        <v>204500</v>
       </c>
       <c r="H43" s="3">
-        <v>115900</v>
+        <v>149000</v>
       </c>
       <c r="I43" s="3">
-        <v>95100</v>
+        <v>99300</v>
       </c>
       <c r="J43" s="3">
+        <v>81500</v>
+      </c>
+      <c r="K43" s="3">
         <v>10200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9100</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>800</v>
+      </c>
+      <c r="E44" s="3">
         <v>700</v>
       </c>
-      <c r="E44" s="3">
-        <v>51200</v>
-      </c>
       <c r="F44" s="3">
-        <v>11900</v>
+        <v>43900</v>
       </c>
       <c r="G44" s="3">
-        <v>7100</v>
+        <v>10200</v>
       </c>
       <c r="H44" s="3">
-        <v>31000</v>
+        <v>6100</v>
       </c>
       <c r="I44" s="3">
-        <v>23600</v>
+        <v>26600</v>
       </c>
       <c r="J44" s="3">
-        <v>300</v>
+        <v>20300</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
       </c>
       <c r="L44" s="3">
+        <v>300</v>
+      </c>
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1885,179 +1983,194 @@
         <v>1200</v>
       </c>
       <c r="E45" s="3">
-        <v>551300</v>
+        <v>1200</v>
       </c>
       <c r="F45" s="3">
-        <v>133500</v>
+        <v>472500</v>
       </c>
       <c r="G45" s="3">
-        <v>145000</v>
+        <v>114400</v>
       </c>
       <c r="H45" s="3">
-        <v>45000</v>
+        <v>124300</v>
       </c>
       <c r="I45" s="3">
-        <v>12200</v>
+        <v>38500</v>
       </c>
       <c r="J45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>141700</v>
+        <v>264700</v>
       </c>
       <c r="E46" s="3">
-        <v>2249400</v>
+        <v>142500</v>
       </c>
       <c r="F46" s="3">
-        <v>1469900</v>
+        <v>1928100</v>
       </c>
       <c r="G46" s="3">
-        <v>1087900</v>
+        <v>1259900</v>
       </c>
       <c r="H46" s="3">
-        <v>476800</v>
+        <v>932500</v>
       </c>
       <c r="I46" s="3">
-        <v>311300</v>
+        <v>408700</v>
       </c>
       <c r="J46" s="3">
+        <v>266800</v>
+      </c>
+      <c r="K46" s="3">
         <v>13800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22100</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>165500</v>
+        <v>133200</v>
       </c>
       <c r="E47" s="3">
-        <v>1105100</v>
+        <v>166400</v>
       </c>
       <c r="F47" s="3">
-        <v>483900</v>
+        <v>947200</v>
       </c>
       <c r="G47" s="3">
-        <v>409900</v>
+        <v>414700</v>
       </c>
       <c r="H47" s="3">
-        <v>95400</v>
+        <v>351300</v>
       </c>
       <c r="I47" s="3">
-        <v>155400</v>
+        <v>81800</v>
       </c>
       <c r="J47" s="3">
+        <v>133200</v>
+      </c>
+      <c r="K47" s="3">
         <v>32800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>31200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>27000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>54000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1914400</v>
+        <v>1887800</v>
       </c>
       <c r="E48" s="3">
-        <v>3117800</v>
+        <v>1924800</v>
       </c>
       <c r="F48" s="3">
-        <v>2660300</v>
+        <v>2672400</v>
       </c>
       <c r="G48" s="3">
-        <v>2464500</v>
+        <v>2280300</v>
       </c>
       <c r="H48" s="3">
-        <v>925000</v>
+        <v>2112400</v>
       </c>
       <c r="I48" s="3">
-        <v>1140200</v>
+        <v>792900</v>
       </c>
       <c r="J48" s="3">
+        <v>977300</v>
+      </c>
+      <c r="K48" s="3">
         <v>171600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>193500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>111100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>76200</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24400</v>
+        <v>21100</v>
       </c>
       <c r="E49" s="3">
-        <v>303800</v>
+        <v>24600</v>
       </c>
       <c r="F49" s="3">
-        <v>186400</v>
+        <v>260400</v>
       </c>
       <c r="G49" s="3">
-        <v>140400</v>
+        <v>159800</v>
       </c>
       <c r="H49" s="3">
-        <v>90200</v>
+        <v>120400</v>
       </c>
       <c r="I49" s="3">
-        <v>85600</v>
+        <v>77300</v>
       </c>
       <c r="J49" s="3">
+        <v>73400</v>
+      </c>
+      <c r="K49" s="3">
         <v>900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2300</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21300</v>
+        <v>19500</v>
       </c>
       <c r="E52" s="3">
-        <v>82000</v>
+        <v>21400</v>
       </c>
       <c r="F52" s="3">
-        <v>137900</v>
+        <v>70300</v>
       </c>
       <c r="G52" s="3">
-        <v>254600</v>
+        <v>118200</v>
       </c>
       <c r="H52" s="3">
-        <v>96000</v>
+        <v>218200</v>
       </c>
       <c r="I52" s="3">
-        <v>69300</v>
+        <v>82300</v>
       </c>
       <c r="J52" s="3">
+        <v>59400</v>
+      </c>
+      <c r="K52" s="3">
         <v>3100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6200</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2267300</v>
+        <v>2326200</v>
       </c>
       <c r="E54" s="3">
-        <v>6858200</v>
+        <v>2279600</v>
       </c>
       <c r="F54" s="3">
-        <v>4938500</v>
+        <v>5878400</v>
       </c>
       <c r="G54" s="3">
-        <v>3835500</v>
+        <v>4233000</v>
       </c>
       <c r="H54" s="3">
-        <v>1683400</v>
+        <v>3287600</v>
       </c>
       <c r="I54" s="3">
-        <v>1398800</v>
+        <v>1443000</v>
       </c>
       <c r="J54" s="3">
+        <v>1199000</v>
+      </c>
+      <c r="K54" s="3">
         <v>192200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>224400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>151400</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>51900</v>
+        <v>53200</v>
       </c>
       <c r="E57" s="3">
-        <v>324400</v>
+        <v>52200</v>
       </c>
       <c r="F57" s="3">
-        <v>193100</v>
+        <v>278100</v>
       </c>
       <c r="G57" s="3">
-        <v>166900</v>
+        <v>165500</v>
       </c>
       <c r="H57" s="3">
-        <v>92600</v>
+        <v>143100</v>
       </c>
       <c r="I57" s="3">
-        <v>80600</v>
+        <v>79400</v>
       </c>
       <c r="J57" s="3">
+        <v>69100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>157400</v>
+        <v>385400</v>
       </c>
       <c r="E58" s="3">
-        <v>909900</v>
+        <v>158200</v>
       </c>
       <c r="F58" s="3">
-        <v>804700</v>
+        <v>779900</v>
       </c>
       <c r="G58" s="3">
-        <v>289800</v>
+        <v>689800</v>
       </c>
       <c r="H58" s="3">
-        <v>145100</v>
+        <v>248400</v>
       </c>
       <c r="I58" s="3">
-        <v>162000</v>
+        <v>124300</v>
       </c>
       <c r="J58" s="3">
+        <v>138900</v>
+      </c>
+      <c r="K58" s="3">
         <v>18300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13200</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16000</v>
+        <v>100700</v>
       </c>
       <c r="E59" s="3">
-        <v>333500</v>
+        <v>16100</v>
       </c>
       <c r="F59" s="3">
-        <v>102900</v>
+        <v>285900</v>
       </c>
       <c r="G59" s="3">
-        <v>74200</v>
+        <v>88200</v>
       </c>
       <c r="H59" s="3">
-        <v>100300</v>
+        <v>63600</v>
       </c>
       <c r="I59" s="3">
-        <v>74900</v>
+        <v>86000</v>
       </c>
       <c r="J59" s="3">
+        <v>64200</v>
+      </c>
+      <c r="K59" s="3">
         <v>12500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14300</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>225300</v>
+        <v>539300</v>
       </c>
       <c r="E60" s="3">
-        <v>1567800</v>
+        <v>226500</v>
       </c>
       <c r="F60" s="3">
-        <v>769500</v>
+        <v>1343900</v>
       </c>
       <c r="G60" s="3">
-        <v>530900</v>
+        <v>659600</v>
       </c>
       <c r="H60" s="3">
-        <v>338000</v>
+        <v>455100</v>
       </c>
       <c r="I60" s="3">
-        <v>317400</v>
+        <v>289700</v>
       </c>
       <c r="J60" s="3">
+        <v>272100</v>
+      </c>
+      <c r="K60" s="3">
         <v>19600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29400</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>484200</v>
+        <v>88600</v>
       </c>
       <c r="E61" s="3">
-        <v>3402800</v>
+        <v>486800</v>
       </c>
       <c r="F61" s="3">
-        <v>2778300</v>
+        <v>2916700</v>
       </c>
       <c r="G61" s="3">
-        <v>2050500</v>
+        <v>2381400</v>
       </c>
       <c r="H61" s="3">
-        <v>797100</v>
+        <v>1757600</v>
       </c>
       <c r="I61" s="3">
-        <v>660200</v>
+        <v>683200</v>
       </c>
       <c r="J61" s="3">
+        <v>565800</v>
+      </c>
+      <c r="K61" s="3">
         <v>27200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>39700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>47400</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>715900</v>
+        <v>639200</v>
       </c>
       <c r="E62" s="3">
-        <v>546400</v>
+        <v>719800</v>
       </c>
       <c r="F62" s="3">
-        <v>497700</v>
+        <v>468300</v>
       </c>
       <c r="G62" s="3">
-        <v>384000</v>
+        <v>426600</v>
       </c>
       <c r="H62" s="3">
-        <v>203700</v>
+        <v>329200</v>
       </c>
       <c r="I62" s="3">
-        <v>164000</v>
+        <v>174600</v>
       </c>
       <c r="J62" s="3">
+        <v>140600</v>
+      </c>
+      <c r="K62" s="3">
         <v>48300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>52600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12800</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1638000</v>
+        <v>1335000</v>
       </c>
       <c r="E66" s="3">
-        <v>6233500</v>
+        <v>1646900</v>
       </c>
       <c r="F66" s="3">
-        <v>4604700</v>
+        <v>5343000</v>
       </c>
       <c r="G66" s="3">
-        <v>3389000</v>
+        <v>3946900</v>
       </c>
       <c r="H66" s="3">
-        <v>1495200</v>
+        <v>2904900</v>
       </c>
       <c r="I66" s="3">
-        <v>1241300</v>
+        <v>1281600</v>
       </c>
       <c r="J66" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="K66" s="3">
         <v>100200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>123100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>75700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>97800</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>165900</v>
+        <v>359400</v>
       </c>
       <c r="E72" s="3">
-        <v>310300</v>
+        <v>166700</v>
       </c>
       <c r="F72" s="3">
-        <v>124600</v>
+        <v>266000</v>
       </c>
       <c r="G72" s="3">
-        <v>300200</v>
+        <v>106800</v>
       </c>
       <c r="H72" s="3">
-        <v>177300</v>
+        <v>257300</v>
       </c>
       <c r="I72" s="3">
-        <v>146500</v>
+        <v>152000</v>
       </c>
       <c r="J72" s="3">
+        <v>125600</v>
+      </c>
+      <c r="K72" s="3">
         <v>83700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>95100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>629300</v>
+        <v>991200</v>
       </c>
       <c r="E76" s="3">
-        <v>624700</v>
+        <v>632700</v>
       </c>
       <c r="F76" s="3">
-        <v>333700</v>
+        <v>535400</v>
       </c>
       <c r="G76" s="3">
-        <v>446500</v>
+        <v>286100</v>
       </c>
       <c r="H76" s="3">
-        <v>188300</v>
+        <v>382700</v>
       </c>
       <c r="I76" s="3">
-        <v>157500</v>
+        <v>161400</v>
       </c>
       <c r="J76" s="3">
+        <v>135000</v>
+      </c>
+      <c r="K76" s="3">
         <v>91900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>101400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>53600</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41820</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41455</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41090</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-217900</v>
+        <v>215600</v>
       </c>
       <c r="E81" s="3">
-        <v>155800</v>
+        <v>-306200</v>
       </c>
       <c r="F81" s="3">
-        <v>-400300</v>
+        <v>219000</v>
       </c>
       <c r="G81" s="3">
-        <v>107200</v>
+        <v>-343100</v>
       </c>
       <c r="H81" s="3">
+        <v>91900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>56000</v>
+      </c>
+      <c r="K81" s="3">
+        <v>17900</v>
+      </c>
+      <c r="L81" s="3">
         <v>-8200</v>
       </c>
-      <c r="I81" s="3">
-        <v>65300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>17900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4700</v>
+        <v>5800</v>
       </c>
       <c r="E83" s="3">
-        <v>5200</v>
+        <v>6600</v>
       </c>
       <c r="F83" s="3">
-        <v>4100</v>
+        <v>7300</v>
       </c>
       <c r="G83" s="3">
-        <v>49200</v>
+        <v>3500</v>
       </c>
       <c r="H83" s="3">
-        <v>24600</v>
+        <v>42200</v>
       </c>
       <c r="I83" s="3">
-        <v>11100</v>
+        <v>21100</v>
       </c>
       <c r="J83" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3400</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1047400</v>
+        <v>79100</v>
       </c>
       <c r="E89" s="3">
-        <v>340200</v>
+        <v>-1472200</v>
       </c>
       <c r="F89" s="3">
-        <v>295700</v>
+        <v>478200</v>
       </c>
       <c r="G89" s="3">
-        <v>104000</v>
+        <v>253400</v>
       </c>
       <c r="H89" s="3">
-        <v>65900</v>
+        <v>89200</v>
       </c>
       <c r="I89" s="3">
-        <v>30000</v>
+        <v>56500</v>
       </c>
       <c r="J89" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K89" s="3">
         <v>6100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15900</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9500</v>
+        <v>-40400</v>
       </c>
       <c r="E91" s="3">
-        <v>-43000</v>
+        <v>-13400</v>
       </c>
       <c r="F91" s="3">
-        <v>-48400</v>
+        <v>-60400</v>
       </c>
       <c r="G91" s="3">
-        <v>-67800</v>
+        <v>-41500</v>
       </c>
       <c r="H91" s="3">
-        <v>-29500</v>
+        <v>-58100</v>
       </c>
       <c r="I91" s="3">
-        <v>-9900</v>
+        <v>-25300</v>
       </c>
       <c r="J91" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>494200</v>
+        <v>69900</v>
       </c>
       <c r="E94" s="3">
-        <v>444400</v>
+        <v>689200</v>
       </c>
       <c r="F94" s="3">
-        <v>122400</v>
+        <v>700800</v>
       </c>
       <c r="G94" s="3">
-        <v>-155500</v>
+        <v>104900</v>
       </c>
       <c r="H94" s="3">
-        <v>-15100</v>
+        <v>-133300</v>
       </c>
       <c r="I94" s="3">
-        <v>59900</v>
+        <v>-12900</v>
       </c>
       <c r="J94" s="3">
+        <v>51300</v>
+      </c>
+      <c r="K94" s="3">
         <v>1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5700</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3540,29 +3773,32 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-18800</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-16100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-6000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-355600</v>
+        <v>-85300</v>
       </c>
       <c r="E100" s="3">
-        <v>-832400</v>
+        <v>-494400</v>
       </c>
       <c r="F100" s="3">
-        <v>-303500</v>
+        <v>-1246100</v>
       </c>
       <c r="G100" s="3">
-        <v>-31400</v>
+        <v>-260100</v>
       </c>
       <c r="H100" s="3">
-        <v>11200</v>
+        <v>-26900</v>
       </c>
       <c r="I100" s="3">
-        <v>-28900</v>
+        <v>9600</v>
       </c>
       <c r="J100" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-10100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11300</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-65200</v>
+        <v>-3700</v>
       </c>
       <c r="E101" s="3">
-        <v>95500</v>
+        <v>-91600</v>
       </c>
       <c r="F101" s="3">
-        <v>-74000</v>
+        <v>134300</v>
       </c>
       <c r="G101" s="3">
-        <v>145500</v>
+        <v>-63400</v>
       </c>
       <c r="H101" s="3">
-        <v>19100</v>
+        <v>124700</v>
       </c>
       <c r="I101" s="3">
-        <v>37200</v>
+        <v>16300</v>
       </c>
       <c r="J101" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-974000</v>
+        <v>60000</v>
       </c>
       <c r="E102" s="3">
-        <v>47700</v>
+        <v>-1369000</v>
       </c>
       <c r="F102" s="3">
-        <v>40600</v>
+        <v>67100</v>
       </c>
       <c r="G102" s="3">
-        <v>62600</v>
+        <v>34800</v>
       </c>
       <c r="H102" s="3">
-        <v>81100</v>
+        <v>53600</v>
       </c>
       <c r="I102" s="3">
-        <v>98200</v>
+        <v>69500</v>
       </c>
       <c r="J102" s="3">
+        <v>84200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200200</v>
+        <v>160100</v>
       </c>
       <c r="E8" s="3">
-        <v>132800</v>
+        <v>106200</v>
       </c>
       <c r="F8" s="3">
-        <v>217600</v>
+        <v>174000</v>
       </c>
       <c r="G8" s="3">
-        <v>174700</v>
+        <v>139700</v>
       </c>
       <c r="H8" s="3">
-        <v>367100</v>
+        <v>293500</v>
       </c>
       <c r="I8" s="3">
-        <v>372300</v>
+        <v>297700</v>
       </c>
       <c r="J8" s="3">
-        <v>80600</v>
+        <v>64500</v>
       </c>
       <c r="K8" s="3">
         <v>24800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>75600</v>
+        <v>60500</v>
       </c>
       <c r="E9" s="3">
-        <v>67200</v>
+        <v>53700</v>
       </c>
       <c r="F9" s="3">
-        <v>93800</v>
+        <v>75000</v>
       </c>
       <c r="G9" s="3">
-        <v>65300</v>
+        <v>52200</v>
       </c>
       <c r="H9" s="3">
-        <v>216200</v>
+        <v>172900</v>
       </c>
       <c r="I9" s="3">
-        <v>518600</v>
+        <v>414700</v>
       </c>
       <c r="J9" s="3">
-        <v>277600</v>
+        <v>222000</v>
       </c>
       <c r="K9" s="3">
         <v>9900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>124600</v>
+        <v>99600</v>
       </c>
       <c r="E10" s="3">
-        <v>65600</v>
+        <v>52500</v>
       </c>
       <c r="F10" s="3">
-        <v>123700</v>
+        <v>99000</v>
       </c>
       <c r="G10" s="3">
-        <v>109500</v>
+        <v>87500</v>
       </c>
       <c r="H10" s="3">
-        <v>150900</v>
+        <v>120600</v>
       </c>
       <c r="I10" s="3">
-        <v>-146200</v>
+        <v>-116900</v>
       </c>
       <c r="J10" s="3">
-        <v>-197000</v>
+        <v>-157500</v>
       </c>
       <c r="K10" s="3">
         <v>14900</v>
@@ -935,22 +935,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="E14" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F14" s="3">
-        <v>16600</v>
+        <v>13300</v>
       </c>
       <c r="G14" s="3">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="H14" s="3">
-        <v>-8400</v>
+        <v>-6700</v>
       </c>
       <c r="I14" s="3">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="J14" s="3">
         <v>-100</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E15" s="3">
         <v>1900</v>
       </c>
-      <c r="E15" s="3">
-        <v>2300</v>
-      </c>
       <c r="F15" s="3">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="G15" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="H15" s="3">
-        <v>16800</v>
+        <v>13400</v>
       </c>
       <c r="I15" s="3">
-        <v>21800</v>
+        <v>17500</v>
       </c>
       <c r="J15" s="3">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36900</v>
+        <v>29500</v>
       </c>
       <c r="E17" s="3">
-        <v>193700</v>
+        <v>154900</v>
       </c>
       <c r="F17" s="3">
-        <v>-376400</v>
+        <v>-301000</v>
       </c>
       <c r="G17" s="3">
-        <v>467200</v>
+        <v>373600</v>
       </c>
       <c r="H17" s="3">
-        <v>195300</v>
+        <v>156200</v>
       </c>
       <c r="I17" s="3">
-        <v>353600</v>
+        <v>282800</v>
       </c>
       <c r="J17" s="3">
-        <v>-43900</v>
+        <v>-35100</v>
       </c>
       <c r="K17" s="3">
         <v>-15000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>163300</v>
+        <v>130600</v>
       </c>
       <c r="E18" s="3">
-        <v>-60900</v>
+        <v>-48700</v>
       </c>
       <c r="F18" s="3">
-        <v>594000</v>
+        <v>475000</v>
       </c>
       <c r="G18" s="3">
-        <v>-292400</v>
+        <v>-233800</v>
       </c>
       <c r="H18" s="3">
-        <v>171700</v>
+        <v>137300</v>
       </c>
       <c r="I18" s="3">
-        <v>18700</v>
+        <v>15000</v>
       </c>
       <c r="J18" s="3">
-        <v>124500</v>
+        <v>99600</v>
       </c>
       <c r="K18" s="3">
         <v>39700</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>123500</v>
+        <v>98700</v>
       </c>
       <c r="E20" s="3">
-        <v>55900</v>
+        <v>44700</v>
       </c>
       <c r="F20" s="3">
-        <v>68600</v>
+        <v>54800</v>
       </c>
       <c r="G20" s="3">
-        <v>-52900</v>
+        <v>-42300</v>
       </c>
       <c r="H20" s="3">
-        <v>-108700</v>
+        <v>-86900</v>
       </c>
       <c r="I20" s="3">
-        <v>36700</v>
+        <v>29400</v>
       </c>
       <c r="J20" s="3">
-        <v>-16400</v>
+        <v>-13100</v>
       </c>
       <c r="K20" s="3">
         <v>700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>292600</v>
+        <v>234000</v>
       </c>
       <c r="E21" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="F21" s="3">
-        <v>669900</v>
+        <v>535700</v>
       </c>
       <c r="G21" s="3">
-        <v>-341900</v>
+        <v>-273400</v>
       </c>
       <c r="H21" s="3">
-        <v>105300</v>
+        <v>84200</v>
       </c>
       <c r="I21" s="3">
-        <v>76600</v>
+        <v>61200</v>
       </c>
       <c r="J21" s="3">
-        <v>117700</v>
+        <v>94200</v>
       </c>
       <c r="K21" s="3">
         <v>40600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>51700</v>
+        <v>41400</v>
       </c>
       <c r="E22" s="3">
-        <v>66600</v>
+        <v>53200</v>
       </c>
       <c r="F22" s="3">
-        <v>144200</v>
+        <v>115300</v>
       </c>
       <c r="G22" s="3">
-        <v>41600</v>
+        <v>33300</v>
       </c>
       <c r="H22" s="3">
-        <v>84400</v>
+        <v>67500</v>
       </c>
       <c r="I22" s="3">
-        <v>82300</v>
+        <v>65800</v>
       </c>
       <c r="J22" s="3">
-        <v>14500</v>
+        <v>11600</v>
       </c>
       <c r="K22" s="3">
         <v>9100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>235000</v>
+        <v>187900</v>
       </c>
       <c r="E23" s="3">
-        <v>-71600</v>
+        <v>-57200</v>
       </c>
       <c r="F23" s="3">
-        <v>518400</v>
+        <v>414600</v>
       </c>
       <c r="G23" s="3">
-        <v>-387000</v>
+        <v>-309400</v>
       </c>
       <c r="H23" s="3">
-        <v>-21300</v>
+        <v>-17100</v>
       </c>
       <c r="I23" s="3">
-        <v>-26800</v>
+        <v>-21400</v>
       </c>
       <c r="J23" s="3">
-        <v>93600</v>
+        <v>74900</v>
       </c>
       <c r="K23" s="3">
         <v>31200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17300</v>
+        <v>13800</v>
       </c>
       <c r="E24" s="3">
-        <v>221800</v>
+        <v>177300</v>
       </c>
       <c r="F24" s="3">
-        <v>103000</v>
+        <v>82400</v>
       </c>
       <c r="G24" s="3">
-        <v>-42200</v>
+        <v>-33700</v>
       </c>
       <c r="H24" s="3">
-        <v>-39200</v>
+        <v>-31300</v>
       </c>
       <c r="I24" s="3">
-        <v>9300</v>
+        <v>7400</v>
       </c>
       <c r="J24" s="3">
-        <v>39500</v>
+        <v>31600</v>
       </c>
       <c r="K24" s="3">
         <v>11500</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>217700</v>
+        <v>174100</v>
       </c>
       <c r="E26" s="3">
-        <v>-293300</v>
+        <v>-234600</v>
       </c>
       <c r="F26" s="3">
-        <v>415400</v>
+        <v>332200</v>
       </c>
       <c r="G26" s="3">
-        <v>-344800</v>
+        <v>-275700</v>
       </c>
       <c r="H26" s="3">
-        <v>17800</v>
+        <v>14300</v>
       </c>
       <c r="I26" s="3">
-        <v>-36100</v>
+        <v>-28900</v>
       </c>
       <c r="J26" s="3">
-        <v>54200</v>
+        <v>43300</v>
       </c>
       <c r="K26" s="3">
         <v>19700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>172400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-171900</v>
+      </c>
+      <c r="F27" s="3">
         <v>215600</v>
       </c>
-      <c r="E27" s="3">
-        <v>-214900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>269600</v>
-      </c>
       <c r="G27" s="3">
-        <v>-328300</v>
+        <v>-262500</v>
       </c>
       <c r="H27" s="3">
-        <v>-35300</v>
+        <v>-28200</v>
       </c>
       <c r="I27" s="3">
-        <v>-62100</v>
+        <v>-49700</v>
       </c>
       <c r="J27" s="3">
-        <v>50900</v>
+        <v>40700</v>
       </c>
       <c r="K27" s="3">
         <v>17900</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-91300</v>
+        <v>-73000</v>
       </c>
       <c r="F29" s="3">
-        <v>-50600</v>
+        <v>-40500</v>
       </c>
       <c r="G29" s="3">
-        <v>-14900</v>
+        <v>-11900</v>
       </c>
       <c r="H29" s="3">
-        <v>127200</v>
+        <v>101700</v>
       </c>
       <c r="I29" s="3">
-        <v>55100</v>
+        <v>44100</v>
       </c>
       <c r="J29" s="3">
-        <v>5100</v>
+        <v>4100</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-123500</v>
+        <v>-98700</v>
       </c>
       <c r="E32" s="3">
-        <v>-55900</v>
+        <v>-44700</v>
       </c>
       <c r="F32" s="3">
-        <v>-68600</v>
+        <v>-54800</v>
       </c>
       <c r="G32" s="3">
-        <v>52900</v>
+        <v>42300</v>
       </c>
       <c r="H32" s="3">
-        <v>108700</v>
+        <v>86900</v>
       </c>
       <c r="I32" s="3">
-        <v>-36700</v>
+        <v>-29400</v>
       </c>
       <c r="J32" s="3">
-        <v>16400</v>
+        <v>13100</v>
       </c>
       <c r="K32" s="3">
         <v>-700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>215600</v>
+        <v>172400</v>
       </c>
       <c r="E33" s="3">
-        <v>-306200</v>
+        <v>-244900</v>
       </c>
       <c r="F33" s="3">
-        <v>219000</v>
+        <v>175100</v>
       </c>
       <c r="G33" s="3">
-        <v>-343100</v>
+        <v>-274400</v>
       </c>
       <c r="H33" s="3">
-        <v>91900</v>
+        <v>73500</v>
       </c>
       <c r="I33" s="3">
-        <v>-7000</v>
+        <v>-5600</v>
       </c>
       <c r="J33" s="3">
-        <v>56000</v>
+        <v>44800</v>
       </c>
       <c r="K33" s="3">
         <v>17900</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>215600</v>
+        <v>172400</v>
       </c>
       <c r="E35" s="3">
-        <v>-306200</v>
+        <v>-244900</v>
       </c>
       <c r="F35" s="3">
-        <v>219000</v>
+        <v>175100</v>
       </c>
       <c r="G35" s="3">
-        <v>-343100</v>
+        <v>-274400</v>
       </c>
       <c r="H35" s="3">
-        <v>91900</v>
+        <v>73500</v>
       </c>
       <c r="I35" s="3">
-        <v>-7000</v>
+        <v>-5600</v>
       </c>
       <c r="J35" s="3">
-        <v>56000</v>
+        <v>44800</v>
       </c>
       <c r="K35" s="3">
         <v>17900</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>79700</v>
+        <v>91200</v>
       </c>
       <c r="E41" s="3">
-        <v>19800</v>
+        <v>15800</v>
       </c>
       <c r="F41" s="3">
-        <v>846900</v>
+        <v>677200</v>
       </c>
       <c r="G41" s="3">
-        <v>539400</v>
+        <v>431400</v>
       </c>
       <c r="H41" s="3">
-        <v>362300</v>
+        <v>289700</v>
       </c>
       <c r="I41" s="3">
-        <v>155100</v>
+        <v>124000</v>
       </c>
       <c r="J41" s="3">
-        <v>173000</v>
+        <v>138400</v>
       </c>
       <c r="K41" s="3">
         <v>5500</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>115100</v>
+        <v>131600</v>
       </c>
       <c r="E42" s="3">
-        <v>32400</v>
+        <v>25900</v>
       </c>
       <c r="F42" s="3">
-        <v>213800</v>
+        <v>171000</v>
       </c>
       <c r="G42" s="3">
-        <v>391300</v>
+        <v>312900</v>
       </c>
       <c r="H42" s="3">
-        <v>290800</v>
+        <v>232600</v>
       </c>
       <c r="I42" s="3">
-        <v>89200</v>
+        <v>71300</v>
       </c>
       <c r="J42" s="3">
-        <v>68100</v>
+        <v>54500</v>
       </c>
       <c r="K42" s="3">
         <v>2100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>67900</v>
+        <v>77700</v>
       </c>
       <c r="E43" s="3">
-        <v>88400</v>
+        <v>70700</v>
       </c>
       <c r="F43" s="3">
-        <v>351000</v>
+        <v>280700</v>
       </c>
       <c r="G43" s="3">
-        <v>204500</v>
+        <v>163600</v>
       </c>
       <c r="H43" s="3">
-        <v>149000</v>
+        <v>119200</v>
       </c>
       <c r="I43" s="3">
-        <v>99300</v>
+        <v>79400</v>
       </c>
       <c r="J43" s="3">
-        <v>81500</v>
+        <v>65200</v>
       </c>
       <c r="K43" s="3">
         <v>10200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F44" s="3">
-        <v>43900</v>
+        <v>35100</v>
       </c>
       <c r="G44" s="3">
-        <v>10200</v>
+        <v>8200</v>
       </c>
       <c r="H44" s="3">
-        <v>6100</v>
+        <v>4900</v>
       </c>
       <c r="I44" s="3">
-        <v>26600</v>
+        <v>21300</v>
       </c>
       <c r="J44" s="3">
-        <v>20300</v>
+        <v>16200</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E45" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F45" s="3">
-        <v>472500</v>
+        <v>377900</v>
       </c>
       <c r="G45" s="3">
-        <v>114400</v>
+        <v>91500</v>
       </c>
       <c r="H45" s="3">
-        <v>124300</v>
+        <v>99400</v>
       </c>
       <c r="I45" s="3">
-        <v>38500</v>
+        <v>30800</v>
       </c>
       <c r="J45" s="3">
-        <v>10400</v>
+        <v>8300</v>
       </c>
       <c r="K45" s="3">
         <v>1400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>264700</v>
+        <v>302800</v>
       </c>
       <c r="E46" s="3">
-        <v>142500</v>
+        <v>113900</v>
       </c>
       <c r="F46" s="3">
-        <v>1928100</v>
+        <v>1541800</v>
       </c>
       <c r="G46" s="3">
-        <v>1259900</v>
+        <v>1007600</v>
       </c>
       <c r="H46" s="3">
-        <v>932500</v>
+        <v>745700</v>
       </c>
       <c r="I46" s="3">
-        <v>408700</v>
+        <v>326800</v>
       </c>
       <c r="J46" s="3">
-        <v>266800</v>
+        <v>213400</v>
       </c>
       <c r="K46" s="3">
         <v>13800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>133200</v>
+        <v>152400</v>
       </c>
       <c r="E47" s="3">
-        <v>166400</v>
+        <v>133000</v>
       </c>
       <c r="F47" s="3">
-        <v>947200</v>
+        <v>757400</v>
       </c>
       <c r="G47" s="3">
-        <v>414700</v>
+        <v>331700</v>
       </c>
       <c r="H47" s="3">
-        <v>351300</v>
+        <v>280900</v>
       </c>
       <c r="I47" s="3">
-        <v>81800</v>
+        <v>65400</v>
       </c>
       <c r="J47" s="3">
-        <v>133200</v>
+        <v>106500</v>
       </c>
       <c r="K47" s="3">
         <v>32800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1887800</v>
+        <v>2159800</v>
       </c>
       <c r="E48" s="3">
-        <v>1924800</v>
+        <v>1539200</v>
       </c>
       <c r="F48" s="3">
-        <v>2672400</v>
+        <v>2137100</v>
       </c>
       <c r="G48" s="3">
-        <v>2280300</v>
+        <v>1823500</v>
       </c>
       <c r="H48" s="3">
-        <v>2112400</v>
+        <v>1689200</v>
       </c>
       <c r="I48" s="3">
-        <v>792900</v>
+        <v>634100</v>
       </c>
       <c r="J48" s="3">
-        <v>977300</v>
+        <v>781600</v>
       </c>
       <c r="K48" s="3">
         <v>171600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21100</v>
+        <v>24100</v>
       </c>
       <c r="E49" s="3">
-        <v>24600</v>
+        <v>19600</v>
       </c>
       <c r="F49" s="3">
-        <v>260400</v>
+        <v>208200</v>
       </c>
       <c r="G49" s="3">
-        <v>159800</v>
+        <v>127800</v>
       </c>
       <c r="H49" s="3">
-        <v>120400</v>
+        <v>96300</v>
       </c>
       <c r="I49" s="3">
-        <v>77300</v>
+        <v>61800</v>
       </c>
       <c r="J49" s="3">
-        <v>73400</v>
+        <v>58700</v>
       </c>
       <c r="K49" s="3">
         <v>900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19500</v>
+        <v>22300</v>
       </c>
       <c r="E52" s="3">
-        <v>21400</v>
+        <v>17100</v>
       </c>
       <c r="F52" s="3">
-        <v>70300</v>
+        <v>56200</v>
       </c>
       <c r="G52" s="3">
-        <v>118200</v>
+        <v>94600</v>
       </c>
       <c r="H52" s="3">
-        <v>218200</v>
+        <v>174500</v>
       </c>
       <c r="I52" s="3">
-        <v>82300</v>
+        <v>65800</v>
       </c>
       <c r="J52" s="3">
-        <v>59400</v>
+        <v>47500</v>
       </c>
       <c r="K52" s="3">
         <v>3100</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2326200</v>
+        <v>2661400</v>
       </c>
       <c r="E54" s="3">
-        <v>2279600</v>
+        <v>1823000</v>
       </c>
       <c r="F54" s="3">
-        <v>5878400</v>
+        <v>4700800</v>
       </c>
       <c r="G54" s="3">
-        <v>4233000</v>
+        <v>3385000</v>
       </c>
       <c r="H54" s="3">
-        <v>3287600</v>
+        <v>2629000</v>
       </c>
       <c r="I54" s="3">
-        <v>1443000</v>
+        <v>1153900</v>
       </c>
       <c r="J54" s="3">
-        <v>1199000</v>
+        <v>958800</v>
       </c>
       <c r="K54" s="3">
         <v>192200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>53200</v>
+        <v>60900</v>
       </c>
       <c r="E57" s="3">
-        <v>52200</v>
+        <v>41800</v>
       </c>
       <c r="F57" s="3">
-        <v>278100</v>
+        <v>222400</v>
       </c>
       <c r="G57" s="3">
-        <v>165500</v>
+        <v>132400</v>
       </c>
       <c r="H57" s="3">
-        <v>143100</v>
+        <v>114400</v>
       </c>
       <c r="I57" s="3">
-        <v>79400</v>
+        <v>63500</v>
       </c>
       <c r="J57" s="3">
-        <v>69100</v>
+        <v>55200</v>
       </c>
       <c r="K57" s="3">
         <v>2900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>385400</v>
+        <v>440900</v>
       </c>
       <c r="E58" s="3">
-        <v>158200</v>
+        <v>126500</v>
       </c>
       <c r="F58" s="3">
-        <v>779900</v>
+        <v>623700</v>
       </c>
       <c r="G58" s="3">
-        <v>689800</v>
+        <v>551600</v>
       </c>
       <c r="H58" s="3">
-        <v>248400</v>
+        <v>198600</v>
       </c>
       <c r="I58" s="3">
-        <v>124300</v>
+        <v>99400</v>
       </c>
       <c r="J58" s="3">
-        <v>138900</v>
+        <v>111000</v>
       </c>
       <c r="K58" s="3">
         <v>18300</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100700</v>
+        <v>115300</v>
       </c>
       <c r="E59" s="3">
-        <v>16100</v>
+        <v>12900</v>
       </c>
       <c r="F59" s="3">
-        <v>285900</v>
+        <v>228600</v>
       </c>
       <c r="G59" s="3">
-        <v>88200</v>
+        <v>70600</v>
       </c>
       <c r="H59" s="3">
-        <v>63600</v>
+        <v>50900</v>
       </c>
       <c r="I59" s="3">
-        <v>86000</v>
+        <v>68800</v>
       </c>
       <c r="J59" s="3">
-        <v>64200</v>
+        <v>51300</v>
       </c>
       <c r="K59" s="3">
         <v>12500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>539300</v>
+        <v>617000</v>
       </c>
       <c r="E60" s="3">
-        <v>226500</v>
+        <v>181200</v>
       </c>
       <c r="F60" s="3">
-        <v>1343900</v>
+        <v>1074700</v>
       </c>
       <c r="G60" s="3">
-        <v>659600</v>
+        <v>527500</v>
       </c>
       <c r="H60" s="3">
-        <v>455100</v>
+        <v>363900</v>
       </c>
       <c r="I60" s="3">
-        <v>289700</v>
+        <v>231700</v>
       </c>
       <c r="J60" s="3">
-        <v>272100</v>
+        <v>217600</v>
       </c>
       <c r="K60" s="3">
         <v>19600</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>88600</v>
+        <v>101400</v>
       </c>
       <c r="E61" s="3">
-        <v>486800</v>
+        <v>389300</v>
       </c>
       <c r="F61" s="3">
-        <v>2916700</v>
+        <v>2332400</v>
       </c>
       <c r="G61" s="3">
-        <v>2381400</v>
+        <v>1904400</v>
       </c>
       <c r="H61" s="3">
-        <v>1757600</v>
+        <v>1405500</v>
       </c>
       <c r="I61" s="3">
-        <v>683200</v>
+        <v>546400</v>
       </c>
       <c r="J61" s="3">
-        <v>565800</v>
+        <v>452500</v>
       </c>
       <c r="K61" s="3">
         <v>27200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>639200</v>
+        <v>731300</v>
       </c>
       <c r="E62" s="3">
-        <v>719800</v>
+        <v>575600</v>
       </c>
       <c r="F62" s="3">
-        <v>468300</v>
+        <v>374500</v>
       </c>
       <c r="G62" s="3">
-        <v>426600</v>
+        <v>341100</v>
       </c>
       <c r="H62" s="3">
-        <v>329200</v>
+        <v>263200</v>
       </c>
       <c r="I62" s="3">
-        <v>174600</v>
+        <v>139600</v>
       </c>
       <c r="J62" s="3">
-        <v>140600</v>
+        <v>112400</v>
       </c>
       <c r="K62" s="3">
         <v>48300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1335000</v>
+        <v>1527400</v>
       </c>
       <c r="E66" s="3">
-        <v>1646900</v>
+        <v>1317000</v>
       </c>
       <c r="F66" s="3">
-        <v>5343000</v>
+        <v>4272700</v>
       </c>
       <c r="G66" s="3">
-        <v>3946900</v>
+        <v>3156300</v>
       </c>
       <c r="H66" s="3">
-        <v>2904900</v>
+        <v>2323000</v>
       </c>
       <c r="I66" s="3">
-        <v>1281600</v>
+        <v>1024800</v>
       </c>
       <c r="J66" s="3">
-        <v>1064000</v>
+        <v>850800</v>
       </c>
       <c r="K66" s="3">
         <v>100200</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>359400</v>
+        <v>411200</v>
       </c>
       <c r="E72" s="3">
-        <v>166700</v>
+        <v>133300</v>
       </c>
       <c r="F72" s="3">
-        <v>266000</v>
+        <v>212700</v>
       </c>
       <c r="G72" s="3">
-        <v>106800</v>
+        <v>85400</v>
       </c>
       <c r="H72" s="3">
-        <v>257300</v>
+        <v>205800</v>
       </c>
       <c r="I72" s="3">
-        <v>152000</v>
+        <v>121500</v>
       </c>
       <c r="J72" s="3">
-        <v>125600</v>
+        <v>100400</v>
       </c>
       <c r="K72" s="3">
         <v>83700</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>991200</v>
+        <v>1134100</v>
       </c>
       <c r="E76" s="3">
-        <v>632700</v>
+        <v>506000</v>
       </c>
       <c r="F76" s="3">
-        <v>535400</v>
+        <v>428200</v>
       </c>
       <c r="G76" s="3">
-        <v>286100</v>
+        <v>228800</v>
       </c>
       <c r="H76" s="3">
-        <v>382700</v>
+        <v>306100</v>
       </c>
       <c r="I76" s="3">
-        <v>161400</v>
+        <v>129100</v>
       </c>
       <c r="J76" s="3">
-        <v>135000</v>
+        <v>107900</v>
       </c>
       <c r="K76" s="3">
         <v>91900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>215600</v>
+        <v>172400</v>
       </c>
       <c r="E81" s="3">
-        <v>-306200</v>
+        <v>-244900</v>
       </c>
       <c r="F81" s="3">
-        <v>219000</v>
+        <v>175100</v>
       </c>
       <c r="G81" s="3">
-        <v>-343100</v>
+        <v>-274400</v>
       </c>
       <c r="H81" s="3">
-        <v>91900</v>
+        <v>73500</v>
       </c>
       <c r="I81" s="3">
-        <v>-7000</v>
+        <v>-5600</v>
       </c>
       <c r="J81" s="3">
-        <v>56000</v>
+        <v>44800</v>
       </c>
       <c r="K81" s="3">
         <v>17900</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5800</v>
+        <v>4600</v>
       </c>
       <c r="E83" s="3">
-        <v>6600</v>
+        <v>5200</v>
       </c>
       <c r="F83" s="3">
-        <v>7300</v>
+        <v>5900</v>
       </c>
       <c r="G83" s="3">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="H83" s="3">
-        <v>42200</v>
+        <v>33700</v>
       </c>
       <c r="I83" s="3">
-        <v>21100</v>
+        <v>16900</v>
       </c>
       <c r="J83" s="3">
-        <v>9600</v>
+        <v>7600</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>79100</v>
+        <v>63300</v>
       </c>
       <c r="E89" s="3">
-        <v>-1472200</v>
+        <v>-1177300</v>
       </c>
       <c r="F89" s="3">
-        <v>478200</v>
+        <v>382400</v>
       </c>
       <c r="G89" s="3">
-        <v>253400</v>
+        <v>202700</v>
       </c>
       <c r="H89" s="3">
-        <v>89200</v>
+        <v>71300</v>
       </c>
       <c r="I89" s="3">
-        <v>56500</v>
+        <v>45200</v>
       </c>
       <c r="J89" s="3">
-        <v>25700</v>
+        <v>20600</v>
       </c>
       <c r="K89" s="3">
         <v>6100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40400</v>
+        <v>-32300</v>
       </c>
       <c r="E91" s="3">
-        <v>-13400</v>
+        <v>-10700</v>
       </c>
       <c r="F91" s="3">
-        <v>-60400</v>
+        <v>-48300</v>
       </c>
       <c r="G91" s="3">
-        <v>-41500</v>
+        <v>-33200</v>
       </c>
       <c r="H91" s="3">
-        <v>-58100</v>
+        <v>-46500</v>
       </c>
       <c r="I91" s="3">
-        <v>-25300</v>
+        <v>-20200</v>
       </c>
       <c r="J91" s="3">
-        <v>-8500</v>
+        <v>-6800</v>
       </c>
       <c r="K91" s="3">
         <v>-3300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>69900</v>
+        <v>55900</v>
       </c>
       <c r="E94" s="3">
-        <v>689200</v>
+        <v>551200</v>
       </c>
       <c r="F94" s="3">
-        <v>700800</v>
+        <v>560400</v>
       </c>
       <c r="G94" s="3">
-        <v>104900</v>
+        <v>83900</v>
       </c>
       <c r="H94" s="3">
-        <v>-133300</v>
+        <v>-106600</v>
       </c>
       <c r="I94" s="3">
-        <v>-12900</v>
+        <v>-10300</v>
       </c>
       <c r="J94" s="3">
-        <v>51300</v>
+        <v>41000</v>
       </c>
       <c r="K94" s="3">
         <v>1900</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-16100</v>
+        <v>-12900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-85300</v>
+        <v>-68200</v>
       </c>
       <c r="E100" s="3">
-        <v>-494400</v>
+        <v>-395400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1246100</v>
+        <v>-996500</v>
       </c>
       <c r="G100" s="3">
-        <v>-260100</v>
+        <v>-208000</v>
       </c>
       <c r="H100" s="3">
-        <v>-26900</v>
+        <v>-21500</v>
       </c>
       <c r="I100" s="3">
-        <v>9600</v>
+        <v>7700</v>
       </c>
       <c r="J100" s="3">
-        <v>-24800</v>
+        <v>-19800</v>
       </c>
       <c r="K100" s="3">
         <v>-10100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3700</v>
+        <v>-3000</v>
       </c>
       <c r="E101" s="3">
-        <v>-91600</v>
+        <v>-73300</v>
       </c>
       <c r="F101" s="3">
-        <v>134300</v>
+        <v>107400</v>
       </c>
       <c r="G101" s="3">
-        <v>-63400</v>
+        <v>-50700</v>
       </c>
       <c r="H101" s="3">
-        <v>124700</v>
+        <v>99700</v>
       </c>
       <c r="I101" s="3">
-        <v>16300</v>
+        <v>13100</v>
       </c>
       <c r="J101" s="3">
-        <v>31900</v>
+        <v>25500</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>60000</v>
+        <v>47900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1369000</v>
+        <v>-1094800</v>
       </c>
       <c r="F102" s="3">
-        <v>67100</v>
+        <v>53700</v>
       </c>
       <c r="G102" s="3">
-        <v>34800</v>
+        <v>27800</v>
       </c>
       <c r="H102" s="3">
-        <v>53600</v>
+        <v>42900</v>
       </c>
       <c r="I102" s="3">
-        <v>69500</v>
+        <v>55600</v>
       </c>
       <c r="J102" s="3">
-        <v>84200</v>
+        <v>67300</v>
       </c>
       <c r="K102" s="3">
         <v>-1700</v>

--- a/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>160100</v>
+        <v>138300</v>
       </c>
       <c r="E8" s="3">
-        <v>106200</v>
+        <v>91700</v>
       </c>
       <c r="F8" s="3">
-        <v>174000</v>
+        <v>150300</v>
       </c>
       <c r="G8" s="3">
-        <v>139700</v>
+        <v>120700</v>
       </c>
       <c r="H8" s="3">
-        <v>293500</v>
+        <v>253500</v>
       </c>
       <c r="I8" s="3">
-        <v>297700</v>
+        <v>257200</v>
       </c>
       <c r="J8" s="3">
-        <v>64500</v>
+        <v>55700</v>
       </c>
       <c r="K8" s="3">
         <v>24800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>60500</v>
+        <v>52200</v>
       </c>
       <c r="E9" s="3">
-        <v>53700</v>
+        <v>46400</v>
       </c>
       <c r="F9" s="3">
-        <v>75000</v>
+        <v>64800</v>
       </c>
       <c r="G9" s="3">
-        <v>52200</v>
+        <v>45100</v>
       </c>
       <c r="H9" s="3">
-        <v>172900</v>
+        <v>149300</v>
       </c>
       <c r="I9" s="3">
-        <v>414700</v>
+        <v>358200</v>
       </c>
       <c r="J9" s="3">
-        <v>222000</v>
+        <v>191700</v>
       </c>
       <c r="K9" s="3">
         <v>9900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>99600</v>
+        <v>86100</v>
       </c>
       <c r="E10" s="3">
-        <v>52500</v>
+        <v>45300</v>
       </c>
       <c r="F10" s="3">
-        <v>99000</v>
+        <v>85500</v>
       </c>
       <c r="G10" s="3">
-        <v>87500</v>
+        <v>75600</v>
       </c>
       <c r="H10" s="3">
-        <v>120600</v>
+        <v>104200</v>
       </c>
       <c r="I10" s="3">
-        <v>-116900</v>
+        <v>-101000</v>
       </c>
       <c r="J10" s="3">
-        <v>-157500</v>
+        <v>-136100</v>
       </c>
       <c r="K10" s="3">
         <v>14900</v>
@@ -935,22 +935,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E14" s="3">
         <v>400</v>
       </c>
       <c r="F14" s="3">
-        <v>13300</v>
+        <v>11500</v>
       </c>
       <c r="G14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="I14" s="3">
         <v>1800</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2100</v>
       </c>
       <c r="J14" s="3">
         <v>-100</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E15" s="3">
         <v>1600</v>
       </c>
-      <c r="E15" s="3">
-        <v>1900</v>
-      </c>
       <c r="F15" s="3">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="G15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H15" s="3">
-        <v>13400</v>
+        <v>11600</v>
       </c>
       <c r="I15" s="3">
-        <v>17500</v>
+        <v>15100</v>
       </c>
       <c r="J15" s="3">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>29500</v>
+        <v>25500</v>
       </c>
       <c r="E17" s="3">
-        <v>154900</v>
+        <v>133800</v>
       </c>
       <c r="F17" s="3">
-        <v>-301000</v>
+        <v>-260000</v>
       </c>
       <c r="G17" s="3">
-        <v>373600</v>
+        <v>322700</v>
       </c>
       <c r="H17" s="3">
-        <v>156200</v>
+        <v>134900</v>
       </c>
       <c r="I17" s="3">
-        <v>282800</v>
+        <v>244200</v>
       </c>
       <c r="J17" s="3">
-        <v>-35100</v>
+        <v>-30300</v>
       </c>
       <c r="K17" s="3">
         <v>-15000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>130600</v>
+        <v>112800</v>
       </c>
       <c r="E18" s="3">
-        <v>-48700</v>
+        <v>-42000</v>
       </c>
       <c r="F18" s="3">
-        <v>475000</v>
+        <v>410300</v>
       </c>
       <c r="G18" s="3">
-        <v>-233800</v>
+        <v>-202000</v>
       </c>
       <c r="H18" s="3">
-        <v>137300</v>
+        <v>118600</v>
       </c>
       <c r="I18" s="3">
-        <v>15000</v>
+        <v>12900</v>
       </c>
       <c r="J18" s="3">
-        <v>99600</v>
+        <v>86000</v>
       </c>
       <c r="K18" s="3">
         <v>39700</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>98700</v>
+        <v>85300</v>
       </c>
       <c r="E20" s="3">
-        <v>44700</v>
+        <v>38600</v>
       </c>
       <c r="F20" s="3">
-        <v>54800</v>
+        <v>47400</v>
       </c>
       <c r="G20" s="3">
-        <v>-42300</v>
+        <v>-36600</v>
       </c>
       <c r="H20" s="3">
-        <v>-86900</v>
+        <v>-75100</v>
       </c>
       <c r="I20" s="3">
-        <v>29400</v>
+        <v>25400</v>
       </c>
       <c r="J20" s="3">
-        <v>-13100</v>
+        <v>-11300</v>
       </c>
       <c r="K20" s="3">
         <v>700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>234000</v>
+        <v>202100</v>
       </c>
       <c r="E21" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F21" s="3">
-        <v>535700</v>
+        <v>462700</v>
       </c>
       <c r="G21" s="3">
-        <v>-273400</v>
+        <v>-236100</v>
       </c>
       <c r="H21" s="3">
-        <v>84200</v>
+        <v>72800</v>
       </c>
       <c r="I21" s="3">
-        <v>61200</v>
+        <v>52900</v>
       </c>
       <c r="J21" s="3">
-        <v>94200</v>
+        <v>81300</v>
       </c>
       <c r="K21" s="3">
         <v>40600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41400</v>
+        <v>35700</v>
       </c>
       <c r="E22" s="3">
-        <v>53200</v>
+        <v>46000</v>
       </c>
       <c r="F22" s="3">
-        <v>115300</v>
+        <v>99600</v>
       </c>
       <c r="G22" s="3">
-        <v>33300</v>
+        <v>28700</v>
       </c>
       <c r="H22" s="3">
-        <v>67500</v>
+        <v>58300</v>
       </c>
       <c r="I22" s="3">
-        <v>65800</v>
+        <v>56800</v>
       </c>
       <c r="J22" s="3">
-        <v>11600</v>
+        <v>10000</v>
       </c>
       <c r="K22" s="3">
         <v>9100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>187900</v>
+        <v>162300</v>
       </c>
       <c r="E23" s="3">
-        <v>-57200</v>
+        <v>-49400</v>
       </c>
       <c r="F23" s="3">
-        <v>414600</v>
+        <v>358100</v>
       </c>
       <c r="G23" s="3">
-        <v>-309400</v>
+        <v>-267300</v>
       </c>
       <c r="H23" s="3">
-        <v>-17100</v>
+        <v>-14700</v>
       </c>
       <c r="I23" s="3">
-        <v>-21400</v>
+        <v>-18500</v>
       </c>
       <c r="J23" s="3">
-        <v>74900</v>
+        <v>64700</v>
       </c>
       <c r="K23" s="3">
         <v>31200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13800</v>
+        <v>11900</v>
       </c>
       <c r="E24" s="3">
-        <v>177300</v>
+        <v>153200</v>
       </c>
       <c r="F24" s="3">
-        <v>82400</v>
+        <v>71100</v>
       </c>
       <c r="G24" s="3">
-        <v>-33700</v>
+        <v>-29100</v>
       </c>
       <c r="H24" s="3">
-        <v>-31300</v>
+        <v>-27100</v>
       </c>
       <c r="I24" s="3">
-        <v>7400</v>
+        <v>6400</v>
       </c>
       <c r="J24" s="3">
-        <v>31600</v>
+        <v>27300</v>
       </c>
       <c r="K24" s="3">
         <v>11500</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>174100</v>
+        <v>150400</v>
       </c>
       <c r="E26" s="3">
-        <v>-234600</v>
+        <v>-202600</v>
       </c>
       <c r="F26" s="3">
-        <v>332200</v>
+        <v>286900</v>
       </c>
       <c r="G26" s="3">
-        <v>-275700</v>
+        <v>-238100</v>
       </c>
       <c r="H26" s="3">
-        <v>14300</v>
+        <v>12300</v>
       </c>
       <c r="I26" s="3">
-        <v>-28900</v>
+        <v>-24900</v>
       </c>
       <c r="J26" s="3">
-        <v>43300</v>
+        <v>37400</v>
       </c>
       <c r="K26" s="3">
         <v>19700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>172400</v>
+        <v>148900</v>
       </c>
       <c r="E27" s="3">
-        <v>-171900</v>
+        <v>-148500</v>
       </c>
       <c r="F27" s="3">
-        <v>215600</v>
+        <v>186200</v>
       </c>
       <c r="G27" s="3">
-        <v>-262500</v>
+        <v>-226700</v>
       </c>
       <c r="H27" s="3">
-        <v>-28200</v>
+        <v>-24400</v>
       </c>
       <c r="I27" s="3">
-        <v>-49700</v>
+        <v>-42900</v>
       </c>
       <c r="J27" s="3">
-        <v>40700</v>
+        <v>35200</v>
       </c>
       <c r="K27" s="3">
         <v>17900</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-73000</v>
+        <v>-63100</v>
       </c>
       <c r="F29" s="3">
-        <v>-40500</v>
+        <v>-35000</v>
       </c>
       <c r="G29" s="3">
-        <v>-11900</v>
+        <v>-10300</v>
       </c>
       <c r="H29" s="3">
-        <v>101700</v>
+        <v>87800</v>
       </c>
       <c r="I29" s="3">
-        <v>44100</v>
+        <v>38100</v>
       </c>
       <c r="J29" s="3">
-        <v>4100</v>
+        <v>3500</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-98700</v>
+        <v>-85300</v>
       </c>
       <c r="E32" s="3">
-        <v>-44700</v>
+        <v>-38600</v>
       </c>
       <c r="F32" s="3">
-        <v>-54800</v>
+        <v>-47400</v>
       </c>
       <c r="G32" s="3">
-        <v>42300</v>
+        <v>36600</v>
       </c>
       <c r="H32" s="3">
-        <v>86900</v>
+        <v>75100</v>
       </c>
       <c r="I32" s="3">
-        <v>-29400</v>
+        <v>-25400</v>
       </c>
       <c r="J32" s="3">
-        <v>13100</v>
+        <v>11300</v>
       </c>
       <c r="K32" s="3">
         <v>-700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>172400</v>
+        <v>148900</v>
       </c>
       <c r="E33" s="3">
-        <v>-244900</v>
+        <v>-211500</v>
       </c>
       <c r="F33" s="3">
-        <v>175100</v>
+        <v>151300</v>
       </c>
       <c r="G33" s="3">
-        <v>-274400</v>
+        <v>-237000</v>
       </c>
       <c r="H33" s="3">
-        <v>73500</v>
+        <v>63500</v>
       </c>
       <c r="I33" s="3">
-        <v>-5600</v>
+        <v>-4800</v>
       </c>
       <c r="J33" s="3">
-        <v>44800</v>
+        <v>38700</v>
       </c>
       <c r="K33" s="3">
         <v>17900</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>172400</v>
+        <v>148900</v>
       </c>
       <c r="E35" s="3">
-        <v>-244900</v>
+        <v>-211500</v>
       </c>
       <c r="F35" s="3">
-        <v>175100</v>
+        <v>151300</v>
       </c>
       <c r="G35" s="3">
-        <v>-274400</v>
+        <v>-237000</v>
       </c>
       <c r="H35" s="3">
-        <v>73500</v>
+        <v>63500</v>
       </c>
       <c r="I35" s="3">
-        <v>-5600</v>
+        <v>-4800</v>
       </c>
       <c r="J35" s="3">
-        <v>44800</v>
+        <v>38700</v>
       </c>
       <c r="K35" s="3">
         <v>17900</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>91200</v>
+        <v>95900</v>
       </c>
       <c r="E41" s="3">
-        <v>15800</v>
+        <v>13600</v>
       </c>
       <c r="F41" s="3">
-        <v>677200</v>
+        <v>584900</v>
       </c>
       <c r="G41" s="3">
-        <v>431400</v>
+        <v>372600</v>
       </c>
       <c r="H41" s="3">
-        <v>289700</v>
+        <v>250200</v>
       </c>
       <c r="I41" s="3">
-        <v>124000</v>
+        <v>107100</v>
       </c>
       <c r="J41" s="3">
-        <v>138400</v>
+        <v>119500</v>
       </c>
       <c r="K41" s="3">
         <v>5500</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>131600</v>
+        <v>138400</v>
       </c>
       <c r="E42" s="3">
-        <v>25900</v>
+        <v>22400</v>
       </c>
       <c r="F42" s="3">
-        <v>171000</v>
+        <v>147700</v>
       </c>
       <c r="G42" s="3">
-        <v>312900</v>
+        <v>270300</v>
       </c>
       <c r="H42" s="3">
-        <v>232600</v>
+        <v>200900</v>
       </c>
       <c r="I42" s="3">
-        <v>71300</v>
+        <v>61600</v>
       </c>
       <c r="J42" s="3">
-        <v>54500</v>
+        <v>47000</v>
       </c>
       <c r="K42" s="3">
         <v>2100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>77700</v>
+        <v>81700</v>
       </c>
       <c r="E43" s="3">
-        <v>70700</v>
+        <v>61100</v>
       </c>
       <c r="F43" s="3">
-        <v>280700</v>
+        <v>242400</v>
       </c>
       <c r="G43" s="3">
-        <v>163600</v>
+        <v>141300</v>
       </c>
       <c r="H43" s="3">
-        <v>119200</v>
+        <v>102900</v>
       </c>
       <c r="I43" s="3">
-        <v>79400</v>
+        <v>68600</v>
       </c>
       <c r="J43" s="3">
-        <v>65200</v>
+        <v>56300</v>
       </c>
       <c r="K43" s="3">
         <v>10200</v>
@@ -1944,22 +1944,22 @@
         <v>900</v>
       </c>
       <c r="E44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F44" s="3">
-        <v>35100</v>
+        <v>30300</v>
       </c>
       <c r="G44" s="3">
-        <v>8200</v>
+        <v>7100</v>
       </c>
       <c r="H44" s="3">
-        <v>4900</v>
+        <v>4200</v>
       </c>
       <c r="I44" s="3">
-        <v>21300</v>
+        <v>18400</v>
       </c>
       <c r="J44" s="3">
-        <v>16200</v>
+        <v>14000</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
@@ -1983,22 +1983,22 @@
         <v>1400</v>
       </c>
       <c r="E45" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F45" s="3">
-        <v>377900</v>
+        <v>326400</v>
       </c>
       <c r="G45" s="3">
-        <v>91500</v>
+        <v>79000</v>
       </c>
       <c r="H45" s="3">
-        <v>99400</v>
+        <v>85800</v>
       </c>
       <c r="I45" s="3">
-        <v>30800</v>
+        <v>26600</v>
       </c>
       <c r="J45" s="3">
-        <v>8300</v>
+        <v>7200</v>
       </c>
       <c r="K45" s="3">
         <v>1400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>302800</v>
+        <v>318400</v>
       </c>
       <c r="E46" s="3">
-        <v>113900</v>
+        <v>98400</v>
       </c>
       <c r="F46" s="3">
-        <v>1541800</v>
+        <v>1331700</v>
       </c>
       <c r="G46" s="3">
-        <v>1007600</v>
+        <v>870300</v>
       </c>
       <c r="H46" s="3">
-        <v>745700</v>
+        <v>644100</v>
       </c>
       <c r="I46" s="3">
-        <v>326800</v>
+        <v>282300</v>
       </c>
       <c r="J46" s="3">
-        <v>213400</v>
+        <v>184300</v>
       </c>
       <c r="K46" s="3">
         <v>13800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>152400</v>
+        <v>160300</v>
       </c>
       <c r="E47" s="3">
-        <v>133000</v>
+        <v>114900</v>
       </c>
       <c r="F47" s="3">
-        <v>757400</v>
+        <v>654200</v>
       </c>
       <c r="G47" s="3">
-        <v>331700</v>
+        <v>286500</v>
       </c>
       <c r="H47" s="3">
-        <v>280900</v>
+        <v>242700</v>
       </c>
       <c r="I47" s="3">
-        <v>65400</v>
+        <v>56500</v>
       </c>
       <c r="J47" s="3">
-        <v>106500</v>
+        <v>92000</v>
       </c>
       <c r="K47" s="3">
         <v>32800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2159800</v>
+        <v>2270900</v>
       </c>
       <c r="E48" s="3">
-        <v>1539200</v>
+        <v>1329500</v>
       </c>
       <c r="F48" s="3">
-        <v>2137100</v>
+        <v>1845900</v>
       </c>
       <c r="G48" s="3">
-        <v>1823500</v>
+        <v>1575000</v>
       </c>
       <c r="H48" s="3">
-        <v>1689200</v>
+        <v>1459000</v>
       </c>
       <c r="I48" s="3">
-        <v>634100</v>
+        <v>547700</v>
       </c>
       <c r="J48" s="3">
-        <v>781600</v>
+        <v>675000</v>
       </c>
       <c r="K48" s="3">
         <v>171600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24100</v>
+        <v>25400</v>
       </c>
       <c r="E49" s="3">
-        <v>19600</v>
+        <v>17000</v>
       </c>
       <c r="F49" s="3">
-        <v>208200</v>
+        <v>179900</v>
       </c>
       <c r="G49" s="3">
-        <v>127800</v>
+        <v>110300</v>
       </c>
       <c r="H49" s="3">
-        <v>96300</v>
+        <v>83100</v>
       </c>
       <c r="I49" s="3">
-        <v>61800</v>
+        <v>53400</v>
       </c>
       <c r="J49" s="3">
-        <v>58700</v>
+        <v>50700</v>
       </c>
       <c r="K49" s="3">
         <v>900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22300</v>
+        <v>23400</v>
       </c>
       <c r="E52" s="3">
-        <v>17100</v>
+        <v>14800</v>
       </c>
       <c r="F52" s="3">
-        <v>56200</v>
+        <v>48600</v>
       </c>
       <c r="G52" s="3">
-        <v>94600</v>
+        <v>81700</v>
       </c>
       <c r="H52" s="3">
-        <v>174500</v>
+        <v>150700</v>
       </c>
       <c r="I52" s="3">
-        <v>65800</v>
+        <v>56800</v>
       </c>
       <c r="J52" s="3">
-        <v>47500</v>
+        <v>41000</v>
       </c>
       <c r="K52" s="3">
         <v>3100</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2661400</v>
+        <v>2798300</v>
       </c>
       <c r="E54" s="3">
-        <v>1823000</v>
+        <v>1574600</v>
       </c>
       <c r="F54" s="3">
-        <v>4700800</v>
+        <v>4060300</v>
       </c>
       <c r="G54" s="3">
-        <v>3385000</v>
+        <v>2923700</v>
       </c>
       <c r="H54" s="3">
-        <v>2629000</v>
+        <v>2270700</v>
       </c>
       <c r="I54" s="3">
-        <v>1153900</v>
+        <v>996700</v>
       </c>
       <c r="J54" s="3">
-        <v>958800</v>
+        <v>828100</v>
       </c>
       <c r="K54" s="3">
         <v>192200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>60900</v>
+        <v>64000</v>
       </c>
       <c r="E57" s="3">
-        <v>41800</v>
+        <v>36100</v>
       </c>
       <c r="F57" s="3">
-        <v>222400</v>
+        <v>192100</v>
       </c>
       <c r="G57" s="3">
-        <v>132400</v>
+        <v>114300</v>
       </c>
       <c r="H57" s="3">
-        <v>114400</v>
+        <v>98800</v>
       </c>
       <c r="I57" s="3">
-        <v>63500</v>
+        <v>54800</v>
       </c>
       <c r="J57" s="3">
-        <v>55200</v>
+        <v>47700</v>
       </c>
       <c r="K57" s="3">
         <v>2900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>440900</v>
+        <v>463600</v>
       </c>
       <c r="E58" s="3">
-        <v>126500</v>
+        <v>109300</v>
       </c>
       <c r="F58" s="3">
-        <v>623700</v>
+        <v>538700</v>
       </c>
       <c r="G58" s="3">
-        <v>551600</v>
+        <v>476400</v>
       </c>
       <c r="H58" s="3">
-        <v>198600</v>
+        <v>171600</v>
       </c>
       <c r="I58" s="3">
-        <v>99400</v>
+        <v>85900</v>
       </c>
       <c r="J58" s="3">
-        <v>111000</v>
+        <v>95900</v>
       </c>
       <c r="K58" s="3">
         <v>18300</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>115300</v>
+        <v>121200</v>
       </c>
       <c r="E59" s="3">
-        <v>12900</v>
+        <v>11100</v>
       </c>
       <c r="F59" s="3">
-        <v>228600</v>
+        <v>197500</v>
       </c>
       <c r="G59" s="3">
-        <v>70600</v>
+        <v>60900</v>
       </c>
       <c r="H59" s="3">
-        <v>50900</v>
+        <v>44000</v>
       </c>
       <c r="I59" s="3">
-        <v>68800</v>
+        <v>59400</v>
       </c>
       <c r="J59" s="3">
-        <v>51300</v>
+        <v>44300</v>
       </c>
       <c r="K59" s="3">
         <v>12500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>617000</v>
+        <v>648800</v>
       </c>
       <c r="E60" s="3">
-        <v>181200</v>
+        <v>156500</v>
       </c>
       <c r="F60" s="3">
-        <v>1074700</v>
+        <v>928200</v>
       </c>
       <c r="G60" s="3">
-        <v>527500</v>
+        <v>455600</v>
       </c>
       <c r="H60" s="3">
-        <v>363900</v>
+        <v>314300</v>
       </c>
       <c r="I60" s="3">
-        <v>231700</v>
+        <v>200100</v>
       </c>
       <c r="J60" s="3">
-        <v>217600</v>
+        <v>187900</v>
       </c>
       <c r="K60" s="3">
         <v>19600</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>101400</v>
+        <v>106600</v>
       </c>
       <c r="E61" s="3">
-        <v>389300</v>
+        <v>336200</v>
       </c>
       <c r="F61" s="3">
-        <v>2332400</v>
+        <v>2014600</v>
       </c>
       <c r="G61" s="3">
-        <v>1904400</v>
+        <v>1644900</v>
       </c>
       <c r="H61" s="3">
-        <v>1405500</v>
+        <v>1214000</v>
       </c>
       <c r="I61" s="3">
-        <v>546400</v>
+        <v>471900</v>
       </c>
       <c r="J61" s="3">
-        <v>452500</v>
+        <v>390800</v>
       </c>
       <c r="K61" s="3">
         <v>27200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>731300</v>
+        <v>768900</v>
       </c>
       <c r="E62" s="3">
-        <v>575600</v>
+        <v>497200</v>
       </c>
       <c r="F62" s="3">
-        <v>374500</v>
+        <v>323500</v>
       </c>
       <c r="G62" s="3">
-        <v>341100</v>
+        <v>294600</v>
       </c>
       <c r="H62" s="3">
-        <v>263200</v>
+        <v>227400</v>
       </c>
       <c r="I62" s="3">
-        <v>139600</v>
+        <v>120600</v>
       </c>
       <c r="J62" s="3">
-        <v>112400</v>
+        <v>97100</v>
       </c>
       <c r="K62" s="3">
         <v>48300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1527400</v>
+        <v>1605900</v>
       </c>
       <c r="E66" s="3">
-        <v>1317000</v>
+        <v>1137500</v>
       </c>
       <c r="F66" s="3">
-        <v>4272700</v>
+        <v>3690400</v>
       </c>
       <c r="G66" s="3">
-        <v>3156300</v>
+        <v>2726100</v>
       </c>
       <c r="H66" s="3">
-        <v>2323000</v>
+        <v>2006400</v>
       </c>
       <c r="I66" s="3">
-        <v>1024800</v>
+        <v>885200</v>
       </c>
       <c r="J66" s="3">
-        <v>850800</v>
+        <v>734900</v>
       </c>
       <c r="K66" s="3">
         <v>100200</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>411200</v>
+        <v>432300</v>
       </c>
       <c r="E72" s="3">
-        <v>133300</v>
+        <v>115200</v>
       </c>
       <c r="F72" s="3">
-        <v>212700</v>
+        <v>183700</v>
       </c>
       <c r="G72" s="3">
-        <v>85400</v>
+        <v>73800</v>
       </c>
       <c r="H72" s="3">
-        <v>205800</v>
+        <v>177700</v>
       </c>
       <c r="I72" s="3">
-        <v>121500</v>
+        <v>105000</v>
       </c>
       <c r="J72" s="3">
-        <v>100400</v>
+        <v>86700</v>
       </c>
       <c r="K72" s="3">
         <v>83700</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1134100</v>
+        <v>1192400</v>
       </c>
       <c r="E76" s="3">
-        <v>506000</v>
+        <v>437000</v>
       </c>
       <c r="F76" s="3">
-        <v>428200</v>
+        <v>369800</v>
       </c>
       <c r="G76" s="3">
-        <v>228800</v>
+        <v>197600</v>
       </c>
       <c r="H76" s="3">
-        <v>306100</v>
+        <v>264300</v>
       </c>
       <c r="I76" s="3">
-        <v>129100</v>
+        <v>111500</v>
       </c>
       <c r="J76" s="3">
-        <v>107900</v>
+        <v>93200</v>
       </c>
       <c r="K76" s="3">
         <v>91900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>172400</v>
+        <v>148900</v>
       </c>
       <c r="E81" s="3">
-        <v>-244900</v>
+        <v>-211500</v>
       </c>
       <c r="F81" s="3">
-        <v>175100</v>
+        <v>151300</v>
       </c>
       <c r="G81" s="3">
-        <v>-274400</v>
+        <v>-237000</v>
       </c>
       <c r="H81" s="3">
-        <v>73500</v>
+        <v>63500</v>
       </c>
       <c r="I81" s="3">
-        <v>-5600</v>
+        <v>-4800</v>
       </c>
       <c r="J81" s="3">
-        <v>44800</v>
+        <v>38700</v>
       </c>
       <c r="K81" s="3">
         <v>17900</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="E83" s="3">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="F83" s="3">
-        <v>5900</v>
+        <v>5100</v>
       </c>
       <c r="G83" s="3">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="H83" s="3">
-        <v>33700</v>
+        <v>29100</v>
       </c>
       <c r="I83" s="3">
-        <v>16900</v>
+        <v>14600</v>
       </c>
       <c r="J83" s="3">
-        <v>7600</v>
+        <v>6600</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>63300</v>
+        <v>54600</v>
       </c>
       <c r="E89" s="3">
-        <v>-1177300</v>
+        <v>-1016800</v>
       </c>
       <c r="F89" s="3">
-        <v>382400</v>
+        <v>330300</v>
       </c>
       <c r="G89" s="3">
-        <v>202700</v>
+        <v>175100</v>
       </c>
       <c r="H89" s="3">
-        <v>71300</v>
+        <v>61600</v>
       </c>
       <c r="I89" s="3">
-        <v>45200</v>
+        <v>39000</v>
       </c>
       <c r="J89" s="3">
-        <v>20600</v>
+        <v>17800</v>
       </c>
       <c r="K89" s="3">
         <v>6100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32300</v>
+        <v>-27900</v>
       </c>
       <c r="E91" s="3">
-        <v>-10700</v>
+        <v>-9200</v>
       </c>
       <c r="F91" s="3">
-        <v>-48300</v>
+        <v>-41700</v>
       </c>
       <c r="G91" s="3">
-        <v>-33200</v>
+        <v>-28700</v>
       </c>
       <c r="H91" s="3">
-        <v>-46500</v>
+        <v>-40200</v>
       </c>
       <c r="I91" s="3">
-        <v>-20200</v>
+        <v>-17500</v>
       </c>
       <c r="J91" s="3">
-        <v>-6800</v>
+        <v>-5900</v>
       </c>
       <c r="K91" s="3">
         <v>-3300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>55900</v>
+        <v>48300</v>
       </c>
       <c r="E94" s="3">
-        <v>551200</v>
+        <v>476100</v>
       </c>
       <c r="F94" s="3">
-        <v>560400</v>
+        <v>484000</v>
       </c>
       <c r="G94" s="3">
-        <v>83900</v>
+        <v>72400</v>
       </c>
       <c r="H94" s="3">
-        <v>-106600</v>
+        <v>-92100</v>
       </c>
       <c r="I94" s="3">
-        <v>-10300</v>
+        <v>-8900</v>
       </c>
       <c r="J94" s="3">
-        <v>41000</v>
+        <v>35400</v>
       </c>
       <c r="K94" s="3">
         <v>1900</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-12900</v>
+        <v>-11100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-68200</v>
+        <v>-58900</v>
       </c>
       <c r="E100" s="3">
-        <v>-395400</v>
+        <v>-341500</v>
       </c>
       <c r="F100" s="3">
-        <v>-996500</v>
+        <v>-860700</v>
       </c>
       <c r="G100" s="3">
-        <v>-208000</v>
+        <v>-179700</v>
       </c>
       <c r="H100" s="3">
-        <v>-21500</v>
+        <v>-18600</v>
       </c>
       <c r="I100" s="3">
-        <v>7700</v>
+        <v>6600</v>
       </c>
       <c r="J100" s="3">
-        <v>-19800</v>
+        <v>-17100</v>
       </c>
       <c r="K100" s="3">
         <v>-10100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3000</v>
+        <v>-2600</v>
       </c>
       <c r="E101" s="3">
-        <v>-73300</v>
+        <v>-63300</v>
       </c>
       <c r="F101" s="3">
-        <v>107400</v>
+        <v>92700</v>
       </c>
       <c r="G101" s="3">
-        <v>-50700</v>
+        <v>-43800</v>
       </c>
       <c r="H101" s="3">
-        <v>99700</v>
+        <v>86100</v>
       </c>
       <c r="I101" s="3">
-        <v>13100</v>
+        <v>11300</v>
       </c>
       <c r="J101" s="3">
-        <v>25500</v>
+        <v>22000</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>47900</v>
+        <v>41400</v>
       </c>
       <c r="E102" s="3">
-        <v>-1094800</v>
+        <v>-945600</v>
       </c>
       <c r="F102" s="3">
-        <v>53700</v>
+        <v>46400</v>
       </c>
       <c r="G102" s="3">
-        <v>27800</v>
+        <v>24000</v>
       </c>
       <c r="H102" s="3">
-        <v>42900</v>
+        <v>37000</v>
       </c>
       <c r="I102" s="3">
-        <v>55600</v>
+        <v>48000</v>
       </c>
       <c r="J102" s="3">
-        <v>67300</v>
+        <v>58100</v>
       </c>
       <c r="K102" s="3">
         <v>-1700</v>

--- a/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>138300</v>
+        <v>91800</v>
       </c>
       <c r="E8" s="3">
-        <v>91700</v>
+        <v>60900</v>
       </c>
       <c r="F8" s="3">
-        <v>150300</v>
+        <v>99700</v>
       </c>
       <c r="G8" s="3">
-        <v>120700</v>
+        <v>80100</v>
       </c>
       <c r="H8" s="3">
-        <v>253500</v>
+        <v>168200</v>
       </c>
       <c r="I8" s="3">
-        <v>257200</v>
+        <v>170700</v>
       </c>
       <c r="J8" s="3">
-        <v>55700</v>
+        <v>36900</v>
       </c>
       <c r="K8" s="3">
         <v>24800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>52200</v>
+        <v>34700</v>
       </c>
       <c r="E9" s="3">
-        <v>46400</v>
+        <v>30800</v>
       </c>
       <c r="F9" s="3">
-        <v>64800</v>
+        <v>43000</v>
       </c>
       <c r="G9" s="3">
-        <v>45100</v>
+        <v>29900</v>
       </c>
       <c r="H9" s="3">
-        <v>149300</v>
+        <v>99100</v>
       </c>
       <c r="I9" s="3">
-        <v>358200</v>
+        <v>237700</v>
       </c>
       <c r="J9" s="3">
-        <v>191700</v>
+        <v>127200</v>
       </c>
       <c r="K9" s="3">
         <v>9900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>86100</v>
+        <v>57100</v>
       </c>
       <c r="E10" s="3">
-        <v>45300</v>
+        <v>30100</v>
       </c>
       <c r="F10" s="3">
-        <v>85500</v>
+        <v>56700</v>
       </c>
       <c r="G10" s="3">
-        <v>75600</v>
+        <v>50200</v>
       </c>
       <c r="H10" s="3">
-        <v>104200</v>
+        <v>69100</v>
       </c>
       <c r="I10" s="3">
-        <v>-101000</v>
+        <v>-67000</v>
       </c>
       <c r="J10" s="3">
-        <v>-136100</v>
+        <v>-90300</v>
       </c>
       <c r="K10" s="3">
         <v>14900</v>
@@ -935,22 +935,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I14" s="3">
         <v>1200</v>
-      </c>
-      <c r="E14" s="3">
-        <v>400</v>
-      </c>
-      <c r="F14" s="3">
-        <v>11500</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1800</v>
       </c>
       <c r="J14" s="3">
         <v>-100</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E15" s="3">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="F15" s="3">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="G15" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="H15" s="3">
-        <v>11600</v>
+        <v>7700</v>
       </c>
       <c r="I15" s="3">
-        <v>15100</v>
+        <v>10000</v>
       </c>
       <c r="J15" s="3">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25500</v>
+        <v>16900</v>
       </c>
       <c r="E17" s="3">
-        <v>133800</v>
+        <v>88800</v>
       </c>
       <c r="F17" s="3">
-        <v>-260000</v>
+        <v>-172500</v>
       </c>
       <c r="G17" s="3">
-        <v>322700</v>
+        <v>214100</v>
       </c>
       <c r="H17" s="3">
-        <v>134900</v>
+        <v>89500</v>
       </c>
       <c r="I17" s="3">
-        <v>244200</v>
+        <v>162100</v>
       </c>
       <c r="J17" s="3">
-        <v>-30300</v>
+        <v>-20100</v>
       </c>
       <c r="K17" s="3">
         <v>-15000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>112800</v>
+        <v>74800</v>
       </c>
       <c r="E18" s="3">
-        <v>-42000</v>
+        <v>-27900</v>
       </c>
       <c r="F18" s="3">
-        <v>410300</v>
+        <v>272300</v>
       </c>
       <c r="G18" s="3">
-        <v>-202000</v>
+        <v>-134000</v>
       </c>
       <c r="H18" s="3">
-        <v>118600</v>
+        <v>78700</v>
       </c>
       <c r="I18" s="3">
-        <v>12900</v>
+        <v>8600</v>
       </c>
       <c r="J18" s="3">
-        <v>86000</v>
+        <v>57100</v>
       </c>
       <c r="K18" s="3">
         <v>39700</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>85300</v>
+        <v>56600</v>
       </c>
       <c r="E20" s="3">
-        <v>38600</v>
+        <v>25600</v>
       </c>
       <c r="F20" s="3">
-        <v>47400</v>
+        <v>31400</v>
       </c>
       <c r="G20" s="3">
-        <v>-36600</v>
+        <v>-24300</v>
       </c>
       <c r="H20" s="3">
-        <v>-75100</v>
+        <v>-49800</v>
       </c>
       <c r="I20" s="3">
-        <v>25400</v>
+        <v>16800</v>
       </c>
       <c r="J20" s="3">
-        <v>-11300</v>
+        <v>-7500</v>
       </c>
       <c r="K20" s="3">
         <v>700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>202100</v>
+        <v>134100</v>
       </c>
       <c r="E21" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F21" s="3">
-        <v>462700</v>
+        <v>307000</v>
       </c>
       <c r="G21" s="3">
-        <v>-236100</v>
+        <v>-156700</v>
       </c>
       <c r="H21" s="3">
-        <v>72800</v>
+        <v>48200</v>
       </c>
       <c r="I21" s="3">
-        <v>52900</v>
+        <v>35100</v>
       </c>
       <c r="J21" s="3">
-        <v>81300</v>
+        <v>54000</v>
       </c>
       <c r="K21" s="3">
         <v>40600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>35700</v>
+        <v>23700</v>
       </c>
       <c r="E22" s="3">
-        <v>46000</v>
+        <v>30500</v>
       </c>
       <c r="F22" s="3">
-        <v>99600</v>
+        <v>66100</v>
       </c>
       <c r="G22" s="3">
-        <v>28700</v>
+        <v>19100</v>
       </c>
       <c r="H22" s="3">
-        <v>58300</v>
+        <v>38700</v>
       </c>
       <c r="I22" s="3">
-        <v>56800</v>
+        <v>37700</v>
       </c>
       <c r="J22" s="3">
-        <v>10000</v>
+        <v>6700</v>
       </c>
       <c r="K22" s="3">
         <v>9100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>162300</v>
+        <v>107700</v>
       </c>
       <c r="E23" s="3">
-        <v>-49400</v>
+        <v>-32800</v>
       </c>
       <c r="F23" s="3">
-        <v>358100</v>
+        <v>237600</v>
       </c>
       <c r="G23" s="3">
-        <v>-267300</v>
+        <v>-177400</v>
       </c>
       <c r="H23" s="3">
-        <v>-14700</v>
+        <v>-9800</v>
       </c>
       <c r="I23" s="3">
-        <v>-18500</v>
+        <v>-12300</v>
       </c>
       <c r="J23" s="3">
-        <v>64700</v>
+        <v>42900</v>
       </c>
       <c r="K23" s="3">
         <v>31200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11900</v>
+        <v>7900</v>
       </c>
       <c r="E24" s="3">
-        <v>153200</v>
+        <v>101600</v>
       </c>
       <c r="F24" s="3">
-        <v>71100</v>
+        <v>47200</v>
       </c>
       <c r="G24" s="3">
-        <v>-29100</v>
+        <v>-19300</v>
       </c>
       <c r="H24" s="3">
-        <v>-27100</v>
+        <v>-18000</v>
       </c>
       <c r="I24" s="3">
-        <v>6400</v>
+        <v>4300</v>
       </c>
       <c r="J24" s="3">
-        <v>27300</v>
+        <v>18100</v>
       </c>
       <c r="K24" s="3">
         <v>11500</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>150400</v>
+        <v>99800</v>
       </c>
       <c r="E26" s="3">
-        <v>-202600</v>
+        <v>-134400</v>
       </c>
       <c r="F26" s="3">
-        <v>286900</v>
+        <v>190400</v>
       </c>
       <c r="G26" s="3">
-        <v>-238100</v>
+        <v>-158000</v>
       </c>
       <c r="H26" s="3">
-        <v>12300</v>
+        <v>8200</v>
       </c>
       <c r="I26" s="3">
-        <v>-24900</v>
+        <v>-16600</v>
       </c>
       <c r="J26" s="3">
-        <v>37400</v>
+        <v>24800</v>
       </c>
       <c r="K26" s="3">
         <v>19700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>148900</v>
+        <v>98800</v>
       </c>
       <c r="E27" s="3">
-        <v>-148500</v>
+        <v>-98500</v>
       </c>
       <c r="F27" s="3">
-        <v>186200</v>
+        <v>123600</v>
       </c>
       <c r="G27" s="3">
-        <v>-226700</v>
+        <v>-150500</v>
       </c>
       <c r="H27" s="3">
-        <v>-24400</v>
+        <v>-16200</v>
       </c>
       <c r="I27" s="3">
-        <v>-42900</v>
+        <v>-28500</v>
       </c>
       <c r="J27" s="3">
-        <v>35200</v>
+        <v>23300</v>
       </c>
       <c r="K27" s="3">
         <v>17900</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-63100</v>
+        <v>-41900</v>
       </c>
       <c r="F29" s="3">
-        <v>-35000</v>
+        <v>-23200</v>
       </c>
       <c r="G29" s="3">
-        <v>-10300</v>
+        <v>-6800</v>
       </c>
       <c r="H29" s="3">
-        <v>87800</v>
+        <v>58300</v>
       </c>
       <c r="I29" s="3">
-        <v>38100</v>
+        <v>25300</v>
       </c>
       <c r="J29" s="3">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-85300</v>
+        <v>-56600</v>
       </c>
       <c r="E32" s="3">
-        <v>-38600</v>
+        <v>-25600</v>
       </c>
       <c r="F32" s="3">
-        <v>-47400</v>
+        <v>-31400</v>
       </c>
       <c r="G32" s="3">
-        <v>36600</v>
+        <v>24300</v>
       </c>
       <c r="H32" s="3">
-        <v>75100</v>
+        <v>49800</v>
       </c>
       <c r="I32" s="3">
-        <v>-25400</v>
+        <v>-16800</v>
       </c>
       <c r="J32" s="3">
-        <v>11300</v>
+        <v>7500</v>
       </c>
       <c r="K32" s="3">
         <v>-700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>148900</v>
+        <v>98800</v>
       </c>
       <c r="E33" s="3">
-        <v>-211500</v>
+        <v>-140400</v>
       </c>
       <c r="F33" s="3">
-        <v>151300</v>
+        <v>100400</v>
       </c>
       <c r="G33" s="3">
-        <v>-237000</v>
+        <v>-157300</v>
       </c>
       <c r="H33" s="3">
-        <v>63500</v>
+        <v>42100</v>
       </c>
       <c r="I33" s="3">
-        <v>-4800</v>
+        <v>-3200</v>
       </c>
       <c r="J33" s="3">
-        <v>38700</v>
+        <v>25700</v>
       </c>
       <c r="K33" s="3">
         <v>17900</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>148900</v>
+        <v>98800</v>
       </c>
       <c r="E35" s="3">
-        <v>-211500</v>
+        <v>-140400</v>
       </c>
       <c r="F35" s="3">
-        <v>151300</v>
+        <v>100400</v>
       </c>
       <c r="G35" s="3">
-        <v>-237000</v>
+        <v>-157300</v>
       </c>
       <c r="H35" s="3">
-        <v>63500</v>
+        <v>42100</v>
       </c>
       <c r="I35" s="3">
-        <v>-4800</v>
+        <v>-3200</v>
       </c>
       <c r="J35" s="3">
-        <v>38700</v>
+        <v>25700</v>
       </c>
       <c r="K35" s="3">
         <v>17900</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>95900</v>
+        <v>63600</v>
       </c>
       <c r="E41" s="3">
-        <v>13600</v>
+        <v>9100</v>
       </c>
       <c r="F41" s="3">
-        <v>584900</v>
+        <v>388200</v>
       </c>
       <c r="G41" s="3">
-        <v>372600</v>
+        <v>247200</v>
       </c>
       <c r="H41" s="3">
-        <v>250200</v>
+        <v>166000</v>
       </c>
       <c r="I41" s="3">
-        <v>107100</v>
+        <v>71100</v>
       </c>
       <c r="J41" s="3">
-        <v>119500</v>
+        <v>79300</v>
       </c>
       <c r="K41" s="3">
         <v>5500</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>138400</v>
+        <v>91900</v>
       </c>
       <c r="E42" s="3">
-        <v>22400</v>
+        <v>14800</v>
       </c>
       <c r="F42" s="3">
-        <v>147700</v>
+        <v>98000</v>
       </c>
       <c r="G42" s="3">
-        <v>270300</v>
+        <v>179400</v>
       </c>
       <c r="H42" s="3">
-        <v>200900</v>
+        <v>133300</v>
       </c>
       <c r="I42" s="3">
-        <v>61600</v>
+        <v>40900</v>
       </c>
       <c r="J42" s="3">
-        <v>47000</v>
+        <v>31200</v>
       </c>
       <c r="K42" s="3">
         <v>2100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>81700</v>
+        <v>54200</v>
       </c>
       <c r="E43" s="3">
-        <v>61100</v>
+        <v>40500</v>
       </c>
       <c r="F43" s="3">
-        <v>242400</v>
+        <v>160900</v>
       </c>
       <c r="G43" s="3">
-        <v>141300</v>
+        <v>93700</v>
       </c>
       <c r="H43" s="3">
-        <v>102900</v>
+        <v>68300</v>
       </c>
       <c r="I43" s="3">
-        <v>68600</v>
+        <v>45500</v>
       </c>
       <c r="J43" s="3">
-        <v>56300</v>
+        <v>37400</v>
       </c>
       <c r="K43" s="3">
         <v>10200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F44" s="3">
-        <v>30300</v>
+        <v>20100</v>
       </c>
       <c r="G44" s="3">
-        <v>7100</v>
+        <v>4700</v>
       </c>
       <c r="H44" s="3">
-        <v>4200</v>
+        <v>2800</v>
       </c>
       <c r="I44" s="3">
-        <v>18400</v>
+        <v>12200</v>
       </c>
       <c r="J44" s="3">
-        <v>14000</v>
+        <v>9300</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="E45" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F45" s="3">
-        <v>326400</v>
+        <v>216600</v>
       </c>
       <c r="G45" s="3">
-        <v>79000</v>
+        <v>52500</v>
       </c>
       <c r="H45" s="3">
-        <v>85800</v>
+        <v>57000</v>
       </c>
       <c r="I45" s="3">
-        <v>26600</v>
+        <v>17700</v>
       </c>
       <c r="J45" s="3">
-        <v>7200</v>
+        <v>4800</v>
       </c>
       <c r="K45" s="3">
         <v>1400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>318400</v>
+        <v>211300</v>
       </c>
       <c r="E46" s="3">
-        <v>98400</v>
+        <v>65300</v>
       </c>
       <c r="F46" s="3">
-        <v>1331700</v>
+        <v>883700</v>
       </c>
       <c r="G46" s="3">
-        <v>870300</v>
+        <v>577500</v>
       </c>
       <c r="H46" s="3">
-        <v>644100</v>
+        <v>427400</v>
       </c>
       <c r="I46" s="3">
-        <v>282300</v>
+        <v>187300</v>
       </c>
       <c r="J46" s="3">
-        <v>184300</v>
+        <v>122300</v>
       </c>
       <c r="K46" s="3">
         <v>13800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>160300</v>
+        <v>106400</v>
       </c>
       <c r="E47" s="3">
-        <v>114900</v>
+        <v>76300</v>
       </c>
       <c r="F47" s="3">
-        <v>654200</v>
+        <v>434100</v>
       </c>
       <c r="G47" s="3">
-        <v>286500</v>
+        <v>190100</v>
       </c>
       <c r="H47" s="3">
-        <v>242700</v>
+        <v>161000</v>
       </c>
       <c r="I47" s="3">
-        <v>56500</v>
+        <v>37500</v>
       </c>
       <c r="J47" s="3">
-        <v>92000</v>
+        <v>61100</v>
       </c>
       <c r="K47" s="3">
         <v>32800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2270900</v>
+        <v>1506900</v>
       </c>
       <c r="E48" s="3">
-        <v>1329500</v>
+        <v>882200</v>
       </c>
       <c r="F48" s="3">
-        <v>1845900</v>
+        <v>1224900</v>
       </c>
       <c r="G48" s="3">
-        <v>1575000</v>
+        <v>1045100</v>
       </c>
       <c r="H48" s="3">
-        <v>1459000</v>
+        <v>968200</v>
       </c>
       <c r="I48" s="3">
-        <v>547700</v>
+        <v>363400</v>
       </c>
       <c r="J48" s="3">
-        <v>675000</v>
+        <v>447900</v>
       </c>
       <c r="K48" s="3">
         <v>171600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25400</v>
+        <v>16800</v>
       </c>
       <c r="E49" s="3">
-        <v>17000</v>
+        <v>11300</v>
       </c>
       <c r="F49" s="3">
-        <v>179900</v>
+        <v>119400</v>
       </c>
       <c r="G49" s="3">
-        <v>110300</v>
+        <v>73200</v>
       </c>
       <c r="H49" s="3">
-        <v>83100</v>
+        <v>55200</v>
       </c>
       <c r="I49" s="3">
-        <v>53400</v>
+        <v>35400</v>
       </c>
       <c r="J49" s="3">
-        <v>50700</v>
+        <v>33600</v>
       </c>
       <c r="K49" s="3">
         <v>900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23400</v>
+        <v>15500</v>
       </c>
       <c r="E52" s="3">
-        <v>14800</v>
+        <v>9800</v>
       </c>
       <c r="F52" s="3">
-        <v>48600</v>
+        <v>32200</v>
       </c>
       <c r="G52" s="3">
-        <v>81700</v>
+        <v>54200</v>
       </c>
       <c r="H52" s="3">
-        <v>150700</v>
+        <v>100000</v>
       </c>
       <c r="I52" s="3">
-        <v>56800</v>
+        <v>37700</v>
       </c>
       <c r="J52" s="3">
-        <v>41000</v>
+        <v>27200</v>
       </c>
       <c r="K52" s="3">
         <v>3100</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2798300</v>
+        <v>1856900</v>
       </c>
       <c r="E54" s="3">
-        <v>1574600</v>
+        <v>1044800</v>
       </c>
       <c r="F54" s="3">
-        <v>4060300</v>
+        <v>2694300</v>
       </c>
       <c r="G54" s="3">
-        <v>2923700</v>
+        <v>1940100</v>
       </c>
       <c r="H54" s="3">
-        <v>2270700</v>
+        <v>1506800</v>
       </c>
       <c r="I54" s="3">
-        <v>996700</v>
+        <v>661400</v>
       </c>
       <c r="J54" s="3">
-        <v>828100</v>
+        <v>549500</v>
       </c>
       <c r="K54" s="3">
         <v>192200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>64000</v>
+        <v>42500</v>
       </c>
       <c r="E57" s="3">
-        <v>36100</v>
+        <v>23900</v>
       </c>
       <c r="F57" s="3">
-        <v>192100</v>
+        <v>127500</v>
       </c>
       <c r="G57" s="3">
-        <v>114300</v>
+        <v>75900</v>
       </c>
       <c r="H57" s="3">
-        <v>98800</v>
+        <v>65600</v>
       </c>
       <c r="I57" s="3">
-        <v>54800</v>
+        <v>36400</v>
       </c>
       <c r="J57" s="3">
-        <v>47700</v>
+        <v>31700</v>
       </c>
       <c r="K57" s="3">
         <v>2900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>463600</v>
+        <v>307600</v>
       </c>
       <c r="E58" s="3">
-        <v>109300</v>
+        <v>72500</v>
       </c>
       <c r="F58" s="3">
-        <v>538700</v>
+        <v>357400</v>
       </c>
       <c r="G58" s="3">
-        <v>476400</v>
+        <v>316100</v>
       </c>
       <c r="H58" s="3">
-        <v>171600</v>
+        <v>113800</v>
       </c>
       <c r="I58" s="3">
-        <v>85900</v>
+        <v>57000</v>
       </c>
       <c r="J58" s="3">
-        <v>95900</v>
+        <v>63600</v>
       </c>
       <c r="K58" s="3">
         <v>18300</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>121200</v>
+        <v>80400</v>
       </c>
       <c r="E59" s="3">
-        <v>11100</v>
+        <v>7400</v>
       </c>
       <c r="F59" s="3">
-        <v>197500</v>
+        <v>131000</v>
       </c>
       <c r="G59" s="3">
-        <v>60900</v>
+        <v>40400</v>
       </c>
       <c r="H59" s="3">
-        <v>44000</v>
+        <v>29200</v>
       </c>
       <c r="I59" s="3">
-        <v>59400</v>
+        <v>39400</v>
       </c>
       <c r="J59" s="3">
-        <v>44300</v>
+        <v>29400</v>
       </c>
       <c r="K59" s="3">
         <v>12500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>648800</v>
+        <v>430500</v>
       </c>
       <c r="E60" s="3">
-        <v>156500</v>
+        <v>103800</v>
       </c>
       <c r="F60" s="3">
-        <v>928200</v>
+        <v>615900</v>
       </c>
       <c r="G60" s="3">
-        <v>455600</v>
+        <v>302300</v>
       </c>
       <c r="H60" s="3">
-        <v>314300</v>
+        <v>208600</v>
       </c>
       <c r="I60" s="3">
-        <v>200100</v>
+        <v>132800</v>
       </c>
       <c r="J60" s="3">
-        <v>187900</v>
+        <v>124700</v>
       </c>
       <c r="K60" s="3">
         <v>19600</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>106600</v>
+        <v>70700</v>
       </c>
       <c r="E61" s="3">
-        <v>336200</v>
+        <v>223100</v>
       </c>
       <c r="F61" s="3">
-        <v>2014600</v>
+        <v>1336800</v>
       </c>
       <c r="G61" s="3">
-        <v>1644900</v>
+        <v>1091500</v>
       </c>
       <c r="H61" s="3">
-        <v>1214000</v>
+        <v>805500</v>
       </c>
       <c r="I61" s="3">
-        <v>471900</v>
+        <v>313100</v>
       </c>
       <c r="J61" s="3">
-        <v>390800</v>
+        <v>259300</v>
       </c>
       <c r="K61" s="3">
         <v>27200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>768900</v>
+        <v>510200</v>
       </c>
       <c r="E62" s="3">
-        <v>497200</v>
+        <v>329900</v>
       </c>
       <c r="F62" s="3">
-        <v>323500</v>
+        <v>214600</v>
       </c>
       <c r="G62" s="3">
-        <v>294600</v>
+        <v>195500</v>
       </c>
       <c r="H62" s="3">
-        <v>227400</v>
+        <v>150900</v>
       </c>
       <c r="I62" s="3">
-        <v>120600</v>
+        <v>80000</v>
       </c>
       <c r="J62" s="3">
-        <v>97100</v>
+        <v>64400</v>
       </c>
       <c r="K62" s="3">
         <v>48300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1605900</v>
+        <v>1065600</v>
       </c>
       <c r="E66" s="3">
-        <v>1137500</v>
+        <v>754800</v>
       </c>
       <c r="F66" s="3">
-        <v>3690400</v>
+        <v>2448900</v>
       </c>
       <c r="G66" s="3">
-        <v>2726100</v>
+        <v>1809000</v>
       </c>
       <c r="H66" s="3">
-        <v>2006400</v>
+        <v>1331400</v>
       </c>
       <c r="I66" s="3">
-        <v>885200</v>
+        <v>587400</v>
       </c>
       <c r="J66" s="3">
-        <v>734900</v>
+        <v>487700</v>
       </c>
       <c r="K66" s="3">
         <v>100200</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>432300</v>
+        <v>286900</v>
       </c>
       <c r="E72" s="3">
-        <v>115200</v>
+        <v>76400</v>
       </c>
       <c r="F72" s="3">
-        <v>183700</v>
+        <v>121900</v>
       </c>
       <c r="G72" s="3">
-        <v>73800</v>
+        <v>48900</v>
       </c>
       <c r="H72" s="3">
-        <v>177700</v>
+        <v>117900</v>
       </c>
       <c r="I72" s="3">
-        <v>105000</v>
+        <v>69600</v>
       </c>
       <c r="J72" s="3">
-        <v>86700</v>
+        <v>57500</v>
       </c>
       <c r="K72" s="3">
         <v>83700</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1192400</v>
+        <v>791300</v>
       </c>
       <c r="E76" s="3">
-        <v>437000</v>
+        <v>290000</v>
       </c>
       <c r="F76" s="3">
-        <v>369800</v>
+        <v>245400</v>
       </c>
       <c r="G76" s="3">
-        <v>197600</v>
+        <v>131100</v>
       </c>
       <c r="H76" s="3">
-        <v>264300</v>
+        <v>175400</v>
       </c>
       <c r="I76" s="3">
-        <v>111500</v>
+        <v>74000</v>
       </c>
       <c r="J76" s="3">
-        <v>93200</v>
+        <v>61900</v>
       </c>
       <c r="K76" s="3">
         <v>91900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>148900</v>
+        <v>98800</v>
       </c>
       <c r="E81" s="3">
-        <v>-211500</v>
+        <v>-140400</v>
       </c>
       <c r="F81" s="3">
-        <v>151300</v>
+        <v>100400</v>
       </c>
       <c r="G81" s="3">
-        <v>-237000</v>
+        <v>-157300</v>
       </c>
       <c r="H81" s="3">
-        <v>63500</v>
+        <v>42100</v>
       </c>
       <c r="I81" s="3">
-        <v>-4800</v>
+        <v>-3200</v>
       </c>
       <c r="J81" s="3">
-        <v>38700</v>
+        <v>25700</v>
       </c>
       <c r="K81" s="3">
         <v>17900</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="E83" s="3">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="F83" s="3">
-        <v>5100</v>
+        <v>3400</v>
       </c>
       <c r="G83" s="3">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="H83" s="3">
-        <v>29100</v>
+        <v>19300</v>
       </c>
       <c r="I83" s="3">
-        <v>14600</v>
+        <v>9700</v>
       </c>
       <c r="J83" s="3">
-        <v>6600</v>
+        <v>4400</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>54600</v>
+        <v>36300</v>
       </c>
       <c r="E89" s="3">
-        <v>-1016800</v>
+        <v>-674800</v>
       </c>
       <c r="F89" s="3">
-        <v>330300</v>
+        <v>219200</v>
       </c>
       <c r="G89" s="3">
-        <v>175100</v>
+        <v>116200</v>
       </c>
       <c r="H89" s="3">
-        <v>61600</v>
+        <v>40900</v>
       </c>
       <c r="I89" s="3">
-        <v>39000</v>
+        <v>25900</v>
       </c>
       <c r="J89" s="3">
-        <v>17800</v>
+        <v>11800</v>
       </c>
       <c r="K89" s="3">
         <v>6100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-27900</v>
+        <v>-18500</v>
       </c>
       <c r="E91" s="3">
-        <v>-9200</v>
+        <v>-6100</v>
       </c>
       <c r="F91" s="3">
-        <v>-41700</v>
+        <v>-27700</v>
       </c>
       <c r="G91" s="3">
-        <v>-28700</v>
+        <v>-19000</v>
       </c>
       <c r="H91" s="3">
-        <v>-40200</v>
+        <v>-26600</v>
       </c>
       <c r="I91" s="3">
-        <v>-17500</v>
+        <v>-11600</v>
       </c>
       <c r="J91" s="3">
-        <v>-5900</v>
+        <v>-3900</v>
       </c>
       <c r="K91" s="3">
         <v>-3300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>48300</v>
+        <v>32000</v>
       </c>
       <c r="E94" s="3">
-        <v>476100</v>
+        <v>315900</v>
       </c>
       <c r="F94" s="3">
-        <v>484000</v>
+        <v>321200</v>
       </c>
       <c r="G94" s="3">
-        <v>72400</v>
+        <v>48100</v>
       </c>
       <c r="H94" s="3">
-        <v>-92100</v>
+        <v>-61100</v>
       </c>
       <c r="I94" s="3">
-        <v>-8900</v>
+        <v>-5900</v>
       </c>
       <c r="J94" s="3">
-        <v>35400</v>
+        <v>23500</v>
       </c>
       <c r="K94" s="3">
         <v>1900</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-11100</v>
+        <v>-7400</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-58900</v>
+        <v>-39100</v>
       </c>
       <c r="E100" s="3">
-        <v>-341500</v>
+        <v>-226600</v>
       </c>
       <c r="F100" s="3">
-        <v>-860700</v>
+        <v>-571100</v>
       </c>
       <c r="G100" s="3">
-        <v>-179700</v>
+        <v>-119200</v>
       </c>
       <c r="H100" s="3">
-        <v>-18600</v>
+        <v>-12300</v>
       </c>
       <c r="I100" s="3">
-        <v>6600</v>
+        <v>4400</v>
       </c>
       <c r="J100" s="3">
-        <v>-17100</v>
+        <v>-11300</v>
       </c>
       <c r="K100" s="3">
         <v>-10100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2600</v>
+        <v>-1700</v>
       </c>
       <c r="E101" s="3">
-        <v>-63300</v>
+        <v>-42000</v>
       </c>
       <c r="F101" s="3">
-        <v>92700</v>
+        <v>61500</v>
       </c>
       <c r="G101" s="3">
-        <v>-43800</v>
+        <v>-29100</v>
       </c>
       <c r="H101" s="3">
-        <v>86100</v>
+        <v>57100</v>
       </c>
       <c r="I101" s="3">
-        <v>11300</v>
+        <v>7500</v>
       </c>
       <c r="J101" s="3">
-        <v>22000</v>
+        <v>14600</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>41400</v>
+        <v>27500</v>
       </c>
       <c r="E102" s="3">
-        <v>-945600</v>
+        <v>-627500</v>
       </c>
       <c r="F102" s="3">
-        <v>46400</v>
+        <v>30800</v>
       </c>
       <c r="G102" s="3">
-        <v>24000</v>
+        <v>15900</v>
       </c>
       <c r="H102" s="3">
-        <v>37000</v>
+        <v>24600</v>
       </c>
       <c r="I102" s="3">
-        <v>48000</v>
+        <v>31900</v>
       </c>
       <c r="J102" s="3">
-        <v>58100</v>
+        <v>38600</v>
       </c>
       <c r="K102" s="3">
         <v>-1700</v>

--- a/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IRS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>IRS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41820</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41455</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41090</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>91800</v>
+        <v>252700</v>
       </c>
       <c r="E8" s="3">
-        <v>60900</v>
+        <v>195700</v>
       </c>
       <c r="F8" s="3">
-        <v>99700</v>
+        <v>129800</v>
       </c>
       <c r="G8" s="3">
-        <v>80100</v>
+        <v>98700</v>
       </c>
       <c r="H8" s="3">
-        <v>168200</v>
+        <v>79300</v>
       </c>
       <c r="I8" s="3">
-        <v>170700</v>
+        <v>166500</v>
       </c>
       <c r="J8" s="3">
+        <v>168900</v>
+      </c>
+      <c r="K8" s="3">
         <v>36900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>28200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>41100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>34700</v>
+        <v>87200</v>
       </c>
       <c r="E9" s="3">
-        <v>30800</v>
+        <v>74100</v>
       </c>
       <c r="F9" s="3">
-        <v>43000</v>
+        <v>67600</v>
       </c>
       <c r="G9" s="3">
-        <v>29900</v>
+        <v>42600</v>
       </c>
       <c r="H9" s="3">
-        <v>99100</v>
+        <v>29600</v>
       </c>
       <c r="I9" s="3">
-        <v>237700</v>
+        <v>98000</v>
       </c>
       <c r="J9" s="3">
+        <v>235200</v>
+      </c>
+      <c r="K9" s="3">
         <v>127200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>29500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>39400</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>57100</v>
+        <v>165500</v>
       </c>
       <c r="E10" s="3">
-        <v>30100</v>
+        <v>121600</v>
       </c>
       <c r="F10" s="3">
-        <v>56700</v>
+        <v>62300</v>
       </c>
       <c r="G10" s="3">
-        <v>50200</v>
+        <v>56100</v>
       </c>
       <c r="H10" s="3">
-        <v>69100</v>
+        <v>49600</v>
       </c>
       <c r="I10" s="3">
-        <v>-67000</v>
+        <v>68400</v>
       </c>
       <c r="J10" s="3">
+        <v>-66300</v>
+      </c>
+      <c r="K10" s="3">
         <v>-90300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1600</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>800</v>
+        <v>21100</v>
       </c>
       <c r="E14" s="3">
-        <v>200</v>
+        <v>1700</v>
       </c>
       <c r="F14" s="3">
-        <v>7600</v>
+        <v>500</v>
       </c>
       <c r="G14" s="3">
-        <v>1100</v>
+        <v>7500</v>
       </c>
       <c r="H14" s="3">
-        <v>-3900</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>200</v>
       </c>
       <c r="L14" s="3">
         <v>200</v>
       </c>
       <c r="M14" s="3">
+        <v>200</v>
+      </c>
+      <c r="N14" s="3">
         <v>-1800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="E15" s="3">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="F15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G15" s="3">
         <v>1700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>500</v>
       </c>
-      <c r="H15" s="3">
-        <v>7700</v>
-      </c>
       <c r="I15" s="3">
-        <v>10000</v>
+        <v>7600</v>
       </c>
       <c r="J15" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K15" s="3">
         <v>2300</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-300</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16900</v>
+        <v>326600</v>
       </c>
       <c r="E17" s="3">
-        <v>88800</v>
+        <v>36100</v>
       </c>
       <c r="F17" s="3">
-        <v>-172500</v>
+        <v>189400</v>
       </c>
       <c r="G17" s="3">
-        <v>214100</v>
+        <v>-170700</v>
       </c>
       <c r="H17" s="3">
-        <v>89500</v>
+        <v>211900</v>
       </c>
       <c r="I17" s="3">
-        <v>162100</v>
+        <v>88600</v>
       </c>
       <c r="J17" s="3">
+        <v>160400</v>
+      </c>
+      <c r="K17" s="3">
         <v>-20100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-15000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>74800</v>
+        <v>-74000</v>
       </c>
       <c r="E18" s="3">
-        <v>-27900</v>
+        <v>159600</v>
       </c>
       <c r="F18" s="3">
-        <v>272300</v>
+        <v>-59500</v>
       </c>
       <c r="G18" s="3">
-        <v>-134000</v>
+        <v>269400</v>
       </c>
       <c r="H18" s="3">
-        <v>78700</v>
+        <v>-132600</v>
       </c>
       <c r="I18" s="3">
-        <v>8600</v>
+        <v>77900</v>
       </c>
       <c r="J18" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K18" s="3">
         <v>57100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17400</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>56600</v>
+        <v>85700</v>
       </c>
       <c r="E20" s="3">
-        <v>25600</v>
+        <v>120700</v>
       </c>
       <c r="F20" s="3">
-        <v>31400</v>
+        <v>87000</v>
       </c>
       <c r="G20" s="3">
-        <v>-24300</v>
+        <v>31100</v>
       </c>
       <c r="H20" s="3">
-        <v>-49800</v>
+        <v>-24000</v>
       </c>
       <c r="I20" s="3">
-        <v>16800</v>
+        <v>-49300</v>
       </c>
       <c r="J20" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-7500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-16500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3100</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>134100</v>
+        <v>17100</v>
       </c>
       <c r="E21" s="3">
-        <v>700</v>
+        <v>286100</v>
       </c>
       <c r="F21" s="3">
-        <v>307000</v>
+        <v>33900</v>
       </c>
       <c r="G21" s="3">
-        <v>-156700</v>
+        <v>303800</v>
       </c>
       <c r="H21" s="3">
-        <v>48200</v>
+        <v>-155000</v>
       </c>
       <c r="I21" s="3">
-        <v>35100</v>
+        <v>47800</v>
       </c>
       <c r="J21" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K21" s="3">
         <v>54000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>40600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>15300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17600</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23700</v>
+        <v>34300</v>
       </c>
       <c r="E22" s="3">
-        <v>30500</v>
+        <v>50600</v>
       </c>
       <c r="F22" s="3">
-        <v>66100</v>
+        <v>97500</v>
       </c>
       <c r="G22" s="3">
-        <v>19100</v>
+        <v>65400</v>
       </c>
       <c r="H22" s="3">
-        <v>38700</v>
+        <v>18900</v>
       </c>
       <c r="I22" s="3">
-        <v>37700</v>
+        <v>38300</v>
       </c>
       <c r="J22" s="3">
+        <v>37300</v>
+      </c>
+      <c r="K22" s="3">
         <v>6700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6400</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>107700</v>
+        <v>-22600</v>
       </c>
       <c r="E23" s="3">
-        <v>-32800</v>
+        <v>229800</v>
       </c>
       <c r="F23" s="3">
-        <v>237600</v>
+        <v>-70000</v>
       </c>
       <c r="G23" s="3">
-        <v>-177400</v>
+        <v>235100</v>
       </c>
       <c r="H23" s="3">
-        <v>-9800</v>
+        <v>-175500</v>
       </c>
       <c r="I23" s="3">
-        <v>-12300</v>
+        <v>-9700</v>
       </c>
       <c r="J23" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K23" s="3">
         <v>42900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>31200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7800</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7900</v>
+        <v>-187000</v>
       </c>
       <c r="E24" s="3">
-        <v>101600</v>
+        <v>16900</v>
       </c>
       <c r="F24" s="3">
-        <v>47200</v>
+        <v>216800</v>
       </c>
       <c r="G24" s="3">
-        <v>-19300</v>
+        <v>46700</v>
       </c>
       <c r="H24" s="3">
-        <v>-18000</v>
+        <v>-19100</v>
       </c>
       <c r="I24" s="3">
-        <v>4300</v>
+        <v>-17800</v>
       </c>
       <c r="J24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K24" s="3">
         <v>18100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2700</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>99800</v>
+        <v>164400</v>
       </c>
       <c r="E26" s="3">
-        <v>-134400</v>
+        <v>212900</v>
       </c>
       <c r="F26" s="3">
-        <v>190400</v>
+        <v>-286800</v>
       </c>
       <c r="G26" s="3">
-        <v>-158000</v>
+        <v>188400</v>
       </c>
       <c r="H26" s="3">
-        <v>8200</v>
+        <v>-156400</v>
       </c>
       <c r="I26" s="3">
-        <v>-16600</v>
+        <v>8100</v>
       </c>
       <c r="J26" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="K26" s="3">
         <v>24800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>98800</v>
+        <v>162300</v>
       </c>
       <c r="E27" s="3">
-        <v>-98500</v>
+        <v>210800</v>
       </c>
       <c r="F27" s="3">
-        <v>123600</v>
+        <v>-210100</v>
       </c>
       <c r="G27" s="3">
-        <v>-150500</v>
+        <v>122300</v>
       </c>
       <c r="H27" s="3">
-        <v>-16200</v>
+        <v>-148900</v>
       </c>
       <c r="I27" s="3">
-        <v>-28500</v>
+        <v>-16000</v>
       </c>
       <c r="J27" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="K27" s="3">
         <v>23300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1476,28 +1536,28 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-41900</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-23200</v>
+        <v>-89300</v>
       </c>
       <c r="G29" s="3">
-        <v>-6800</v>
+        <v>-23000</v>
       </c>
       <c r="H29" s="3">
-        <v>58300</v>
+        <v>-6700</v>
       </c>
       <c r="I29" s="3">
-        <v>25300</v>
+        <v>57700</v>
       </c>
       <c r="J29" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K29" s="3">
         <v>2300</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-56600</v>
+        <v>-85700</v>
       </c>
       <c r="E32" s="3">
-        <v>-25600</v>
+        <v>-120700</v>
       </c>
       <c r="F32" s="3">
-        <v>-31400</v>
+        <v>-87000</v>
       </c>
       <c r="G32" s="3">
-        <v>24300</v>
+        <v>-31100</v>
       </c>
       <c r="H32" s="3">
-        <v>49800</v>
+        <v>24000</v>
       </c>
       <c r="I32" s="3">
-        <v>-16800</v>
+        <v>49300</v>
       </c>
       <c r="J32" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="K32" s="3">
         <v>7500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>16500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3100</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>98800</v>
+        <v>162300</v>
       </c>
       <c r="E33" s="3">
-        <v>-140400</v>
+        <v>210800</v>
       </c>
       <c r="F33" s="3">
-        <v>100400</v>
+        <v>-299400</v>
       </c>
       <c r="G33" s="3">
-        <v>-157300</v>
+        <v>99300</v>
       </c>
       <c r="H33" s="3">
-        <v>42100</v>
+        <v>-155600</v>
       </c>
       <c r="I33" s="3">
+        <v>41700</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>25700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>98800</v>
+        <v>162300</v>
       </c>
       <c r="E35" s="3">
-        <v>-140400</v>
+        <v>210800</v>
       </c>
       <c r="F35" s="3">
-        <v>100400</v>
+        <v>-299400</v>
       </c>
       <c r="G35" s="3">
-        <v>-157300</v>
+        <v>99300</v>
       </c>
       <c r="H35" s="3">
-        <v>42100</v>
+        <v>-155600</v>
       </c>
       <c r="I35" s="3">
+        <v>41700</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>25700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41820</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41455</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41090</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>63600</v>
+        <v>24700</v>
       </c>
       <c r="E41" s="3">
-        <v>9100</v>
+        <v>77900</v>
       </c>
       <c r="F41" s="3">
-        <v>388200</v>
+        <v>9000</v>
       </c>
       <c r="G41" s="3">
-        <v>247200</v>
+        <v>384100</v>
       </c>
       <c r="H41" s="3">
-        <v>166000</v>
+        <v>244600</v>
       </c>
       <c r="I41" s="3">
-        <v>71100</v>
+        <v>164300</v>
       </c>
       <c r="J41" s="3">
+        <v>70300</v>
+      </c>
+      <c r="K41" s="3">
         <v>79300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5900</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>91900</v>
+        <v>97400</v>
       </c>
       <c r="E42" s="3">
-        <v>14800</v>
+        <v>112500</v>
       </c>
       <c r="F42" s="3">
-        <v>98000</v>
+        <v>14700</v>
       </c>
       <c r="G42" s="3">
-        <v>179400</v>
+        <v>97000</v>
       </c>
       <c r="H42" s="3">
-        <v>133300</v>
+        <v>177500</v>
       </c>
       <c r="I42" s="3">
-        <v>40900</v>
+        <v>131900</v>
       </c>
       <c r="J42" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K42" s="3">
         <v>31200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2800</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>54200</v>
+        <v>75300</v>
       </c>
       <c r="E43" s="3">
-        <v>40500</v>
+        <v>66400</v>
       </c>
       <c r="F43" s="3">
-        <v>160900</v>
+        <v>40100</v>
       </c>
       <c r="G43" s="3">
-        <v>93700</v>
+        <v>159200</v>
       </c>
       <c r="H43" s="3">
-        <v>68300</v>
+        <v>92800</v>
       </c>
       <c r="I43" s="3">
-        <v>45500</v>
+        <v>67600</v>
       </c>
       <c r="J43" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K43" s="3">
         <v>37400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9100</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="F44" s="3">
-        <v>20100</v>
+        <v>900</v>
       </c>
       <c r="G44" s="3">
-        <v>4700</v>
+        <v>29800</v>
       </c>
       <c r="H44" s="3">
-        <v>2800</v>
+        <v>6100</v>
       </c>
       <c r="I44" s="3">
-        <v>12200</v>
+        <v>17200</v>
       </c>
       <c r="J44" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K44" s="3">
         <v>9300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>300</v>
       </c>
       <c r="L44" s="3">
         <v>300</v>
       </c>
       <c r="M44" s="3">
+        <v>300</v>
+      </c>
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>1000</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>216600</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>52500</v>
+        <v>204400</v>
       </c>
       <c r="H45" s="3">
-        <v>57000</v>
+        <v>50400</v>
       </c>
       <c r="I45" s="3">
-        <v>17700</v>
+        <v>41900</v>
       </c>
       <c r="J45" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K45" s="3">
         <v>4800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>211300</v>
+        <v>198700</v>
       </c>
       <c r="E46" s="3">
-        <v>65300</v>
+        <v>258800</v>
       </c>
       <c r="F46" s="3">
-        <v>883700</v>
+        <v>64600</v>
       </c>
       <c r="G46" s="3">
-        <v>577500</v>
+        <v>874400</v>
       </c>
       <c r="H46" s="3">
-        <v>427400</v>
+        <v>571400</v>
       </c>
       <c r="I46" s="3">
-        <v>187300</v>
+        <v>422900</v>
       </c>
       <c r="J46" s="3">
+        <v>185300</v>
+      </c>
+      <c r="K46" s="3">
         <v>122300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>25000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>22100</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>106400</v>
+        <v>123000</v>
       </c>
       <c r="E47" s="3">
-        <v>76300</v>
+        <v>130300</v>
       </c>
       <c r="F47" s="3">
-        <v>434100</v>
+        <v>75500</v>
       </c>
       <c r="G47" s="3">
-        <v>190100</v>
+        <v>429600</v>
       </c>
       <c r="H47" s="3">
-        <v>161000</v>
+        <v>188100</v>
       </c>
       <c r="I47" s="3">
-        <v>37500</v>
+        <v>159300</v>
       </c>
       <c r="J47" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K47" s="3">
         <v>61100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>32800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>31200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>27000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>54000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1506900</v>
+        <v>1650200</v>
       </c>
       <c r="E48" s="3">
-        <v>882200</v>
+        <v>1845700</v>
       </c>
       <c r="F48" s="3">
-        <v>1224900</v>
+        <v>873000</v>
       </c>
       <c r="G48" s="3">
-        <v>1045100</v>
+        <v>1212000</v>
       </c>
       <c r="H48" s="3">
-        <v>968200</v>
+        <v>1034200</v>
       </c>
       <c r="I48" s="3">
-        <v>363400</v>
+        <v>958000</v>
       </c>
       <c r="J48" s="3">
+        <v>359600</v>
+      </c>
+      <c r="K48" s="3">
         <v>447900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>171600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>193500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>111100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>76200</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16800</v>
+        <v>22500</v>
       </c>
       <c r="E49" s="3">
-        <v>11300</v>
+        <v>20600</v>
       </c>
       <c r="F49" s="3">
-        <v>119400</v>
+        <v>11100</v>
       </c>
       <c r="G49" s="3">
-        <v>73200</v>
+        <v>118100</v>
       </c>
       <c r="H49" s="3">
-        <v>55200</v>
+        <v>72500</v>
       </c>
       <c r="I49" s="3">
-        <v>35400</v>
+        <v>54600</v>
       </c>
       <c r="J49" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K49" s="3">
         <v>33600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2300</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="E52" s="3">
-        <v>9800</v>
+        <v>19000</v>
       </c>
       <c r="F52" s="3">
-        <v>32200</v>
+        <v>9700</v>
       </c>
       <c r="G52" s="3">
-        <v>54200</v>
+        <v>31900</v>
       </c>
       <c r="H52" s="3">
-        <v>100000</v>
+        <v>53600</v>
       </c>
       <c r="I52" s="3">
-        <v>37700</v>
+        <v>99000</v>
       </c>
       <c r="J52" s="3">
+        <v>37300</v>
+      </c>
+      <c r="K52" s="3">
         <v>27200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6200</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1856900</v>
+        <v>2013900</v>
       </c>
       <c r="E54" s="3">
-        <v>1044800</v>
+        <v>2274400</v>
       </c>
       <c r="F54" s="3">
-        <v>2694300</v>
+        <v>1033900</v>
       </c>
       <c r="G54" s="3">
-        <v>1940100</v>
+        <v>2666000</v>
       </c>
       <c r="H54" s="3">
-        <v>1506800</v>
+        <v>1919800</v>
       </c>
       <c r="I54" s="3">
-        <v>661400</v>
+        <v>1491000</v>
       </c>
       <c r="J54" s="3">
+        <v>654400</v>
+      </c>
+      <c r="K54" s="3">
         <v>549500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>192200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>224400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>151400</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>42500</v>
+        <v>85100</v>
       </c>
       <c r="E57" s="3">
-        <v>23900</v>
+        <v>52000</v>
       </c>
       <c r="F57" s="3">
-        <v>127500</v>
+        <v>23700</v>
       </c>
       <c r="G57" s="3">
-        <v>75900</v>
+        <v>126100</v>
       </c>
       <c r="H57" s="3">
-        <v>65600</v>
+        <v>75100</v>
       </c>
       <c r="I57" s="3">
-        <v>36400</v>
+        <v>64900</v>
       </c>
       <c r="J57" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K57" s="3">
         <v>31700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>307600</v>
+        <v>116000</v>
       </c>
       <c r="E58" s="3">
-        <v>72500</v>
+        <v>376800</v>
       </c>
       <c r="F58" s="3">
-        <v>357400</v>
+        <v>71800</v>
       </c>
       <c r="G58" s="3">
-        <v>316100</v>
+        <v>353700</v>
       </c>
       <c r="H58" s="3">
-        <v>113800</v>
+        <v>312800</v>
       </c>
       <c r="I58" s="3">
-        <v>57000</v>
+        <v>112600</v>
       </c>
       <c r="J58" s="3">
+        <v>56400</v>
+      </c>
+      <c r="K58" s="3">
         <v>63600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>18300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13200</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80400</v>
+        <v>13200</v>
       </c>
       <c r="E59" s="3">
-        <v>7400</v>
+        <v>98500</v>
       </c>
       <c r="F59" s="3">
-        <v>131000</v>
+        <v>7300</v>
       </c>
       <c r="G59" s="3">
-        <v>40400</v>
+        <v>129700</v>
       </c>
       <c r="H59" s="3">
-        <v>29200</v>
+        <v>40000</v>
       </c>
       <c r="I59" s="3">
-        <v>39400</v>
+        <v>28900</v>
       </c>
       <c r="J59" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K59" s="3">
         <v>29400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14300</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>430500</v>
+        <v>214300</v>
       </c>
       <c r="E60" s="3">
-        <v>103800</v>
+        <v>527300</v>
       </c>
       <c r="F60" s="3">
-        <v>615900</v>
+        <v>102700</v>
       </c>
       <c r="G60" s="3">
-        <v>302300</v>
+        <v>609500</v>
       </c>
       <c r="H60" s="3">
-        <v>208600</v>
+        <v>299100</v>
       </c>
       <c r="I60" s="3">
-        <v>132800</v>
+        <v>206400</v>
       </c>
       <c r="J60" s="3">
+        <v>131400</v>
+      </c>
+      <c r="K60" s="3">
         <v>124700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29400</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>70700</v>
+        <v>198000</v>
       </c>
       <c r="E61" s="3">
-        <v>223100</v>
+        <v>86600</v>
       </c>
       <c r="F61" s="3">
-        <v>1336800</v>
+        <v>220800</v>
       </c>
       <c r="G61" s="3">
-        <v>1091500</v>
+        <v>1322800</v>
       </c>
       <c r="H61" s="3">
-        <v>805500</v>
+        <v>1080000</v>
       </c>
       <c r="I61" s="3">
-        <v>313100</v>
+        <v>797100</v>
       </c>
       <c r="J61" s="3">
+        <v>309900</v>
+      </c>
+      <c r="K61" s="3">
         <v>259300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>39700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>47400</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>510200</v>
+        <v>513800</v>
       </c>
       <c r="E62" s="3">
-        <v>329900</v>
+        <v>625000</v>
       </c>
       <c r="F62" s="3">
-        <v>214600</v>
+        <v>326400</v>
       </c>
       <c r="G62" s="3">
-        <v>195500</v>
+        <v>212400</v>
       </c>
       <c r="H62" s="3">
-        <v>150900</v>
+        <v>193500</v>
       </c>
       <c r="I62" s="3">
-        <v>80000</v>
+        <v>149300</v>
       </c>
       <c r="J62" s="3">
+        <v>79200</v>
+      </c>
+      <c r="K62" s="3">
         <v>64400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>48300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>52600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12800</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1065600</v>
+        <v>989300</v>
       </c>
       <c r="E66" s="3">
-        <v>754800</v>
+        <v>1305200</v>
       </c>
       <c r="F66" s="3">
-        <v>2448900</v>
+        <v>746900</v>
       </c>
       <c r="G66" s="3">
-        <v>1809000</v>
+        <v>2423200</v>
       </c>
       <c r="H66" s="3">
-        <v>1331400</v>
+        <v>1790000</v>
       </c>
       <c r="I66" s="3">
-        <v>587400</v>
+        <v>1317400</v>
       </c>
       <c r="J66" s="3">
+        <v>581200</v>
+      </c>
+      <c r="K66" s="3">
         <v>487700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>100200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>123100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>75700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>97800</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>286900</v>
+        <v>406800</v>
       </c>
       <c r="E72" s="3">
-        <v>76400</v>
+        <v>351400</v>
       </c>
       <c r="F72" s="3">
-        <v>121900</v>
+        <v>75600</v>
       </c>
       <c r="G72" s="3">
-        <v>48900</v>
+        <v>120600</v>
       </c>
       <c r="H72" s="3">
-        <v>117900</v>
+        <v>48400</v>
       </c>
       <c r="I72" s="3">
-        <v>69600</v>
+        <v>116700</v>
       </c>
       <c r="J72" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K72" s="3">
         <v>57500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>83700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>95100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>791300</v>
+        <v>1024600</v>
       </c>
       <c r="E76" s="3">
-        <v>290000</v>
+        <v>969200</v>
       </c>
       <c r="F76" s="3">
-        <v>245400</v>
+        <v>286900</v>
       </c>
       <c r="G76" s="3">
-        <v>131100</v>
+        <v>242800</v>
       </c>
       <c r="H76" s="3">
-        <v>175400</v>
+        <v>129700</v>
       </c>
       <c r="I76" s="3">
-        <v>74000</v>
+        <v>173600</v>
       </c>
       <c r="J76" s="3">
+        <v>73200</v>
+      </c>
+      <c r="K76" s="3">
         <v>61900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>91900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>101400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>53600</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41820</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41455</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41090</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>98800</v>
+        <v>162300</v>
       </c>
       <c r="E81" s="3">
-        <v>-140400</v>
+        <v>210800</v>
       </c>
       <c r="F81" s="3">
-        <v>100400</v>
+        <v>-299400</v>
       </c>
       <c r="G81" s="3">
-        <v>-157300</v>
+        <v>99300</v>
       </c>
       <c r="H81" s="3">
-        <v>42100</v>
+        <v>-155600</v>
       </c>
       <c r="I81" s="3">
+        <v>41700</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>25700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="E83" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>19100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N83" s="3">
         <v>3000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="O83" s="3">
         <v>3400</v>
       </c>
-      <c r="G83" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>19300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>4400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>3000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>3400</v>
-      </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>36300</v>
+        <v>99900</v>
       </c>
       <c r="E89" s="3">
-        <v>-674800</v>
+        <v>74900</v>
       </c>
       <c r="F89" s="3">
-        <v>219200</v>
+        <v>-1441600</v>
       </c>
       <c r="G89" s="3">
-        <v>116200</v>
+        <v>216900</v>
       </c>
       <c r="H89" s="3">
-        <v>40900</v>
+        <v>114900</v>
       </c>
       <c r="I89" s="3">
-        <v>25900</v>
+        <v>40400</v>
       </c>
       <c r="J89" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K89" s="3">
         <v>11800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15900</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-18500</v>
+        <v>-19000</v>
       </c>
       <c r="E91" s="3">
-        <v>-6100</v>
+        <v>-39500</v>
       </c>
       <c r="F91" s="3">
-        <v>-27700</v>
+        <v>-13100</v>
       </c>
       <c r="G91" s="3">
-        <v>-19000</v>
+        <v>-27400</v>
       </c>
       <c r="H91" s="3">
-        <v>-26600</v>
+        <v>-18800</v>
       </c>
       <c r="I91" s="3">
-        <v>-11600</v>
+        <v>-26400</v>
       </c>
       <c r="J91" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3800</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>32000</v>
+        <v>74800</v>
       </c>
       <c r="E94" s="3">
-        <v>315900</v>
+        <v>68300</v>
       </c>
       <c r="F94" s="3">
-        <v>321200</v>
+        <v>673900</v>
       </c>
       <c r="G94" s="3">
-        <v>48100</v>
+        <v>317800</v>
       </c>
       <c r="H94" s="3">
-        <v>-61100</v>
+        <v>47600</v>
       </c>
       <c r="I94" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="J94" s="3">
         <v>-5900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>23500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5700</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-91400</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-25900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-7400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-7300</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-6000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-39100</v>
+        <v>-229600</v>
       </c>
       <c r="E100" s="3">
-        <v>-226600</v>
+        <v>-83400</v>
       </c>
       <c r="F100" s="3">
-        <v>-571100</v>
+        <v>-483400</v>
       </c>
       <c r="G100" s="3">
-        <v>-119200</v>
+        <v>-565100</v>
       </c>
       <c r="H100" s="3">
-        <v>-12300</v>
+        <v>-118000</v>
       </c>
       <c r="I100" s="3">
-        <v>4400</v>
+        <v>-12200</v>
       </c>
       <c r="J100" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-11300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11300</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1700</v>
+        <v>1600</v>
       </c>
       <c r="E101" s="3">
-        <v>-42000</v>
+        <v>-1200</v>
       </c>
       <c r="F101" s="3">
-        <v>61500</v>
+        <v>-87300</v>
       </c>
       <c r="G101" s="3">
-        <v>-29100</v>
+        <v>60900</v>
       </c>
       <c r="H101" s="3">
-        <v>57100</v>
+        <v>-28800</v>
       </c>
       <c r="I101" s="3">
-        <v>7500</v>
+        <v>56500</v>
       </c>
       <c r="J101" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K101" s="3">
         <v>14600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27500</v>
+        <v>-53200</v>
       </c>
       <c r="E102" s="3">
-        <v>-627500</v>
+        <v>58600</v>
       </c>
       <c r="F102" s="3">
-        <v>30800</v>
+        <v>-1338500</v>
       </c>
       <c r="G102" s="3">
-        <v>15900</v>
+        <v>30400</v>
       </c>
       <c r="H102" s="3">
-        <v>24600</v>
+        <v>15800</v>
       </c>
       <c r="I102" s="3">
-        <v>31900</v>
+        <v>24300</v>
       </c>
       <c r="J102" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K102" s="3">
         <v>38600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
